--- a/pubmatic_index.xlsx
+++ b/pubmatic_index.xlsx
@@ -422,7 +422,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K52"/>
+  <dimension ref="A1:K56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -662,106 +662,106 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C7" t="n">
-        <v>0.102908277</v>
+        <v>0.134715025906736</v>
       </c>
       <c r="D7" t="n">
-        <v>0.102908277</v>
+        <v>0.134715025906736</v>
       </c>
       <c r="E7" t="n">
-        <v>0.402684564</v>
+        <v>0.378238341968912</v>
       </c>
       <c r="F7" t="n">
         <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>447</v>
+        <v>193</v>
       </c>
       <c r="H7" s="1" t="n">
-        <v>44562</v>
+        <v>44470</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>2022Q1</t>
+          <t>2021Q4</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>0.03744022200000001</v>
+        <v>0.06924697090673601</v>
       </c>
       <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05245034445641024</v>
+        <v>0.156626506024096</v>
       </c>
       <c r="D8" t="n">
-        <v>0.05245034445641024</v>
+        <v>0.156626506024096</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4557123268297297</v>
+        <v>0.385542168674699</v>
       </c>
       <c r="F8" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>207.1</v>
+        <v>83</v>
       </c>
       <c r="H8" s="1" t="n">
-        <v>44652</v>
+        <v>44501</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>2022Q2</t>
+          <t>2021Q4</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>-0.05045793254358977</v>
+        <v>0.02191148011735999</v>
       </c>
       <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C9" t="n">
-        <v>0.020547945</v>
+        <v>0.156626506024096</v>
       </c>
       <c r="D9" t="n">
-        <v>0.020547945</v>
+        <v>0.156626506024096</v>
       </c>
       <c r="E9" t="n">
-        <v>0.379280822</v>
+        <v>0.385542168674699</v>
       </c>
       <c r="F9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>60.5</v>
+        <v>83</v>
       </c>
       <c r="H9" s="1" t="n">
-        <v>44713</v>
+        <v>44531</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2022Q2</t>
+          <t>2021Q4</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>-0.03190239945641024</v>
+        <v>0</v>
       </c>
       <c r="K9" t="inlineStr"/>
     </row>
@@ -770,33 +770,33 @@
         <v>2022</v>
       </c>
       <c r="B10" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0470966175663717</v>
+        <v>0.102908277</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0470966175663717</v>
+        <v>0.102908277</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3997454237699115</v>
+        <v>0.402684564</v>
       </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>93</v>
+        <v>447</v>
       </c>
       <c r="H10" s="1" t="n">
-        <v>44743</v>
+        <v>44562</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>2022Q3</t>
+          <t>2022Q1</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>0.0265486725663717</v>
+        <v>-0.053718229024096</v>
       </c>
       <c r="K10" t="inlineStr"/>
     </row>
@@ -805,33 +805,33 @@
         <v>2022</v>
       </c>
       <c r="B11" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C11" t="n">
-        <v>0.07988712376928084</v>
+        <v>0.06115314916292968</v>
       </c>
       <c r="D11" t="n">
-        <v>0.07988712376928084</v>
+        <v>0.06115314916292968</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4122862098000466</v>
+        <v>0.402184584495928</v>
       </c>
       <c r="F11" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="G11" t="n">
-        <v>461.8571428571428</v>
+        <v>339.1176470588235</v>
       </c>
       <c r="H11" s="1" t="n">
-        <v>44774</v>
+        <v>44652</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>2022Q3</t>
+          <t>2022Q2</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>0.03279050620290914</v>
+        <v>-0.04175512783707033</v>
       </c>
       <c r="K11" t="inlineStr"/>
     </row>
@@ -840,33 +840,33 @@
         <v>2022</v>
       </c>
       <c r="B12" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C12" t="n">
-        <v>0.07035323206278651</v>
+        <v>0.0584518167456556</v>
       </c>
       <c r="D12" t="n">
-        <v>0.07035323206278651</v>
+        <v>0.0584518167456556</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3596408400972199</v>
+        <v>0.276461295418641</v>
       </c>
       <c r="F12" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>540</v>
+        <v>633</v>
       </c>
       <c r="H12" s="1" t="n">
-        <v>44805</v>
+        <v>44682</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>2022Q3</t>
+          <t>2022Q2</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>-0.009533891706494324</v>
+        <v>-0.002701332417274077</v>
       </c>
       <c r="K12" t="inlineStr"/>
     </row>
@@ -875,33 +875,33 @@
         <v>2022</v>
       </c>
       <c r="B13" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>0.08727606374168144</v>
+        <v>0.020547945</v>
       </c>
       <c r="D13" t="n">
-        <v>0.08727606374168144</v>
+        <v>0.020547945</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3669045534268556</v>
+        <v>0.379280822</v>
       </c>
       <c r="F13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G13" t="n">
-        <v>892</v>
+        <v>60.5</v>
       </c>
       <c r="H13" s="1" t="n">
-        <v>44835</v>
+        <v>44713</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>2022Q4</t>
+          <t>2022Q2</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>0.01692283167889493</v>
+        <v>-0.0379038717456556</v>
       </c>
       <c r="K13" t="inlineStr"/>
     </row>
@@ -910,36 +910,36 @@
         <v>2022</v>
       </c>
       <c r="B14" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0687139288466415</v>
+        <v>0.0470966175663717</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0687139288466415</v>
+        <v>0.0470966175663717</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3592433051993675</v>
+        <v>0.3997454237699115</v>
       </c>
       <c r="F14" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G14" t="n">
-        <v>561.5</v>
+        <v>93</v>
       </c>
       <c r="H14" s="1" t="n">
-        <v>44866</v>
+        <v>44743</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>2022Q4</t>
+          <t>2022Q3</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>-0.01856213489503994</v>
+        <v>0.0265486725663717</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.03939417915335849</v>
+        <v>-0.06101149043362829</v>
       </c>
     </row>
     <row r="15">
@@ -947,184 +947,184 @@
         <v>2022</v>
       </c>
       <c r="B15" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C15" t="n">
-        <v>0.06659707173033658</v>
+        <v>0.07995899806538682</v>
       </c>
       <c r="D15" t="n">
-        <v>0.06659707173033658</v>
+        <v>0.07995899806538682</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3620282294071432</v>
+        <v>0.3593938370163646</v>
       </c>
       <c r="F15" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="G15" t="n">
-        <v>378.8</v>
+        <v>700.7058823529412</v>
       </c>
       <c r="H15" s="1" t="n">
-        <v>44896</v>
+        <v>44774</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>2022Q4</t>
+          <t>2022Q3</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>-0.002116857116304924</v>
+        <v>0.03286238049901512</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.07329930126966341</v>
+        <v>-0.05993737493461317</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C16" t="n">
-        <v>0.08057809566666667</v>
+        <v>0.0762558839007166</v>
       </c>
       <c r="D16" t="n">
-        <v>0.08057809566666667</v>
+        <v>0.0762558839007166</v>
       </c>
       <c r="E16" t="n">
-        <v>0.353092421</v>
+        <v>0.3348796395892105</v>
       </c>
       <c r="F16" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="G16" t="n">
-        <v>516</v>
+        <v>761.4444444444445</v>
       </c>
       <c r="H16" s="1" t="n">
-        <v>44927</v>
+        <v>44805</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>2023Q1</t>
+          <t>2022Q3</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>0.01398102393633009</v>
+        <v>-0.003703114164670229</v>
       </c>
       <c r="K16" t="n">
-        <v>0.007048683666666666</v>
+        <v>0.002726471900716593</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B17" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C17" t="n">
-        <v>0.07823129299999999</v>
+        <v>0.08421809255851329</v>
       </c>
       <c r="D17" t="n">
-        <v>0.07823129299999999</v>
+        <v>0.08421809255851329</v>
       </c>
       <c r="E17" t="n">
-        <v>0.360544218</v>
+        <v>0.3621026565993105</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G17" t="n">
-        <v>294</v>
+        <v>640.2857142857143</v>
       </c>
       <c r="H17" s="1" t="n">
-        <v>44958</v>
+        <v>44835</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>2023Q1</t>
+          <t>2022Q4</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>-0.002346802666666675</v>
+        <v>0.007962208657796691</v>
       </c>
       <c r="K17" t="n">
-        <v>0.02259866249999999</v>
+        <v>0.02858546205851328</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B18" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C18" t="n">
-        <v>0.07039736046370151</v>
+        <v>0.07387998754708323</v>
       </c>
       <c r="D18" t="n">
-        <v>0.07039736046370151</v>
+        <v>0.07387998754708323</v>
       </c>
       <c r="E18" t="n">
-        <v>0.3651024112610832</v>
+        <v>0.3317812766022875</v>
       </c>
       <c r="F18" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="G18" t="n">
-        <v>418.3333333333333</v>
+        <v>625.4</v>
       </c>
       <c r="H18" s="1" t="n">
-        <v>44986</v>
+        <v>44866</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>2023Q1</t>
+          <t>2022Q4</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>-0.00783393253629848</v>
+        <v>-0.01033810501143005</v>
       </c>
       <c r="K18" t="n">
-        <v>0.004929305463701517</v>
+        <v>0.008411932547083237</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B19" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C19" t="n">
-        <v>0.07682672383169446</v>
+        <v>0.08036078477445421</v>
       </c>
       <c r="D19" t="n">
-        <v>0.07682672383169446</v>
+        <v>0.08036078477445421</v>
       </c>
       <c r="E19" t="n">
-        <v>0.3864130470056849</v>
+        <v>0.3263807883660689</v>
       </c>
       <c r="F19" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G19" t="n">
-        <v>345.75</v>
+        <v>685.4375</v>
       </c>
       <c r="H19" s="1" t="n">
-        <v>45017</v>
+        <v>44896</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>2023Q2</t>
+          <t>2022Q4</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>0.006429363367992949</v>
+        <v>0.00648079722737098</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.02608155316830554</v>
+        <v>-0.05435424113228179</v>
       </c>
     </row>
     <row r="20">
@@ -1132,36 +1132,36 @@
         <v>2023</v>
       </c>
       <c r="B20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>0.07625204925988029</v>
+        <v>0.132110570782429</v>
       </c>
       <c r="D20" t="n">
-        <v>0.07625204925988029</v>
+        <v>0.132110570782429</v>
       </c>
       <c r="E20" t="n">
-        <v>0.4057319816784011</v>
+        <v>0.2888230114467041</v>
       </c>
       <c r="F20" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="G20" t="n">
-        <v>396.1428571428572</v>
+        <v>777.8461538461538</v>
       </c>
       <c r="H20" s="1" t="n">
-        <v>45047</v>
+        <v>44927</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>2023Q2</t>
+          <t>2023Q1</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>-0.0005746745718141766</v>
+        <v>0.05174978600797478</v>
       </c>
       <c r="K20" t="n">
-        <v>0.02380170480347005</v>
+        <v>-0.02451593524166701</v>
       </c>
     </row>
     <row r="21">
@@ -1169,36 +1169,36 @@
         <v>2023</v>
       </c>
       <c r="B21" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C21" t="n">
-        <v>0.07219797349352616</v>
+        <v>0.07823129299999999</v>
       </c>
       <c r="D21" t="n">
-        <v>0.07219797349352616</v>
+        <v>0.07823129299999999</v>
       </c>
       <c r="E21" t="n">
-        <v>0.4584789596545262</v>
+        <v>0.360544218</v>
       </c>
       <c r="F21" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>269.7272727272727</v>
+        <v>294</v>
       </c>
       <c r="H21" s="1" t="n">
-        <v>45078</v>
+        <v>44958</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>2023Q2</t>
+          <t>2023Q1</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>-0.004054075766354123</v>
+        <v>-0.053879277782429</v>
       </c>
       <c r="K21" t="n">
-        <v>0.05165002849352616</v>
+        <v>-0.07839521302409601</v>
       </c>
     </row>
     <row r="22">
@@ -1206,36 +1206,36 @@
         <v>2023</v>
       </c>
       <c r="B22" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C22" t="n">
-        <v>0.06675012663042028</v>
+        <v>0.07761294533537387</v>
       </c>
       <c r="D22" t="n">
-        <v>0.06675012663042028</v>
+        <v>0.07761294533537387</v>
       </c>
       <c r="E22" t="n">
-        <v>0.4279097796950805</v>
+        <v>0.3297230863038573</v>
       </c>
       <c r="F22" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G22" t="n">
-        <v>250.25</v>
+        <v>650.3888888888889</v>
       </c>
       <c r="H22" s="1" t="n">
-        <v>45108</v>
+        <v>44986</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>2023Q3</t>
+          <t>2023Q1</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>-0.005447846863105885</v>
+        <v>-0.0006183476646261232</v>
       </c>
       <c r="K22" t="n">
-        <v>0.01965350906404858</v>
+        <v>-0.02529533166462614</v>
       </c>
     </row>
     <row r="23">
@@ -1243,36 +1243,36 @@
         <v>2023</v>
       </c>
       <c r="B23" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C23" t="n">
-        <v>0.07183573144749594</v>
+        <v>0.08151933949741133</v>
       </c>
       <c r="D23" t="n">
-        <v>0.07183573144749594</v>
+        <v>0.08151933949741133</v>
       </c>
       <c r="E23" t="n">
-        <v>0.4437442674674181</v>
+        <v>0.338725239614215</v>
       </c>
       <c r="F23" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G23" t="n">
-        <v>402.5454545454546</v>
+        <v>634.4545454545455</v>
       </c>
       <c r="H23" s="1" t="n">
-        <v>45139</v>
+        <v>45017</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>2023Q3</t>
+          <t>2023Q2</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>0.005085604817075665</v>
+        <v>0.00390639416203746</v>
       </c>
       <c r="K23" t="n">
-        <v>-0.008051392321784895</v>
+        <v>0.02036619033448165</v>
       </c>
     </row>
     <row r="24">
@@ -1280,36 +1280,36 @@
         <v>2023</v>
       </c>
       <c r="B24" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C24" t="n">
-        <v>0.07060503194767589</v>
+        <v>0.08365718814461241</v>
       </c>
       <c r="D24" t="n">
-        <v>0.07060503194767589</v>
+        <v>0.08365718814461241</v>
       </c>
       <c r="E24" t="n">
-        <v>0.302664647177984</v>
+        <v>0.346354016048446</v>
       </c>
       <c r="F24" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="G24" t="n">
-        <v>555.625</v>
+        <v>641.3636363636364</v>
       </c>
       <c r="H24" s="1" t="n">
-        <v>45170</v>
+        <v>45047</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>2023Q3</t>
+          <t>2023Q2</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>-0.001230699499820048</v>
+        <v>0.002137848647201082</v>
       </c>
       <c r="K24" t="n">
-        <v>0.000251799884889381</v>
+        <v>0.02520537139895681</v>
       </c>
     </row>
     <row r="25">
@@ -1317,36 +1317,36 @@
         <v>2023</v>
       </c>
       <c r="B25" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C25" t="n">
-        <v>0.06389641070950873</v>
+        <v>0.08074110886448833</v>
       </c>
       <c r="D25" t="n">
-        <v>0.06389641070950873</v>
+        <v>0.08074110886448833</v>
       </c>
       <c r="E25" t="n">
-        <v>0.3707969051857825</v>
+        <v>0.3779589704707321</v>
       </c>
       <c r="F25" t="n">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="G25" t="n">
-        <v>486.1</v>
+        <v>519</v>
       </c>
       <c r="H25" s="1" t="n">
-        <v>45200</v>
+        <v>45078</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>2023Q4</t>
+          <t>2023Q2</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>-0.006708621238167164</v>
+        <v>-0.002916079280124079</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.02337965303217271</v>
+        <v>0.06019316386448834</v>
       </c>
     </row>
     <row r="26">
@@ -1354,36 +1354,36 @@
         <v>2023</v>
       </c>
       <c r="B26" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C26" t="n">
-        <v>0.07311910655161039</v>
+        <v>0.07700216450685342</v>
       </c>
       <c r="D26" t="n">
-        <v>0.07311910655161039</v>
+        <v>0.07700216450685342</v>
       </c>
       <c r="E26" t="n">
-        <v>0.3735520922735354</v>
+        <v>0.3613776666696887</v>
       </c>
       <c r="F26" t="n">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="G26" t="n">
-        <v>369.5555555555555</v>
+        <v>448.037037037037</v>
       </c>
       <c r="H26" s="1" t="n">
-        <v>45231</v>
+        <v>45108</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>2023Q4</t>
+          <t>2023Q3</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>0.009222695842101655</v>
+        <v>-0.003738944357634916</v>
       </c>
       <c r="K26" t="n">
-        <v>0.004405177704968885</v>
+        <v>0.02990554694048172</v>
       </c>
     </row>
     <row r="27">
@@ -1391,184 +1391,184 @@
         <v>2023</v>
       </c>
       <c r="B27" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C27" t="n">
-        <v>0.07359208919746305</v>
+        <v>0.07654631969066918</v>
       </c>
       <c r="D27" t="n">
-        <v>0.07359208919746305</v>
+        <v>0.07654631969066918</v>
       </c>
       <c r="E27" t="n">
-        <v>0.3759407294167023</v>
+        <v>0.355442840621135</v>
       </c>
       <c r="F27" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="G27" t="n">
-        <v>475.8181818181818</v>
+        <v>435.24</v>
       </c>
       <c r="H27" s="1" t="n">
-        <v>45261</v>
+        <v>45139</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>2023Q4</t>
+          <t>2023Q3</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>0.0004729826458526598</v>
+        <v>-0.0004558448161842421</v>
       </c>
       <c r="K27" t="n">
-        <v>0.006995017467126469</v>
+        <v>-0.003412678374717648</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0665096845106137</v>
+        <v>0.07697086547343901</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0665096845106137</v>
+        <v>0.07697086547343901</v>
       </c>
       <c r="E28" t="n">
-        <v>0.3751326275666287</v>
+        <v>0.2957482495272344</v>
       </c>
       <c r="F28" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G28" t="n">
-        <v>769.6</v>
+        <v>492.5714285714286</v>
       </c>
       <c r="H28" s="1" t="n">
-        <v>45292</v>
+        <v>45170</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>2024Q1</t>
+          <t>2023Q3</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>-0.007082404686849342</v>
+        <v>0.0004245457827698335</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.01406841115605297</v>
+        <v>0.0007149815727224146</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B29" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C29" t="n">
-        <v>0.05604644274240604</v>
+        <v>0.0741986659910874</v>
       </c>
       <c r="D29" t="n">
-        <v>0.05604644274240604</v>
+        <v>0.0741986659910874</v>
       </c>
       <c r="E29" t="n">
-        <v>0.3387221801775483</v>
+        <v>0.3338998292189422</v>
       </c>
       <c r="F29" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G29" t="n">
-        <v>765.8</v>
+        <v>441</v>
       </c>
       <c r="H29" s="1" t="n">
-        <v>45323</v>
+        <v>45200</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>2024Q1</t>
+          <t>2023Q4</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>-0.01046324176820766</v>
+        <v>-0.002772199482351606</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.02218485025759395</v>
+        <v>-0.01001942656742588</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B30" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C30" t="n">
-        <v>0.07107036789070999</v>
+        <v>0.08439368902807952</v>
       </c>
       <c r="D30" t="n">
-        <v>0.07107036789070999</v>
+        <v>0.08439368902807952</v>
       </c>
       <c r="E30" t="n">
-        <v>0.3813148871841609</v>
+        <v>0.3394506899966835</v>
       </c>
       <c r="F30" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="G30" t="n">
-        <v>875.4444444444445</v>
+        <v>399.5454545454546</v>
       </c>
       <c r="H30" s="1" t="n">
-        <v>45352</v>
+        <v>45231</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>2024Q1</t>
+          <t>2023Q4</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>0.01502392514830395</v>
+        <v>0.01019502303699212</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0006730074270084735</v>
+        <v>0.01051370148099628</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B31" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C31" t="n">
-        <v>0.05091517458680753</v>
+        <v>0.08376928068077967</v>
       </c>
       <c r="D31" t="n">
-        <v>0.05091517458680753</v>
+        <v>0.08376928068077967</v>
       </c>
       <c r="E31" t="n">
-        <v>0.3302980997633484</v>
+        <v>0.3422784186160625</v>
       </c>
       <c r="F31" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="G31" t="n">
-        <v>690.25</v>
+        <v>457.28</v>
       </c>
       <c r="H31" s="1" t="n">
-        <v>45383</v>
+        <v>45261</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>2024Q2</t>
+          <t>2023Q4</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>-0.02015519330390245</v>
+        <v>-0.0006244083472998485</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.02591154924488693</v>
+        <v>0.003408495906325457</v>
       </c>
     </row>
     <row r="32">
@@ -1576,36 +1576,36 @@
         <v>2024</v>
       </c>
       <c r="B32" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>0.05550186276369835</v>
+        <v>0.07935464281427572</v>
       </c>
       <c r="D32" t="n">
-        <v>0.05550186276369835</v>
+        <v>0.07935464281427572</v>
       </c>
       <c r="E32" t="n">
-        <v>0.3043374782231909</v>
+        <v>0.3412712916861851</v>
       </c>
       <c r="F32" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G32" t="n">
-        <v>763.1</v>
+        <v>599</v>
       </c>
       <c r="H32" s="1" t="n">
-        <v>45413</v>
+        <v>45292</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>2024Q2</t>
+          <t>2024Q1</t>
         </is>
       </c>
       <c r="J32" t="n">
-        <v>0.00458668817689082</v>
+        <v>-0.004414637866503951</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.02075018649618193</v>
+        <v>-0.05275592796815327</v>
       </c>
     </row>
     <row r="33">
@@ -1613,36 +1613,36 @@
         <v>2024</v>
       </c>
       <c r="B33" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>0.06358618006641302</v>
+        <v>0.0731126344519285</v>
       </c>
       <c r="D33" t="n">
-        <v>0.06358618006641302</v>
+        <v>0.0731126344519285</v>
       </c>
       <c r="E33" t="n">
-        <v>0.2860427925353226</v>
+        <v>0.3254929654825749</v>
       </c>
       <c r="F33" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G33" t="n">
-        <v>729.4545454545455</v>
+        <v>574.3</v>
       </c>
       <c r="H33" s="1" t="n">
-        <v>45444</v>
+        <v>45323</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>2024Q2</t>
+          <t>2024Q1</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>0.008084317302714666</v>
+        <v>-0.006242008362347215</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.008611793427113143</v>
+        <v>-0.005118658548071489</v>
       </c>
     </row>
     <row r="34">
@@ -1650,36 +1650,36 @@
         <v>2024</v>
       </c>
       <c r="B34" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>0.055538083141403</v>
+        <v>0.08042083123656765</v>
       </c>
       <c r="D34" t="n">
-        <v>0.055538083141403</v>
+        <v>0.08042083123656765</v>
       </c>
       <c r="E34" t="n">
-        <v>0.3087887674575009</v>
+        <v>0.3419364950980895</v>
       </c>
       <c r="F34" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G34" t="n">
-        <v>805</v>
+        <v>594.7</v>
       </c>
       <c r="H34" s="1" t="n">
-        <v>45474</v>
+        <v>45352</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>2024Q3</t>
+          <t>2024Q1</t>
         </is>
       </c>
       <c r="J34" t="n">
-        <v>-0.008048096925010025</v>
+        <v>0.007308196784639148</v>
       </c>
       <c r="K34" t="n">
-        <v>-0.01121204348901728</v>
+        <v>0.002807885901193782</v>
       </c>
     </row>
     <row r="35">
@@ -1687,36 +1687,36 @@
         <v>2024</v>
       </c>
       <c r="B35" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>0.05021751052833504</v>
+        <v>0.07412073821478439</v>
       </c>
       <c r="D35" t="n">
-        <v>0.05021751052833504</v>
+        <v>0.07412073821478439</v>
       </c>
       <c r="E35" t="n">
-        <v>0.3086916236598374</v>
+        <v>0.3224012911435279</v>
       </c>
       <c r="F35" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G35" t="n">
-        <v>870.4444444444445</v>
+        <v>585.4736842105264</v>
       </c>
       <c r="H35" s="1" t="n">
-        <v>45505</v>
+        <v>45383</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>2024Q3</t>
+          <t>2024Q2</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>-0.005320572613067953</v>
+        <v>-0.006300093021783262</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.0216182209191609</v>
+        <v>-0.00739860128262694</v>
       </c>
     </row>
     <row r="36">
@@ -1724,36 +1724,36 @@
         <v>2024</v>
       </c>
       <c r="B36" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>0.05273557688307015</v>
+        <v>0.07460140398837141</v>
       </c>
       <c r="D36" t="n">
-        <v>0.05273557688307015</v>
+        <v>0.07460140398837141</v>
       </c>
       <c r="E36" t="n">
-        <v>0.3074950300986439</v>
+        <v>0.3088136933737958</v>
       </c>
       <c r="F36" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="G36" t="n">
-        <v>970.25</v>
+        <v>590.875</v>
       </c>
       <c r="H36" s="1" t="n">
-        <v>45536</v>
+        <v>45413</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>2024Q3</t>
+          <t>2024Q2</t>
         </is>
       </c>
       <c r="J36" t="n">
-        <v>0.002518066354735109</v>
+        <v>0.000480665773587019</v>
       </c>
       <c r="K36" t="n">
-        <v>-0.01786945506460574</v>
+        <v>-0.009055784156241004</v>
       </c>
     </row>
     <row r="37">
@@ -1761,36 +1761,36 @@
         <v>2024</v>
       </c>
       <c r="B37" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C37" t="n">
-        <v>0.06875583180645613</v>
+        <v>0.0799744657410731</v>
       </c>
       <c r="D37" t="n">
-        <v>0.06875583180645613</v>
+        <v>0.0799744657410731</v>
       </c>
       <c r="E37" t="n">
-        <v>0.3563641761789151</v>
+        <v>0.3067783518602022</v>
       </c>
       <c r="F37" t="n">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="G37" t="n">
-        <v>838.3</v>
+        <v>571.0384615384615</v>
       </c>
       <c r="H37" s="1" t="n">
-        <v>45566</v>
+        <v>45444</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>2024Q4</t>
+          <t>2024Q2</t>
         </is>
       </c>
       <c r="J37" t="n">
-        <v>0.01602025492338598</v>
+        <v>0.005373061752701691</v>
       </c>
       <c r="K37" t="n">
-        <v>0.004859421096947397</v>
+        <v>-0.0007666431234152338</v>
       </c>
     </row>
     <row r="38">
@@ -1798,36 +1798,36 @@
         <v>2024</v>
       </c>
       <c r="B38" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C38" t="n">
-        <v>0.06148342403972987</v>
+        <v>0.07468147880389217</v>
       </c>
       <c r="D38" t="n">
-        <v>0.06148342403972987</v>
+        <v>0.07468147880389217</v>
       </c>
       <c r="E38" t="n">
-        <v>0.2959326748104661</v>
+        <v>0.3132691899922995</v>
       </c>
       <c r="F38" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G38" t="n">
-        <v>851.1</v>
+        <v>549.4545454545455</v>
       </c>
       <c r="H38" s="1" t="n">
-        <v>45597</v>
+        <v>45474</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>2024Q4</t>
+          <t>2024Q3</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>-0.007272407766726253</v>
+        <v>-0.00529298693718093</v>
       </c>
       <c r="K38" t="n">
-        <v>-0.01163568251188051</v>
+        <v>-0.002320685702961248</v>
       </c>
     </row>
     <row r="39">
@@ -1835,184 +1835,184 @@
         <v>2024</v>
       </c>
       <c r="B39" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C39" t="n">
-        <v>0.09690967931705172</v>
+        <v>0.07341511543568023</v>
       </c>
       <c r="D39" t="n">
-        <v>0.09690967931705172</v>
+        <v>0.07341511543568023</v>
       </c>
       <c r="E39" t="n">
-        <v>0.3007835840746974</v>
+        <v>0.3132253183698824</v>
       </c>
       <c r="F39" t="n">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="G39" t="n">
-        <v>423</v>
+        <v>569.7307692307693</v>
       </c>
       <c r="H39" s="1" t="n">
-        <v>45627</v>
+        <v>45505</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>2024Q4</t>
+          <t>2024Q3</t>
         </is>
       </c>
       <c r="J39" t="n">
-        <v>0.03542625527732184</v>
+        <v>-0.00126636336821194</v>
       </c>
       <c r="K39" t="n">
-        <v>0.02331759011958867</v>
+        <v>-0.003131204254988945</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B40" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C40" t="n">
-        <v>0.07854801216621571</v>
+        <v>0.07329127153473441</v>
       </c>
       <c r="D40" t="n">
-        <v>0.07854801216621571</v>
+        <v>0.07329127153473441</v>
       </c>
       <c r="E40" t="n">
-        <v>0.3673461489161228</v>
+        <v>0.3122279829053629</v>
       </c>
       <c r="F40" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="G40" t="n">
-        <v>663.8333333333334</v>
+        <v>620.7727272727273</v>
       </c>
       <c r="H40" s="1" t="n">
-        <v>45658</v>
+        <v>45536</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>2025Q1</t>
+          <t>2024Q3</t>
         </is>
       </c>
       <c r="J40" t="n">
-        <v>-0.01836166715083601</v>
+        <v>-0.0001238439009458164</v>
       </c>
       <c r="K40" t="n">
-        <v>0.012038327655602</v>
+        <v>-0.003679593938704595</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B41" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C41" t="n">
-        <v>0.08165882163832865</v>
+        <v>0.07798028012856094</v>
       </c>
       <c r="D41" t="n">
-        <v>0.08165882163832865</v>
+        <v>0.07798028012856094</v>
       </c>
       <c r="E41" t="n">
-        <v>0.2913462320801151</v>
+        <v>0.3330682289289693</v>
       </c>
       <c r="F41" t="n">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="G41" t="n">
-        <v>534</v>
+        <v>590.0833333333334</v>
       </c>
       <c r="H41" s="1" t="n">
-        <v>45689</v>
+        <v>45566</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>2025Q1</t>
+          <t>2024Q4</t>
         </is>
       </c>
       <c r="J41" t="n">
-        <v>0.003110809472112938</v>
+        <v>0.004689008593826524</v>
       </c>
       <c r="K41" t="n">
-        <v>0.02561237889592261</v>
+        <v>0.003781614137473535</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B42" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C42" t="n">
-        <v>0.06241976928607459</v>
+        <v>0.07828315053306369</v>
       </c>
       <c r="D42" t="n">
-        <v>0.06241976928607459</v>
+        <v>0.07828315053306369</v>
       </c>
       <c r="E42" t="n">
-        <v>0.289384847143938</v>
+        <v>0.3115153163974373</v>
       </c>
       <c r="F42" t="n">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="G42" t="n">
-        <v>653.5714285714286</v>
+        <v>561.52</v>
       </c>
       <c r="H42" s="1" t="n">
-        <v>45717</v>
+        <v>45597</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>2025Q1</t>
+          <t>2024Q4</t>
         </is>
       </c>
       <c r="J42" t="n">
-        <v>-0.01923905235225406</v>
+        <v>0.0003028704045027475</v>
       </c>
       <c r="K42" t="n">
-        <v>-0.0086505986046354</v>
+        <v>-0.006110538495015833</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B43" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0827004367871674</v>
+        <v>0.09219142460858837</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0827004367871674</v>
+        <v>0.09219142460858837</v>
       </c>
       <c r="E43" t="n">
-        <v>0.302785413853876</v>
+        <v>0.3072771719618406</v>
       </c>
       <c r="F43" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="G43" t="n">
-        <v>879.1818181818181</v>
+        <v>634.0833333333334</v>
       </c>
       <c r="H43" s="1" t="n">
-        <v>45748</v>
+        <v>45627</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>2025Q2</t>
+          <t>2024Q4</t>
         </is>
       </c>
       <c r="J43" t="n">
-        <v>0.02028066750109282</v>
+        <v>0.01390827407552468</v>
       </c>
       <c r="K43" t="n">
-        <v>0.03178526220035987</v>
+        <v>0.008422143927808698</v>
       </c>
     </row>
     <row r="44">
@@ -2020,36 +2020,36 @@
         <v>2025</v>
       </c>
       <c r="B44" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C44" t="n">
-        <v>0.1121874371366159</v>
+        <v>0.08498028867126266</v>
       </c>
       <c r="D44" t="n">
-        <v>0.1121874371366159</v>
+        <v>0.08498028867126266</v>
       </c>
       <c r="E44" t="n">
-        <v>0.2863648712189384</v>
+        <v>0.3294544550418659</v>
       </c>
       <c r="F44" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G44" t="n">
-        <v>480.3</v>
+        <v>543.1904761904761</v>
       </c>
       <c r="H44" s="1" t="n">
-        <v>45778</v>
+        <v>45658</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>2025Q2</t>
+          <t>2025Q1</t>
         </is>
       </c>
       <c r="J44" t="n">
-        <v>0.02948700034944846</v>
+        <v>-0.007211135937325711</v>
       </c>
       <c r="K44" t="n">
-        <v>0.0566855743729175</v>
+        <v>0.005625645856986938</v>
       </c>
     </row>
     <row r="45">
@@ -2057,36 +2057,36 @@
         <v>2025</v>
       </c>
       <c r="B45" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C45" t="n">
-        <v>0.1081783241268334</v>
+        <v>0.08605148690295364</v>
       </c>
       <c r="D45" t="n">
-        <v>0.1081783241268334</v>
+        <v>0.08605148690295364</v>
       </c>
       <c r="E45" t="n">
-        <v>0.2872565137894853</v>
+        <v>0.3070835508603415</v>
       </c>
       <c r="F45" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="G45" t="n">
-        <v>891</v>
+        <v>671.24</v>
       </c>
       <c r="H45" s="1" t="n">
-        <v>45809</v>
+        <v>45689</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>2025Q2</t>
+          <t>2025Q1</t>
         </is>
       </c>
       <c r="J45" t="n">
-        <v>-0.00400911300978242</v>
+        <v>0.001071198231690981</v>
       </c>
       <c r="K45" t="n">
-        <v>0.04459214406042042</v>
+        <v>0.01293885245102513</v>
       </c>
     </row>
     <row r="46">
@@ -2094,36 +2094,36 @@
         <v>2025</v>
       </c>
       <c r="B46" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C46" t="n">
-        <v>0.1088984983758047</v>
+        <v>0.0789438449729465</v>
       </c>
       <c r="D46" t="n">
-        <v>0.1088984983758047</v>
+        <v>0.0789438449729465</v>
       </c>
       <c r="E46" t="n">
-        <v>0.2828675507151501</v>
+        <v>0.3075505558031514</v>
       </c>
       <c r="F46" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G46" t="n">
-        <v>917.6363636363636</v>
+        <v>740.6818181818181</v>
       </c>
       <c r="H46" s="1" t="n">
-        <v>45839</v>
+        <v>45717</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>2025Q3</t>
+          <t>2025Q1</t>
         </is>
       </c>
       <c r="J46" t="n">
-        <v>0.0007201742489712226</v>
+        <v>-0.007107641930007139</v>
       </c>
       <c r="K46" t="n">
-        <v>0.05336041523440167</v>
+        <v>-0.001476986263621152</v>
       </c>
     </row>
     <row r="47">
@@ -2131,36 +2131,36 @@
         <v>2025</v>
       </c>
       <c r="B47" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C47" t="n">
-        <v>0.1172780035601536</v>
+        <v>0.08351900097420439</v>
       </c>
       <c r="D47" t="n">
-        <v>0.1172780035601536</v>
+        <v>0.08351900097420439</v>
       </c>
       <c r="E47" t="n">
-        <v>0.3226556839522257</v>
+        <v>0.3187710595508288</v>
       </c>
       <c r="F47" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="G47" t="n">
-        <v>876.5833333333334</v>
+        <v>678.5416666666666</v>
       </c>
       <c r="H47" s="1" t="n">
-        <v>45870</v>
+        <v>45748</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>2025Q3</t>
+          <t>2025Q2</t>
         </is>
       </c>
       <c r="J47" t="n">
-        <v>0.008379505184348962</v>
+        <v>0.004575156001257893</v>
       </c>
       <c r="K47" t="n">
-        <v>0.06706049303181857</v>
+        <v>0.009398262759420004</v>
       </c>
     </row>
     <row r="48">
@@ -2168,36 +2168,36 @@
         <v>2025</v>
       </c>
       <c r="B48" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C48" t="n">
-        <v>0.09427976888361442</v>
+        <v>0.09732826253954802</v>
       </c>
       <c r="D48" t="n">
-        <v>0.09427976888361442</v>
+        <v>0.09732826253954802</v>
       </c>
       <c r="E48" t="n">
-        <v>0.2875771686185368</v>
+        <v>0.3193405259477504</v>
       </c>
       <c r="F48" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="G48" t="n">
-        <v>1204.125</v>
+        <v>621.5599999999999</v>
       </c>
       <c r="H48" s="1" t="n">
-        <v>45901</v>
+        <v>45778</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>2025Q3</t>
+          <t>2025Q2</t>
         </is>
       </c>
       <c r="J48" t="n">
-        <v>-0.02299823467653921</v>
+        <v>0.01380926156534362</v>
       </c>
       <c r="K48" t="n">
-        <v>0.04154419200054427</v>
+        <v>0.02272685855117661</v>
       </c>
     </row>
     <row r="49">
@@ -2205,36 +2205,36 @@
         <v>2025</v>
       </c>
       <c r="B49" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0897796561565964</v>
+        <v>0.09666015079994367</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0897796561565964</v>
+        <v>0.09666015079994367</v>
       </c>
       <c r="E49" t="n">
-        <v>0.3184096456825783</v>
+        <v>0.3124768802209925</v>
       </c>
       <c r="F49" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="G49" t="n">
-        <v>1367.285714285714</v>
+        <v>641.3333333333334</v>
       </c>
       <c r="H49" s="1" t="n">
-        <v>45931</v>
+        <v>45809</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>2025Q4</t>
+          <t>2025Q2</t>
         </is>
       </c>
       <c r="J49" t="n">
-        <v>-0.004500112727018016</v>
+        <v>-0.000668111739604349</v>
       </c>
       <c r="K49" t="n">
-        <v>0.02102382435014027</v>
+        <v>0.01668568505887057</v>
       </c>
     </row>
     <row r="50">
@@ -2242,36 +2242,36 @@
         <v>2025</v>
       </c>
       <c r="B50" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C50" t="n">
-        <v>0.1036725693284417</v>
+        <v>0.09885859446931704</v>
       </c>
       <c r="D50" t="n">
-        <v>0.1036725693284417</v>
+        <v>0.09885859446931704</v>
       </c>
       <c r="E50" t="n">
-        <v>0.362546324070827</v>
+        <v>0.3113427885628509</v>
       </c>
       <c r="F50" t="n">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="G50" t="n">
-        <v>1478</v>
+        <v>669.8</v>
       </c>
       <c r="H50" s="1" t="n">
-        <v>45962</v>
+        <v>45839</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>2025Q4</t>
+          <t>2025Q3</t>
         </is>
       </c>
       <c r="J50" t="n">
-        <v>0.01389291317184527</v>
+        <v>0.002198443669373371</v>
       </c>
       <c r="K50" t="n">
-        <v>0.04218914528871179</v>
+        <v>0.02417711566542487</v>
       </c>
     </row>
     <row r="51">
@@ -2279,73 +2279,221 @@
         <v>2025</v>
       </c>
       <c r="B51" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C51" t="n">
-        <v>0.07277072629479484</v>
+        <v>0.1034019821826282</v>
       </c>
       <c r="D51" t="n">
-        <v>0.07277072629479484</v>
+        <v>0.1034019821826282</v>
       </c>
       <c r="E51" t="n">
-        <v>0.2836034740632345</v>
+        <v>0.3263308131894101</v>
       </c>
       <c r="F51" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="G51" t="n">
-        <v>1088.666666666667</v>
+        <v>683.48</v>
       </c>
       <c r="H51" s="1" t="n">
-        <v>45992</v>
+        <v>45870</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>2025Q4</t>
+          <t>2025Q3</t>
         </is>
       </c>
       <c r="J51" t="n">
-        <v>-0.03090184303364683</v>
+        <v>0.004543387713311114</v>
       </c>
       <c r="K51" t="n">
-        <v>-0.02413895302225688</v>
+        <v>0.02998686674694792</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B52" t="n">
+        <v>9</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.09445349456655346</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.09445349456655346</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.3149918166203955</v>
+      </c>
+      <c r="F52" t="n">
+        <v>18</v>
+      </c>
+      <c r="G52" t="n">
+        <v>766.1111111111111</v>
+      </c>
+      <c r="H52" s="1" t="n">
+        <v>45901</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>2025Q3</t>
+        </is>
+      </c>
+      <c r="J52" t="n">
+        <v>-0.008948487616074696</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.02116222303181904</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B53" t="n">
+        <v>10</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.09275558306813161</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.09275558306813161</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.3266173773880408</v>
+      </c>
+      <c r="F53" t="n">
+        <v>20</v>
+      </c>
+      <c r="G53" t="n">
+        <v>784.95</v>
+      </c>
+      <c r="H53" s="1" t="n">
+        <v>45931</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>2025Q4</t>
+        </is>
+      </c>
+      <c r="J53" t="n">
+        <v>-0.001697911498421842</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.01477530293957068</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B54" t="n">
+        <v>11</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.09668163731153843</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.09668163731153843</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.3396360919251153</v>
+      </c>
+      <c r="F54" t="n">
+        <v>16</v>
+      </c>
+      <c r="G54" t="n">
+        <v>691.1875</v>
+      </c>
+      <c r="H54" s="1" t="n">
+        <v>45962</v>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>2025Q4</t>
+        </is>
+      </c>
+      <c r="J54" t="n">
+        <v>0.003926054243406821</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.01839848677847475</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B55" t="n">
+        <v>12</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.08159274439496074</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.08159274439496074</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.2980742890335366</v>
+      </c>
+      <c r="F55" t="n">
+        <v>18</v>
+      </c>
+      <c r="G55" t="n">
+        <v>811.2777777777778</v>
+      </c>
+      <c r="H55" s="1" t="n">
+        <v>45992</v>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>2025Q4</t>
+        </is>
+      </c>
+      <c r="J55" t="n">
+        <v>-0.0150888929165777</v>
+      </c>
+      <c r="K55" t="n">
+        <v>-0.01059868021362763</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
         <v>2026</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B56" t="n">
         <v>1</v>
       </c>
-      <c r="C52" t="n">
-        <v>0.0948437175572806</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.0948437175572806</v>
-      </c>
-      <c r="E52" t="n">
-        <v>0.2856951568613685</v>
-      </c>
-      <c r="F52" t="n">
-        <v>12</v>
-      </c>
-      <c r="G52" t="n">
-        <v>797.0714285714286</v>
-      </c>
-      <c r="H52" s="1" t="n">
+      <c r="C56" t="n">
+        <v>0.09340537583298832</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.09340537583298832</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.3075603275807016</v>
+      </c>
+      <c r="F56" t="n">
+        <v>26</v>
+      </c>
+      <c r="G56" t="n">
+        <v>614.8928571428571</v>
+      </c>
+      <c r="H56" s="1" t="n">
         <v>46023</v>
       </c>
-      <c r="I52" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>2026Q1</t>
         </is>
       </c>
-      <c r="J52" t="n">
-        <v>0.02207299126248577</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.0162957053910649</v>
+      <c r="J56" t="n">
+        <v>0.01181263143802758</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.008425087161725658</v>
       </c>
     </row>
   </sheetData>
@@ -2359,7 +2507,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2488,17 +2636,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2022Q1</t>
+          <t>2021Q4</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.102908277</v>
+        <v>0.1493226793183093</v>
       </c>
       <c r="C5" t="n">
-        <v>0.102908277</v>
+        <v>0.1493226793183093</v>
       </c>
       <c r="D5" t="n">
-        <v>0.402684564</v>
+        <v>0.38310755977277</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -2507,456 +2655,484 @@
         <v>3</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03744022200000001</v>
+        <v>0.08385462431830934</v>
       </c>
       <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2022Q2</t>
+          <t>2022Q1</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.03649914472820512</v>
+        <v>0.102908277</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03649914472820512</v>
+        <v>0.102908277</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4174965744148649</v>
+        <v>0.402684564</v>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
         <v>4</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.06640913227179489</v>
+        <v>-0.04641440231830933</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.07160896327179488</v>
+        <v>-0.005199830999999988</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2022Q3</t>
+          <t>2022Q2</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.06577899113281302</v>
+        <v>0.04671763696952843</v>
       </c>
       <c r="C7" t="n">
-        <v>0.06577899113281302</v>
+        <v>0.04671763696952843</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3905574912223926</v>
+        <v>0.352642233971523</v>
       </c>
       <c r="E7" t="n">
-        <v>5.333333333333333</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="F7" t="n">
         <v>5</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0292798464046079</v>
+        <v>-0.05619064003047158</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.02390714736718698</v>
+        <v>-0.04296850153047157</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2022Q4</t>
+          <t>2022Q3</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.07419568810621983</v>
+        <v>0.06777049984415838</v>
       </c>
       <c r="C8" t="n">
-        <v>0.07419568810621983</v>
+        <v>0.06777049984415838</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3627253626777888</v>
+        <v>0.3646729667918289</v>
       </c>
       <c r="E8" t="n">
-        <v>4.666666666666667</v>
+        <v>12.33333333333333</v>
       </c>
       <c r="F8" t="n">
         <v>6</v>
       </c>
       <c r="G8" t="n">
-        <v>0.008416696973406815</v>
+        <v>0.02105286287462995</v>
       </c>
       <c r="H8" t="n">
-        <v>0.008727633106219837</v>
+        <v>0.002302444844158383</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2023Q1</t>
+          <t>2022Q4</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.07640224971012273</v>
+        <v>0.07948628829335025</v>
       </c>
       <c r="C9" t="n">
-        <v>0.07640224971012273</v>
+        <v>0.07948628829335025</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3595796834203611</v>
+        <v>0.3400882405225557</v>
       </c>
       <c r="E9" t="n">
-        <v>3.333333333333333</v>
+        <v>12.66666666666667</v>
       </c>
       <c r="F9" t="n">
         <v>7</v>
       </c>
       <c r="G9" t="n">
-        <v>0.002206561603902896</v>
+        <v>0.01171578844919187</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.02650602728987728</v>
+        <v>-0.06983639102495909</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2023Q2</t>
+          <t>2023Q1</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.07509224886170031</v>
+        <v>0.09598493637260096</v>
       </c>
       <c r="C10" t="n">
-        <v>0.07509224886170031</v>
+        <v>0.09598493637260096</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4168746627795374</v>
+        <v>0.3263634385835205</v>
       </c>
       <c r="E10" t="n">
-        <v>8.666666666666666</v>
+        <v>10.66666666666667</v>
       </c>
       <c r="F10" t="n">
         <v>8</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.001310000848422421</v>
+        <v>0.01649864807925071</v>
       </c>
       <c r="H10" t="n">
-        <v>0.03859310413349519</v>
+        <v>-0.006923340627399049</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2023Q3</t>
+          <t>2023Q2</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.06973029667519737</v>
+        <v>0.08197254550217069</v>
       </c>
       <c r="C11" t="n">
-        <v>0.06973029667519737</v>
+        <v>0.08197254550217069</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3914395647801609</v>
+        <v>0.3543460753777977</v>
       </c>
       <c r="E11" t="n">
-        <v>10.33333333333333</v>
+        <v>23.33333333333333</v>
       </c>
       <c r="F11" t="n">
         <v>9</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.005361952186502941</v>
+        <v>-0.01401239087043027</v>
       </c>
       <c r="H11" t="n">
-        <v>0.003951305542384348</v>
+        <v>0.03525490853264226</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2023Q4</t>
+          <t>2023Q3</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.07020253548619405</v>
+        <v>0.07683978322365387</v>
       </c>
       <c r="C12" t="n">
-        <v>0.07020253548619405</v>
+        <v>0.07683978322365387</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3734299089586734</v>
+        <v>0.3375229189393527</v>
       </c>
       <c r="E12" t="n">
-        <v>10</v>
+        <v>24.33333333333333</v>
       </c>
       <c r="F12" t="n">
         <v>10</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0004722388109966863</v>
+        <v>-0.00513276227851682</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.003993152620025781</v>
+        <v>0.009069283379495488</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2024Q1</t>
+          <t>2023Q4</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.06454216504790991</v>
+        <v>0.0807872118999822</v>
       </c>
       <c r="C13" t="n">
-        <v>0.06454216504790991</v>
+        <v>0.0807872118999822</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3650565649761126</v>
+        <v>0.3385429792772294</v>
       </c>
       <c r="E13" t="n">
-        <v>9.666666666666666</v>
+        <v>22.66666666666667</v>
       </c>
       <c r="F13" t="n">
         <v>11</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.005660370438284143</v>
+        <v>0.003947428676328329</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.01186008466221282</v>
+        <v>0.001300923606631949</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2024Q2</t>
+          <t>2024Q1</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.05666773913897297</v>
+        <v>0.07762936950092396</v>
       </c>
       <c r="C14" t="n">
-        <v>0.05666773913897297</v>
+        <v>0.07762936950092396</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3068927901739539</v>
+        <v>0.3362335840889499</v>
       </c>
       <c r="E14" t="n">
-        <v>9.666666666666666</v>
+        <v>20.66666666666667</v>
       </c>
       <c r="F14" t="n">
         <v>12</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.007874425908936944</v>
+        <v>-0.003157842399058239</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.01842450972272734</v>
+        <v>-0.018355566871677</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2024Q3</t>
+          <t>2024Q2</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0528303901842694</v>
+        <v>0.0762322026480763</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0528303901842694</v>
+        <v>0.0762322026480763</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3083251404053274</v>
+        <v>0.3126644454591753</v>
       </c>
       <c r="E15" t="n">
-        <v>8.666666666666666</v>
+        <v>23</v>
       </c>
       <c r="F15" t="n">
         <v>13</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.003837348954703564</v>
+        <v>-0.001397166852847659</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.01689990649092796</v>
+        <v>-0.005740342854094388</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2024Q4</t>
+          <t>2024Q3</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.07571631172107925</v>
+        <v>0.07379595525810227</v>
       </c>
       <c r="C16" t="n">
-        <v>0.07571631172107925</v>
+        <v>0.07379595525810227</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3176934783546929</v>
+        <v>0.3129074970891816</v>
       </c>
       <c r="E16" t="n">
-        <v>10</v>
+        <v>23.33333333333333</v>
       </c>
       <c r="F16" t="n">
         <v>14</v>
       </c>
       <c r="G16" t="n">
-        <v>0.02288592153680984</v>
+        <v>-0.002436247389974028</v>
       </c>
       <c r="H16" t="n">
-        <v>0.005513776234885193</v>
+        <v>-0.003043827965551596</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025Q1</t>
+          <t>2024Q4</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.07420886769687297</v>
+        <v>0.082818285090071</v>
       </c>
       <c r="C17" t="n">
-        <v>0.07420886769687297</v>
+        <v>0.082818285090071</v>
       </c>
       <c r="D17" t="n">
-        <v>0.316025742713392</v>
+        <v>0.317286905762749</v>
       </c>
       <c r="E17" t="n">
-        <v>7.333333333333333</v>
+        <v>24.33333333333333</v>
       </c>
       <c r="F17" t="n">
         <v>15</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.001507444024206273</v>
+        <v>0.009022329831968726</v>
       </c>
       <c r="H17" t="n">
-        <v>0.009666702648963063</v>
+        <v>0.0020310731900888</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025Q2</t>
+          <t>2025Q1</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.1010220660168722</v>
+        <v>0.08332520684905427</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1010220660168722</v>
+        <v>0.08332520684905427</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2921355996207666</v>
+        <v>0.3146961872351197</v>
       </c>
       <c r="E18" t="n">
-        <v>10.66666666666667</v>
+        <v>22.66666666666667</v>
       </c>
       <c r="F18" t="n">
         <v>16</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02681319831999926</v>
+        <v>0.0005069217589832725</v>
       </c>
       <c r="H18" t="n">
-        <v>0.04435432687789927</v>
+        <v>0.005695837348130312</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025Q3</t>
+          <t>2025Q2</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.1068187569398576</v>
+        <v>0.09250247143789869</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1068187569398576</v>
+        <v>0.09250247143789869</v>
       </c>
       <c r="D19" t="n">
-        <v>0.2977001344286375</v>
+        <v>0.3168628219065239</v>
       </c>
       <c r="E19" t="n">
-        <v>10.33333333333333</v>
+        <v>24.33333333333333</v>
       </c>
       <c r="F19" t="n">
         <v>17</v>
       </c>
       <c r="G19" t="n">
-        <v>0.005796690922985348</v>
+        <v>0.009177264588844422</v>
       </c>
       <c r="H19" t="n">
-        <v>0.05398836675558818</v>
+        <v>0.01627026878982239</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025Q4</t>
+          <t>2025Q3</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.08874098392661096</v>
+        <v>0.09890469040616622</v>
       </c>
       <c r="C20" t="n">
-        <v>0.08874098392661096</v>
+        <v>0.09890469040616622</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3215198146055466</v>
+        <v>0.3175551394575521</v>
       </c>
       <c r="E20" t="n">
-        <v>6.666666666666667</v>
+        <v>22.66666666666667</v>
       </c>
       <c r="F20" t="n">
         <v>18</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.01807777301324662</v>
+        <v>0.006402218968267523</v>
       </c>
       <c r="H20" t="n">
-        <v>0.01302467220553172</v>
+        <v>0.02510873514806394</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2026Q1</t>
+          <t>2025Q4</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.0948437175572806</v>
+        <v>0.09034332159154361</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0948437175572806</v>
+        <v>0.09034332159154361</v>
       </c>
       <c r="D21" t="n">
-        <v>0.2856951568613685</v>
+        <v>0.3214425861155642</v>
       </c>
       <c r="E21" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F21" t="n">
         <v>19</v>
       </c>
       <c r="G21" t="n">
-        <v>0.006102733630669641</v>
+        <v>-0.008561368814622605</v>
       </c>
       <c r="H21" t="n">
-        <v>0.02063484986040763</v>
+        <v>0.007525036501472612</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2026Q1</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.09340537583298832</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.09340537583298832</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.3075603275807016</v>
+      </c>
+      <c r="E22" t="n">
+        <v>26</v>
+      </c>
+      <c r="F22" t="n">
+        <v>20</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.003062054241444706</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.01008016898393405</v>
       </c>
     </row>
   </sheetData>
@@ -2970,7 +3146,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L52"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3042,210 +3218,216 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>0.108108108</v>
+        <v>0.08365718814461241</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4</v>
+        <v>0.346354016048446</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>44105</v>
+        <v>45047</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2020Q4</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+          <t>2023Q2</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>0.002137848647201082</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.007628776434231044</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-0.005490927787029962</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>0.139896373</v>
+        <v>0.08074110886448833</v>
       </c>
       <c r="D3" t="n">
-        <v>0.398963731</v>
+        <v>0.3779589704707321</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="H3" s="1" t="n">
-        <v>44197</v>
+        <v>45078</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2021Q1</t>
+          <t>2023Q2</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>0.031788265</v>
+        <v>-0.002916079280124079</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.001036269000000034</v>
+        <v>0.03160495442228606</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03282453400000003</v>
+        <v>-0.03452103370241014</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>0.073529412</v>
+        <v>0.07700216450685342</v>
       </c>
       <c r="D4" t="n">
-        <v>0.492647059</v>
+        <v>0.3613776666696886</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="H4" s="1" t="n">
-        <v>44228</v>
+        <v>45108</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2021Q1</t>
+          <t>2023Q3</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>-0.06636696099999999</v>
+        <v>-0.003738944357634916</v>
       </c>
       <c r="K4" t="n">
-        <v>0.09368332800000001</v>
+        <v>-0.01658130380104345</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.160050289</v>
+        <v>0.01284235944340853</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0556326305</v>
+        <v>0.07654631969066918</v>
       </c>
       <c r="D5" t="n">
-        <v>0.400943396</v>
+        <v>0.355442840621135</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="H5" s="1" t="n">
-        <v>44256</v>
+        <v>45139</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2021Q1</t>
+          <t>2023Q3</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>-0.0178967815</v>
+        <v>-0.0004558448161842421</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.09170366299999999</v>
+        <v>-0.005934826048553665</v>
       </c>
       <c r="L5" t="n">
-        <v>0.07380688149999999</v>
+        <v>0.005478981232369423</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C6" t="n">
-        <v>0.065468055</v>
+        <v>0.07697086547343901</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3997158706666666</v>
+        <v>0.2957482495272344</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="H6" s="1" t="n">
-        <v>44317</v>
+        <v>45170</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2021Q2</t>
+          <t>2023Q3</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>0.009835424499999995</v>
+        <v>0.0004245457827698335</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.001227525333333368</v>
+        <v>-0.05969459109390052</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01106294983333336</v>
+        <v>0.06011913687667035</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C7" t="n">
-        <v>0.102908277</v>
+        <v>0.0741986659910874</v>
       </c>
       <c r="D7" t="n">
-        <v>0.402684564</v>
+        <v>0.3338998292189422</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -3254,78 +3436,78 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="H7" s="1" t="n">
-        <v>44562</v>
+        <v>45200</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>2022Q1</t>
+          <t>2023Q4</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>0.03744022200000001</v>
+        <v>-0.002772199482351606</v>
       </c>
       <c r="K7" t="n">
-        <v>0.002968693333333383</v>
+        <v>0.03815157969170779</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03447152866666663</v>
+        <v>-0.0409237791740594</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05245034445641024</v>
+        <v>0.08439368902807952</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4557123268297297</v>
+        <v>0.3394506899966835</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H8" s="1" t="n">
-        <v>44652</v>
+        <v>45231</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>2022Q2</t>
+          <t>2023Q4</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>-0.05045793254358977</v>
+        <v>0.01019502303699212</v>
       </c>
       <c r="K8" t="n">
-        <v>0.05302776282972971</v>
+        <v>0.005550860777741307</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.1034856953733195</v>
+        <v>0.004644162259250809</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C9" t="n">
-        <v>0.020547945</v>
+        <v>0.08376928068077967</v>
       </c>
       <c r="D9" t="n">
-        <v>0.379280822</v>
+        <v>0.3422784186160625</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -3334,198 +3516,198 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="H9" s="1" t="n">
-        <v>44713</v>
+        <v>45261</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2022Q2</t>
+          <t>2023Q4</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>-0.03190239945641024</v>
+        <v>-0.0006244083472998485</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.07643150482972971</v>
+        <v>0.002827728619378966</v>
       </c>
       <c r="L9" t="n">
-        <v>0.04452910537331947</v>
+        <v>-0.003452136966678815</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="B10" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0470966175663717</v>
+        <v>0.07935464281427572</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3997454237699115</v>
+        <v>0.3412712916861851</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="H10" s="1" t="n">
-        <v>44743</v>
+        <v>45292</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>2022Q3</t>
+          <t>2024Q1</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>0.0265486725663717</v>
+        <v>-0.004414637866503951</v>
       </c>
       <c r="K10" t="n">
-        <v>0.02046460176991149</v>
+        <v>-0.001007126929877422</v>
       </c>
       <c r="L10" t="n">
-        <v>0.006084070796460204</v>
+        <v>-0.003407510936626529</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="B11" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>0.07988712376928084</v>
+        <v>0.0731126344519285</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4122862098000466</v>
+        <v>0.3254929654825749</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="G11" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="H11" s="1" t="n">
-        <v>44774</v>
+        <v>45323</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>2022Q3</t>
+          <t>2024Q1</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>0.03279050620290914</v>
+        <v>-0.006242008362347215</v>
       </c>
       <c r="K11" t="n">
-        <v>0.01254078603013509</v>
+        <v>-0.01577832620361014</v>
       </c>
       <c r="L11" t="n">
-        <v>0.02024972017277405</v>
+        <v>0.009536317841262923</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="B12" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C12" t="n">
-        <v>0.07035323206278651</v>
+        <v>0.08042083123656765</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3596408400972199</v>
+        <v>0.3419364950980895</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="H12" s="1" t="n">
-        <v>44805</v>
+        <v>45352</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>2022Q3</t>
+          <t>2024Q1</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>-0.009533891706494324</v>
+        <v>0.007308196784639148</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.05264536970282674</v>
+        <v>0.0164435296155146</v>
       </c>
       <c r="L12" t="n">
-        <v>0.04311147799633241</v>
+        <v>-0.009135332830875448</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="B13" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C13" t="n">
-        <v>0.08727606374168144</v>
+        <v>0.07412073821478439</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3669045534268556</v>
+        <v>0.3224012911435279</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="G13" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="H13" s="1" t="n">
-        <v>44835</v>
+        <v>45383</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>2022Q4</t>
+          <t>2024Q2</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>0.01692283167889493</v>
+        <v>-0.006300093021783262</v>
       </c>
       <c r="K13" t="n">
-        <v>0.007263713329635768</v>
+        <v>-0.0195352039545616</v>
       </c>
       <c r="L13" t="n">
-        <v>0.009659118349259158</v>
+        <v>0.01323511093277834</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="B14" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0687139288466415</v>
+        <v>0.07460140398837141</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3592433051993675</v>
+        <v>0.3088136933737958</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -3534,38 +3716,38 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="H14" s="1" t="n">
-        <v>44866</v>
+        <v>45413</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>2022Q4</t>
+          <t>2024Q2</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>-0.01856213489503994</v>
+        <v>0.000480665773587019</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.007661248227488093</v>
+        <v>-0.01358759776973212</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.01090088666755185</v>
+        <v>0.01406826354331914</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="B15" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>0.06659707173033658</v>
+        <v>0.0799744657410731</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3620282294071432</v>
+        <v>0.3067783518602022</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -3574,38 +3756,38 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="H15" s="1" t="n">
-        <v>44896</v>
+        <v>45444</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>2022Q4</t>
+          <t>2024Q2</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>-0.002116857116304924</v>
+        <v>0.005373061752701691</v>
       </c>
       <c r="K15" t="n">
-        <v>0.002784924207775652</v>
+        <v>-0.00203534151359358</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.004901781324080576</v>
+        <v>0.007408403266295271</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C16" t="n">
-        <v>0.08057809566666667</v>
+        <v>0.07468147880389217</v>
       </c>
       <c r="D16" t="n">
-        <v>0.353092421</v>
+        <v>0.3132691899922995</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -3614,38 +3796,38 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="H16" s="1" t="n">
-        <v>44927</v>
+        <v>45474</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>2023Q1</t>
+          <t>2024Q3</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>0.01398102393633009</v>
+        <v>-0.00529298693718093</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.008935808407143198</v>
+        <v>0.006490838132097276</v>
       </c>
       <c r="L16" t="n">
-        <v>0.02291683234347329</v>
+        <v>-0.01178382506927821</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B17" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C17" t="n">
-        <v>0.07823129299999999</v>
+        <v>0.07341511543568023</v>
       </c>
       <c r="D17" t="n">
-        <v>0.360544218</v>
+        <v>0.3132253183698824</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -3654,38 +3836,38 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="H17" s="1" t="n">
-        <v>44958</v>
+        <v>45505</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>2023Q1</t>
+          <t>2024Q3</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>-0.002346802666666675</v>
+        <v>-0.00126636336821194</v>
       </c>
       <c r="K17" t="n">
-        <v>0.007451797000000038</v>
+        <v>-4.387162241709097e-05</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.009798599666666713</v>
+        <v>-0.001222491745794849</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B18" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C18" t="n">
-        <v>0.07039736046370151</v>
+        <v>0.07329127153473441</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3651024112610832</v>
+        <v>0.3122279829053629</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -3694,158 +3876,158 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="H18" s="1" t="n">
-        <v>44986</v>
+        <v>45536</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>2023Q1</t>
+          <t>2024Q3</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>-0.00783393253629848</v>
+        <v>-0.0001238439009458164</v>
       </c>
       <c r="K18" t="n">
-        <v>0.004558193261083143</v>
+        <v>-0.000997335464519522</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.01239212579738162</v>
+        <v>0.0008734915635737056</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B19" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C19" t="n">
-        <v>0.07682672383169446</v>
+        <v>0.07798028012856094</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3864130470056849</v>
+        <v>0.3330682289289693</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="H19" s="1" t="n">
-        <v>45017</v>
+        <v>45566</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>2023Q2</t>
+          <t>2024Q4</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>0.006429363367992949</v>
+        <v>0.004689008593826524</v>
       </c>
       <c r="K19" t="n">
-        <v>0.02131063574460174</v>
+        <v>0.02084024602360635</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.01488127237660879</v>
+        <v>-0.01615123742977982</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B20" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C20" t="n">
-        <v>0.07625204925988029</v>
+        <v>0.07828315053306369</v>
       </c>
       <c r="D20" t="n">
-        <v>0.4057319816784011</v>
+        <v>0.3115153163974373</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="G20" t="n">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="H20" s="1" t="n">
-        <v>45047</v>
+        <v>45597</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>2023Q2</t>
+          <t>2024Q4</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>-0.0005746745718141766</v>
+        <v>0.0003028704045027475</v>
       </c>
       <c r="K20" t="n">
-        <v>0.01931893467271623</v>
+        <v>-0.02155291253153191</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.0198936092445304</v>
+        <v>0.02185578293603466</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B21" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C21" t="n">
-        <v>0.07219797349352616</v>
+        <v>0.09219142460858837</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4584789596545262</v>
+        <v>0.3072771719618406</v>
       </c>
       <c r="E21" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="H21" s="1" t="n">
-        <v>45078</v>
+        <v>45627</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>2023Q2</t>
+          <t>2024Q4</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>-0.004054075766354123</v>
+        <v>0.01390827407552468</v>
       </c>
       <c r="K21" t="n">
-        <v>0.05274697797612504</v>
+        <v>-0.00423814443559678</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.05680105374247917</v>
+        <v>0.01814641851112146</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="B22" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>0.06675012663042028</v>
+        <v>0.08498028867126266</v>
       </c>
       <c r="D22" t="n">
-        <v>0.4279097796950805</v>
+        <v>0.3294544550418659</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -3854,38 +4036,38 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="H22" s="1" t="n">
-        <v>45108</v>
+        <v>45658</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>2023Q3</t>
+          <t>2025Q1</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>-0.005447846863105885</v>
+        <v>-0.007211135937325711</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.03056917995944564</v>
+        <v>0.02217728308002537</v>
       </c>
       <c r="L22" t="n">
-        <v>0.02512133309633975</v>
+        <v>-0.02938841901735108</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="B23" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>0.07183573144749594</v>
+        <v>0.08605148690295363</v>
       </c>
       <c r="D23" t="n">
-        <v>0.4437442674674181</v>
+        <v>0.3070835508603415</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -3894,38 +4076,38 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="H23" s="1" t="n">
-        <v>45139</v>
+        <v>45689</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>2023Q3</t>
+          <t>2025Q1</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>0.005085604817075665</v>
+        <v>0.001071198231690967</v>
       </c>
       <c r="K23" t="n">
-        <v>0.01583448777233754</v>
+        <v>-0.02237090418152443</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.01074888295526187</v>
+        <v>0.0234421024132154</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="B24" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>0.07060503194767589</v>
+        <v>0.0789438449729465</v>
       </c>
       <c r="D24" t="n">
-        <v>0.302664647177984</v>
+        <v>0.3075505558031514</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -3934,38 +4116,38 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="H24" s="1" t="n">
-        <v>45170</v>
+        <v>45717</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>2023Q3</t>
+          <t>2025Q1</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>-0.001230699499820048</v>
+        <v>-0.007107641930007125</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.1410796202894341</v>
+        <v>0.0004670049428099343</v>
       </c>
       <c r="L24" t="n">
-        <v>0.1398489207896141</v>
+        <v>-0.007574646872817059</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="B25" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>0.06389641070950873</v>
+        <v>0.08351900097420439</v>
       </c>
       <c r="D25" t="n">
-        <v>0.3707969051857825</v>
+        <v>0.3187710595508288</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -3974,38 +4156,38 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="H25" s="1" t="n">
-        <v>45200</v>
+        <v>45748</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>2023Q4</t>
+          <t>2025Q2</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>-0.006708621238167164</v>
+        <v>0.004575156001257893</v>
       </c>
       <c r="K25" t="n">
-        <v>0.06813225800779854</v>
+        <v>0.01122050374767736</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.07484087924596571</v>
+        <v>-0.006645347746419464</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="B26" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>0.07311910655161039</v>
+        <v>0.09732826253954802</v>
       </c>
       <c r="D26" t="n">
-        <v>0.3735520922735354</v>
+        <v>0.3193405259477504</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -4014,38 +4196,38 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="H26" s="1" t="n">
-        <v>45231</v>
+        <v>45778</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>2023Q4</t>
+          <t>2025Q2</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>0.009222695842101655</v>
+        <v>0.01380926156534362</v>
       </c>
       <c r="K26" t="n">
-        <v>0.002755187087752853</v>
+        <v>0.0005694663969216252</v>
       </c>
       <c r="L26" t="n">
-        <v>0.006467508754348802</v>
+        <v>0.013239795168422</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="B27" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C27" t="n">
-        <v>0.07359208919746305</v>
+        <v>0.09666015079994367</v>
       </c>
       <c r="D27" t="n">
-        <v>0.3759407294167023</v>
+        <v>0.3124768802209925</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -4054,198 +4236,198 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="H27" s="1" t="n">
-        <v>45261</v>
+        <v>45809</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>2023Q4</t>
+          <t>2025Q2</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>0.0004729826458526598</v>
+        <v>-0.000668111739604349</v>
       </c>
       <c r="K27" t="n">
-        <v>0.00238863714316695</v>
+        <v>-0.006863645726757905</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.00191565449731429</v>
+        <v>0.006195533987153556</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0665096845106137</v>
+        <v>0.09885859446931704</v>
       </c>
       <c r="D28" t="n">
-        <v>0.3751326275666287</v>
+        <v>0.3113427885628509</v>
       </c>
       <c r="E28" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="H28" s="1" t="n">
-        <v>45292</v>
+        <v>45839</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>2024Q1</t>
+          <t>2025Q3</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>-0.007082404686849342</v>
+        <v>0.002198443669373371</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.0008081018500736281</v>
+        <v>-0.001134091658141656</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.006274302836775714</v>
+        <v>0.003332535327515027</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="B29" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C29" t="n">
-        <v>0.05604644274240604</v>
+        <v>0.1034019821826282</v>
       </c>
       <c r="D29" t="n">
-        <v>0.3387221801775483</v>
+        <v>0.3263308131894101</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="H29" s="1" t="n">
-        <v>45323</v>
+        <v>45870</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>2024Q1</t>
+          <t>2025Q3</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>-0.01046324176820766</v>
+        <v>0.004543387713311114</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.03641044738908039</v>
+        <v>0.01498802462655924</v>
       </c>
       <c r="L29" t="n">
-        <v>0.02594720562087273</v>
+        <v>-0.01044463691324812</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="B30" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C30" t="n">
-        <v>0.07107036789070999</v>
+        <v>0.09445349456655346</v>
       </c>
       <c r="D30" t="n">
-        <v>0.3813148871841609</v>
+        <v>0.3149918166203955</v>
       </c>
       <c r="E30" t="n">
-        <v>0.1111111111111111</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="H30" s="1" t="n">
-        <v>45352</v>
+        <v>45901</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>2024Q1</t>
+          <t>2025Q3</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>0.01502392514830395</v>
+        <v>-0.008948487616074696</v>
       </c>
       <c r="K30" t="n">
-        <v>0.04259270700661261</v>
+        <v>-0.01133899656901455</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.02756878185830866</v>
+        <v>0.002390508952939852</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="B31" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C31" t="n">
-        <v>0.05091517458680753</v>
+        <v>0.09275558306813161</v>
       </c>
       <c r="D31" t="n">
-        <v>0.3302980997633484</v>
+        <v>0.3266173773880408</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="H31" s="1" t="n">
-        <v>45383</v>
+        <v>45931</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>2024Q2</t>
+          <t>2025Q4</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>-0.02015519330390245</v>
+        <v>-0.001697911498421842</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.0510167874208125</v>
+        <v>0.0116255607676452</v>
       </c>
       <c r="L31" t="n">
-        <v>0.03086159411691005</v>
+        <v>-0.01332347226606705</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="B32" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C32" t="n">
-        <v>0.05550186276369835</v>
+        <v>0.09668163731153843</v>
       </c>
       <c r="D32" t="n">
-        <v>0.3043374782231909</v>
+        <v>0.3396360919251153</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -4254,824 +4436,104 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H32" s="1" t="n">
-        <v>45413</v>
+        <v>45962</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>2024Q2</t>
+          <t>2025Q4</t>
         </is>
       </c>
       <c r="J32" t="n">
-        <v>0.00458668817689082</v>
+        <v>0.003926054243406821</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.02596062154015749</v>
+        <v>0.01301871453707454</v>
       </c>
       <c r="L32" t="n">
-        <v>0.03054730971704831</v>
+        <v>-0.009092660293667718</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="B33" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C33" t="n">
-        <v>0.06358618006641302</v>
+        <v>0.08159274439496074</v>
       </c>
       <c r="D33" t="n">
-        <v>0.2860427925353226</v>
+        <v>0.2980742890335366</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="G33" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H33" s="1" t="n">
-        <v>45444</v>
+        <v>45992</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>2024Q2</t>
+          <t>2025Q4</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>0.008084317302714666</v>
+        <v>-0.0150888929165777</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.01829468568786835</v>
+        <v>-0.04156180289157874</v>
       </c>
       <c r="L33" t="n">
-        <v>0.02637900299058302</v>
+        <v>0.02647290997500104</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2024</v>
+        <v>2026</v>
       </c>
       <c r="B34" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C34" t="n">
-        <v>0.055538083141403</v>
+        <v>0.09340537583298832</v>
       </c>
       <c r="D34" t="n">
-        <v>0.3087887674575009</v>
+        <v>0.3075603275807016</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="G34" t="n">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="H34" s="1" t="n">
-        <v>45474</v>
+        <v>46023</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>2024Q3</t>
+          <t>2026Q1</t>
         </is>
       </c>
       <c r="J34" t="n">
-        <v>-0.008048096925010025</v>
+        <v>0.01181263143802758</v>
       </c>
       <c r="K34" t="n">
-        <v>0.02274597492217834</v>
+        <v>0.00948603854716501</v>
       </c>
       <c r="L34" t="n">
-        <v>-0.03079407184718836</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B35" t="n">
-        <v>8</v>
-      </c>
-      <c r="C35" t="n">
-        <v>0.05021751052833504</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0.3086916236598374</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>9</v>
-      </c>
-      <c r="H35" s="1" t="n">
-        <v>45505</v>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>2024Q3</t>
-        </is>
-      </c>
-      <c r="J35" t="n">
-        <v>-0.005320572613067953</v>
-      </c>
-      <c r="K35" t="n">
-        <v>-9.714379766345704e-05</v>
-      </c>
-      <c r="L35" t="n">
-        <v>-0.005223428815404496</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B36" t="n">
-        <v>9</v>
-      </c>
-      <c r="C36" t="n">
-        <v>0.05273557688307015</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0.3074950300986439</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" t="n">
-        <v>8</v>
-      </c>
-      <c r="H36" s="1" t="n">
-        <v>45536</v>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>2024Q3</t>
-        </is>
-      </c>
-      <c r="J36" t="n">
-        <v>0.002518066354735109</v>
-      </c>
-      <c r="K36" t="n">
-        <v>-0.00119659356119356</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0.003714659915928668</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B37" t="n">
-        <v>10</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0.06875583180645611</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0.3563641761789151</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>10</v>
-      </c>
-      <c r="H37" s="1" t="n">
-        <v>45566</v>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>2024Q4</t>
-        </is>
-      </c>
-      <c r="J37" t="n">
-        <v>0.01602025492338596</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.04886914608027121</v>
-      </c>
-      <c r="L37" t="n">
-        <v>-0.03284889115688525</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B38" t="n">
-        <v>11</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0.06148342403972987</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0.2959326748104661</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G38" t="n">
-        <v>10</v>
-      </c>
-      <c r="H38" s="1" t="n">
-        <v>45597</v>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>2024Q4</t>
-        </is>
-      </c>
-      <c r="J38" t="n">
-        <v>-0.00727240776672624</v>
-      </c>
-      <c r="K38" t="n">
-        <v>-0.06043150136844899</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0.05315909360172275</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B39" t="n">
-        <v>12</v>
-      </c>
-      <c r="C39" t="n">
-        <v>0.09690967931705172</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0.3007835840746974</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" t="n">
-        <v>10</v>
-      </c>
-      <c r="H39" s="1" t="n">
-        <v>45627</v>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>2024Q4</t>
-        </is>
-      </c>
-      <c r="J39" t="n">
-        <v>0.03542625527732184</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.004850909264231318</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0.03057534601309052</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>2025</v>
-      </c>
-      <c r="B40" t="n">
-        <v>1</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0.07854801216621572</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0.3673461489161228</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>6</v>
-      </c>
-      <c r="H40" s="1" t="n">
-        <v>45658</v>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>2025Q1</t>
-        </is>
-      </c>
-      <c r="J40" t="n">
-        <v>-0.01836166715083599</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.06656256484142536</v>
-      </c>
-      <c r="L40" t="n">
-        <v>-0.08492423199226136</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>2025</v>
-      </c>
-      <c r="B41" t="n">
-        <v>2</v>
-      </c>
-      <c r="C41" t="n">
-        <v>0.08165882163832865</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0.2913462320801151</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>9</v>
-      </c>
-      <c r="H41" s="1" t="n">
-        <v>45689</v>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>2025Q1</t>
-        </is>
-      </c>
-      <c r="J41" t="n">
-        <v>0.003110809472112924</v>
-      </c>
-      <c r="K41" t="n">
-        <v>-0.07599991683600765</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0.07911072630812058</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>2025</v>
-      </c>
-      <c r="B42" t="n">
-        <v>3</v>
-      </c>
-      <c r="C42" t="n">
-        <v>0.06241976928607458</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0.289384847143938</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" t="n">
-        <v>0</v>
-      </c>
-      <c r="G42" t="n">
-        <v>7</v>
-      </c>
-      <c r="H42" s="1" t="n">
-        <v>45717</v>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>2025Q1</t>
-        </is>
-      </c>
-      <c r="J42" t="n">
-        <v>-0.01923905235225407</v>
-      </c>
-      <c r="K42" t="n">
-        <v>-0.001961384936177091</v>
-      </c>
-      <c r="L42" t="n">
-        <v>-0.01727766741607697</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>2025</v>
-      </c>
-      <c r="B43" t="n">
-        <v>4</v>
-      </c>
-      <c r="C43" t="n">
-        <v>0.0827004367871674</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0.302785413853876</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" t="n">
-        <v>11</v>
-      </c>
-      <c r="H43" s="1" t="n">
-        <v>45748</v>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>2025Q2</t>
-        </is>
-      </c>
-      <c r="J43" t="n">
-        <v>0.02028066750109282</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.013400566709938</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0.006880100791154822</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>2025</v>
-      </c>
-      <c r="B44" t="n">
-        <v>5</v>
-      </c>
-      <c r="C44" t="n">
-        <v>0.1121874371366159</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0.2863648712189384</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>10</v>
-      </c>
-      <c r="H44" s="1" t="n">
-        <v>45778</v>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>2025Q2</t>
-        </is>
-      </c>
-      <c r="J44" t="n">
-        <v>0.02948700034944846</v>
-      </c>
-      <c r="K44" t="n">
-        <v>-0.01642054263493758</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0.04590754298438604</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>2025</v>
-      </c>
-      <c r="B45" t="n">
-        <v>6</v>
-      </c>
-      <c r="C45" t="n">
-        <v>0.1081783241268334</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0.2872565137894853</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" t="n">
-        <v>11</v>
-      </c>
-      <c r="H45" s="1" t="n">
-        <v>45809</v>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>2025Q2</t>
-        </is>
-      </c>
-      <c r="J45" t="n">
-        <v>-0.00400911300978242</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.0008916425705468578</v>
-      </c>
-      <c r="L45" t="n">
-        <v>-0.004900755580329277</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>2025</v>
-      </c>
-      <c r="B46" t="n">
-        <v>7</v>
-      </c>
-      <c r="C46" t="n">
-        <v>0.1088984983758047</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0.2828675507151501</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="n">
-        <v>11</v>
-      </c>
-      <c r="H46" s="1" t="n">
-        <v>45839</v>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>2025Q3</t>
-        </is>
-      </c>
-      <c r="J46" t="n">
-        <v>0.0007201742489712504</v>
-      </c>
-      <c r="K46" t="n">
-        <v>-0.004388963074335173</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0.005109137323306423</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>2025</v>
-      </c>
-      <c r="B47" t="n">
-        <v>8</v>
-      </c>
-      <c r="C47" t="n">
-        <v>0.1172780035601536</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0.3226556839522257</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0.08333333333333333</v>
-      </c>
-      <c r="F47" t="n">
-        <v>0</v>
-      </c>
-      <c r="G47" t="n">
-        <v>12</v>
-      </c>
-      <c r="H47" s="1" t="n">
-        <v>45870</v>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>2025Q3</t>
-        </is>
-      </c>
-      <c r="J47" t="n">
-        <v>0.008379505184348934</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.03978813323707553</v>
-      </c>
-      <c r="L47" t="n">
-        <v>-0.03140862805272659</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>2025</v>
-      </c>
-      <c r="B48" t="n">
-        <v>9</v>
-      </c>
-      <c r="C48" t="n">
-        <v>0.09427976888361442</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0.2875771686185368</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" t="n">
-        <v>0</v>
-      </c>
-      <c r="G48" t="n">
-        <v>8</v>
-      </c>
-      <c r="H48" s="1" t="n">
-        <v>45901</v>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>2025Q3</t>
-        </is>
-      </c>
-      <c r="J48" t="n">
-        <v>-0.02299823467653921</v>
-      </c>
-      <c r="K48" t="n">
-        <v>-0.03507851533368889</v>
-      </c>
-      <c r="L48" t="n">
-        <v>0.01208028065714968</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>2025</v>
-      </c>
-      <c r="B49" t="n">
-        <v>10</v>
-      </c>
-      <c r="C49" t="n">
-        <v>0.0897796561565964</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0.3184096456825783</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" t="n">
-        <v>0</v>
-      </c>
-      <c r="G49" t="n">
-        <v>7</v>
-      </c>
-      <c r="H49" s="1" t="n">
-        <v>45931</v>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>2025Q4</t>
-        </is>
-      </c>
-      <c r="J49" t="n">
-        <v>-0.004500112727018016</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.03083247706404152</v>
-      </c>
-      <c r="L49" t="n">
-        <v>-0.03533258979105953</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>2025</v>
-      </c>
-      <c r="B50" t="n">
-        <v>11</v>
-      </c>
-      <c r="C50" t="n">
-        <v>0.1036725693284417</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0.362546324070827</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" t="n">
-        <v>0</v>
-      </c>
-      <c r="G50" t="n">
-        <v>4</v>
-      </c>
-      <c r="H50" s="1" t="n">
-        <v>45962</v>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>2025Q4</t>
-        </is>
-      </c>
-      <c r="J50" t="n">
-        <v>0.01389291317184527</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.0441366783882487</v>
-      </c>
-      <c r="L50" t="n">
-        <v>-0.03024376521640343</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>2025</v>
-      </c>
-      <c r="B51" t="n">
-        <v>12</v>
-      </c>
-      <c r="C51" t="n">
-        <v>0.07277072629479482</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0.2836034740632344</v>
-      </c>
-      <c r="E51" t="n">
-        <v>0</v>
-      </c>
-      <c r="F51" t="n">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="G51" t="n">
-        <v>9</v>
-      </c>
-      <c r="H51" s="1" t="n">
-        <v>45992</v>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>2025Q4</t>
-        </is>
-      </c>
-      <c r="J51" t="n">
-        <v>-0.03090184303364685</v>
-      </c>
-      <c r="K51" t="n">
-        <v>-0.07894285000759255</v>
-      </c>
-      <c r="L51" t="n">
-        <v>0.0480410069739457</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>2026</v>
-      </c>
-      <c r="B52" t="n">
-        <v>1</v>
-      </c>
-      <c r="C52" t="n">
-        <v>0.0948437175572806</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.2856951568613685</v>
-      </c>
-      <c r="E52" t="n">
-        <v>0.07142857142857142</v>
-      </c>
-      <c r="F52" t="n">
-        <v>0.07142857142857142</v>
-      </c>
-      <c r="G52" t="n">
-        <v>12</v>
-      </c>
-      <c r="H52" s="1" t="n">
-        <v>46023</v>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>2026Q1</t>
-        </is>
-      </c>
-      <c r="J52" t="n">
-        <v>0.02207299126248578</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.002091682798134042</v>
-      </c>
-      <c r="L52" t="n">
-        <v>0.01998130846435174</v>
+        <v>0.002326592890862567</v>
       </c>
     </row>
   </sheetData>
@@ -5085,7 +4547,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5158,110 +4620,132 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2020Q4</t>
+          <t>2024Q2</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.108108108</v>
+        <v>0.0762322026480763</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4</v>
+        <v>0.3126644454591753</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+        <v>23</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-0.001397166852847659</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-0.02356913862977456</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.0221719717769269</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-0.005966945856474073</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-0.04949204780041372</v>
+      </c>
       <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2021Q1</t>
+          <t>2024Q3</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0896861385</v>
+        <v>0.07379595525810227</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4308513953333333</v>
+        <v>0.3129074970891816</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1.333333333333333</v>
+        <v>23.33333333333333</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.0184219695</v>
+        <v>-0.002436247389974028</v>
       </c>
       <c r="H3" t="n">
-        <v>0.03085139533333331</v>
+        <v>0.000243051630006319</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.04927336483333331</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+        <v>-0.002679299019980347</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-0.003043827965551596</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-0.02461542185017102</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-0.02195350805932023</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2021Q2</t>
+          <t>2024Q4</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.065468055</v>
+        <v>0.082818285090071</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3997158706666666</v>
+        <v>0.317286905762749</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.04111111111111111</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="F4" t="n">
-        <v>6</v>
+        <v>24.33333333333333</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.0242180835</v>
+        <v>0.009022329831968726</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.03113552466666669</v>
+        <v>0.004379408673567398</v>
       </c>
       <c r="I4" t="n">
-        <v>0.006917441166666691</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+        <v>0.004642921158401328</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.0020310731900888</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-0.02125607351448039</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.00171555281994977</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2022Q1</t>
+          <t>2025Q1</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.102908277</v>
+        <v>0.08332520684905426</v>
       </c>
       <c r="C5" t="n">
-        <v>0.402684564</v>
+        <v>0.3146961872351197</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -5270,657 +4754,185 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>22.66666666666667</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03744022200000001</v>
+        <v>0.0005069217589832586</v>
       </c>
       <c r="H5" t="n">
-        <v>0.002968693333333383</v>
+        <v>-0.002590718527629376</v>
       </c>
       <c r="I5" t="n">
-        <v>0.03447152866666663</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+        <v>0.003097640286612635</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.005695837348130298</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-0.02153739685383022</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.003946087497391323</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2022Q2</t>
+          <t>2025Q2</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.03649914472820512</v>
+        <v>0.09250247143789869</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4174965744148649</v>
+        <v>0.3168628219065239</v>
       </c>
       <c r="D6" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>6</v>
+        <v>24.33333333333333</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.06640913227179489</v>
+        <v>0.009177264588844436</v>
       </c>
       <c r="H6" t="n">
-        <v>0.01481201041486485</v>
+        <v>0.002166634671404266</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.08122114268665974</v>
+        <v>0.00701062991744017</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.07160896327179488</v>
+        <v>0.01627026878982239</v>
       </c>
       <c r="K6" t="n">
-        <v>0.01749657441486485</v>
-      </c>
-      <c r="L6" t="inlineStr"/>
+        <v>0.004198376447348606</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-0.01516134185948673</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2022Q3</t>
+          <t>2025Q3</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.06577899113281302</v>
+        <v>0.09890469040616622</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3905574912223926</v>
+        <v>0.3175551394575521</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>5.333333333333333</v>
+        <v>22.66666666666667</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0292798464046079</v>
+        <v>0.006402218968267523</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.02693908319247224</v>
+        <v>0.0006923175510282209</v>
       </c>
       <c r="I7" t="n">
-        <v>0.05621892959708014</v>
+        <v>0.005709901417239302</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.02390714736718698</v>
+        <v>0.02510873514806394</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.04029390411094069</v>
+        <v>0.004647642368370508</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1054922944304134</v>
+        <v>0.008389200437219649</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2022Q4</t>
+          <t>2025Q4</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.07419568810621983</v>
+        <v>0.09034332159154361</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3627253626777888</v>
+        <v>0.3214425861155642</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="F8" t="n">
-        <v>4.666666666666667</v>
+        <v>18</v>
       </c>
       <c r="G8" t="n">
-        <v>0.008416696973406815</v>
+        <v>-0.008561368814622605</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.02783212854460382</v>
+        <v>0.00388744665801205</v>
       </c>
       <c r="I8" t="n">
-        <v>0.03624882551801063</v>
+        <v>-0.01244881547263466</v>
       </c>
       <c r="J8" t="n">
-        <v>0.008727633106219837</v>
+        <v>0.007525036501472612</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.03699050798887782</v>
+        <v>0.004155680352815161</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02933138435134394</v>
+        <v>-0.01709173663103598</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2023Q1</t>
+          <t>2026Q1</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.07640224971012273</v>
+        <v>0.09340537583298832</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3595796834203611</v>
+        <v>0.3075603275807016</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="F9" t="n">
-        <v>3.333333333333333</v>
+        <v>26</v>
       </c>
       <c r="G9" t="n">
-        <v>0.002206561603902896</v>
+        <v>0.003062054241444706</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.003145679257427758</v>
+        <v>-0.01388225853486263</v>
       </c>
       <c r="I9" t="n">
-        <v>0.005352240861330654</v>
+        <v>0.01694431277630734</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.02650602728987728</v>
+        <v>0.01008016898393406</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.04310488057963896</v>
+        <v>-0.007135859654418097</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.02911928780533597</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2023Q2</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0.07509224886170031</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.4168746627795374</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.0303030303030303</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>8.666666666666666</v>
-      </c>
-      <c r="G10" t="n">
-        <v>-0.001310000848422421</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.05729497935917638</v>
-      </c>
-      <c r="I10" t="n">
-        <v>-0.0586049802075988</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.03859310413349519</v>
-      </c>
-      <c r="K10" t="n">
-        <v>-0.0006219116353274323</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0.02261616247906094</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2023Q3</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0.06973029667519737</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.3914395647801609</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>10.33333333333333</v>
-      </c>
-      <c r="G11" t="n">
-        <v>-0.005361952186502941</v>
-      </c>
-      <c r="H11" t="n">
-        <v>-0.02543509799937654</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.0200731458128736</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.003951305542384348</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.0008820735577682592</v>
-      </c>
-      <c r="L11" t="n">
-        <v>-0.03614578378420653</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>2023Q4</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0.07020253548619405</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.3734299089586734</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>10</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.0004722388109966863</v>
-      </c>
-      <c r="H12" t="n">
-        <v>-0.0180096558214875</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.01848189463248419</v>
-      </c>
-      <c r="J12" t="n">
-        <v>-0.003993152620025781</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.01070454628088457</v>
-      </c>
-      <c r="L12" t="n">
-        <v>-0.01776693088552644</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>2024Q1</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0.06454216504790991</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3650565649761126</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.07037037037037037</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.03333333333333333</v>
-      </c>
-      <c r="F13" t="n">
-        <v>9.666666666666666</v>
-      </c>
-      <c r="G13" t="n">
-        <v>-0.005660370438284143</v>
-      </c>
-      <c r="H13" t="n">
-        <v>-0.008373343982560788</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.002712973544276645</v>
-      </c>
-      <c r="J13" t="n">
-        <v>-0.01186008466221282</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.005476881555751545</v>
-      </c>
-      <c r="L13" t="n">
-        <v>-0.002639267317054009</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>2024Q2</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0.05666773913897297</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.3068927901739539</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.04166666666666666</v>
-      </c>
-      <c r="F14" t="n">
-        <v>9.666666666666666</v>
-      </c>
-      <c r="G14" t="n">
-        <v>-0.007874425908936944</v>
-      </c>
-      <c r="H14" t="n">
-        <v>-0.05816377480215867</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0.05028934889322173</v>
-      </c>
-      <c r="J14" t="n">
-        <v>-0.01842450972272734</v>
-      </c>
-      <c r="K14" t="n">
-        <v>-0.1099818726055835</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0.1088943291008205</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>2024Q3</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>0.0528303901842694</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.3083251404053274</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>8.666666666666666</v>
-      </c>
-      <c r="G15" t="n">
-        <v>-0.003837348954703564</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.001432350231373447</v>
-      </c>
-      <c r="I15" t="n">
-        <v>-0.005269699186077011</v>
-      </c>
-      <c r="J15" t="n">
-        <v>-0.01689990649092796</v>
-      </c>
-      <c r="K15" t="n">
-        <v>-0.08311442437483352</v>
-      </c>
-      <c r="L15" t="n">
-        <v>-0.02534284499895061</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>2024Q4</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>0.07571631172107923</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.3176934783546929</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.03333333333333333</v>
-      </c>
-      <c r="F16" t="n">
-        <v>10</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.02288592153680983</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.009368337949365479</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0.01351758358744435</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.005513776234885179</v>
-      </c>
-      <c r="K16" t="n">
-        <v>-0.05573643060398054</v>
-      </c>
-      <c r="L16" t="n">
-        <v>-0.004964311045039839</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>2025Q1</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>0.07420886769687297</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.316025742713392</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>7.333333333333333</v>
-      </c>
-      <c r="G17" t="n">
-        <v>-0.001507444024206259</v>
-      </c>
-      <c r="H17" t="n">
-        <v>-0.001667735641300905</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0.0001602916170946461</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.009666702648963063</v>
-      </c>
-      <c r="K17" t="n">
-        <v>-0.04903082226272065</v>
-      </c>
-      <c r="L17" t="n">
-        <v>-0.002552681927181999</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>2025Q2</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>0.1010220660168722</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.2921355996207666</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>10.66666666666667</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.02681319831999926</v>
-      </c>
-      <c r="H18" t="n">
-        <v>-0.02389014309262538</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0.05070334141262464</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.04435432687789927</v>
-      </c>
-      <c r="K18" t="n">
-        <v>-0.01475719055318736</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0.0004139925194029115</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>2025Q3</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0.1068187569398576</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.2977001344286375</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.02777777777777778</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>10.33333333333333</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.005796690922985348</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0.005564534807870947</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0.0002321561151144014</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.05398836675558818</v>
-      </c>
-      <c r="K19" t="n">
-        <v>-0.01062500597668986</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0.005501855301191412</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>2025Q4</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0.08874098392661096</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.3215198146055466</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.03703703703703703</v>
-      </c>
-      <c r="F20" t="n">
-        <v>6.666666666666667</v>
-      </c>
-      <c r="G20" t="n">
-        <v>-0.01807777301324662</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0.02381968017690905</v>
-      </c>
-      <c r="I20" t="n">
-        <v>-0.04189745319015567</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.01302467220553173</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.003826336250853712</v>
-      </c>
-      <c r="L20" t="n">
-        <v>-0.05541503677760002</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>2026Q1</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0.0948437175572806</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.2856951568613685</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.07142857142857142</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.07142857142857142</v>
-      </c>
-      <c r="F21" t="n">
-        <v>12</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.006102733630669641</v>
-      </c>
-      <c r="H21" t="n">
-        <v>-0.03582465774417809</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0.04192739137484773</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.02063484986040763</v>
-      </c>
-      <c r="K21" t="n">
-        <v>-0.03033058585202347</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0.04176709975775308</v>
+        <v>0.01384667248969471</v>
       </c>
     </row>
   </sheetData>

--- a/pubmatic_index.xlsx
+++ b/pubmatic_index.xlsx
@@ -2507,7 +2507,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2556,6 +2556,26 @@
           <t>pub_index_q_yoy</t>
         </is>
       </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>struct_pub_share</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>struct_comp_share</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>struct_outperf</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>struct_outperf_yoy</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -2580,6 +2600,16 @@
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>0.108108108</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-0.291891892</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2606,6 +2636,16 @@
         <v>-0.0184219695</v>
       </c>
       <c r="H3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>0.07934579645714285</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.4101794638142858</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-0.3308336673571429</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2632,6 +2672,16 @@
         <v>-0.0242180835</v>
       </c>
       <c r="H4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>0.07578112153333333</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.3907256863222222</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-0.3149445647888889</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2658,6 +2708,16 @@
         <v>0.08385462431830934</v>
       </c>
       <c r="H5" t="inlineStr"/>
+      <c r="I5" t="n">
+        <v>0.1493226793183093</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.3831075597727699</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-0.2337848804544606</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2686,6 +2746,18 @@
       <c r="H6" t="n">
         <v>-0.005199830999999988</v>
       </c>
+      <c r="I6" t="n">
+        <v>0.102908277</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.402684564</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-0.299776287</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.02701135323073678</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2714,6 +2786,18 @@
       <c r="H7" t="n">
         <v>-0.04296850153047157</v>
       </c>
+      <c r="I7" t="n">
+        <v>0.05835321335067505</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.3872388234499205</v>
+      </c>
+      <c r="K7" t="n">
+        <v>-0.3288856100992454</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-0.005888328335684534</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2742,6 +2826,18 @@
       <c r="H8" t="n">
         <v>0.002302444844158383</v>
       </c>
+      <c r="I8" t="n">
+        <v>0.0693636464975713</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.3661496268939584</v>
+      </c>
+      <c r="K8" t="n">
+        <v>-0.296785980396387</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-0.05765644631674705</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2770,6 +2866,18 @@
       <c r="H9" t="n">
         <v>-0.06983639102495909</v>
       </c>
+      <c r="I9" t="n">
+        <v>0.07619810651255549</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.3642757533389226</v>
+      </c>
+      <c r="K9" t="n">
+        <v>-0.2880776468263671</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.2322338650231157</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2798,6 +2906,18 @@
       <c r="H10" t="n">
         <v>-0.006923340627399049</v>
       </c>
+      <c r="I10" t="n">
+        <v>0.08095832897003177</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.3526428828493964</v>
+      </c>
+      <c r="K10" t="n">
+        <v>-0.2716845538793646</v>
+      </c>
+      <c r="L10" t="n">
+        <v>-0.09370899013315015</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2826,6 +2946,18 @@
       <c r="H11" t="n">
         <v>0.03525490853264226</v>
       </c>
+      <c r="I11" t="n">
+        <v>0.07953337952278711</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.3566932889943775</v>
+      </c>
+      <c r="K11" t="n">
+        <v>-0.2771599094715904</v>
+      </c>
+      <c r="L11" t="n">
+        <v>-0.1572756576733355</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2854,6 +2986,18 @@
       <c r="H12" t="n">
         <v>0.009069283379495488</v>
       </c>
+      <c r="I12" t="n">
+        <v>0.0785765924326669</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.3501030552297806</v>
+      </c>
+      <c r="K12" t="n">
+        <v>-0.2715264627971137</v>
+      </c>
+      <c r="L12" t="n">
+        <v>-0.08511021162636023</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2882,6 +3026,18 @@
       <c r="H13" t="n">
         <v>0.001300923606631949</v>
       </c>
+      <c r="I13" t="n">
+        <v>0.07997296529438562</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.3663393478835924</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-0.2863663825892068</v>
+      </c>
+      <c r="L13" t="n">
+        <v>-0.005940288168876151</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2910,6 +3066,18 @@
       <c r="H14" t="n">
         <v>-0.018355566871677</v>
       </c>
+      <c r="I14" t="n">
+        <v>0.07503083144407637</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.3509653241224536</v>
+      </c>
+      <c r="K14" t="n">
+        <v>-0.2759344926783773</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.01564291653068994</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2938,6 +3106,18 @@
       <c r="H15" t="n">
         <v>-0.005740342854094388</v>
       </c>
+      <c r="I15" t="n">
+        <v>0.0616435026809537</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.3031180056651374</v>
+      </c>
+      <c r="K15" t="n">
+        <v>-0.2414745029841837</v>
+      </c>
+      <c r="L15" t="n">
+        <v>-0.1287538538868824</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2966,6 +3146,18 @@
       <c r="H16" t="n">
         <v>-0.003043827965551596</v>
       </c>
+      <c r="I16" t="n">
+        <v>0.05387854874033485</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.2907285623440602</v>
+      </c>
+      <c r="K16" t="n">
+        <v>-0.2368500136037253</v>
+      </c>
+      <c r="L16" t="n">
+        <v>-0.1277092804737004</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2994,6 +3186,18 @@
       <c r="H17" t="n">
         <v>0.0020310731900888</v>
       </c>
+      <c r="I17" t="n">
+        <v>0.0713397436418451</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.3228187098619124</v>
+      </c>
+      <c r="K17" t="n">
+        <v>-0.2514789662200673</v>
+      </c>
+      <c r="L17" t="n">
+        <v>-0.1218279047062082</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3022,6 +3226,18 @@
       <c r="H18" t="n">
         <v>0.005695837348130312</v>
       </c>
+      <c r="I18" t="n">
+        <v>0.07304880225158991</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.3089007092112859</v>
+      </c>
+      <c r="K18" t="n">
+        <v>-0.235851906959696</v>
+      </c>
+      <c r="L18" t="n">
+        <v>-0.1452612369320589</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3050,6 +3266,18 @@
       <c r="H19" t="n">
         <v>0.01627026878982239</v>
       </c>
+      <c r="I19" t="n">
+        <v>0.08378966317958914</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.2941511762854176</v>
+      </c>
+      <c r="K19" t="n">
+        <v>-0.2103615131058285</v>
+      </c>
+      <c r="L19" t="n">
+        <v>-0.1288458594752468</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3078,6 +3306,18 @@
       <c r="H20" t="n">
         <v>0.02510873514806394</v>
       </c>
+      <c r="I20" t="n">
+        <v>0.09503764666475309</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.321860205835205</v>
+      </c>
+      <c r="K20" t="n">
+        <v>-0.2268225591704519</v>
+      </c>
+      <c r="L20" t="n">
+        <v>-0.04233672728450999</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3106,6 +3346,18 @@
       <c r="H21" t="n">
         <v>0.007525036501472612</v>
       </c>
+      <c r="I21" t="n">
+        <v>0.07740772446012015</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.2912632172066835</v>
+      </c>
+      <c r="K21" t="n">
+        <v>-0.2138554927465634</v>
+      </c>
+      <c r="L21" t="n">
+        <v>-0.14960882828101</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3133,6 +3385,18 @@
       </c>
       <c r="H22" t="n">
         <v>0.01008016898393405</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.07593777652216803</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.2704643720712596</v>
+      </c>
+      <c r="K22" t="n">
+        <v>-0.1945265955490915</v>
+      </c>
+      <c r="L22" t="n">
+        <v>-0.1752172027918623</v>
       </c>
     </row>
   </sheetData>

--- a/pubmatic_index.xlsx
+++ b/pubmatic_index.xlsx
@@ -1246,19 +1246,19 @@
         <v>4</v>
       </c>
       <c r="C23" t="n">
-        <v>0.08151933949741133</v>
+        <v>0.0789840268919749</v>
       </c>
       <c r="D23" t="n">
-        <v>0.08151933949741133</v>
+        <v>0.0789840268919749</v>
       </c>
       <c r="E23" t="n">
-        <v>0.338725239614215</v>
+        <v>0.3377571644243381</v>
       </c>
       <c r="F23" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G23" t="n">
-        <v>634.4545454545455</v>
+        <v>592.92</v>
       </c>
       <c r="H23" s="1" t="n">
         <v>45017</v>
@@ -1269,10 +1269,10 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>0.00390639416203746</v>
+        <v>0.001371081556601025</v>
       </c>
       <c r="K23" t="n">
-        <v>0.02036619033448165</v>
+        <v>0.01783087772904522</v>
       </c>
     </row>
     <row r="24">
@@ -1283,19 +1283,19 @@
         <v>5</v>
       </c>
       <c r="C24" t="n">
-        <v>0.08365718814461241</v>
+        <v>0.08228700232025161</v>
       </c>
       <c r="D24" t="n">
-        <v>0.08365718814461241</v>
+        <v>0.08228700232025161</v>
       </c>
       <c r="E24" t="n">
-        <v>0.346354016048446</v>
+        <v>0.3526178590746237</v>
       </c>
       <c r="F24" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G24" t="n">
-        <v>641.3636363636364</v>
+        <v>586.16</v>
       </c>
       <c r="H24" s="1" t="n">
         <v>45047</v>
@@ -1306,10 +1306,10 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>0.002137848647201082</v>
+        <v>0.003302975428276719</v>
       </c>
       <c r="K24" t="n">
-        <v>0.02520537139895681</v>
+        <v>0.02383518557459601</v>
       </c>
     </row>
     <row r="25">
@@ -1320,19 +1320,19 @@
         <v>6</v>
       </c>
       <c r="C25" t="n">
-        <v>0.08074110886448833</v>
+        <v>0.07819415285949669</v>
       </c>
       <c r="D25" t="n">
-        <v>0.08074110886448833</v>
+        <v>0.07819415285949669</v>
       </c>
       <c r="E25" t="n">
-        <v>0.3779589704707321</v>
+        <v>0.3750160071746528</v>
       </c>
       <c r="F25" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G25" t="n">
-        <v>519</v>
+        <v>469.9032258064516</v>
       </c>
       <c r="H25" s="1" t="n">
         <v>45078</v>
@@ -1343,10 +1343,10 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>-0.002916079280124079</v>
+        <v>-0.00409284946075493</v>
       </c>
       <c r="K25" t="n">
-        <v>0.06019316386448834</v>
+        <v>0.05764620785949669</v>
       </c>
     </row>
     <row r="26">
@@ -1357,19 +1357,19 @@
         <v>7</v>
       </c>
       <c r="C26" t="n">
-        <v>0.07700216450685342</v>
+        <v>0.07521459749666298</v>
       </c>
       <c r="D26" t="n">
-        <v>0.07700216450685342</v>
+        <v>0.07521459749666298</v>
       </c>
       <c r="E26" t="n">
-        <v>0.3613776666696887</v>
+        <v>0.360843647665672</v>
       </c>
       <c r="F26" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G26" t="n">
-        <v>448.037037037037</v>
+        <v>411.78125</v>
       </c>
       <c r="H26" s="1" t="n">
         <v>45108</v>
@@ -1380,10 +1380,10 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>-0.003738944357634916</v>
+        <v>-0.002979555362833702</v>
       </c>
       <c r="K26" t="n">
-        <v>0.02990554694048172</v>
+        <v>0.02811797993029128</v>
       </c>
     </row>
     <row r="27">
@@ -1394,19 +1394,19 @@
         <v>8</v>
       </c>
       <c r="C27" t="n">
-        <v>0.07654631969066918</v>
+        <v>0.07486333057622499</v>
       </c>
       <c r="D27" t="n">
-        <v>0.07654631969066918</v>
+        <v>0.07486333057622499</v>
       </c>
       <c r="E27" t="n">
-        <v>0.355442840621135</v>
+        <v>0.3559850677401643</v>
       </c>
       <c r="F27" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G27" t="n">
-        <v>435.24</v>
+        <v>397.8</v>
       </c>
       <c r="H27" s="1" t="n">
         <v>45139</v>
@@ -1417,10 +1417,10 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>-0.0004558448161842421</v>
+        <v>-0.0003512669204379926</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.003412678374717648</v>
+        <v>-0.005095667489161834</v>
       </c>
     </row>
     <row r="28">
@@ -1431,19 +1431,19 @@
         <v>9</v>
       </c>
       <c r="C28" t="n">
-        <v>0.07697086547343901</v>
+        <v>0.07417645769037833</v>
       </c>
       <c r="D28" t="n">
-        <v>0.07697086547343901</v>
+        <v>0.07417645769037833</v>
       </c>
       <c r="E28" t="n">
-        <v>0.2957482495272344</v>
+        <v>0.2966109786739843</v>
       </c>
       <c r="F28" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G28" t="n">
-        <v>492.5714285714286</v>
+        <v>473.0416666666667</v>
       </c>
       <c r="H28" s="1" t="n">
         <v>45170</v>
@@ -1454,10 +1454,10 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>0.0004245457827698335</v>
+        <v>-0.0006868728858466649</v>
       </c>
       <c r="K28" t="n">
-        <v>0.0007149815727224146</v>
+        <v>-0.00207942621033827</v>
       </c>
     </row>
     <row r="29">
@@ -1468,19 +1468,19 @@
         <v>10</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0741986659910874</v>
+        <v>0.07293180539369523</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0741986659910874</v>
+        <v>0.07293180539369523</v>
       </c>
       <c r="E29" t="n">
-        <v>0.3338998292189422</v>
+        <v>0.3387636812105863</v>
       </c>
       <c r="F29" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G29" t="n">
-        <v>441</v>
+        <v>398.6153846153846</v>
       </c>
       <c r="H29" s="1" t="n">
         <v>45200</v>
@@ -1491,10 +1491,10 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>-0.002772199482351606</v>
+        <v>-0.001244652296683094</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.01001942656742588</v>
+        <v>-0.01128628716481805</v>
       </c>
     </row>
     <row r="30">
@@ -1505,19 +1505,19 @@
         <v>11</v>
       </c>
       <c r="C30" t="n">
-        <v>0.08439368902807952</v>
+        <v>0.0811115701369084</v>
       </c>
       <c r="D30" t="n">
-        <v>0.08439368902807952</v>
+        <v>0.0811115701369084</v>
       </c>
       <c r="E30" t="n">
-        <v>0.3394506899966835</v>
+        <v>0.3432941205446162</v>
       </c>
       <c r="F30" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G30" t="n">
-        <v>399.5454545454546</v>
+        <v>367.962962962963</v>
       </c>
       <c r="H30" s="1" t="n">
         <v>45231</v>
@@ -1528,10 +1528,10 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>0.01019502303699212</v>
+        <v>0.008179764743213164</v>
       </c>
       <c r="K30" t="n">
-        <v>0.01051370148099628</v>
+        <v>0.007231582589825161</v>
       </c>
     </row>
     <row r="31">
@@ -1542,19 +1542,19 @@
         <v>12</v>
       </c>
       <c r="C31" t="n">
-        <v>0.08376928068077967</v>
+        <v>0.08113853386791915</v>
       </c>
       <c r="D31" t="n">
-        <v>0.08376928068077967</v>
+        <v>0.08113853386791915</v>
       </c>
       <c r="E31" t="n">
-        <v>0.3422784186160625</v>
+        <v>0.3494356339058072</v>
       </c>
       <c r="F31" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G31" t="n">
-        <v>457.28</v>
+        <v>415.0666666666667</v>
       </c>
       <c r="H31" s="1" t="n">
         <v>45261</v>
@@ -1565,10 +1565,10 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>-0.0006244083472998485</v>
+        <v>2.696373101075678e-05</v>
       </c>
       <c r="K31" t="n">
-        <v>0.003408495906325457</v>
+        <v>0.0007777490934649384</v>
       </c>
     </row>
     <row r="32">
@@ -1579,19 +1579,19 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>0.07935464281427572</v>
+        <v>0.07708117155886306</v>
       </c>
       <c r="D32" t="n">
-        <v>0.07935464281427572</v>
+        <v>0.07708117155886306</v>
       </c>
       <c r="E32" t="n">
-        <v>0.3412712916861851</v>
+        <v>0.3493836802591693</v>
       </c>
       <c r="F32" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G32" t="n">
-        <v>599</v>
+        <v>528.1111111111111</v>
       </c>
       <c r="H32" s="1" t="n">
         <v>45292</v>
@@ -1602,10 +1602,10 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>-0.004414637866503951</v>
+        <v>-0.004057362309056095</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.05275592796815327</v>
+        <v>-0.05502939922356594</v>
       </c>
     </row>
     <row r="33">
@@ -1616,19 +1616,19 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0731126344519285</v>
+        <v>0.07318450115629184</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0731126344519285</v>
+        <v>0.07318450115629184</v>
       </c>
       <c r="E33" t="n">
-        <v>0.3254929654825749</v>
+        <v>0.3314676083880573</v>
       </c>
       <c r="F33" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G33" t="n">
-        <v>574.3</v>
+        <v>529.0416666666666</v>
       </c>
       <c r="H33" s="1" t="n">
         <v>45323</v>
@@ -1639,10 +1639,10 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>-0.006242008362347215</v>
+        <v>-0.003896670402571217</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.005118658548071489</v>
+        <v>-0.005046791843708154</v>
       </c>
     </row>
     <row r="34">
@@ -1653,19 +1653,19 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>0.08042083123656765</v>
+        <v>0.07849351188169389</v>
       </c>
       <c r="D34" t="n">
-        <v>0.08042083123656765</v>
+        <v>0.07849351188169389</v>
       </c>
       <c r="E34" t="n">
-        <v>0.3419364950980895</v>
+        <v>0.3487716290740843</v>
       </c>
       <c r="F34" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G34" t="n">
-        <v>594.7</v>
+        <v>527.96</v>
       </c>
       <c r="H34" s="1" t="n">
         <v>45352</v>
@@ -1676,10 +1676,10 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>0.007308196784639148</v>
+        <v>0.005309010725402047</v>
       </c>
       <c r="K34" t="n">
-        <v>0.002807885901193782</v>
+        <v>0.0008805665463200163</v>
       </c>
     </row>
     <row r="35">
@@ -1690,19 +1690,19 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>0.07412073821478439</v>
+        <v>0.07369863183287034</v>
       </c>
       <c r="D35" t="n">
-        <v>0.07412073821478439</v>
+        <v>0.07369863183287034</v>
       </c>
       <c r="E35" t="n">
-        <v>0.3224012911435279</v>
+        <v>0.3334050257853984</v>
       </c>
       <c r="F35" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G35" t="n">
-        <v>585.4736842105264</v>
+        <v>518.125</v>
       </c>
       <c r="H35" s="1" t="n">
         <v>45383</v>
@@ -1713,10 +1713,10 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>-0.006300093021783262</v>
+        <v>-0.004794880048823544</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.00739860128262694</v>
+        <v>-0.005285395059104553</v>
       </c>
     </row>
     <row r="36">
@@ -1727,19 +1727,19 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>0.07460140398837141</v>
+        <v>0.07405187115565655</v>
       </c>
       <c r="D36" t="n">
-        <v>0.07460140398837141</v>
+        <v>0.07405187115565655</v>
       </c>
       <c r="E36" t="n">
-        <v>0.3088136933737958</v>
+        <v>0.3196753479902494</v>
       </c>
       <c r="F36" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G36" t="n">
-        <v>590.875</v>
+        <v>535.551724137931</v>
       </c>
       <c r="H36" s="1" t="n">
         <v>45413</v>
@@ -1750,10 +1750,10 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>0.000480665773587019</v>
+        <v>0.0003532393227862057</v>
       </c>
       <c r="K36" t="n">
-        <v>-0.009055784156241004</v>
+        <v>-0.008235131164595066</v>
       </c>
     </row>
     <row r="37">
@@ -1764,19 +1764,19 @@
         <v>6</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0799744657410731</v>
+        <v>0.07851009550673627</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0799744657410731</v>
+        <v>0.07851009550673627</v>
       </c>
       <c r="E37" t="n">
-        <v>0.3067783518602022</v>
+        <v>0.3170052538844795</v>
       </c>
       <c r="F37" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G37" t="n">
-        <v>571.0384615384615</v>
+        <v>516.8387096774194</v>
       </c>
       <c r="H37" s="1" t="n">
         <v>45444</v>
@@ -1787,10 +1787,10 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>0.005373061752701691</v>
+        <v>0.004458224351079718</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.0007666431234152338</v>
+        <v>0.000315942647239581</v>
       </c>
     </row>
     <row r="38">
@@ -1801,19 +1801,19 @@
         <v>7</v>
       </c>
       <c r="C38" t="n">
-        <v>0.07468147880389217</v>
+        <v>0.0748886879987458</v>
       </c>
       <c r="D38" t="n">
-        <v>0.07468147880389217</v>
+        <v>0.0748886879987458</v>
       </c>
       <c r="E38" t="n">
-        <v>0.3132691899922995</v>
+        <v>0.3238080063825816</v>
       </c>
       <c r="F38" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G38" t="n">
-        <v>549.4545454545455</v>
+        <v>502.2307692307692</v>
       </c>
       <c r="H38" s="1" t="n">
         <v>45474</v>
@@ -1824,10 +1824,10 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>-0.00529298693718093</v>
+        <v>-0.003621407507990462</v>
       </c>
       <c r="K38" t="n">
-        <v>-0.002320685702961248</v>
+        <v>-0.0003259094979171789</v>
       </c>
     </row>
     <row r="39">
@@ -1838,19 +1838,19 @@
         <v>8</v>
       </c>
       <c r="C39" t="n">
-        <v>0.07341511543568023</v>
+        <v>0.07326690546840553</v>
       </c>
       <c r="D39" t="n">
-        <v>0.07341511543568023</v>
+        <v>0.07326690546840553</v>
       </c>
       <c r="E39" t="n">
-        <v>0.3132253183698824</v>
+        <v>0.3217960094354572</v>
       </c>
       <c r="F39" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G39" t="n">
-        <v>569.7307692307693</v>
+        <v>514.516129032258</v>
       </c>
       <c r="H39" s="1" t="n">
         <v>45505</v>
@@ -1861,10 +1861,10 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>-0.00126636336821194</v>
+        <v>-0.001621782530340274</v>
       </c>
       <c r="K39" t="n">
-        <v>-0.003131204254988945</v>
+        <v>-0.00159642510781946</v>
       </c>
     </row>
     <row r="40">
@@ -1875,19 +1875,19 @@
         <v>9</v>
       </c>
       <c r="C40" t="n">
-        <v>0.07329127153473441</v>
+        <v>0.07345135141043431</v>
       </c>
       <c r="D40" t="n">
-        <v>0.07329127153473441</v>
+        <v>0.07345135141043431</v>
       </c>
       <c r="E40" t="n">
-        <v>0.3122279829053629</v>
+        <v>0.3208922119895279</v>
       </c>
       <c r="F40" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G40" t="n">
-        <v>620.7727272727273</v>
+        <v>552.4814814814815</v>
       </c>
       <c r="H40" s="1" t="n">
         <v>45536</v>
@@ -1898,10 +1898,10 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>-0.0001238439009458164</v>
+        <v>0.0001844459420287797</v>
       </c>
       <c r="K40" t="n">
-        <v>-0.003679593938704595</v>
+        <v>-0.0007251062799440156</v>
       </c>
     </row>
     <row r="41">
@@ -1912,19 +1912,19 @@
         <v>10</v>
       </c>
       <c r="C41" t="n">
-        <v>0.07798028012856094</v>
+        <v>0.07733816943045863</v>
       </c>
       <c r="D41" t="n">
-        <v>0.07798028012856094</v>
+        <v>0.07733816943045863</v>
       </c>
       <c r="E41" t="n">
-        <v>0.3330682289289693</v>
+        <v>0.3381728595190706</v>
       </c>
       <c r="F41" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G41" t="n">
-        <v>590.0833333333334</v>
+        <v>531.6551724137931</v>
       </c>
       <c r="H41" s="1" t="n">
         <v>45566</v>
@@ -1935,10 +1935,10 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>0.004689008593826524</v>
+        <v>0.003886818020024316</v>
       </c>
       <c r="K41" t="n">
-        <v>0.003781614137473535</v>
+        <v>0.004406364036763394</v>
       </c>
     </row>
     <row r="42">
@@ -1949,19 +1949,19 @@
         <v>11</v>
       </c>
       <c r="C42" t="n">
-        <v>0.07828315053306369</v>
+        <v>0.07773288538572426</v>
       </c>
       <c r="D42" t="n">
-        <v>0.07828315053306369</v>
+        <v>0.07773288538572426</v>
       </c>
       <c r="E42" t="n">
-        <v>0.3115153163974373</v>
+        <v>0.3183459110876878</v>
       </c>
       <c r="F42" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G42" t="n">
-        <v>561.52</v>
+        <v>509.0333333333334</v>
       </c>
       <c r="H42" s="1" t="n">
         <v>45597</v>
@@ -1972,10 +1972,10 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>0.0003028704045027475</v>
+        <v>0.0003947159552656343</v>
       </c>
       <c r="K42" t="n">
-        <v>-0.006110538495015833</v>
+        <v>-0.003378684751184136</v>
       </c>
     </row>
     <row r="43">
@@ -1986,19 +1986,19 @@
         <v>12</v>
       </c>
       <c r="C43" t="n">
-        <v>0.09219142460858837</v>
+        <v>0.08920687667346817</v>
       </c>
       <c r="D43" t="n">
-        <v>0.09219142460858837</v>
+        <v>0.08920687667346817</v>
       </c>
       <c r="E43" t="n">
-        <v>0.3072771719618406</v>
+        <v>0.31603882458433</v>
       </c>
       <c r="F43" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G43" t="n">
-        <v>634.0833333333334</v>
+        <v>585.1428571428571</v>
       </c>
       <c r="H43" s="1" t="n">
         <v>45627</v>
@@ -2009,10 +2009,10 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>0.01390827407552468</v>
+        <v>0.01147399128774391</v>
       </c>
       <c r="K43" t="n">
-        <v>0.008422143927808698</v>
+        <v>0.008068342805549023</v>
       </c>
     </row>
     <row r="44">
@@ -2023,19 +2023,19 @@
         <v>1</v>
       </c>
       <c r="C44" t="n">
-        <v>0.08498028867126266</v>
+        <v>0.08296594685791116</v>
       </c>
       <c r="D44" t="n">
-        <v>0.08498028867126266</v>
+        <v>0.08296594685791116</v>
       </c>
       <c r="E44" t="n">
-        <v>0.3294544550418659</v>
+        <v>0.3359681248804478</v>
       </c>
       <c r="F44" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G44" t="n">
-        <v>543.1904761904761</v>
+        <v>491.3461538461539</v>
       </c>
       <c r="H44" s="1" t="n">
         <v>45658</v>
@@ -2046,10 +2046,10 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>-0.007211135937325711</v>
+        <v>-0.006240929815557017</v>
       </c>
       <c r="K44" t="n">
-        <v>0.005625645856986938</v>
+        <v>0.005884775299048101</v>
       </c>
     </row>
     <row r="45">
@@ -2060,19 +2060,19 @@
         <v>2</v>
       </c>
       <c r="C45" t="n">
-        <v>0.08605148690295364</v>
+        <v>0.08424525296711799</v>
       </c>
       <c r="D45" t="n">
-        <v>0.08605148690295364</v>
+        <v>0.08424525296711799</v>
       </c>
       <c r="E45" t="n">
-        <v>0.3070835508603415</v>
+        <v>0.3166212066817833</v>
       </c>
       <c r="F45" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G45" t="n">
-        <v>671.24</v>
+        <v>611.0666666666667</v>
       </c>
       <c r="H45" s="1" t="n">
         <v>45689</v>
@@ -2083,10 +2083,10 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>0.001071198231690981</v>
+        <v>0.001279306109206832</v>
       </c>
       <c r="K45" t="n">
-        <v>0.01293885245102513</v>
+        <v>0.01106075181082615</v>
       </c>
     </row>
     <row r="46">
@@ -2097,19 +2097,19 @@
         <v>3</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0789438449729465</v>
+        <v>0.07803409259266506</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0789438449729465</v>
+        <v>0.07803409259266506</v>
       </c>
       <c r="E46" t="n">
-        <v>0.3075505558031514</v>
+        <v>0.3175743252576961</v>
       </c>
       <c r="F46" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G46" t="n">
-        <v>740.6818181818181</v>
+        <v>662.6666666666666</v>
       </c>
       <c r="H46" s="1" t="n">
         <v>45717</v>
@@ -2120,10 +2120,10 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>-0.007107641930007139</v>
+        <v>-0.006211160374452934</v>
       </c>
       <c r="K46" t="n">
-        <v>-0.001476986263621152</v>
+        <v>-0.0004594192890288312</v>
       </c>
     </row>
     <row r="47">
@@ -2134,19 +2134,19 @@
         <v>4</v>
       </c>
       <c r="C47" t="n">
-        <v>0.08351900097420439</v>
+        <v>0.08234624643802872</v>
       </c>
       <c r="D47" t="n">
-        <v>0.08351900097420439</v>
+        <v>0.08234624643802872</v>
       </c>
       <c r="E47" t="n">
-        <v>0.3187710595508288</v>
+        <v>0.3255465668990484</v>
       </c>
       <c r="F47" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G47" t="n">
-        <v>678.5416666666666</v>
+        <v>620.4827586206897</v>
       </c>
       <c r="H47" s="1" t="n">
         <v>45748</v>
@@ -2157,10 +2157,10 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>0.004575156001257893</v>
+        <v>0.004312153845363667</v>
       </c>
       <c r="K47" t="n">
-        <v>0.009398262759420004</v>
+        <v>0.00864761460515838</v>
       </c>
     </row>
     <row r="48">
@@ -2171,19 +2171,19 @@
         <v>5</v>
       </c>
       <c r="C48" t="n">
-        <v>0.09732826253954802</v>
+        <v>0.09383626980496464</v>
       </c>
       <c r="D48" t="n">
-        <v>0.09732826253954802</v>
+        <v>0.09383626980496464</v>
       </c>
       <c r="E48" t="n">
-        <v>0.3193405259477504</v>
+        <v>0.325178072490915</v>
       </c>
       <c r="F48" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G48" t="n">
-        <v>621.5599999999999</v>
+        <v>577.4333333333333</v>
       </c>
       <c r="H48" s="1" t="n">
         <v>45778</v>
@@ -2194,10 +2194,10 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>0.01380926156534362</v>
+        <v>0.01149002336693591</v>
       </c>
       <c r="K48" t="n">
-        <v>0.02272685855117661</v>
+        <v>0.01978439864930809</v>
       </c>
     </row>
     <row r="49">
@@ -2208,19 +2208,19 @@
         <v>6</v>
       </c>
       <c r="C49" t="n">
-        <v>0.09666015079994367</v>
+        <v>0.09469169710863536</v>
       </c>
       <c r="D49" t="n">
-        <v>0.09666015079994367</v>
+        <v>0.09469169710863536</v>
       </c>
       <c r="E49" t="n">
-        <v>0.3124768802209925</v>
+        <v>0.3212873387111133</v>
       </c>
       <c r="F49" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G49" t="n">
-        <v>641.3333333333334</v>
+        <v>607.6071428571429</v>
       </c>
       <c r="H49" s="1" t="n">
         <v>45809</v>
@@ -2231,10 +2231,10 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>-0.000668111739604349</v>
+        <v>0.0008554273036707194</v>
       </c>
       <c r="K49" t="n">
-        <v>0.01668568505887057</v>
+        <v>0.01618160160189909</v>
       </c>
     </row>
     <row r="50">
@@ -2245,19 +2245,19 @@
         <v>7</v>
       </c>
       <c r="C50" t="n">
-        <v>0.09885859446931704</v>
+        <v>0.09524570450225918</v>
       </c>
       <c r="D50" t="n">
-        <v>0.09885859446931704</v>
+        <v>0.09524570450225918</v>
       </c>
       <c r="E50" t="n">
-        <v>0.3113427885628509</v>
+        <v>0.3181212018204945</v>
       </c>
       <c r="F50" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G50" t="n">
-        <v>669.8</v>
+        <v>618.9</v>
       </c>
       <c r="H50" s="1" t="n">
         <v>45839</v>
@@ -2268,10 +2268,10 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>0.002198443669373371</v>
+        <v>0.0005540073936238232</v>
       </c>
       <c r="K50" t="n">
-        <v>0.02417711566542487</v>
+        <v>0.02035701650351338</v>
       </c>
     </row>
     <row r="51">
@@ -2282,19 +2282,19 @@
         <v>8</v>
       </c>
       <c r="C51" t="n">
-        <v>0.1034019821826282</v>
+        <v>0.09900166801801441</v>
       </c>
       <c r="D51" t="n">
-        <v>0.1034019821826282</v>
+        <v>0.09900166801801441</v>
       </c>
       <c r="E51" t="n">
-        <v>0.3263308131894101</v>
+        <v>0.3304065815795433</v>
       </c>
       <c r="F51" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G51" t="n">
-        <v>683.48</v>
+        <v>633.3</v>
       </c>
       <c r="H51" s="1" t="n">
         <v>45870</v>
@@ -2305,10 +2305,10 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>0.004543387713311114</v>
+        <v>0.003755963515755231</v>
       </c>
       <c r="K51" t="n">
-        <v>0.02998686674694792</v>
+        <v>0.02573476254960888</v>
       </c>
     </row>
     <row r="52">
@@ -2319,19 +2319,19 @@
         <v>9</v>
       </c>
       <c r="C52" t="n">
-        <v>0.09445349456655346</v>
+        <v>0.09064264889676674</v>
       </c>
       <c r="D52" t="n">
-        <v>0.09445349456655346</v>
+        <v>0.09064264889676674</v>
       </c>
       <c r="E52" t="n">
-        <v>0.3149918166203955</v>
+        <v>0.3229277002348039</v>
       </c>
       <c r="F52" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G52" t="n">
-        <v>766.1111111111111</v>
+        <v>678.6521739130435</v>
       </c>
       <c r="H52" s="1" t="n">
         <v>45901</v>
@@ -2342,10 +2342,10 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>-0.008948487616074696</v>
+        <v>-0.008359019121247674</v>
       </c>
       <c r="K52" t="n">
-        <v>0.02116222303181904</v>
+        <v>0.01719129748633243</v>
       </c>
     </row>
     <row r="53">
@@ -2356,19 +2356,19 @@
         <v>10</v>
       </c>
       <c r="C53" t="n">
-        <v>0.09275558306813161</v>
+        <v>0.08916958320925654</v>
       </c>
       <c r="D53" t="n">
-        <v>0.09275558306813161</v>
+        <v>0.08916958320925654</v>
       </c>
       <c r="E53" t="n">
-        <v>0.3266173773880408</v>
+        <v>0.3293567456645816</v>
       </c>
       <c r="F53" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G53" t="n">
-        <v>784.95</v>
+        <v>729.0833333333334</v>
       </c>
       <c r="H53" s="1" t="n">
         <v>45931</v>
@@ -2379,10 +2379,10 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>-0.001697911498421842</v>
+        <v>-0.001473065687510197</v>
       </c>
       <c r="K53" t="n">
-        <v>0.01477530293957068</v>
+        <v>0.01183141377879791</v>
       </c>
     </row>
     <row r="54">
@@ -2393,19 +2393,19 @@
         <v>11</v>
       </c>
       <c r="C54" t="n">
-        <v>0.09668163731153843</v>
+        <v>0.09240662635207367</v>
       </c>
       <c r="D54" t="n">
-        <v>0.09668163731153843</v>
+        <v>0.09240662635207367</v>
       </c>
       <c r="E54" t="n">
-        <v>0.3396360919251153</v>
+        <v>0.3409730219670824</v>
       </c>
       <c r="F54" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G54" t="n">
-        <v>691.1875</v>
+        <v>607.2857142857143</v>
       </c>
       <c r="H54" s="1" t="n">
         <v>45962</v>
@@ -2416,10 +2416,10 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>0.003926054243406821</v>
+        <v>0.003237043142817128</v>
       </c>
       <c r="K54" t="n">
-        <v>0.01839848677847475</v>
+        <v>0.01467374096634941</v>
       </c>
     </row>
     <row r="55">
@@ -2430,19 +2430,19 @@
         <v>12</v>
       </c>
       <c r="C55" t="n">
-        <v>0.08159274439496074</v>
+        <v>0.08145315178145521</v>
       </c>
       <c r="D55" t="n">
-        <v>0.08159274439496074</v>
+        <v>0.08145315178145521</v>
       </c>
       <c r="E55" t="n">
-        <v>0.2980742890335366</v>
+        <v>0.3065284935932987</v>
       </c>
       <c r="F55" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G55" t="n">
-        <v>811.2777777777778</v>
+        <v>766.3333333333334</v>
       </c>
       <c r="H55" s="1" t="n">
         <v>45992</v>
@@ -2453,10 +2453,10 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>-0.0150888929165777</v>
+        <v>-0.01095347457061846</v>
       </c>
       <c r="K55" t="n">
-        <v>-0.01059868021362763</v>
+        <v>-0.007753724892012967</v>
       </c>
     </row>
     <row r="56">
@@ -2467,19 +2467,19 @@
         <v>1</v>
       </c>
       <c r="C56" t="n">
-        <v>0.09340537583298832</v>
+        <v>0.09123299688563545</v>
       </c>
       <c r="D56" t="n">
-        <v>0.09340537583298832</v>
+        <v>0.09123299688563545</v>
       </c>
       <c r="E56" t="n">
-        <v>0.3075603275807016</v>
+        <v>0.3129779088547938</v>
       </c>
       <c r="F56" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G56" t="n">
-        <v>614.8928571428571</v>
+        <v>572.8181818181819</v>
       </c>
       <c r="H56" s="1" t="n">
         <v>46023</v>
@@ -2490,10 +2490,10 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>0.01181263143802758</v>
+        <v>0.009779845104180243</v>
       </c>
       <c r="K56" t="n">
-        <v>0.008425087161725658</v>
+        <v>0.008267050027724293</v>
       </c>
     </row>
   </sheetData>
@@ -2637,13 +2637,13 @@
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>0.07934579645714285</v>
+        <v>0.07627777677142858</v>
       </c>
       <c r="J3" t="n">
-        <v>0.4101794638142858</v>
+        <v>0.3935134577428572</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.3308336673571429</v>
+        <v>-0.3172356809714286</v>
       </c>
       <c r="L3" t="inlineStr"/>
     </row>
@@ -2673,13 +2673,13 @@
       </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>0.07578112153333333</v>
+        <v>0.07119323431914894</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3907256863222222</v>
+        <v>0.3856232987021276</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.3149445647888889</v>
+        <v>-0.3144300643829787</v>
       </c>
       <c r="L4" t="inlineStr"/>
     </row>
@@ -2787,16 +2787,16 @@
         <v>-0.04296850153047157</v>
       </c>
       <c r="I7" t="n">
-        <v>0.05835321335067505</v>
+        <v>0.05555494788542022</v>
       </c>
       <c r="J7" t="n">
-        <v>0.3872388234499205</v>
+        <v>0.3858197931862442</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.3288856100992454</v>
+        <v>-0.330264845300824</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.005888328335684534</v>
+        <v>0.04107092963029224</v>
       </c>
     </row>
     <row r="8">
@@ -2827,16 +2827,16 @@
         <v>0.002302444844158383</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0693636464975713</v>
+        <v>0.06624441533390257</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3661496268939584</v>
+        <v>0.3656339959397661</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.296785980396387</v>
+        <v>-0.2993895806058635</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.05765644631674705</v>
+        <v>-0.04783411473909105</v>
       </c>
     </row>
     <row r="9">
@@ -2867,16 +2867,16 @@
         <v>-0.06983639102495909</v>
       </c>
       <c r="I9" t="n">
-        <v>0.07619810651255549</v>
+        <v>0.07364051646380226</v>
       </c>
       <c r="J9" t="n">
-        <v>0.3642757533389226</v>
+        <v>0.361513997363836</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.2880776468263671</v>
+        <v>-0.2878734809000338</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2322338650231157</v>
+        <v>0.2313605582209974</v>
       </c>
     </row>
     <row r="10">
@@ -2907,16 +2907,16 @@
         <v>-0.006923340627399049</v>
       </c>
       <c r="I10" t="n">
-        <v>0.08095832897003177</v>
+        <v>0.08117092497446987</v>
       </c>
       <c r="J10" t="n">
-        <v>0.3526428828493964</v>
+        <v>0.3495041029590277</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.2716845538793646</v>
+        <v>-0.2683331779845579</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.09370899013315015</v>
+        <v>-0.1048885798476854</v>
       </c>
     </row>
     <row r="11">
@@ -2926,37 +2926,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.08197254550217069</v>
+        <v>0.07982172735724107</v>
       </c>
       <c r="C11" t="n">
-        <v>0.08197254550217069</v>
+        <v>0.07982172735724107</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3543460753777977</v>
+        <v>0.3551303435578716</v>
       </c>
       <c r="E11" t="n">
-        <v>23.33333333333333</v>
+        <v>27</v>
       </c>
       <c r="F11" t="n">
         <v>9</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.01401239087043027</v>
+        <v>-0.01616320901535989</v>
       </c>
       <c r="H11" t="n">
-        <v>0.03525490853264226</v>
+        <v>0.03310409038771264</v>
       </c>
       <c r="I11" t="n">
-        <v>0.07953337952278711</v>
+        <v>0.07550426201193439</v>
       </c>
       <c r="J11" t="n">
-        <v>0.3566932889943775</v>
+        <v>0.3645063282456978</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.2771599094715904</v>
+        <v>-0.2890020662337635</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.1572756576733355</v>
+        <v>-0.1249384536506635</v>
       </c>
     </row>
     <row r="12">
@@ -2966,37 +2966,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.07683978322365387</v>
+        <v>0.07475146192108877</v>
       </c>
       <c r="C12" t="n">
-        <v>0.07683978322365387</v>
+        <v>0.07475146192108877</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3375229189393527</v>
+        <v>0.3378132313599402</v>
       </c>
       <c r="E12" t="n">
-        <v>24.33333333333333</v>
+        <v>28.66666666666667</v>
       </c>
       <c r="F12" t="n">
         <v>10</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.00513276227851682</v>
+        <v>-0.005070265436152299</v>
       </c>
       <c r="H12" t="n">
-        <v>0.009069283379495488</v>
+        <v>0.006980962076930386</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0785765924326669</v>
+        <v>0.07346585858598161</v>
       </c>
       <c r="J12" t="n">
-        <v>0.3501030552297806</v>
+        <v>0.3514840429189443</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.2715264627971137</v>
+        <v>-0.2780181843329627</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.08511021162636023</v>
+        <v>-0.07138323327636287</v>
       </c>
     </row>
     <row r="13">
@@ -3006,37 +3006,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0807872118999822</v>
+        <v>0.07839396979950759</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0807872118999822</v>
+        <v>0.07839396979950759</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3385429792772294</v>
+        <v>0.3438311452203366</v>
       </c>
       <c r="E13" t="n">
-        <v>22.66666666666667</v>
+        <v>27.66666666666667</v>
       </c>
       <c r="F13" t="n">
         <v>11</v>
       </c>
       <c r="G13" t="n">
-        <v>0.003947428676328329</v>
+        <v>0.003642507878418827</v>
       </c>
       <c r="H13" t="n">
-        <v>0.001300923606631949</v>
+        <v>-0.001092318493842656</v>
       </c>
       <c r="I13" t="n">
-        <v>0.07997296529438562</v>
+        <v>0.07629891094722693</v>
       </c>
       <c r="J13" t="n">
-        <v>0.3663393478835924</v>
+        <v>0.3736113186116612</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.2863663825892068</v>
+        <v>-0.2973124076644343</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.005940288168876151</v>
+        <v>0.03278845531338925</v>
       </c>
     </row>
     <row r="14">
@@ -3046,37 +3046,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.07762936950092396</v>
+        <v>0.07625306153228294</v>
       </c>
       <c r="C14" t="n">
-        <v>0.07762936950092396</v>
+        <v>0.07625306153228294</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3362335840889499</v>
+        <v>0.343207639240437</v>
       </c>
       <c r="E14" t="n">
-        <v>20.66666666666667</v>
+        <v>25.33333333333333</v>
       </c>
       <c r="F14" t="n">
         <v>12</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.003157842399058239</v>
+        <v>-0.002140908267224656</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.018355566871677</v>
+        <v>-0.01973187484031802</v>
       </c>
       <c r="I14" t="n">
-        <v>0.07503083144407637</v>
+        <v>0.07562478363606376</v>
       </c>
       <c r="J14" t="n">
-        <v>0.3509653241224536</v>
+        <v>0.3715840027926106</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.2759344926783773</v>
+        <v>-0.2959592191565468</v>
       </c>
       <c r="L14" t="n">
-        <v>0.01564291653068994</v>
+        <v>0.1029542503073502</v>
       </c>
     </row>
     <row r="15">
@@ -3086,37 +3086,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0762322026480763</v>
+        <v>0.07542019949842105</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0762322026480763</v>
+        <v>0.07542019949842105</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3126644454591753</v>
+        <v>0.3233618758867091</v>
       </c>
       <c r="E15" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F15" t="n">
         <v>13</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.001397166852847659</v>
+        <v>-0.0008328620338618892</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.005740342854094388</v>
+        <v>-0.004401527858820017</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0616435026809537</v>
+        <v>0.07069165368653375</v>
       </c>
       <c r="J15" t="n">
-        <v>0.3031180056651374</v>
+        <v>0.3486501773125208</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.2414745029841837</v>
+        <v>-0.2779585236259871</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.1287538538868824</v>
+        <v>-0.03821267699464703</v>
       </c>
     </row>
     <row r="16">
@@ -3126,37 +3126,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.07379595525810227</v>
+        <v>0.07386898162586188</v>
       </c>
       <c r="C16" t="n">
-        <v>0.07379595525810227</v>
+        <v>0.07386898162586188</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3129074970891816</v>
+        <v>0.3221654092691889</v>
       </c>
       <c r="E16" t="n">
-        <v>23.33333333333333</v>
+        <v>28</v>
       </c>
       <c r="F16" t="n">
         <v>14</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.002436247389974028</v>
+        <v>-0.001551217872559171</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.003043827965551596</v>
+        <v>-0.0008824802952268895</v>
       </c>
       <c r="I16" t="n">
-        <v>0.05387854874033485</v>
+        <v>0.06754177719287266</v>
       </c>
       <c r="J16" t="n">
-        <v>0.2907285623440602</v>
+        <v>0.3401305096223162</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.2368500136037253</v>
+        <v>-0.2725887324294435</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.1277092804737004</v>
+        <v>-0.01952912510577642</v>
       </c>
     </row>
     <row r="17">
@@ -3166,37 +3166,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.082818285090071</v>
+        <v>0.08142597716321702</v>
       </c>
       <c r="C17" t="n">
-        <v>0.082818285090071</v>
+        <v>0.08142597716321702</v>
       </c>
       <c r="D17" t="n">
-        <v>0.317286905762749</v>
+        <v>0.3241858650636961</v>
       </c>
       <c r="E17" t="n">
-        <v>24.33333333333333</v>
+        <v>29</v>
       </c>
       <c r="F17" t="n">
         <v>15</v>
       </c>
       <c r="G17" t="n">
-        <v>0.009022329831968726</v>
+        <v>0.007556995537355143</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0020310731900888</v>
+        <v>0.003032007363709427</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0713397436418451</v>
+        <v>0.0751396824756658</v>
       </c>
       <c r="J17" t="n">
-        <v>0.3228187098619124</v>
+        <v>0.345277971315771</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.2514789662200673</v>
+        <v>-0.2701382888401052</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.1218279047062082</v>
+        <v>-0.09139920879117702</v>
       </c>
     </row>
     <row r="18">
@@ -3206,37 +3206,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.08332520684905427</v>
+        <v>0.08174843080589807</v>
       </c>
       <c r="C18" t="n">
-        <v>0.08332520684905427</v>
+        <v>0.08174843080589807</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3146961872351197</v>
+        <v>0.3233878856066424</v>
       </c>
       <c r="E18" t="n">
-        <v>22.66666666666667</v>
+        <v>27.66666666666667</v>
       </c>
       <c r="F18" t="n">
         <v>16</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0005069217589832725</v>
+        <v>0.0003224536426810476</v>
       </c>
       <c r="H18" t="n">
-        <v>0.005695837348130312</v>
+        <v>0.005495369273615131</v>
       </c>
       <c r="I18" t="n">
-        <v>0.07304880225158991</v>
+        <v>0.07729095589413372</v>
       </c>
       <c r="J18" t="n">
-        <v>0.3089007092112859</v>
+        <v>0.3458161253310973</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.235851906959696</v>
+        <v>-0.2685251694369636</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.1452612369320589</v>
+        <v>-0.09269537133449468</v>
       </c>
     </row>
     <row r="19">
@@ -3246,37 +3246,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.09250247143789869</v>
+        <v>0.0902914044505429</v>
       </c>
       <c r="C19" t="n">
-        <v>0.09250247143789869</v>
+        <v>0.0902914044505429</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3168628219065239</v>
+        <v>0.3240039927003589</v>
       </c>
       <c r="E19" t="n">
-        <v>24.33333333333333</v>
+        <v>29</v>
       </c>
       <c r="F19" t="n">
         <v>17</v>
       </c>
       <c r="G19" t="n">
-        <v>0.009177264588844422</v>
+        <v>0.008542973644644833</v>
       </c>
       <c r="H19" t="n">
-        <v>0.01627026878982239</v>
+        <v>0.01487120495212185</v>
       </c>
       <c r="I19" t="n">
-        <v>0.08378966317958914</v>
+        <v>0.08603266388702674</v>
       </c>
       <c r="J19" t="n">
-        <v>0.2941511762854176</v>
+        <v>0.3358995967734651</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.2103615131058285</v>
+        <v>-0.2498669328864384</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.1288458594752468</v>
+        <v>-0.1010639658503435</v>
       </c>
     </row>
     <row r="20">
@@ -3286,37 +3286,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.09890469040616622</v>
+        <v>0.09496334047234678</v>
       </c>
       <c r="C20" t="n">
-        <v>0.09890469040616622</v>
+        <v>0.09496334047234678</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3175551394575521</v>
+        <v>0.3238184945449472</v>
       </c>
       <c r="E20" t="n">
-        <v>22.66666666666667</v>
+        <v>27.66666666666667</v>
       </c>
       <c r="F20" t="n">
         <v>18</v>
       </c>
       <c r="G20" t="n">
-        <v>0.006402218968267523</v>
+        <v>0.00467193602180388</v>
       </c>
       <c r="H20" t="n">
-        <v>0.02510873514806394</v>
+        <v>0.0210943588464849</v>
       </c>
       <c r="I20" t="n">
-        <v>0.09503764666475309</v>
+        <v>0.08913090583996927</v>
       </c>
       <c r="J20" t="n">
-        <v>0.321860205835205</v>
+        <v>0.3417798123859237</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.2268225591704519</v>
+        <v>-0.2526489065459544</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.04233672728450999</v>
+        <v>-0.07314985364866566</v>
       </c>
     </row>
     <row r="21">
@@ -3326,37 +3326,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.09034332159154361</v>
+        <v>0.08767645378092848</v>
       </c>
       <c r="C21" t="n">
-        <v>0.09034332159154361</v>
+        <v>0.08767645378092848</v>
       </c>
       <c r="D21" t="n">
-        <v>0.3214425861155642</v>
+        <v>0.3256194204083209</v>
       </c>
       <c r="E21" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F21" t="n">
         <v>19</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.008561368814622605</v>
+        <v>-0.007286886691418304</v>
       </c>
       <c r="H21" t="n">
-        <v>0.007525036501472612</v>
+        <v>0.006250476617711456</v>
       </c>
       <c r="I21" t="n">
-        <v>0.07740772446012015</v>
+        <v>0.08050259506298765</v>
       </c>
       <c r="J21" t="n">
-        <v>0.2912632172066835</v>
+        <v>0.3336545065106141</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.2138554927465634</v>
+        <v>-0.2531519114476265</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.14960882828101</v>
+        <v>-0.06288030277164036</v>
       </c>
     </row>
     <row r="22">
@@ -3366,37 +3366,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.09340537583298832</v>
+        <v>0.09123299688563545</v>
       </c>
       <c r="C22" t="n">
-        <v>0.09340537583298832</v>
+        <v>0.09123299688563545</v>
       </c>
       <c r="D22" t="n">
-        <v>0.3075603275807016</v>
+        <v>0.3129779088547938</v>
       </c>
       <c r="E22" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F22" t="n">
         <v>20</v>
       </c>
       <c r="G22" t="n">
-        <v>0.003062054241444706</v>
+        <v>0.003556543104706975</v>
       </c>
       <c r="H22" t="n">
-        <v>0.01008016898393405</v>
+        <v>0.009484566079737383</v>
       </c>
       <c r="I22" t="n">
-        <v>0.07593777652216803</v>
+        <v>0.08197292239716884</v>
       </c>
       <c r="J22" t="n">
-        <v>0.2704643720712596</v>
+        <v>0.3156616963791157</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.1945265955490915</v>
+        <v>-0.2336887739819469</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.1752172027918623</v>
+        <v>-0.1297323283625916</v>
       </c>
     </row>
   </sheetData>
@@ -3488,19 +3488,19 @@
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>0.08365718814461241</v>
+        <v>0.08228700232025161</v>
       </c>
       <c r="D2" t="n">
-        <v>0.346354016048446</v>
+        <v>0.3526178590746237</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H2" s="1" t="n">
         <v>45047</v>
@@ -3511,13 +3511,13 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>0.002137848647201082</v>
+        <v>0.003302975428276719</v>
       </c>
       <c r="K2" t="n">
-        <v>0.007628776434231044</v>
+        <v>0.01486069465028556</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.005490927787029962</v>
+        <v>-0.01155771922200884</v>
       </c>
     </row>
     <row r="3">
@@ -3528,19 +3528,19 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>0.08074110886448833</v>
+        <v>0.07819415285949669</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3779589704707321</v>
+        <v>0.3750160071746529</v>
       </c>
       <c r="E3" t="n">
-        <v>0.03846153846153846</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H3" s="1" t="n">
         <v>45078</v>
@@ -3551,13 +3551,13 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>-0.002916079280124079</v>
+        <v>-0.00409284946075493</v>
       </c>
       <c r="K3" t="n">
-        <v>0.03160495442228606</v>
+        <v>0.02239814810002921</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.03452103370241014</v>
+        <v>-0.02649099756078414</v>
       </c>
     </row>
     <row r="4">
@@ -3568,10 +3568,10 @@
         <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>0.07700216450685342</v>
+        <v>0.07521459749666298</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3613776666696886</v>
+        <v>0.360843647665672</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -3580,7 +3580,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H4" s="1" t="n">
         <v>45108</v>
@@ -3591,13 +3591,13 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>-0.003738944357634916</v>
+        <v>-0.002979555362833702</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.01658130380104345</v>
+        <v>-0.01417235950898088</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01284235944340853</v>
+        <v>0.01119280414614718</v>
       </c>
     </row>
     <row r="5">
@@ -3608,10 +3608,10 @@
         <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07654631969066918</v>
+        <v>0.07486333057622499</v>
       </c>
       <c r="D5" t="n">
-        <v>0.355442840621135</v>
+        <v>0.3559850677401643</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -3620,7 +3620,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H5" s="1" t="n">
         <v>45139</v>
@@ -3631,13 +3631,13 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>-0.0004558448161842421</v>
+        <v>-0.0003512669204379926</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.005934826048553665</v>
+        <v>-0.004858579925507756</v>
       </c>
       <c r="L5" t="n">
-        <v>0.005478981232369423</v>
+        <v>0.004507313005069763</v>
       </c>
     </row>
     <row r="6">
@@ -3648,10 +3648,10 @@
         <v>9</v>
       </c>
       <c r="C6" t="n">
-        <v>0.07697086547343901</v>
+        <v>0.07417645769037833</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2957482495272344</v>
+        <v>0.2966109786739843</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H6" s="1" t="n">
         <v>45170</v>
@@ -3671,13 +3671,13 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>0.0004245457827698335</v>
+        <v>-0.0006868728858466649</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.05969459109390052</v>
+        <v>-0.05937408906617991</v>
       </c>
       <c r="L6" t="n">
-        <v>0.06011913687667035</v>
+        <v>0.05868721618033325</v>
       </c>
     </row>
     <row r="7">
@@ -3688,10 +3688,10 @@
         <v>10</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0741986659910874</v>
+        <v>0.07293180539369523</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3338998292189422</v>
+        <v>0.3387636812105863</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -3700,7 +3700,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H7" s="1" t="n">
         <v>45200</v>
@@ -3711,13 +3711,13 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>-0.002772199482351606</v>
+        <v>-0.001244652296683094</v>
       </c>
       <c r="K7" t="n">
-        <v>0.03815157969170779</v>
+        <v>0.04215270253660192</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.0409237791740594</v>
+        <v>-0.04339735483328501</v>
       </c>
     </row>
     <row r="8">
@@ -3728,10 +3728,10 @@
         <v>11</v>
       </c>
       <c r="C8" t="n">
-        <v>0.08439368902807952</v>
+        <v>0.0811115701369084</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3394506899966835</v>
+        <v>0.3432941205446162</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -3740,7 +3740,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="H8" s="1" t="n">
         <v>45231</v>
@@ -3751,13 +3751,13 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>0.01019502303699212</v>
+        <v>0.008179764743213164</v>
       </c>
       <c r="K8" t="n">
-        <v>0.005550860777741307</v>
+        <v>0.004530439334029968</v>
       </c>
       <c r="L8" t="n">
-        <v>0.004644162259250809</v>
+        <v>0.003649325409183196</v>
       </c>
     </row>
     <row r="9">
@@ -3768,10 +3768,10 @@
         <v>12</v>
       </c>
       <c r="C9" t="n">
-        <v>0.08376928068077967</v>
+        <v>0.08113853386791915</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3422784186160625</v>
+        <v>0.3494356339058072</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -3780,7 +3780,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H9" s="1" t="n">
         <v>45261</v>
@@ -3791,13 +3791,13 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>-0.0006244083472998485</v>
+        <v>2.696373101075678e-05</v>
       </c>
       <c r="K9" t="n">
-        <v>0.002827728619378966</v>
+        <v>0.006141513361190953</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.003452136966678815</v>
+        <v>-0.006114549630180197</v>
       </c>
     </row>
     <row r="10">
@@ -3808,19 +3808,19 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>0.07935464281427572</v>
+        <v>0.07708117155886306</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3412712916861851</v>
+        <v>0.3493836802591693</v>
       </c>
       <c r="E10" t="n">
-        <v>0.04545454545454546</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="H10" s="1" t="n">
         <v>45292</v>
@@ -3831,13 +3831,13 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>-0.004414637866503951</v>
+        <v>-0.004057362309056095</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.001007126929877422</v>
+        <v>-5.195364663784785e-05</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.003407510936626529</v>
+        <v>-0.004005408662418247</v>
       </c>
     </row>
     <row r="11">
@@ -3848,19 +3848,19 @@
         <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0731126344519285</v>
+        <v>0.07318450115629184</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3254929654825749</v>
+        <v>0.3314676083880573</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.05</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="G11" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H11" s="1" t="n">
         <v>45323</v>
@@ -3871,13 +3871,13 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>-0.006242008362347215</v>
+        <v>-0.003896670402571217</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.01577832620361014</v>
+        <v>-0.01791607187111199</v>
       </c>
       <c r="L11" t="n">
-        <v>0.009536317841262923</v>
+        <v>0.01401940146854078</v>
       </c>
     </row>
     <row r="12">
@@ -3888,19 +3888,19 @@
         <v>3</v>
       </c>
       <c r="C12" t="n">
-        <v>0.08042083123656765</v>
+        <v>0.07849351188169389</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3419364950980895</v>
+        <v>0.3487716290740843</v>
       </c>
       <c r="E12" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H12" s="1" t="n">
         <v>45352</v>
@@ -3911,13 +3911,13 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>0.007308196784639148</v>
+        <v>0.005309010725402047</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0164435296155146</v>
+        <v>0.01730402068602699</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.009135332830875448</v>
+        <v>-0.01199500996062494</v>
       </c>
     </row>
     <row r="13">
@@ -3928,19 +3928,19 @@
         <v>4</v>
       </c>
       <c r="C13" t="n">
-        <v>0.07412073821478439</v>
+        <v>0.07369863183287034</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3224012911435279</v>
+        <v>0.3334050257853984</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="G13" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H13" s="1" t="n">
         <v>45383</v>
@@ -3951,13 +3951,13 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>-0.006300093021783262</v>
+        <v>-0.004794880048823544</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.0195352039545616</v>
+        <v>-0.01536660328868589</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01323511093277834</v>
+        <v>0.01057172323986234</v>
       </c>
     </row>
     <row r="14">
@@ -3968,10 +3968,10 @@
         <v>5</v>
       </c>
       <c r="C14" t="n">
-        <v>0.07460140398837141</v>
+        <v>0.07405187115565655</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3088136933737958</v>
+        <v>0.3196753479902494</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -3980,7 +3980,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="H14" s="1" t="n">
         <v>45413</v>
@@ -3991,13 +3991,13 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>0.000480665773587019</v>
+        <v>0.0003532393227862057</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.01358759776973212</v>
+        <v>-0.013729677795149</v>
       </c>
       <c r="L14" t="n">
-        <v>0.01406826354331914</v>
+        <v>0.0140829171179352</v>
       </c>
     </row>
     <row r="15">
@@ -4008,10 +4008,10 @@
         <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0799744657410731</v>
+        <v>0.07851009550673627</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3067783518602022</v>
+        <v>0.3170052538844795</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -4020,7 +4020,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H15" s="1" t="n">
         <v>45444</v>
@@ -4031,13 +4031,13 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>0.005373061752701691</v>
+        <v>0.004458224351079718</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.00203534151359358</v>
+        <v>-0.002670094105769905</v>
       </c>
       <c r="L15" t="n">
-        <v>0.007408403266295271</v>
+        <v>0.007128318456849622</v>
       </c>
     </row>
     <row r="16">
@@ -4048,10 +4048,10 @@
         <v>7</v>
       </c>
       <c r="C16" t="n">
-        <v>0.07468147880389217</v>
+        <v>0.0748886879987458</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3132691899922995</v>
+        <v>0.3238080063825816</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -4060,7 +4060,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H16" s="1" t="n">
         <v>45474</v>
@@ -4071,13 +4071,13 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>-0.00529298693718093</v>
+        <v>-0.003621407507990462</v>
       </c>
       <c r="K16" t="n">
-        <v>0.006490838132097276</v>
+        <v>0.006802752498102027</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.01178382506927821</v>
+        <v>-0.01042416000609249</v>
       </c>
     </row>
     <row r="17">
@@ -4088,10 +4088,10 @@
         <v>8</v>
       </c>
       <c r="C17" t="n">
-        <v>0.07341511543568023</v>
+        <v>0.07326690546840553</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3132253183698824</v>
+        <v>0.3217960094354572</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -4100,7 +4100,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H17" s="1" t="n">
         <v>45505</v>
@@ -4111,13 +4111,13 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>-0.00126636336821194</v>
+        <v>-0.001621782530340274</v>
       </c>
       <c r="K17" t="n">
-        <v>-4.387162241709097e-05</v>
+        <v>-0.002011996947124339</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.001222491745794849</v>
+        <v>0.0003902144167840654</v>
       </c>
     </row>
     <row r="18">
@@ -4128,10 +4128,10 @@
         <v>9</v>
       </c>
       <c r="C18" t="n">
-        <v>0.07329127153473441</v>
+        <v>0.07345135141043431</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3122279829053629</v>
+        <v>0.3208922119895279</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -4140,7 +4140,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="H18" s="1" t="n">
         <v>45536</v>
@@ -4151,13 +4151,13 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>-0.0001238439009458164</v>
+        <v>0.0001844459420287797</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.000997335464519522</v>
+        <v>-0.0009037974459292775</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0008734915635737056</v>
+        <v>0.001088243387958057</v>
       </c>
     </row>
     <row r="19">
@@ -4168,19 +4168,19 @@
         <v>10</v>
       </c>
       <c r="C19" t="n">
-        <v>0.07798028012856094</v>
+        <v>0.07733816943045863</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3330682289289693</v>
+        <v>0.3381728595190706</v>
       </c>
       <c r="E19" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="H19" s="1" t="n">
         <v>45566</v>
@@ -4191,13 +4191,13 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>0.004689008593826524</v>
+        <v>0.003886818020024316</v>
       </c>
       <c r="K19" t="n">
-        <v>0.02084024602360635</v>
+        <v>0.01728064752954267</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.01615123742977982</v>
+        <v>-0.01339382950951835</v>
       </c>
     </row>
     <row r="20">
@@ -4208,19 +4208,19 @@
         <v>11</v>
       </c>
       <c r="C20" t="n">
-        <v>0.07828315053306369</v>
+        <v>0.07773288538572426</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3115153163974373</v>
+        <v>0.3183459110876878</v>
       </c>
       <c r="E20" t="n">
-        <v>0.04</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="F20" t="n">
-        <v>0.04</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="G20" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H20" s="1" t="n">
         <v>45597</v>
@@ -4231,13 +4231,13 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>0.0003028704045027475</v>
+        <v>0.0003947159552656343</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.02155291253153191</v>
+        <v>-0.01982694843138277</v>
       </c>
       <c r="L20" t="n">
-        <v>0.02185578293603466</v>
+        <v>0.02022166438664841</v>
       </c>
     </row>
     <row r="21">
@@ -4248,19 +4248,19 @@
         <v>12</v>
       </c>
       <c r="C21" t="n">
-        <v>0.09219142460858837</v>
+        <v>0.08920687667346817</v>
       </c>
       <c r="D21" t="n">
-        <v>0.3072771719618406</v>
+        <v>0.31603882458433</v>
       </c>
       <c r="E21" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H21" s="1" t="n">
         <v>45627</v>
@@ -4271,13 +4271,13 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>0.01390827407552468</v>
+        <v>0.01147399128774391</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.00423814443559678</v>
+        <v>-0.002307086503357814</v>
       </c>
       <c r="L21" t="n">
-        <v>0.01814641851112146</v>
+        <v>0.01378107779110173</v>
       </c>
     </row>
     <row r="22">
@@ -4288,10 +4288,10 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>0.08498028867126266</v>
+        <v>0.08296594685791116</v>
       </c>
       <c r="D22" t="n">
-        <v>0.3294544550418659</v>
+        <v>0.3359681248804478</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -4300,7 +4300,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H22" s="1" t="n">
         <v>45658</v>
@@ -4311,13 +4311,13 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>-0.007211135937325711</v>
+        <v>-0.006240929815557017</v>
       </c>
       <c r="K22" t="n">
-        <v>0.02217728308002537</v>
+        <v>0.01992930029611778</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.02938841901735108</v>
+        <v>-0.0261702301116748</v>
       </c>
     </row>
     <row r="23">
@@ -4328,10 +4328,10 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>0.08605148690295363</v>
+        <v>0.08424525296711799</v>
       </c>
       <c r="D23" t="n">
-        <v>0.3070835508603415</v>
+        <v>0.3166212066817833</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -4340,7 +4340,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H23" s="1" t="n">
         <v>45689</v>
@@ -4351,13 +4351,13 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>0.001071198231690967</v>
+        <v>0.001279306109206832</v>
       </c>
       <c r="K23" t="n">
-        <v>-0.02237090418152443</v>
+        <v>-0.01934691819866446</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0234421024132154</v>
+        <v>0.0206262243078713</v>
       </c>
     </row>
     <row r="24">
@@ -4368,10 +4368,10 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0789438449729465</v>
+        <v>0.07803409259266506</v>
       </c>
       <c r="D24" t="n">
-        <v>0.3075505558031514</v>
+        <v>0.3175743252576961</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -4380,7 +4380,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="H24" s="1" t="n">
         <v>45717</v>
@@ -4391,13 +4391,13 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>-0.007107641930007125</v>
+        <v>-0.006211160374452934</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0004670049428099343</v>
+        <v>0.0009531185759127925</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.007574646872817059</v>
+        <v>-0.007164278950365727</v>
       </c>
     </row>
     <row r="25">
@@ -4408,10 +4408,10 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>0.08351900097420439</v>
+        <v>0.08234624643802872</v>
       </c>
       <c r="D25" t="n">
-        <v>0.3187710595508288</v>
+        <v>0.3255465668990484</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -4420,7 +4420,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="H25" s="1" t="n">
         <v>45748</v>
@@ -4431,13 +4431,13 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>0.004575156001257893</v>
+        <v>0.004312153845363667</v>
       </c>
       <c r="K25" t="n">
-        <v>0.01122050374767736</v>
+        <v>0.00797224164135224</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.006645347746419464</v>
+        <v>-0.003660087795988573</v>
       </c>
     </row>
     <row r="26">
@@ -4448,10 +4448,10 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>0.09732826253954802</v>
+        <v>0.09383626980496464</v>
       </c>
       <c r="D26" t="n">
-        <v>0.3193405259477504</v>
+        <v>0.325178072490915</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -4460,7 +4460,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H26" s="1" t="n">
         <v>45778</v>
@@ -4471,13 +4471,13 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>0.01380926156534362</v>
+        <v>0.01149002336693591</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0005694663969216252</v>
+        <v>-0.0003684944081334129</v>
       </c>
       <c r="L26" t="n">
-        <v>0.013239795168422</v>
+        <v>0.01185851777506933</v>
       </c>
     </row>
     <row r="27">
@@ -4488,10 +4488,10 @@
         <v>6</v>
       </c>
       <c r="C27" t="n">
-        <v>0.09666015079994367</v>
+        <v>0.09469169710863536</v>
       </c>
       <c r="D27" t="n">
-        <v>0.3124768802209925</v>
+        <v>0.3212873387111133</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -4500,7 +4500,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H27" s="1" t="n">
         <v>45809</v>
@@ -4511,13 +4511,13 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>-0.000668111739604349</v>
+        <v>0.0008554273036707194</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.006863645726757905</v>
+        <v>-0.003890733779801647</v>
       </c>
       <c r="L27" t="n">
-        <v>0.006195533987153556</v>
+        <v>0.004746161083472367</v>
       </c>
     </row>
     <row r="28">
@@ -4528,10 +4528,10 @@
         <v>7</v>
       </c>
       <c r="C28" t="n">
-        <v>0.09885859446931704</v>
+        <v>0.09524570450225918</v>
       </c>
       <c r="D28" t="n">
-        <v>0.3113427885628509</v>
+        <v>0.3181212018204945</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -4540,7 +4540,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H28" s="1" t="n">
         <v>45839</v>
@@ -4551,13 +4551,13 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>0.002198443669373371</v>
+        <v>0.0005540073936238232</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.001134091658141656</v>
+        <v>-0.003166136890618787</v>
       </c>
       <c r="L28" t="n">
-        <v>0.003332535327515027</v>
+        <v>0.00372014428424261</v>
       </c>
     </row>
     <row r="29">
@@ -4568,19 +4568,19 @@
         <v>8</v>
       </c>
       <c r="C29" t="n">
-        <v>0.1034019821826282</v>
+        <v>0.09900166801801441</v>
       </c>
       <c r="D29" t="n">
-        <v>0.3263308131894101</v>
+        <v>0.3304065815795433</v>
       </c>
       <c r="E29" t="n">
-        <v>0.04</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H29" s="1" t="n">
         <v>45870</v>
@@ -4591,13 +4591,13 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>0.004543387713311114</v>
+        <v>0.003755963515755231</v>
       </c>
       <c r="K29" t="n">
-        <v>0.01498802462655924</v>
+        <v>0.01228537975904875</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.01044463691324812</v>
+        <v>-0.008529416243293522</v>
       </c>
     </row>
     <row r="30">
@@ -4608,10 +4608,10 @@
         <v>9</v>
       </c>
       <c r="C30" t="n">
-        <v>0.09445349456655346</v>
+        <v>0.09064264889676674</v>
       </c>
       <c r="D30" t="n">
-        <v>0.3149918166203955</v>
+        <v>0.3229277002348039</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -4620,7 +4620,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H30" s="1" t="n">
         <v>45901</v>
@@ -4631,13 +4631,13 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>-0.008948487616074696</v>
+        <v>-0.008359019121247674</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.01133899656901455</v>
+        <v>-0.007478881344739341</v>
       </c>
       <c r="L30" t="n">
-        <v>0.002390508952939852</v>
+        <v>-0.0008801377765083329</v>
       </c>
     </row>
     <row r="31">
@@ -4648,10 +4648,10 @@
         <v>10</v>
       </c>
       <c r="C31" t="n">
-        <v>0.09275558306813161</v>
+        <v>0.08916958320925654</v>
       </c>
       <c r="D31" t="n">
-        <v>0.3266173773880408</v>
+        <v>0.3293567456645816</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -4660,7 +4660,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H31" s="1" t="n">
         <v>45931</v>
@@ -4671,13 +4671,13 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>-0.001697911498421842</v>
+        <v>-0.001473065687510197</v>
       </c>
       <c r="K31" t="n">
-        <v>0.0116255607676452</v>
+        <v>0.006429045429777624</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.01332347226606705</v>
+        <v>-0.007902111117287822</v>
       </c>
     </row>
     <row r="32">
@@ -4688,10 +4688,10 @@
         <v>11</v>
       </c>
       <c r="C32" t="n">
-        <v>0.09668163731153843</v>
+        <v>0.09240662635207367</v>
       </c>
       <c r="D32" t="n">
-        <v>0.3396360919251153</v>
+        <v>0.3409730219670824</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -4700,7 +4700,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H32" s="1" t="n">
         <v>45962</v>
@@ -4711,13 +4711,13 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>0.003926054243406821</v>
+        <v>0.003237043142817128</v>
       </c>
       <c r="K32" t="n">
-        <v>0.01301871453707454</v>
+        <v>0.01161627630250084</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.009092660293667718</v>
+        <v>-0.008379233159683711</v>
       </c>
     </row>
     <row r="33">
@@ -4728,19 +4728,19 @@
         <v>12</v>
       </c>
       <c r="C33" t="n">
-        <v>0.08159274439496074</v>
+        <v>0.08145315178145521</v>
       </c>
       <c r="D33" t="n">
-        <v>0.2980742890335366</v>
+        <v>0.3065284935932987</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="G33" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H33" s="1" t="n">
         <v>45992</v>
@@ -4751,13 +4751,13 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>-0.0150888929165777</v>
+        <v>-0.01095347457061846</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.04156180289157874</v>
+        <v>-0.0344445283737837</v>
       </c>
       <c r="L33" t="n">
-        <v>0.02647290997500104</v>
+        <v>0.02349105380316524</v>
       </c>
     </row>
     <row r="34">
@@ -4768,19 +4768,19 @@
         <v>1</v>
       </c>
       <c r="C34" t="n">
-        <v>0.09340537583298832</v>
+        <v>0.09123299688563545</v>
       </c>
       <c r="D34" t="n">
-        <v>0.3075603275807016</v>
+        <v>0.3129779088547938</v>
       </c>
       <c r="E34" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="F34" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="G34" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H34" s="1" t="n">
         <v>46023</v>
@@ -4791,13 +4791,13 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>0.01181263143802758</v>
+        <v>0.009779845104180243</v>
       </c>
       <c r="K34" t="n">
-        <v>0.00948603854716501</v>
+        <v>0.006449415261495062</v>
       </c>
       <c r="L34" t="n">
-        <v>0.002326592890862567</v>
+        <v>0.003330429842685181</v>
       </c>
     </row>
   </sheetData>
@@ -4888,34 +4888,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0762322026480763</v>
+        <v>0.07542019949842105</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3126644454591753</v>
+        <v>0.3233618758867091</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.01754385964912281</v>
+        <v>0.01388888888888889</v>
       </c>
       <c r="F2" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.001397166852847659</v>
+        <v>-0.0008328620338618892</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.02356913862977456</v>
+        <v>-0.0198457633537279</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0221719717769269</v>
+        <v>0.01901290131986601</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.005966945856474073</v>
+        <v>-0.004820378091453109</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.04949204780041372</v>
+        <v>-0.04045505723792914</v>
       </c>
       <c r="L2" t="inlineStr"/>
     </row>
@@ -4926,10 +4926,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.07379595525810227</v>
+        <v>0.07386898162586188</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3129074970891816</v>
+        <v>0.3221654092691889</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -4938,25 +4938,25 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>23.33333333333333</v>
+        <v>28</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.002436247389974028</v>
+        <v>-0.001551217872559171</v>
       </c>
       <c r="H3" t="n">
-        <v>0.000243051630006319</v>
+        <v>-0.001196466617520209</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.002679299019980347</v>
+        <v>-0.0003547512550389625</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.003043827965551596</v>
+        <v>-0.0008824802952268895</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.02461542185017102</v>
+        <v>-0.01564782209075133</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.02195350805932023</v>
+        <v>-0.02086933735095159</v>
       </c>
     </row>
     <row r="4">
@@ -4966,37 +4966,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.082818285090071</v>
+        <v>0.08142597716321702</v>
       </c>
       <c r="C4" t="n">
-        <v>0.317286905762749</v>
+        <v>0.3241858650636962</v>
       </c>
       <c r="D4" t="n">
-        <v>0.04111111111111111</v>
+        <v>0.03451012588943623</v>
       </c>
       <c r="E4" t="n">
-        <v>0.01333333333333333</v>
+        <v>0.01111111111111111</v>
       </c>
       <c r="F4" t="n">
-        <v>24.33333333333333</v>
+        <v>29</v>
       </c>
       <c r="G4" t="n">
-        <v>0.009022329831968726</v>
+        <v>0.007556995537355143</v>
       </c>
       <c r="H4" t="n">
-        <v>0.004379408673567398</v>
+        <v>0.00202045579450727</v>
       </c>
       <c r="I4" t="n">
-        <v>0.004642921158401328</v>
+        <v>0.005536539742847874</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0020310731900888</v>
+        <v>0.003032007363709427</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.02125607351448039</v>
+        <v>-0.01964528015664041</v>
       </c>
       <c r="L4" t="n">
-        <v>0.00171555281994977</v>
+        <v>0.007911945724825398</v>
       </c>
     </row>
     <row r="5">
@@ -5006,10 +5006,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.08332520684905426</v>
+        <v>0.08174843080589807</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3146961872351197</v>
+        <v>0.3233878856066424</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -5018,25 +5018,25 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>22.66666666666667</v>
+        <v>27.66666666666667</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0005069217589832586</v>
+        <v>0.0003224536426810476</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.002590718527629376</v>
+        <v>-0.0007979794570537879</v>
       </c>
       <c r="I5" t="n">
-        <v>0.003097640286612635</v>
+        <v>0.001120433099734836</v>
       </c>
       <c r="J5" t="n">
-        <v>0.005695837348130298</v>
+        <v>0.005495369273615131</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.02153739685383022</v>
+        <v>-0.01981975363379462</v>
       </c>
       <c r="L5" t="n">
-        <v>0.003946087497391323</v>
+        <v>0.002637835387059917</v>
       </c>
     </row>
     <row r="6">
@@ -5046,10 +5046,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.09250247143789869</v>
+        <v>0.0902914044505429</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3168628219065239</v>
+        <v>0.3240039927003589</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -5058,25 +5058,25 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>24.33333333333333</v>
+        <v>29</v>
       </c>
       <c r="G6" t="n">
-        <v>0.009177264588844436</v>
+        <v>0.008542973644644833</v>
       </c>
       <c r="H6" t="n">
-        <v>0.002166634671404266</v>
+        <v>0.0006161070937165114</v>
       </c>
       <c r="I6" t="n">
-        <v>0.00701062991744017</v>
+        <v>0.007926866550928321</v>
       </c>
       <c r="J6" t="n">
-        <v>0.01627026878982239</v>
+        <v>0.01487120495212185</v>
       </c>
       <c r="K6" t="n">
-        <v>0.004198376447348606</v>
+        <v>0.0006421168136497846</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.01516134185948673</v>
+        <v>-0.01108603476893769</v>
       </c>
     </row>
     <row r="7">
@@ -5086,37 +5086,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.09890469040616622</v>
+        <v>0.09496334047234678</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3175551394575521</v>
+        <v>0.3238184945449472</v>
       </c>
       <c r="D7" t="n">
-        <v>0.01333333333333333</v>
+        <v>0.01111111111111111</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>22.66666666666667</v>
+        <v>27.66666666666667</v>
       </c>
       <c r="G7" t="n">
-        <v>0.006402218968267523</v>
+        <v>0.00467193602180388</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0006923175510282209</v>
+        <v>-0.0001854981554116897</v>
       </c>
       <c r="I7" t="n">
-        <v>0.005709901417239302</v>
+        <v>0.004857434177215569</v>
       </c>
       <c r="J7" t="n">
-        <v>0.02510873514806394</v>
+        <v>0.0210943588464849</v>
       </c>
       <c r="K7" t="n">
-        <v>0.004647642368370508</v>
+        <v>0.001653085275758304</v>
       </c>
       <c r="L7" t="n">
-        <v>0.008389200437219649</v>
+        <v>0.005212185432254532</v>
       </c>
     </row>
     <row r="8">
@@ -5126,37 +5126,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.09034332159154361</v>
+        <v>0.08767645378092848</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3214425861155642</v>
+        <v>0.3256194204083209</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.01851851851851852</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="F8" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.008561368814622605</v>
+        <v>-0.007286886691418304</v>
       </c>
       <c r="H8" t="n">
-        <v>0.00388744665801205</v>
+        <v>0.001800925863373659</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.01244881547263466</v>
+        <v>-0.009087812554791963</v>
       </c>
       <c r="J8" t="n">
-        <v>0.007525036501472612</v>
+        <v>0.006250476617711456</v>
       </c>
       <c r="K8" t="n">
-        <v>0.004155680352815161</v>
+        <v>0.001433555344624693</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.01709173663103598</v>
+        <v>-0.01462435229763984</v>
       </c>
     </row>
     <row r="9">
@@ -5166,37 +5166,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.09340537583298832</v>
+        <v>0.09123299688563545</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3075603275807016</v>
+        <v>0.3129779088547938</v>
       </c>
       <c r="D9" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="E9" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="F9" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G9" t="n">
-        <v>0.003062054241444706</v>
+        <v>0.003556543104706975</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.01388225853486263</v>
+        <v>-0.01264151155352711</v>
       </c>
       <c r="I9" t="n">
-        <v>0.01694431277630734</v>
+        <v>0.01619805465823408</v>
       </c>
       <c r="J9" t="n">
-        <v>0.01008016898393406</v>
+        <v>0.009484566079737383</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.007135859654418097</v>
+        <v>-0.01040997675184863</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01384667248969471</v>
+        <v>0.01507762155849925</v>
       </c>
     </row>
   </sheetData>

--- a/pubmatic_index.xlsx
+++ b/pubmatic_index.xlsx
@@ -422,7 +422,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K56"/>
+  <dimension ref="A1:K57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1246,19 +1246,19 @@
         <v>4</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0789840268919749</v>
+        <v>0.07241470346900682</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0789840268919749</v>
+        <v>0.07241470346900682</v>
       </c>
       <c r="E23" t="n">
-        <v>0.3377571644243381</v>
+        <v>0.3370539792005809</v>
       </c>
       <c r="F23" t="n">
-        <v>25</v>
+        <v>98</v>
       </c>
       <c r="G23" t="n">
-        <v>592.92</v>
+        <v>590.6326530612245</v>
       </c>
       <c r="H23" s="1" t="n">
         <v>45017</v>
@@ -1269,10 +1269,10 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>0.001371081556601025</v>
+        <v>-0.005198241866367054</v>
       </c>
       <c r="K23" t="n">
-        <v>0.01783087772904522</v>
+        <v>0.01126155430607714</v>
       </c>
     </row>
     <row r="24">
@@ -1283,19 +1283,19 @@
         <v>5</v>
       </c>
       <c r="C24" t="n">
-        <v>0.08228700232025161</v>
+        <v>0.0718229356669564</v>
       </c>
       <c r="D24" t="n">
-        <v>0.08228700232025161</v>
+        <v>0.0718229356669564</v>
       </c>
       <c r="E24" t="n">
-        <v>0.3526178590746237</v>
+        <v>0.3449397820325285</v>
       </c>
       <c r="F24" t="n">
-        <v>25</v>
+        <v>127</v>
       </c>
       <c r="G24" t="n">
-        <v>586.16</v>
+        <v>534.0314960629921</v>
       </c>
       <c r="H24" s="1" t="n">
         <v>45047</v>
@@ -1306,10 +1306,10 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>0.003302975428276719</v>
+        <v>-0.0005917678020504191</v>
       </c>
       <c r="K24" t="n">
-        <v>0.02383518557459601</v>
+        <v>0.01337111892130079</v>
       </c>
     </row>
     <row r="25">
@@ -1320,19 +1320,19 @@
         <v>6</v>
       </c>
       <c r="C25" t="n">
-        <v>0.07819415285949669</v>
+        <v>0.07112290188324875</v>
       </c>
       <c r="D25" t="n">
-        <v>0.07819415285949669</v>
+        <v>0.07112290188324875</v>
       </c>
       <c r="E25" t="n">
-        <v>0.3750160071746528</v>
+        <v>0.3553159032539221</v>
       </c>
       <c r="F25" t="n">
-        <v>31</v>
+        <v>140</v>
       </c>
       <c r="G25" t="n">
-        <v>469.9032258064516</v>
+        <v>508.9</v>
       </c>
       <c r="H25" s="1" t="n">
         <v>45078</v>
@@ -1343,10 +1343,10 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>-0.00409284946075493</v>
+        <v>-0.0007000337837076431</v>
       </c>
       <c r="K25" t="n">
-        <v>0.05764620785949669</v>
+        <v>0.05057495688324876</v>
       </c>
     </row>
     <row r="26">
@@ -1357,19 +1357,19 @@
         <v>7</v>
       </c>
       <c r="C26" t="n">
-        <v>0.07521459749666298</v>
+        <v>0.06897232605728577</v>
       </c>
       <c r="D26" t="n">
-        <v>0.07521459749666298</v>
+        <v>0.06897232605728577</v>
       </c>
       <c r="E26" t="n">
-        <v>0.360843647665672</v>
+        <v>0.34452231380349</v>
       </c>
       <c r="F26" t="n">
-        <v>32</v>
+        <v>143</v>
       </c>
       <c r="G26" t="n">
-        <v>411.78125</v>
+        <v>496.013986013986</v>
       </c>
       <c r="H26" s="1" t="n">
         <v>45108</v>
@@ -1380,10 +1380,10 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>-0.002979555362833702</v>
+        <v>-0.00215057582596298</v>
       </c>
       <c r="K26" t="n">
-        <v>0.02811797993029128</v>
+        <v>0.02187570849091407</v>
       </c>
     </row>
     <row r="27">
@@ -1394,19 +1394,19 @@
         <v>8</v>
       </c>
       <c r="C27" t="n">
-        <v>0.07486333057622499</v>
+        <v>0.07046688118104905</v>
       </c>
       <c r="D27" t="n">
-        <v>0.07486333057622499</v>
+        <v>0.07046688118104905</v>
       </c>
       <c r="E27" t="n">
-        <v>0.3559850677401643</v>
+        <v>0.344346677153684</v>
       </c>
       <c r="F27" t="n">
-        <v>30</v>
+        <v>136</v>
       </c>
       <c r="G27" t="n">
-        <v>397.8</v>
+        <v>478.6764705882353</v>
       </c>
       <c r="H27" s="1" t="n">
         <v>45139</v>
@@ -1417,10 +1417,10 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>-0.0003512669204379926</v>
+        <v>0.001494555123763272</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.005095667489161834</v>
+        <v>-0.009492116884337778</v>
       </c>
     </row>
     <row r="28">
@@ -1431,19 +1431,19 @@
         <v>9</v>
       </c>
       <c r="C28" t="n">
-        <v>0.07417645769037833</v>
+        <v>0.0702136271264342</v>
       </c>
       <c r="D28" t="n">
-        <v>0.07417645769037833</v>
+        <v>0.0702136271264342</v>
       </c>
       <c r="E28" t="n">
-        <v>0.2966109786739843</v>
+        <v>0.3179690938824832</v>
       </c>
       <c r="F28" t="n">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="G28" t="n">
-        <v>473.0416666666667</v>
+        <v>535.4583333333334</v>
       </c>
       <c r="H28" s="1" t="n">
         <v>45170</v>
@@ -1454,10 +1454,10 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>-0.0006868728858466649</v>
+        <v>-0.0002532540546148487</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.00207942621033827</v>
+        <v>-0.006042256774282398</v>
       </c>
     </row>
     <row r="29">
@@ -1468,19 +1468,19 @@
         <v>10</v>
       </c>
       <c r="C29" t="n">
-        <v>0.07293180539369523</v>
+        <v>0.06963920511042827</v>
       </c>
       <c r="D29" t="n">
-        <v>0.07293180539369523</v>
+        <v>0.06963920511042827</v>
       </c>
       <c r="E29" t="n">
-        <v>0.3387636812105863</v>
+        <v>0.3429798151773454</v>
       </c>
       <c r="F29" t="n">
-        <v>26</v>
+        <v>120</v>
       </c>
       <c r="G29" t="n">
-        <v>398.6153846153846</v>
+        <v>472.6333333333333</v>
       </c>
       <c r="H29" s="1" t="n">
         <v>45200</v>
@@ -1491,10 +1491,10 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>-0.001244652296683094</v>
+        <v>-0.0005744220160059238</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.01128628716481805</v>
+        <v>-0.01457888744808501</v>
       </c>
     </row>
     <row r="30">
@@ -1505,19 +1505,19 @@
         <v>11</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0811115701369084</v>
+        <v>0.06922230217871614</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0811115701369084</v>
+        <v>0.06922230217871614</v>
       </c>
       <c r="E30" t="n">
-        <v>0.3432941205446162</v>
+        <v>0.3327243605153344</v>
       </c>
       <c r="F30" t="n">
-        <v>27</v>
+        <v>131</v>
       </c>
       <c r="G30" t="n">
-        <v>367.962962962963</v>
+        <v>502.5648854961832</v>
       </c>
       <c r="H30" s="1" t="n">
         <v>45231</v>
@@ -1528,10 +1528,10 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>0.008179764743213164</v>
+        <v>-0.0004169029317121348</v>
       </c>
       <c r="K30" t="n">
-        <v>0.007231582589825161</v>
+        <v>-0.004657685368367095</v>
       </c>
     </row>
     <row r="31">
@@ -1542,19 +1542,19 @@
         <v>12</v>
       </c>
       <c r="C31" t="n">
-        <v>0.08113853386791915</v>
+        <v>0.0704576125523641</v>
       </c>
       <c r="D31" t="n">
-        <v>0.08113853386791915</v>
+        <v>0.0704576125523641</v>
       </c>
       <c r="E31" t="n">
-        <v>0.3494356339058072</v>
+        <v>0.3452439803349048</v>
       </c>
       <c r="F31" t="n">
-        <v>30</v>
+        <v>139</v>
       </c>
       <c r="G31" t="n">
-        <v>415.0666666666667</v>
+        <v>479.0935251798561</v>
       </c>
       <c r="H31" s="1" t="n">
         <v>45261</v>
@@ -1565,10 +1565,10 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>2.696373101075678e-05</v>
+        <v>0.001235310373647963</v>
       </c>
       <c r="K31" t="n">
-        <v>0.0007777490934649384</v>
+        <v>-0.009903172222090112</v>
       </c>
     </row>
     <row r="32">
@@ -1579,19 +1579,19 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>0.07708117155886306</v>
+        <v>0.07077337660154118</v>
       </c>
       <c r="D32" t="n">
-        <v>0.07708117155886306</v>
+        <v>0.07077337660154118</v>
       </c>
       <c r="E32" t="n">
-        <v>0.3493836802591693</v>
+        <v>0.34619445112515</v>
       </c>
       <c r="F32" t="n">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="G32" t="n">
-        <v>528.1111111111111</v>
+        <v>517.9701492537314</v>
       </c>
       <c r="H32" s="1" t="n">
         <v>45292</v>
@@ -1602,10 +1602,10 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>-0.004057362309056095</v>
+        <v>0.0003157640491770752</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.05502939922356594</v>
+        <v>-0.06133719418088782</v>
       </c>
     </row>
     <row r="33">
@@ -1616,19 +1616,19 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>0.07318450115629184</v>
+        <v>0.06995863888738026</v>
       </c>
       <c r="D33" t="n">
-        <v>0.07318450115629184</v>
+        <v>0.06995863888738026</v>
       </c>
       <c r="E33" t="n">
-        <v>0.3314676083880573</v>
+        <v>0.3403834656935696</v>
       </c>
       <c r="F33" t="n">
-        <v>24</v>
+        <v>136</v>
       </c>
       <c r="G33" t="n">
-        <v>529.0416666666666</v>
+        <v>527.0661764705883</v>
       </c>
       <c r="H33" s="1" t="n">
         <v>45323</v>
@@ -1639,10 +1639,10 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>-0.003896670402571217</v>
+        <v>-0.0008147377141609208</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.005046791843708154</v>
+        <v>-0.008272654112619737</v>
       </c>
     </row>
     <row r="34">
@@ -1653,19 +1653,19 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>0.07849351188169389</v>
+        <v>0.07393036129057498</v>
       </c>
       <c r="D34" t="n">
-        <v>0.07849351188169389</v>
+        <v>0.07393036129057498</v>
       </c>
       <c r="E34" t="n">
-        <v>0.3487716290740843</v>
+        <v>0.3414918369572099</v>
       </c>
       <c r="F34" t="n">
-        <v>25</v>
+        <v>128</v>
       </c>
       <c r="G34" t="n">
-        <v>527.96</v>
+        <v>516.09375</v>
       </c>
       <c r="H34" s="1" t="n">
         <v>45352</v>
@@ -1676,10 +1676,10 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>0.005309010725402047</v>
+        <v>0.003971722403194725</v>
       </c>
       <c r="K34" t="n">
-        <v>0.0008805665463200163</v>
+        <v>-0.003682584044798889</v>
       </c>
     </row>
     <row r="35">
@@ -1690,19 +1690,19 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>0.07369863183287034</v>
+        <v>0.07164535847108087</v>
       </c>
       <c r="D35" t="n">
-        <v>0.07369863183287034</v>
+        <v>0.07164535847108087</v>
       </c>
       <c r="E35" t="n">
-        <v>0.3334050257853984</v>
+        <v>0.3368718973430386</v>
       </c>
       <c r="F35" t="n">
-        <v>24</v>
+        <v>129</v>
       </c>
       <c r="G35" t="n">
-        <v>518.125</v>
+        <v>472.7364341085271</v>
       </c>
       <c r="H35" s="1" t="n">
         <v>45383</v>
@@ -1713,10 +1713,10 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>-0.004794880048823544</v>
+        <v>-0.002285002819494106</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.005285395059104553</v>
+        <v>-0.0007693449979259415</v>
       </c>
     </row>
     <row r="36">
@@ -1727,19 +1727,19 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>0.07405187115565655</v>
+        <v>0.07125192473439274</v>
       </c>
       <c r="D36" t="n">
-        <v>0.07405187115565655</v>
+        <v>0.07125192473439274</v>
       </c>
       <c r="E36" t="n">
-        <v>0.3196753479902494</v>
+        <v>0.3370156229701345</v>
       </c>
       <c r="F36" t="n">
-        <v>29</v>
+        <v>134</v>
       </c>
       <c r="G36" t="n">
-        <v>535.551724137931</v>
+        <v>459.6268656716418</v>
       </c>
       <c r="H36" s="1" t="n">
         <v>45413</v>
@@ -1750,10 +1750,10 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>0.0003532393227862057</v>
+        <v>-0.0003934337366881396</v>
       </c>
       <c r="K36" t="n">
-        <v>-0.008235131164595066</v>
+        <v>-0.000571010932563662</v>
       </c>
     </row>
     <row r="37">
@@ -1764,19 +1764,19 @@
         <v>6</v>
       </c>
       <c r="C37" t="n">
-        <v>0.07851009550673627</v>
+        <v>0.0729754819908775</v>
       </c>
       <c r="D37" t="n">
-        <v>0.07851009550673627</v>
+        <v>0.0729754819908775</v>
       </c>
       <c r="E37" t="n">
-        <v>0.3170052538844795</v>
+        <v>0.334842344271953</v>
       </c>
       <c r="F37" t="n">
-        <v>31</v>
+        <v>138</v>
       </c>
       <c r="G37" t="n">
-        <v>516.8387096774194</v>
+        <v>449.0724637681159</v>
       </c>
       <c r="H37" s="1" t="n">
         <v>45444</v>
@@ -1787,10 +1787,10 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>0.004458224351079718</v>
+        <v>0.001723557256484765</v>
       </c>
       <c r="K37" t="n">
-        <v>0.000315942647239581</v>
+        <v>0.001852580107628746</v>
       </c>
     </row>
     <row r="38">
@@ -1801,19 +1801,19 @@
         <v>7</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0748886879987458</v>
+        <v>0.07087683488183347</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0748886879987458</v>
+        <v>0.07087683488183347</v>
       </c>
       <c r="E38" t="n">
-        <v>0.3238080063825816</v>
+        <v>0.3342398453006424</v>
       </c>
       <c r="F38" t="n">
-        <v>26</v>
+        <v>131</v>
       </c>
       <c r="G38" t="n">
-        <v>502.2307692307692</v>
+        <v>451.8778625954199</v>
       </c>
       <c r="H38" s="1" t="n">
         <v>45474</v>
@@ -1824,10 +1824,10 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>-0.003621407507990462</v>
+        <v>-0.002098647109044033</v>
       </c>
       <c r="K38" t="n">
-        <v>-0.0003259094979171789</v>
+        <v>0.001904508824547693</v>
       </c>
     </row>
     <row r="39">
@@ -1838,19 +1838,19 @@
         <v>8</v>
       </c>
       <c r="C39" t="n">
-        <v>0.07326690546840553</v>
+        <v>0.07412024872883842</v>
       </c>
       <c r="D39" t="n">
-        <v>0.07326690546840553</v>
+        <v>0.07412024872883842</v>
       </c>
       <c r="E39" t="n">
-        <v>0.3217960094354572</v>
+        <v>0.3292436579055802</v>
       </c>
       <c r="F39" t="n">
-        <v>31</v>
+        <v>132</v>
       </c>
       <c r="G39" t="n">
-        <v>514.516129032258</v>
+        <v>444.4318181818182</v>
       </c>
       <c r="H39" s="1" t="n">
         <v>45505</v>
@@ -1861,10 +1861,10 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>-0.001621782530340274</v>
+        <v>0.003243413847004953</v>
       </c>
       <c r="K39" t="n">
-        <v>-0.00159642510781946</v>
+        <v>0.003653367547789374</v>
       </c>
     </row>
     <row r="40">
@@ -1875,19 +1875,19 @@
         <v>9</v>
       </c>
       <c r="C40" t="n">
-        <v>0.07345135141043431</v>
+        <v>0.0742963276867986</v>
       </c>
       <c r="D40" t="n">
-        <v>0.07345135141043431</v>
+        <v>0.0742963276867986</v>
       </c>
       <c r="E40" t="n">
-        <v>0.3208922119895279</v>
+        <v>0.3310341930080368</v>
       </c>
       <c r="F40" t="n">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="G40" t="n">
-        <v>552.4814814814815</v>
+        <v>454.2741935483871</v>
       </c>
       <c r="H40" s="1" t="n">
         <v>45536</v>
@@ -1898,10 +1898,10 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>0.0001844459420287797</v>
+        <v>0.0001760789579601796</v>
       </c>
       <c r="K40" t="n">
-        <v>-0.0007251062799440156</v>
+        <v>0.004082700560364402</v>
       </c>
     </row>
     <row r="41">
@@ -1912,19 +1912,19 @@
         <v>10</v>
       </c>
       <c r="C41" t="n">
-        <v>0.07733816943045863</v>
+        <v>0.07190155212222789</v>
       </c>
       <c r="D41" t="n">
-        <v>0.07733816943045863</v>
+        <v>0.07190155212222789</v>
       </c>
       <c r="E41" t="n">
-        <v>0.3381728595190706</v>
+        <v>0.3352001266101851</v>
       </c>
       <c r="F41" t="n">
-        <v>29</v>
+        <v>130</v>
       </c>
       <c r="G41" t="n">
-        <v>531.6551724137931</v>
+        <v>444.8692307692308</v>
       </c>
       <c r="H41" s="1" t="n">
         <v>45566</v>
@@ -1935,10 +1935,10 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>0.003886818020024316</v>
+        <v>-0.002394775564570711</v>
       </c>
       <c r="K41" t="n">
-        <v>0.004406364036763394</v>
+        <v>0.002262347011799615</v>
       </c>
     </row>
     <row r="42">
@@ -1949,19 +1949,19 @@
         <v>11</v>
       </c>
       <c r="C42" t="n">
-        <v>0.07773288538572426</v>
+        <v>0.07681904192951333</v>
       </c>
       <c r="D42" t="n">
-        <v>0.07773288538572426</v>
+        <v>0.07681904192951333</v>
       </c>
       <c r="E42" t="n">
-        <v>0.3183459110876878</v>
+        <v>0.334276742617994</v>
       </c>
       <c r="F42" t="n">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="G42" t="n">
-        <v>509.0333333333334</v>
+        <v>424.837037037037</v>
       </c>
       <c r="H42" s="1" t="n">
         <v>45597</v>
@@ -1972,10 +1972,10 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>0.0003947159552656343</v>
+        <v>0.004917489807285444</v>
       </c>
       <c r="K42" t="n">
-        <v>-0.003378684751184136</v>
+        <v>0.007596739750797193</v>
       </c>
     </row>
     <row r="43">
@@ -1986,19 +1986,19 @@
         <v>12</v>
       </c>
       <c r="C43" t="n">
-        <v>0.08920687667346817</v>
+        <v>0.080859802610607</v>
       </c>
       <c r="D43" t="n">
-        <v>0.08920687667346817</v>
+        <v>0.080859802610607</v>
       </c>
       <c r="E43" t="n">
-        <v>0.31603882458433</v>
+        <v>0.3314486742177136</v>
       </c>
       <c r="F43" t="n">
-        <v>28</v>
+        <v>118</v>
       </c>
       <c r="G43" t="n">
-        <v>585.1428571428571</v>
+        <v>464.8983050847457</v>
       </c>
       <c r="H43" s="1" t="n">
         <v>45627</v>
@@ -2009,10 +2009,10 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>0.01147399128774391</v>
+        <v>0.004040760681093672</v>
       </c>
       <c r="K43" t="n">
-        <v>0.008068342805549023</v>
+        <v>0.0104021900582429</v>
       </c>
     </row>
     <row r="44">
@@ -2023,19 +2023,19 @@
         <v>1</v>
       </c>
       <c r="C44" t="n">
-        <v>0.08296594685791116</v>
+        <v>0.07942523858887618</v>
       </c>
       <c r="D44" t="n">
-        <v>0.08296594685791116</v>
+        <v>0.07942523858887618</v>
       </c>
       <c r="E44" t="n">
-        <v>0.3359681248804478</v>
+        <v>0.3327640017731392</v>
       </c>
       <c r="F44" t="n">
-        <v>26</v>
+        <v>98</v>
       </c>
       <c r="G44" t="n">
-        <v>491.3461538461539</v>
+        <v>424.3673469387755</v>
       </c>
       <c r="H44" s="1" t="n">
         <v>45658</v>
@@ -2046,10 +2046,10 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>-0.006240929815557017</v>
+        <v>-0.001434564021730825</v>
       </c>
       <c r="K44" t="n">
-        <v>0.005884775299048101</v>
+        <v>0.008651861987335002</v>
       </c>
     </row>
     <row r="45">
@@ -2060,19 +2060,19 @@
         <v>2</v>
       </c>
       <c r="C45" t="n">
-        <v>0.08424525296711799</v>
+        <v>0.07662228895277265</v>
       </c>
       <c r="D45" t="n">
-        <v>0.08424525296711799</v>
+        <v>0.07662228895277265</v>
       </c>
       <c r="E45" t="n">
-        <v>0.3166212066817833</v>
+        <v>0.3325269197633825</v>
       </c>
       <c r="F45" t="n">
-        <v>30</v>
+        <v>119</v>
       </c>
       <c r="G45" t="n">
-        <v>611.0666666666667</v>
+        <v>461.7647058823529</v>
       </c>
       <c r="H45" s="1" t="n">
         <v>45689</v>
@@ -2083,10 +2083,10 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>0.001279306109206832</v>
+        <v>-0.00280294963610353</v>
       </c>
       <c r="K45" t="n">
-        <v>0.01106075181082615</v>
+        <v>0.006663650065392393</v>
       </c>
     </row>
     <row r="46">
@@ -2097,19 +2097,19 @@
         <v>3</v>
       </c>
       <c r="C46" t="n">
-        <v>0.07803409259266506</v>
+        <v>0.07659707017908096</v>
       </c>
       <c r="D46" t="n">
-        <v>0.07803409259266506</v>
+        <v>0.07659707017908096</v>
       </c>
       <c r="E46" t="n">
-        <v>0.3175743252576961</v>
+        <v>0.3269996601547598</v>
       </c>
       <c r="F46" t="n">
-        <v>27</v>
+        <v>120</v>
       </c>
       <c r="G46" t="n">
-        <v>662.6666666666666</v>
+        <v>463.4416666666667</v>
       </c>
       <c r="H46" s="1" t="n">
         <v>45717</v>
@@ -2120,10 +2120,10 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>-0.006211160374452934</v>
+        <v>-2.521877369168757e-05</v>
       </c>
       <c r="K46" t="n">
-        <v>-0.0004594192890288312</v>
+        <v>0.002666708888505981</v>
       </c>
     </row>
     <row r="47">
@@ -2134,19 +2134,19 @@
         <v>4</v>
       </c>
       <c r="C47" t="n">
-        <v>0.08234624643802872</v>
+        <v>0.0745396082249159</v>
       </c>
       <c r="D47" t="n">
-        <v>0.08234624643802872</v>
+        <v>0.0745396082249159</v>
       </c>
       <c r="E47" t="n">
-        <v>0.3255465668990484</v>
+        <v>0.3298378274695235</v>
       </c>
       <c r="F47" t="n">
-        <v>29</v>
+        <v>131</v>
       </c>
       <c r="G47" t="n">
-        <v>620.4827586206897</v>
+        <v>452.6946564885496</v>
       </c>
       <c r="H47" s="1" t="n">
         <v>45748</v>
@@ -2157,10 +2157,10 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>0.004312153845363667</v>
+        <v>-0.002057461954165063</v>
       </c>
       <c r="K47" t="n">
-        <v>0.00864761460515838</v>
+        <v>0.002894249753835024</v>
       </c>
     </row>
     <row r="48">
@@ -2171,19 +2171,19 @@
         <v>5</v>
       </c>
       <c r="C48" t="n">
-        <v>0.09383626980496464</v>
+        <v>0.07907820375261124</v>
       </c>
       <c r="D48" t="n">
-        <v>0.09383626980496464</v>
+        <v>0.07907820375261124</v>
       </c>
       <c r="E48" t="n">
-        <v>0.325178072490915</v>
+        <v>0.3270904942904861</v>
       </c>
       <c r="F48" t="n">
-        <v>30</v>
+        <v>139</v>
       </c>
       <c r="G48" t="n">
-        <v>577.4333333333333</v>
+        <v>447.1654676258993</v>
       </c>
       <c r="H48" s="1" t="n">
         <v>45778</v>
@@ -2194,10 +2194,10 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>0.01149002336693591</v>
+        <v>0.004538595527695338</v>
       </c>
       <c r="K48" t="n">
-        <v>0.01978439864930809</v>
+        <v>0.007826279018218502</v>
       </c>
     </row>
     <row r="49">
@@ -2208,19 +2208,19 @@
         <v>6</v>
       </c>
       <c r="C49" t="n">
-        <v>0.09469169710863536</v>
+        <v>0.08002596811908028</v>
       </c>
       <c r="D49" t="n">
-        <v>0.09469169710863536</v>
+        <v>0.08002596811908028</v>
       </c>
       <c r="E49" t="n">
-        <v>0.3212873387111133</v>
+        <v>0.3251964530025596</v>
       </c>
       <c r="F49" t="n">
-        <v>28</v>
+        <v>128</v>
       </c>
       <c r="G49" t="n">
-        <v>607.6071428571429</v>
+        <v>482.515625</v>
       </c>
       <c r="H49" s="1" t="n">
         <v>45809</v>
@@ -2231,10 +2231,10 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>0.0008554273036707194</v>
+        <v>0.0009477643664690394</v>
       </c>
       <c r="K49" t="n">
-        <v>0.01618160160189909</v>
+        <v>0.007050486128202776</v>
       </c>
     </row>
     <row r="50">
@@ -2245,19 +2245,19 @@
         <v>7</v>
       </c>
       <c r="C50" t="n">
-        <v>0.09524570450225918</v>
+        <v>0.08201858761050876</v>
       </c>
       <c r="D50" t="n">
-        <v>0.09524570450225918</v>
+        <v>0.08201858761050876</v>
       </c>
       <c r="E50" t="n">
-        <v>0.3181212018204945</v>
+        <v>0.3306139793525829</v>
       </c>
       <c r="F50" t="n">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="G50" t="n">
-        <v>618.9</v>
+        <v>469.437037037037</v>
       </c>
       <c r="H50" s="1" t="n">
         <v>45839</v>
@@ -2268,10 +2268,10 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>0.0005540073936238232</v>
+        <v>0.001992619491428482</v>
       </c>
       <c r="K50" t="n">
-        <v>0.02035701650351338</v>
+        <v>0.01114175272867529</v>
       </c>
     </row>
     <row r="51">
@@ -2282,19 +2282,19 @@
         <v>8</v>
       </c>
       <c r="C51" t="n">
-        <v>0.09900166801801441</v>
+        <v>0.08083063810472618</v>
       </c>
       <c r="D51" t="n">
-        <v>0.09900166801801441</v>
+        <v>0.08083063810472618</v>
       </c>
       <c r="E51" t="n">
-        <v>0.3304065815795433</v>
+        <v>0.3227725033772423</v>
       </c>
       <c r="F51" t="n">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="G51" t="n">
-        <v>633.3</v>
+        <v>497.3230769230769</v>
       </c>
       <c r="H51" s="1" t="n">
         <v>45870</v>
@@ -2305,10 +2305,10 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>0.003755963515755231</v>
+        <v>-0.001187949505782576</v>
       </c>
       <c r="K51" t="n">
-        <v>0.02573476254960888</v>
+        <v>0.006710389375887763</v>
       </c>
     </row>
     <row r="52">
@@ -2319,19 +2319,19 @@
         <v>9</v>
       </c>
       <c r="C52" t="n">
-        <v>0.09064264889676674</v>
+        <v>0.08094970699725219</v>
       </c>
       <c r="D52" t="n">
-        <v>0.09064264889676674</v>
+        <v>0.08094970699725219</v>
       </c>
       <c r="E52" t="n">
-        <v>0.3229277002348039</v>
+        <v>0.3238571743371991</v>
       </c>
       <c r="F52" t="n">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="G52" t="n">
-        <v>678.6521739130435</v>
+        <v>475.4883720930233</v>
       </c>
       <c r="H52" s="1" t="n">
         <v>45901</v>
@@ -2342,10 +2342,10 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>-0.008359019121247674</v>
+        <v>0.0001190688925260114</v>
       </c>
       <c r="K52" t="n">
-        <v>0.01719129748633243</v>
+        <v>0.006653379310453594</v>
       </c>
     </row>
     <row r="53">
@@ -2356,19 +2356,19 @@
         <v>10</v>
       </c>
       <c r="C53" t="n">
-        <v>0.08916958320925654</v>
+        <v>0.07870082605226708</v>
       </c>
       <c r="D53" t="n">
-        <v>0.08916958320925654</v>
+        <v>0.07870082605226708</v>
       </c>
       <c r="E53" t="n">
-        <v>0.3293567456645816</v>
+        <v>0.3232047082916967</v>
       </c>
       <c r="F53" t="n">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="G53" t="n">
-        <v>729.0833333333334</v>
+        <v>498.5975609756098</v>
       </c>
       <c r="H53" s="1" t="n">
         <v>45931</v>
@@ -2379,10 +2379,10 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>-0.001473065687510197</v>
+        <v>-0.002248880944985113</v>
       </c>
       <c r="K53" t="n">
-        <v>0.01183141377879791</v>
+        <v>0.006799273930039193</v>
       </c>
     </row>
     <row r="54">
@@ -2393,19 +2393,19 @@
         <v>11</v>
       </c>
       <c r="C54" t="n">
-        <v>0.09240662635207367</v>
+        <v>0.07993945377312242</v>
       </c>
       <c r="D54" t="n">
-        <v>0.09240662635207367</v>
+        <v>0.07993945377312242</v>
       </c>
       <c r="E54" t="n">
-        <v>0.3409730219670824</v>
+        <v>0.3261510543089502</v>
       </c>
       <c r="F54" t="n">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="G54" t="n">
-        <v>607.2857142857143</v>
+        <v>453.3625</v>
       </c>
       <c r="H54" s="1" t="n">
         <v>45962</v>
@@ -2416,10 +2416,10 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>0.003237043142817128</v>
+        <v>0.00123862772085534</v>
       </c>
       <c r="K54" t="n">
-        <v>0.01467374096634941</v>
+        <v>0.003120411843609089</v>
       </c>
     </row>
     <row r="55">
@@ -2430,19 +2430,19 @@
         <v>12</v>
       </c>
       <c r="C55" t="n">
-        <v>0.08145315178145521</v>
+        <v>0.07734437020942829</v>
       </c>
       <c r="D55" t="n">
-        <v>0.08145315178145521</v>
+        <v>0.07734437020942829</v>
       </c>
       <c r="E55" t="n">
-        <v>0.3065284935932987</v>
+        <v>0.3186494613683109</v>
       </c>
       <c r="F55" t="n">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="G55" t="n">
-        <v>766.3333333333334</v>
+        <v>507.1414141414141</v>
       </c>
       <c r="H55" s="1" t="n">
         <v>45992</v>
@@ -2453,10 +2453,10 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>-0.01095347457061846</v>
+        <v>-0.002595083563694131</v>
       </c>
       <c r="K55" t="n">
-        <v>-0.007753724892012967</v>
+        <v>-0.003515432401178714</v>
       </c>
     </row>
     <row r="56">
@@ -2467,19 +2467,19 @@
         <v>1</v>
       </c>
       <c r="C56" t="n">
-        <v>0.09123299688563545</v>
+        <v>0.0797417902868708</v>
       </c>
       <c r="D56" t="n">
-        <v>0.09123299688563545</v>
+        <v>0.0797417902868708</v>
       </c>
       <c r="E56" t="n">
-        <v>0.3129779088547938</v>
+        <v>0.3218397884303952</v>
       </c>
       <c r="F56" t="n">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="G56" t="n">
-        <v>572.8181818181819</v>
+        <v>478.1804511278195</v>
       </c>
       <c r="H56" s="1" t="n">
         <v>46023</v>
@@ -2490,10 +2490,47 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>0.009779845104180243</v>
+        <v>0.002397420077442508</v>
       </c>
       <c r="K56" t="n">
-        <v>0.008267050027724293</v>
+        <v>0.0003165516979946187</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B57" t="n">
+        <v>2</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.07380186053069956</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.07380186053069956</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.3111892825820786</v>
+      </c>
+      <c r="F57" t="n">
+        <v>19</v>
+      </c>
+      <c r="G57" t="n">
+        <v>551.578947368421</v>
+      </c>
+      <c r="H57" s="1" t="n">
+        <v>46054</v>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>2026Q1</t>
+        </is>
+      </c>
+      <c r="J57" t="n">
+        <v>-0.005939929756171233</v>
+      </c>
+      <c r="K57" t="n">
+        <v>-0.002820428422073085</v>
       </c>
     </row>
   </sheetData>
@@ -2637,13 +2674,13 @@
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>0.07627777677142858</v>
+        <v>0.05979281878947368</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3935134577428572</v>
+        <v>0.3735064921578948</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.3172356809714286</v>
+        <v>-0.3137136733684211</v>
       </c>
       <c r="L3" t="inlineStr"/>
     </row>
@@ -2673,13 +2710,13 @@
       </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>0.07119323431914894</v>
+        <v>0.05262012604347826</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3856232987021276</v>
+        <v>0.3881498074347826</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.3144300643829787</v>
+        <v>-0.3355296813913043</v>
       </c>
       <c r="L4" t="inlineStr"/>
     </row>
@@ -2756,7 +2793,7 @@
         <v>-0.299776287</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02701135323073678</v>
+        <v>0.02701135323073656</v>
       </c>
     </row>
     <row r="7">
@@ -2787,16 +2824,16 @@
         <v>-0.04296850153047157</v>
       </c>
       <c r="I7" t="n">
-        <v>0.05555494788542022</v>
+        <v>0.04913205644120356</v>
       </c>
       <c r="J7" t="n">
-        <v>0.3858197931862442</v>
+        <v>0.3875504390053467</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.330264845300824</v>
+        <v>-0.3384183825641432</v>
       </c>
       <c r="L7" t="n">
-        <v>0.04107092963029224</v>
+        <v>0.07874922674061846</v>
       </c>
     </row>
     <row r="8">
@@ -2827,16 +2864,16 @@
         <v>0.002302444844158383</v>
       </c>
       <c r="I8" t="n">
-        <v>0.06624441533390257</v>
+        <v>0.05796758252245629</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3656339959397661</v>
+        <v>0.3712761700058593</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.2993895806058635</v>
+        <v>-0.313308587483403</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.04783411473909105</v>
+        <v>-0.06622690969025335</v>
       </c>
     </row>
     <row r="9">
@@ -2867,16 +2904,16 @@
         <v>-0.06983639102495909</v>
       </c>
       <c r="I9" t="n">
-        <v>0.07364051646380226</v>
+        <v>0.06742036616268397</v>
       </c>
       <c r="J9" t="n">
-        <v>0.361513997363836</v>
+        <v>0.3644014175974802</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.2878734809000338</v>
+        <v>-0.2969810514347962</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2313605582209974</v>
+        <v>0.2703176136005325</v>
       </c>
     </row>
     <row r="10">
@@ -2907,16 +2944,16 @@
         <v>-0.006923340627399049</v>
       </c>
       <c r="I10" t="n">
-        <v>0.08117092497446987</v>
+        <v>0.07938587643991264</v>
       </c>
       <c r="J10" t="n">
-        <v>0.3495041029590277</v>
+        <v>0.3452797924278759</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.2683331779845579</v>
+        <v>-0.2658939159879632</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.1048885798476854</v>
+        <v>-0.1130255209680303</v>
       </c>
     </row>
     <row r="11">
@@ -2926,37 +2963,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.07982172735724107</v>
+        <v>0.07178684700640399</v>
       </c>
       <c r="C11" t="n">
-        <v>0.07982172735724107</v>
+        <v>0.07178684700640399</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3551303435578716</v>
+        <v>0.3457698881623439</v>
       </c>
       <c r="E11" t="n">
-        <v>27</v>
+        <v>121.6666666666667</v>
       </c>
       <c r="F11" t="n">
         <v>9</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.01616320901535989</v>
+        <v>-0.02419808936619697</v>
       </c>
       <c r="H11" t="n">
-        <v>0.03310409038771264</v>
+        <v>0.02506921003687556</v>
       </c>
       <c r="I11" t="n">
-        <v>0.07550426201193439</v>
+        <v>0.07766656881290657</v>
       </c>
       <c r="J11" t="n">
-        <v>0.3645063282456978</v>
+        <v>0.3682778685654443</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.2890020662337635</v>
+        <v>-0.2906112997525377</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.1249384536506635</v>
+        <v>-0.1412662115142171</v>
       </c>
     </row>
     <row r="12">
@@ -2966,37 +3003,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.07475146192108877</v>
+        <v>0.06988427812158966</v>
       </c>
       <c r="C12" t="n">
-        <v>0.07475146192108877</v>
+        <v>0.06988427812158966</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3378132313599402</v>
+        <v>0.3356126949465524</v>
       </c>
       <c r="E12" t="n">
-        <v>28.66666666666667</v>
+        <v>125</v>
       </c>
       <c r="F12" t="n">
         <v>10</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.005070265436152299</v>
+        <v>-0.001902568884814326</v>
       </c>
       <c r="H12" t="n">
-        <v>0.006980962076930386</v>
+        <v>0.002113778277431283</v>
       </c>
       <c r="I12" t="n">
-        <v>0.07346585858598161</v>
+        <v>0.0761397651099326</v>
       </c>
       <c r="J12" t="n">
-        <v>0.3514840429189443</v>
+        <v>0.3574056366816648</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.2780181843329627</v>
+        <v>-0.2812658715717322</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.07138323327636287</v>
+        <v>-0.1022720640026128</v>
       </c>
     </row>
     <row r="13">
@@ -3006,37 +3043,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.07839396979950759</v>
+        <v>0.0697730399471695</v>
       </c>
       <c r="C13" t="n">
-        <v>0.07839396979950759</v>
+        <v>0.0697730399471695</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3438311452203366</v>
+        <v>0.3403160520091948</v>
       </c>
       <c r="E13" t="n">
-        <v>27.66666666666667</v>
+        <v>130</v>
       </c>
       <c r="F13" t="n">
         <v>11</v>
       </c>
       <c r="G13" t="n">
-        <v>0.003642507878418827</v>
+        <v>-0.0001112381744201585</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.001092318493842656</v>
+        <v>-0.009713248346180745</v>
       </c>
       <c r="I13" t="n">
-        <v>0.07629891094722693</v>
+        <v>0.07597345355794274</v>
       </c>
       <c r="J13" t="n">
-        <v>0.3736113186116612</v>
+        <v>0.3595361201589924</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.2973124076644343</v>
+        <v>-0.2835626666010497</v>
       </c>
       <c r="L13" t="n">
-        <v>0.03278845531338925</v>
+        <v>-0.04518262956144392</v>
       </c>
     </row>
     <row r="14">
@@ -3046,37 +3083,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.07625306153228294</v>
+        <v>0.07155412559316547</v>
       </c>
       <c r="C14" t="n">
-        <v>0.07625306153228294</v>
+        <v>0.07155412559316547</v>
       </c>
       <c r="D14" t="n">
-        <v>0.343207639240437</v>
+        <v>0.3426899179253098</v>
       </c>
       <c r="E14" t="n">
-        <v>25.33333333333333</v>
+        <v>132.6666666666667</v>
       </c>
       <c r="F14" t="n">
         <v>12</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.002140908267224656</v>
+        <v>0.001781085645995967</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.01973187484031802</v>
+        <v>-0.02443081077943549</v>
       </c>
       <c r="I14" t="n">
-        <v>0.07562478363606376</v>
+        <v>0.07823492247708287</v>
       </c>
       <c r="J14" t="n">
-        <v>0.3715840027926106</v>
+        <v>0.3549768740075087</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.2959592191565468</v>
+        <v>-0.2767419515304259</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1029542503073502</v>
+        <v>0.04079835938387433</v>
       </c>
     </row>
     <row r="15">
@@ -3086,37 +3123,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.07542019949842105</v>
+        <v>0.0719575883987837</v>
       </c>
       <c r="C15" t="n">
-        <v>0.07542019949842105</v>
+        <v>0.0719575883987837</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3233618758867091</v>
+        <v>0.3362432881950421</v>
       </c>
       <c r="E15" t="n">
-        <v>28</v>
+        <v>133.6666666666667</v>
       </c>
       <c r="F15" t="n">
         <v>13</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.0008328620338618892</v>
+        <v>0.0004034628056182321</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.004401527858820017</v>
+        <v>0.0001707413923797141</v>
       </c>
       <c r="I15" t="n">
-        <v>0.07069165368653375</v>
+        <v>0.07778056904908576</v>
       </c>
       <c r="J15" t="n">
-        <v>0.3486501773125208</v>
+        <v>0.3426512093598714</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.2779585236259871</v>
+        <v>-0.2648706403107856</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.03821267699464703</v>
+        <v>-0.0885741864258921</v>
       </c>
     </row>
     <row r="16">
@@ -3126,37 +3163,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.07386898162586188</v>
+        <v>0.07309780376582349</v>
       </c>
       <c r="C16" t="n">
-        <v>0.07386898162586188</v>
+        <v>0.07309780376582349</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3221654092691889</v>
+        <v>0.3315058987380865</v>
       </c>
       <c r="E16" t="n">
-        <v>28</v>
+        <v>129</v>
       </c>
       <c r="F16" t="n">
         <v>14</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.001551217872559171</v>
+        <v>0.001140215367039787</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.0008824802952268895</v>
+        <v>0.003213525644233828</v>
       </c>
       <c r="I16" t="n">
-        <v>0.06754177719287266</v>
+        <v>0.07826656105167203</v>
       </c>
       <c r="J16" t="n">
-        <v>0.3401305096223162</v>
+        <v>0.3374737219155959</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.2725887324294435</v>
+        <v>-0.2592071608639239</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.01952912510577642</v>
+        <v>-0.07842654561871554</v>
       </c>
     </row>
     <row r="17">
@@ -3166,37 +3203,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.08142597716321702</v>
+        <v>0.07652679888744941</v>
       </c>
       <c r="C17" t="n">
-        <v>0.08142597716321702</v>
+        <v>0.07652679888744941</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3241858650636961</v>
+        <v>0.3336418478152975</v>
       </c>
       <c r="E17" t="n">
-        <v>29</v>
+        <v>127.6666666666667</v>
       </c>
       <c r="F17" t="n">
         <v>15</v>
       </c>
       <c r="G17" t="n">
-        <v>0.007556995537355143</v>
+        <v>0.003428995121625922</v>
       </c>
       <c r="H17" t="n">
-        <v>0.003032007363709427</v>
+        <v>0.006753758940279908</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0751396824756658</v>
+        <v>0.08048796327022274</v>
       </c>
       <c r="J17" t="n">
-        <v>0.345277971315771</v>
+        <v>0.3447974185939269</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.2701382888401052</v>
+        <v>-0.2643094553237042</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.09139920879117702</v>
+        <v>-0.06789755332789704</v>
       </c>
     </row>
     <row r="18">
@@ -3206,37 +3243,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.08174843080589807</v>
+        <v>0.07754819924024327</v>
       </c>
       <c r="C18" t="n">
-        <v>0.08174843080589807</v>
+        <v>0.07754819924024327</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3233878856066424</v>
+        <v>0.3307635272304272</v>
       </c>
       <c r="E18" t="n">
-        <v>27.66666666666667</v>
+        <v>112.3333333333333</v>
       </c>
       <c r="F18" t="n">
         <v>16</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0003224536426810476</v>
+        <v>0.001021400352793855</v>
       </c>
       <c r="H18" t="n">
-        <v>0.005495369273615131</v>
+        <v>0.005994073647077797</v>
       </c>
       <c r="I18" t="n">
-        <v>0.07729095589413372</v>
+        <v>0.08110550422647941</v>
       </c>
       <c r="J18" t="n">
-        <v>0.3458161253310973</v>
+        <v>0.3437312896671358</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.2685251694369636</v>
+        <v>-0.2626257854406564</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.09269537133449468</v>
+        <v>-0.05100840697156639</v>
       </c>
     </row>
     <row r="19">
@@ -3246,37 +3283,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.0902914044505429</v>
+        <v>0.07788126003220247</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0902914044505429</v>
+        <v>0.07788126003220247</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3240039927003589</v>
+        <v>0.3273749249208564</v>
       </c>
       <c r="E19" t="n">
-        <v>29</v>
+        <v>132.6666666666667</v>
       </c>
       <c r="F19" t="n">
         <v>17</v>
       </c>
       <c r="G19" t="n">
-        <v>0.008542973644644833</v>
+        <v>0.0003330607919592027</v>
       </c>
       <c r="H19" t="n">
-        <v>0.01487120495212185</v>
+        <v>0.005923671633418767</v>
       </c>
       <c r="I19" t="n">
-        <v>0.08603266388702674</v>
+        <v>0.08336653195821253</v>
       </c>
       <c r="J19" t="n">
-        <v>0.3358995967734651</v>
+        <v>0.3440032316670173</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.2498669328864384</v>
+        <v>-0.2606366997088048</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.1010639658503435</v>
+        <v>-0.01598493739061813</v>
       </c>
     </row>
     <row r="20">
@@ -3286,37 +3323,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.09496334047234678</v>
+        <v>0.08126631090416238</v>
       </c>
       <c r="C20" t="n">
-        <v>0.09496334047234678</v>
+        <v>0.08126631090416238</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3238184945449472</v>
+        <v>0.3257478856890081</v>
       </c>
       <c r="E20" t="n">
-        <v>27.66666666666667</v>
+        <v>117</v>
       </c>
       <c r="F20" t="n">
         <v>18</v>
       </c>
       <c r="G20" t="n">
-        <v>0.00467193602180388</v>
+        <v>0.003385050871959908</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0210943588464849</v>
+        <v>0.008168507138338887</v>
       </c>
       <c r="I20" t="n">
-        <v>0.08913090583996927</v>
+        <v>0.08383781642623232</v>
       </c>
       <c r="J20" t="n">
-        <v>0.3417798123859237</v>
+        <v>0.3410041476302442</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.2526489065459544</v>
+        <v>-0.2571663312040119</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.07314985364866566</v>
+        <v>-0.007873353703308439</v>
       </c>
     </row>
     <row r="21">
@@ -3326,37 +3363,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.08767645378092848</v>
+        <v>0.07866155001160592</v>
       </c>
       <c r="C21" t="n">
-        <v>0.08767645378092848</v>
+        <v>0.07866155001160592</v>
       </c>
       <c r="D21" t="n">
-        <v>0.3256194204083209</v>
+        <v>0.3226684079896526</v>
       </c>
       <c r="E21" t="n">
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="F21" t="n">
         <v>19</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.007286886691418304</v>
+        <v>-0.002604760892556457</v>
       </c>
       <c r="H21" t="n">
-        <v>0.006250476617711456</v>
+        <v>0.002134751124156509</v>
       </c>
       <c r="I21" t="n">
-        <v>0.08050259506298765</v>
+        <v>0.08395017232388889</v>
       </c>
       <c r="J21" t="n">
-        <v>0.3336545065106141</v>
+        <v>0.3364210076848763</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.2531519114476265</v>
+        <v>-0.2524708353609874</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.06288030277164036</v>
+        <v>-0.0447907546410623</v>
       </c>
     </row>
     <row r="22">
@@ -3366,37 +3403,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.09123299688563545</v>
+        <v>0.07677182540878519</v>
       </c>
       <c r="C22" t="n">
-        <v>0.09123299688563545</v>
+        <v>0.07677182540878519</v>
       </c>
       <c r="D22" t="n">
-        <v>0.3129779088547938</v>
+        <v>0.3165145355062369</v>
       </c>
       <c r="E22" t="n">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="F22" t="n">
         <v>20</v>
       </c>
       <c r="G22" t="n">
-        <v>0.003556543104706975</v>
+        <v>-0.001889724602820733</v>
       </c>
       <c r="H22" t="n">
-        <v>0.009484566079737383</v>
+        <v>-0.0007763738314580798</v>
       </c>
       <c r="I22" t="n">
-        <v>0.08197292239716884</v>
+        <v>0.0822990903387351</v>
       </c>
       <c r="J22" t="n">
-        <v>0.3156616963791157</v>
+        <v>0.3300620376686122</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.2336887739819469</v>
+        <v>-0.2477629473298771</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.1297323283625916</v>
+        <v>-0.05659321717340571</v>
       </c>
     </row>
   </sheetData>
@@ -3410,7 +3447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3488,19 +3525,19 @@
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>0.08228700232025161</v>
+        <v>0.0718229356669564</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3526178590746237</v>
+        <v>0.3449397820325285</v>
       </c>
       <c r="E2" t="n">
-        <v>0.08</v>
+        <v>0.2755905511811024</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>25</v>
+        <v>127</v>
       </c>
       <c r="H2" s="1" t="n">
         <v>45047</v>
@@ -3511,13 +3548,13 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>0.003302975428276719</v>
+        <v>-0.0005917678020504191</v>
       </c>
       <c r="K2" t="n">
-        <v>0.01486069465028556</v>
+        <v>0.007885802831947564</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.01155771922200884</v>
+        <v>-0.008477570633997983</v>
       </c>
     </row>
     <row r="3">
@@ -3528,19 +3565,19 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07819415285949669</v>
+        <v>0.07112290188324875</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3750160071746529</v>
+        <v>0.3553159032539221</v>
       </c>
       <c r="E3" t="n">
-        <v>0.03225806451612903</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>31</v>
+        <v>140</v>
       </c>
       <c r="H3" s="1" t="n">
         <v>45078</v>
@@ -3551,13 +3588,13 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>-0.00409284946075493</v>
+        <v>-0.0007000337837076431</v>
       </c>
       <c r="K3" t="n">
-        <v>0.02239814810002921</v>
+        <v>0.01037612122139364</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.02649099756078414</v>
+        <v>-0.01107615500510128</v>
       </c>
     </row>
     <row r="4">
@@ -3568,10 +3605,10 @@
         <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>0.07521459749666298</v>
+        <v>0.06897232605728577</v>
       </c>
       <c r="D4" t="n">
-        <v>0.360843647665672</v>
+        <v>0.34452231380349</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -3580,7 +3617,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>32</v>
+        <v>143</v>
       </c>
       <c r="H4" s="1" t="n">
         <v>45108</v>
@@ -3591,13 +3628,13 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>-0.002979555362833702</v>
+        <v>-0.00215057582596298</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.01417235950898088</v>
+        <v>-0.01079358945043218</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01119280414614718</v>
+        <v>0.008643013624469204</v>
       </c>
     </row>
     <row r="5">
@@ -3608,10 +3645,10 @@
         <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07486333057622499</v>
+        <v>0.07046688118104905</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3559850677401643</v>
+        <v>0.344346677153684</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -3620,7 +3657,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>30</v>
+        <v>136</v>
       </c>
       <c r="H5" s="1" t="n">
         <v>45139</v>
@@ -3631,13 +3668,13 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>-0.0003512669204379926</v>
+        <v>0.001494555123763272</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.004858579925507756</v>
+        <v>-0.0001756366498059658</v>
       </c>
       <c r="L5" t="n">
-        <v>0.004507313005069763</v>
+        <v>0.001670191773569238</v>
       </c>
     </row>
     <row r="6">
@@ -3648,19 +3685,19 @@
         <v>9</v>
       </c>
       <c r="C6" t="n">
-        <v>0.07417645769037833</v>
+        <v>0.0702136271264342</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2966109786739843</v>
+        <v>0.3179690938824832</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>0.01041666666666667</v>
       </c>
       <c r="G6" t="n">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="H6" s="1" t="n">
         <v>45170</v>
@@ -3671,13 +3708,13 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>-0.0006868728858466649</v>
+        <v>-0.0002532540546148487</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.05937408906617991</v>
+        <v>-0.02637758327120077</v>
       </c>
       <c r="L6" t="n">
-        <v>0.05868721618033325</v>
+        <v>0.02612432921658592</v>
       </c>
     </row>
     <row r="7">
@@ -3688,10 +3725,10 @@
         <v>10</v>
       </c>
       <c r="C7" t="n">
-        <v>0.07293180539369523</v>
+        <v>0.06963920511042827</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3387636812105863</v>
+        <v>0.3429798151773454</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -3700,7 +3737,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>26</v>
+        <v>120</v>
       </c>
       <c r="H7" s="1" t="n">
         <v>45200</v>
@@ -3711,13 +3748,13 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>-0.001244652296683094</v>
+        <v>-0.0005744220160059238</v>
       </c>
       <c r="K7" t="n">
-        <v>0.04215270253660192</v>
+        <v>0.02501072129486215</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.04339735483328501</v>
+        <v>-0.02558514331086807</v>
       </c>
     </row>
     <row r="8">
@@ -3728,10 +3765,10 @@
         <v>11</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0811115701369084</v>
+        <v>0.06922230217871614</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3432941205446162</v>
+        <v>0.3327243605153344</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -3740,7 +3777,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>27</v>
+        <v>131</v>
       </c>
       <c r="H8" s="1" t="n">
         <v>45231</v>
@@ -3751,13 +3788,13 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>0.008179764743213164</v>
+        <v>-0.0004169029317121348</v>
       </c>
       <c r="K8" t="n">
-        <v>0.004530439334029968</v>
+        <v>-0.01025545466201094</v>
       </c>
       <c r="L8" t="n">
-        <v>0.003649325409183196</v>
+        <v>0.009838551730298808</v>
       </c>
     </row>
     <row r="9">
@@ -3768,10 +3805,10 @@
         <v>12</v>
       </c>
       <c r="C9" t="n">
-        <v>0.08113853386791915</v>
+        <v>0.0704576125523641</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3494356339058072</v>
+        <v>0.3452439803349048</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -3780,7 +3817,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>30</v>
+        <v>139</v>
       </c>
       <c r="H9" s="1" t="n">
         <v>45261</v>
@@ -3791,13 +3828,13 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>2.696373101075678e-05</v>
+        <v>0.001235310373647963</v>
       </c>
       <c r="K9" t="n">
-        <v>0.006141513361190953</v>
+        <v>0.01251961981957034</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.006114549630180197</v>
+        <v>-0.01128430944592237</v>
       </c>
     </row>
     <row r="10">
@@ -3808,19 +3845,19 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>0.07708117155886306</v>
+        <v>0.07077337660154118</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3493836802591693</v>
+        <v>0.34619445112515</v>
       </c>
       <c r="E10" t="n">
-        <v>0.03703703703703703</v>
+        <v>0.007462686567164179</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="H10" s="1" t="n">
         <v>45292</v>
@@ -3831,13 +3868,13 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>-0.004057362309056095</v>
+        <v>0.0003157640491770752</v>
       </c>
       <c r="K10" t="n">
-        <v>-5.195364663784785e-05</v>
+        <v>0.0009504707902451837</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.004005408662418247</v>
+        <v>-0.0006347067410681084</v>
       </c>
     </row>
     <row r="11">
@@ -3848,19 +3885,19 @@
         <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>0.07318450115629184</v>
+        <v>0.06995863888738026</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3314676083880573</v>
+        <v>0.3403834656935696</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>0.02205882352941177</v>
       </c>
       <c r="F11" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.007352941176470588</v>
       </c>
       <c r="G11" t="n">
-        <v>24</v>
+        <v>136</v>
       </c>
       <c r="H11" s="1" t="n">
         <v>45323</v>
@@ -3871,13 +3908,13 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>-0.003896670402571217</v>
+        <v>-0.0008147377141609208</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.01791607187111199</v>
+        <v>-0.005810985431580373</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01401940146854078</v>
+        <v>0.004996247717419453</v>
       </c>
     </row>
     <row r="12">
@@ -3888,19 +3925,19 @@
         <v>3</v>
       </c>
       <c r="C12" t="n">
-        <v>0.07849351188169389</v>
+        <v>0.07393036129057498</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3487716290740843</v>
+        <v>0.3414918369572099</v>
       </c>
       <c r="E12" t="n">
-        <v>0.04</v>
+        <v>0.0078125</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>25</v>
+        <v>128</v>
       </c>
       <c r="H12" s="1" t="n">
         <v>45352</v>
@@ -3911,13 +3948,13 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>0.005309010725402047</v>
+        <v>0.003971722403194725</v>
       </c>
       <c r="K12" t="n">
-        <v>0.01730402068602699</v>
+        <v>0.001108371263640329</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.01199500996062494</v>
+        <v>0.002863351139554396</v>
       </c>
     </row>
     <row r="13">
@@ -3928,19 +3965,19 @@
         <v>4</v>
       </c>
       <c r="C13" t="n">
-        <v>0.07369863183287034</v>
+        <v>0.07164535847108087</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3334050257853984</v>
+        <v>0.3368718973430386</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.007751937984496124</v>
       </c>
       <c r="G13" t="n">
-        <v>24</v>
+        <v>129</v>
       </c>
       <c r="H13" s="1" t="n">
         <v>45383</v>
@@ -3951,13 +3988,13 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>-0.004794880048823544</v>
+        <v>-0.002285002819494106</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.01536660328868589</v>
+        <v>-0.004619939614171342</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01057172323986234</v>
+        <v>0.002334936794677236</v>
       </c>
     </row>
     <row r="14">
@@ -3968,10 +4005,10 @@
         <v>5</v>
       </c>
       <c r="C14" t="n">
-        <v>0.07405187115565655</v>
+        <v>0.07125192473439274</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3196753479902494</v>
+        <v>0.3370156229701345</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -3980,7 +4017,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>29</v>
+        <v>134</v>
       </c>
       <c r="H14" s="1" t="n">
         <v>45413</v>
@@ -3991,13 +4028,13 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>0.0003532393227862057</v>
+        <v>-0.0003934337366881396</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.013729677795149</v>
+        <v>0.0001437256270959697</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0140829171179352</v>
+        <v>-0.0005371593637841093</v>
       </c>
     </row>
     <row r="15">
@@ -4008,10 +4045,10 @@
         <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>0.07851009550673627</v>
+        <v>0.0729754819908775</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3170052538844795</v>
+        <v>0.334842344271953</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -4020,7 +4057,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>31</v>
+        <v>138</v>
       </c>
       <c r="H15" s="1" t="n">
         <v>45444</v>
@@ -4031,13 +4068,13 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>0.004458224351079718</v>
+        <v>0.001723557256484765</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.002670094105769905</v>
+        <v>-0.002173278698181569</v>
       </c>
       <c r="L15" t="n">
-        <v>0.007128318456849622</v>
+        <v>0.003896835954666333</v>
       </c>
     </row>
     <row r="16">
@@ -4048,10 +4085,10 @@
         <v>7</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0748886879987458</v>
+        <v>0.07087683488183347</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3238080063825816</v>
+        <v>0.3342398453006424</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -4060,7 +4097,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>26</v>
+        <v>131</v>
       </c>
       <c r="H16" s="1" t="n">
         <v>45474</v>
@@ -4071,13 +4108,13 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>-0.003621407507990462</v>
+        <v>-0.002098647109044033</v>
       </c>
       <c r="K16" t="n">
-        <v>0.006802752498102027</v>
+        <v>-0.0006024989713105389</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.01042416000609249</v>
+        <v>-0.001496148137733494</v>
       </c>
     </row>
     <row r="17">
@@ -4088,10 +4125,10 @@
         <v>8</v>
       </c>
       <c r="C17" t="n">
-        <v>0.07326690546840553</v>
+        <v>0.07412024872883842</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3217960094354572</v>
+        <v>0.3292436579055802</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -4100,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>31</v>
+        <v>132</v>
       </c>
       <c r="H17" s="1" t="n">
         <v>45505</v>
@@ -4111,13 +4148,13 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>-0.001621782530340274</v>
+        <v>0.003243413847004953</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.002011996947124339</v>
+        <v>-0.00499618739506219</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0003902144167840654</v>
+        <v>0.008239601242067143</v>
       </c>
     </row>
     <row r="18">
@@ -4128,10 +4165,10 @@
         <v>9</v>
       </c>
       <c r="C18" t="n">
-        <v>0.07345135141043431</v>
+        <v>0.0742963276867986</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3208922119895279</v>
+        <v>0.3310341930080368</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -4140,7 +4177,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="H18" s="1" t="n">
         <v>45536</v>
@@ -4151,13 +4188,13 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>0.0001844459420287797</v>
+        <v>0.0001760789579601796</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.0009037974459292775</v>
+        <v>0.001790535102456525</v>
       </c>
       <c r="L18" t="n">
-        <v>0.001088243387958057</v>
+        <v>-0.001614456144496346</v>
       </c>
     </row>
     <row r="19">
@@ -4168,19 +4205,19 @@
         <v>10</v>
       </c>
       <c r="C19" t="n">
-        <v>0.07733816943045863</v>
+        <v>0.07190155212222789</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3381728595190706</v>
+        <v>0.3352001266101851</v>
       </c>
       <c r="E19" t="n">
-        <v>0.03448275862068965</v>
+        <v>0.007692307692307693</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>29</v>
+        <v>130</v>
       </c>
       <c r="H19" s="1" t="n">
         <v>45566</v>
@@ -4191,13 +4228,13 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>0.003886818020024316</v>
+        <v>-0.002394775564570711</v>
       </c>
       <c r="K19" t="n">
-        <v>0.01728064752954267</v>
+        <v>0.004165933602148286</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.01339382950951835</v>
+        <v>-0.006560709166718998</v>
       </c>
     </row>
     <row r="20">
@@ -4208,19 +4245,19 @@
         <v>11</v>
       </c>
       <c r="C20" t="n">
-        <v>0.07773288538572426</v>
+        <v>0.07681904192951333</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3183459110876878</v>
+        <v>0.334276742617994</v>
       </c>
       <c r="E20" t="n">
-        <v>0.03333333333333333</v>
+        <v>0.007407407407407408</v>
       </c>
       <c r="F20" t="n">
-        <v>0.03333333333333333</v>
+        <v>0.007407407407407408</v>
       </c>
       <c r="G20" t="n">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="H20" s="1" t="n">
         <v>45597</v>
@@ -4231,13 +4268,13 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>0.0003947159552656343</v>
+        <v>0.004917489807285444</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.01982694843138277</v>
+        <v>-0.0009233839921910514</v>
       </c>
       <c r="L20" t="n">
-        <v>0.02022166438664841</v>
+        <v>0.005840873799476495</v>
       </c>
     </row>
     <row r="21">
@@ -4248,19 +4285,19 @@
         <v>12</v>
       </c>
       <c r="C21" t="n">
-        <v>0.08920687667346817</v>
+        <v>0.080859802610607</v>
       </c>
       <c r="D21" t="n">
-        <v>0.31603882458433</v>
+        <v>0.3314486742177136</v>
       </c>
       <c r="E21" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.008474576271186441</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>28</v>
+        <v>118</v>
       </c>
       <c r="H21" s="1" t="n">
         <v>45627</v>
@@ -4271,13 +4308,13 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>0.01147399128774391</v>
+        <v>0.004040760681093672</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.002307086503357814</v>
+        <v>-0.002828068400280437</v>
       </c>
       <c r="L21" t="n">
-        <v>0.01378107779110173</v>
+        <v>0.006868829081374109</v>
       </c>
     </row>
     <row r="22">
@@ -4288,10 +4325,10 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>0.08296594685791116</v>
+        <v>0.07942523858887618</v>
       </c>
       <c r="D22" t="n">
-        <v>0.3359681248804478</v>
+        <v>0.3327640017731392</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -4300,7 +4337,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>26</v>
+        <v>98</v>
       </c>
       <c r="H22" s="1" t="n">
         <v>45658</v>
@@ -4311,13 +4348,13 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>-0.006240929815557017</v>
+        <v>-0.001434564021730825</v>
       </c>
       <c r="K22" t="n">
-        <v>0.01992930029611778</v>
+        <v>0.001315327555425627</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.0261702301116748</v>
+        <v>-0.002749891577156452</v>
       </c>
     </row>
     <row r="23">
@@ -4328,10 +4365,10 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>0.08424525296711799</v>
+        <v>0.07662228895277265</v>
       </c>
       <c r="D23" t="n">
-        <v>0.3166212066817833</v>
+        <v>0.3325269197633825</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -4340,7 +4377,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>30</v>
+        <v>119</v>
       </c>
       <c r="H23" s="1" t="n">
         <v>45689</v>
@@ -4351,13 +4388,13 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>0.001279306109206832</v>
+        <v>-0.00280294963610353</v>
       </c>
       <c r="K23" t="n">
-        <v>-0.01934691819866446</v>
+        <v>-0.000237082009756695</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0206262243078713</v>
+        <v>-0.002565867626346835</v>
       </c>
     </row>
     <row r="24">
@@ -4368,10 +4405,10 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>0.07803409259266506</v>
+        <v>0.07659707017908096</v>
       </c>
       <c r="D24" t="n">
-        <v>0.3175743252576961</v>
+        <v>0.3269996601547598</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -4380,7 +4417,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>27</v>
+        <v>120</v>
       </c>
       <c r="H24" s="1" t="n">
         <v>45717</v>
@@ -4391,13 +4428,13 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>-0.006211160374452934</v>
+        <v>-2.521877369168757e-05</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0009531185759127925</v>
+        <v>-0.005527259608622659</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.007164278950365727</v>
+        <v>0.005502040834930971</v>
       </c>
     </row>
     <row r="25">
@@ -4408,10 +4445,10 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>0.08234624643802872</v>
+        <v>0.0745396082249159</v>
       </c>
       <c r="D25" t="n">
-        <v>0.3255465668990484</v>
+        <v>0.3298378274695235</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -4420,7 +4457,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>29</v>
+        <v>131</v>
       </c>
       <c r="H25" s="1" t="n">
         <v>45748</v>
@@ -4431,13 +4468,13 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>0.004312153845363667</v>
+        <v>-0.002057461954165063</v>
       </c>
       <c r="K25" t="n">
-        <v>0.00797224164135224</v>
+        <v>0.002838167314763662</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.003660087795988573</v>
+        <v>-0.004895629268928725</v>
       </c>
     </row>
     <row r="26">
@@ -4448,10 +4485,10 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>0.09383626980496464</v>
+        <v>0.07907820375261124</v>
       </c>
       <c r="D26" t="n">
-        <v>0.325178072490915</v>
+        <v>0.3270904942904861</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -4460,7 +4497,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>30</v>
+        <v>139</v>
       </c>
       <c r="H26" s="1" t="n">
         <v>45778</v>
@@ -4471,13 +4508,13 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>0.01149002336693591</v>
+        <v>0.004538595527695338</v>
       </c>
       <c r="K26" t="n">
-        <v>-0.0003684944081334129</v>
+        <v>-0.002747333179037359</v>
       </c>
       <c r="L26" t="n">
-        <v>0.01185851777506933</v>
+        <v>0.007285928706732697</v>
       </c>
     </row>
     <row r="27">
@@ -4488,10 +4525,10 @@
         <v>6</v>
       </c>
       <c r="C27" t="n">
-        <v>0.09469169710863536</v>
+        <v>0.08002596811908028</v>
       </c>
       <c r="D27" t="n">
-        <v>0.3212873387111133</v>
+        <v>0.3251964530025596</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -4500,7 +4537,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>28</v>
+        <v>128</v>
       </c>
       <c r="H27" s="1" t="n">
         <v>45809</v>
@@ -4511,13 +4548,13 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>0.0008554273036707194</v>
+        <v>0.0009477643664690394</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.003890733779801647</v>
+        <v>-0.001894041287926529</v>
       </c>
       <c r="L27" t="n">
-        <v>0.004746161083472367</v>
+        <v>0.002841805654395568</v>
       </c>
     </row>
     <row r="28">
@@ -4528,10 +4565,10 @@
         <v>7</v>
       </c>
       <c r="C28" t="n">
-        <v>0.09524570450225918</v>
+        <v>0.08201858761050876</v>
       </c>
       <c r="D28" t="n">
-        <v>0.3181212018204945</v>
+        <v>0.3306139793525829</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -4540,7 +4577,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="H28" s="1" t="n">
         <v>45839</v>
@@ -4551,13 +4588,13 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>0.0005540073936238232</v>
+        <v>0.001992619491428482</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.003166136890618787</v>
+        <v>0.005417526350023238</v>
       </c>
       <c r="L28" t="n">
-        <v>0.00372014428424261</v>
+        <v>-0.003424906858594756</v>
       </c>
     </row>
     <row r="29">
@@ -4568,19 +4605,19 @@
         <v>8</v>
       </c>
       <c r="C29" t="n">
-        <v>0.09900166801801441</v>
+        <v>0.08083063810472618</v>
       </c>
       <c r="D29" t="n">
-        <v>0.3304065815795433</v>
+        <v>0.3227725033772423</v>
       </c>
       <c r="E29" t="n">
-        <v>0.03333333333333333</v>
+        <v>0.007692307692307693</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="H29" s="1" t="n">
         <v>45870</v>
@@ -4591,13 +4628,13 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>0.003755963515755231</v>
+        <v>-0.001187949505782576</v>
       </c>
       <c r="K29" t="n">
-        <v>0.01228537975904875</v>
+        <v>-0.007841475975340517</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.008529416243293522</v>
+        <v>0.006653526469557941</v>
       </c>
     </row>
     <row r="30">
@@ -4608,10 +4645,10 @@
         <v>9</v>
       </c>
       <c r="C30" t="n">
-        <v>0.09064264889676674</v>
+        <v>0.08094970699725219</v>
       </c>
       <c r="D30" t="n">
-        <v>0.3229277002348039</v>
+        <v>0.3238571743371991</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -4620,7 +4657,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="H30" s="1" t="n">
         <v>45901</v>
@@ -4631,13 +4668,13 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>-0.008359019121247674</v>
+        <v>0.0001190688925260114</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.007478881344739341</v>
+        <v>0.001084670959956735</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.0008801377765083329</v>
+        <v>-0.0009656020674307236</v>
       </c>
     </row>
     <row r="31">
@@ -4648,10 +4685,10 @@
         <v>10</v>
       </c>
       <c r="C31" t="n">
-        <v>0.08916958320925654</v>
+        <v>0.07870082605226708</v>
       </c>
       <c r="D31" t="n">
-        <v>0.3293567456645816</v>
+        <v>0.3232047082916967</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -4660,7 +4697,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="H31" s="1" t="n">
         <v>45931</v>
@@ -4671,13 +4708,13 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>-0.001473065687510197</v>
+        <v>-0.002248880944985113</v>
       </c>
       <c r="K31" t="n">
-        <v>0.006429045429777624</v>
+        <v>-0.0006524660455023978</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.007902111117287822</v>
+        <v>-0.001596414899482715</v>
       </c>
     </row>
     <row r="32">
@@ -4688,10 +4725,10 @@
         <v>11</v>
       </c>
       <c r="C32" t="n">
-        <v>0.09240662635207367</v>
+        <v>0.07993945377312242</v>
       </c>
       <c r="D32" t="n">
-        <v>0.3409730219670824</v>
+        <v>0.3261510543089502</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -4700,7 +4737,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="H32" s="1" t="n">
         <v>45962</v>
@@ -4711,13 +4748,13 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>0.003237043142817128</v>
+        <v>0.00123862772085534</v>
       </c>
       <c r="K32" t="n">
-        <v>0.01161627630250084</v>
+        <v>0.002946346017253521</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.008379233159683711</v>
+        <v>-0.001707718296398181</v>
       </c>
     </row>
     <row r="33">
@@ -4728,19 +4765,19 @@
         <v>12</v>
       </c>
       <c r="C33" t="n">
-        <v>0.08145315178145521</v>
+        <v>0.07734437020942829</v>
       </c>
       <c r="D33" t="n">
-        <v>0.3065284935932987</v>
+        <v>0.3186494613683109</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0.04761904761904762</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="G33" t="n">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="H33" s="1" t="n">
         <v>45992</v>
@@ -4751,13 +4788,13 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>-0.01095347457061846</v>
+        <v>-0.002595083563694131</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.0344445283737837</v>
+        <v>-0.00750159294063929</v>
       </c>
       <c r="L33" t="n">
-        <v>0.02349105380316524</v>
+        <v>0.004906509376945159</v>
       </c>
     </row>
     <row r="34">
@@ -4768,19 +4805,19 @@
         <v>1</v>
       </c>
       <c r="C34" t="n">
-        <v>0.09123299688563545</v>
+        <v>0.0797417902868708</v>
       </c>
       <c r="D34" t="n">
-        <v>0.3129779088547938</v>
+        <v>0.3218397884303952</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0303030303030303</v>
+        <v>0.007518796992481203</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0303030303030303</v>
+        <v>0.007518796992481203</v>
       </c>
       <c r="G34" t="n">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="H34" s="1" t="n">
         <v>46023</v>
@@ -4791,13 +4828,53 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>0.009779845104180243</v>
+        <v>0.002397420077442508</v>
       </c>
       <c r="K34" t="n">
-        <v>0.006449415261495062</v>
+        <v>0.003190327062084275</v>
       </c>
       <c r="L34" t="n">
-        <v>0.003330429842685181</v>
+        <v>-0.0007929069846417669</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B35" t="n">
+        <v>2</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.07380186053069956</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.3111892825820786</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>19</v>
+      </c>
+      <c r="H35" s="1" t="n">
+        <v>46054</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>2026Q1</t>
+        </is>
+      </c>
+      <c r="J35" t="n">
+        <v>-0.005939929756171233</v>
+      </c>
+      <c r="K35" t="n">
+        <v>-0.01065050584831656</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.004710576092145327</v>
       </c>
     </row>
   </sheetData>
@@ -4888,34 +4965,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.07542019949842105</v>
+        <v>0.0719575883987837</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3233618758867091</v>
+        <v>0.3362432881950421</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.01388888888888889</v>
+        <v>0.002583979328165375</v>
       </c>
       <c r="F2" t="n">
-        <v>28</v>
+        <v>133.6666666666667</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.0008328620338618892</v>
+        <v>0.0004034628056182321</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.0198457633537279</v>
+        <v>-0.006446629730267772</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01901290131986601</v>
+        <v>0.006850092535886004</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.004820378091453109</v>
+        <v>0.0004846696236811276</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.04045505723792914</v>
+        <v>-0.01388455444818326</v>
       </c>
       <c r="L2" t="inlineStr"/>
     </row>
@@ -4926,10 +5003,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.07386898162586188</v>
+        <v>0.07309780376582349</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3221654092691889</v>
+        <v>0.3315058987380865</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -4938,25 +5015,25 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>28</v>
+        <v>129</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.001551217872559171</v>
+        <v>0.001140215367039787</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.001196466617520209</v>
+        <v>-0.004737389456955565</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.0003547512550389625</v>
+        <v>0.005877604823995353</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.0008824802952268895</v>
+        <v>0.003213525644233828</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.01564782209075133</v>
+        <v>-0.004106796208465879</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.02086933735095159</v>
+        <v>-0.007048902219164682</v>
       </c>
     </row>
     <row r="4">
@@ -4966,37 +5043,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.08142597716321702</v>
+        <v>0.07652679888744941</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3241858650636962</v>
+        <v>0.3336418478152975</v>
       </c>
       <c r="D4" t="n">
-        <v>0.03451012588943623</v>
+        <v>0.007858097123633848</v>
       </c>
       <c r="E4" t="n">
-        <v>0.01111111111111111</v>
+        <v>0.002469135802469136</v>
       </c>
       <c r="F4" t="n">
-        <v>29</v>
+        <v>127.6666666666667</v>
       </c>
       <c r="G4" t="n">
-        <v>0.007556995537355143</v>
+        <v>0.003428995121625922</v>
       </c>
       <c r="H4" t="n">
-        <v>0.00202045579450727</v>
+        <v>0.002135949077211041</v>
       </c>
       <c r="I4" t="n">
-        <v>0.005536539742847874</v>
+        <v>0.001293046044414881</v>
       </c>
       <c r="J4" t="n">
-        <v>0.003032007363709427</v>
+        <v>0.006753758940279908</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.01964528015664041</v>
+        <v>-0.006674204193897304</v>
       </c>
       <c r="L4" t="n">
-        <v>0.007911945724825398</v>
+        <v>0.006107641281477505</v>
       </c>
     </row>
     <row r="5">
@@ -5006,10 +5083,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.08174843080589807</v>
+        <v>0.07754819924024327</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3233878856066424</v>
+        <v>0.3307635272304272</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -5018,25 +5095,25 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>27.66666666666667</v>
+        <v>112.3333333333333</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0003224536426810476</v>
+        <v>0.001021400352793855</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.0007979794570537879</v>
+        <v>-0.002878320584870364</v>
       </c>
       <c r="I5" t="n">
-        <v>0.001120433099734836</v>
+        <v>0.003899720937664219</v>
       </c>
       <c r="J5" t="n">
-        <v>0.005495369273615131</v>
+        <v>0.005994073647077797</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.01981975363379462</v>
+        <v>-0.01192639069488266</v>
       </c>
       <c r="L5" t="n">
-        <v>0.002637835387059917</v>
+        <v>0.004492501207783245</v>
       </c>
     </row>
     <row r="6">
@@ -5046,10 +5123,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0902914044505429</v>
+        <v>0.07788126003220247</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3240039927003589</v>
+        <v>0.3273749249208564</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -5058,25 +5135,25 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>29</v>
+        <v>132.6666666666667</v>
       </c>
       <c r="G6" t="n">
-        <v>0.008542973644644833</v>
+        <v>0.0003330607919592027</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0006161070937165114</v>
+        <v>-0.003388602309570776</v>
       </c>
       <c r="I6" t="n">
-        <v>0.007926866550928321</v>
+        <v>0.003721663101529979</v>
       </c>
       <c r="J6" t="n">
-        <v>0.01487120495212185</v>
+        <v>0.005923671633418767</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0006421168136497846</v>
+        <v>-0.008868363274185664</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.01108603476893769</v>
+        <v>-0.003128429434356025</v>
       </c>
     </row>
     <row r="7">
@@ -5086,37 +5163,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.09496334047234678</v>
+        <v>0.08126631090416238</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3238184945449472</v>
+        <v>0.3257478856890081</v>
       </c>
       <c r="D7" t="n">
-        <v>0.01111111111111111</v>
+        <v>0.002564102564102564</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>27.66666666666667</v>
+        <v>117</v>
       </c>
       <c r="G7" t="n">
-        <v>0.00467193602180388</v>
+        <v>0.003385050871959908</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.0001854981554116897</v>
+        <v>-0.001627039231848315</v>
       </c>
       <c r="I7" t="n">
-        <v>0.004857434177215569</v>
+        <v>0.005012090103808223</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0210943588464849</v>
+        <v>0.008168507138338887</v>
       </c>
       <c r="K7" t="n">
-        <v>0.001653085275758304</v>
+        <v>-0.005758013049078414</v>
       </c>
       <c r="L7" t="n">
-        <v>0.005212185432254532</v>
+        <v>-0.0008655147201871299</v>
       </c>
     </row>
     <row r="8">
@@ -5126,37 +5203,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.08767645378092848</v>
+        <v>0.07866155001160592</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3256194204083209</v>
+        <v>0.3226684079896526</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.01587301587301587</v>
+        <v>0.003367003367003367</v>
       </c>
       <c r="F8" t="n">
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.007286886691418304</v>
+        <v>-0.002604760892556457</v>
       </c>
       <c r="H8" t="n">
-        <v>0.001800925863373659</v>
+        <v>-0.00307947769935546</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.009087812554791963</v>
+        <v>0.0004747168067990026</v>
       </c>
       <c r="J8" t="n">
-        <v>0.006250476617711456</v>
+        <v>0.002134751124156509</v>
       </c>
       <c r="K8" t="n">
-        <v>0.001433555344624693</v>
+        <v>-0.01097343982564492</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.01462435229763984</v>
+        <v>-0.0008183292376158779</v>
       </c>
     </row>
     <row r="9">
@@ -5166,37 +5243,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.09123299688563545</v>
+        <v>0.07677182540878519</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3129779088547938</v>
+        <v>0.3165145355062369</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0303030303030303</v>
+        <v>0.003759398496240601</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0303030303030303</v>
+        <v>0.003759398496240601</v>
       </c>
       <c r="F9" t="n">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="G9" t="n">
-        <v>0.003556543104706975</v>
+        <v>-0.001889724602820733</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.01264151155352711</v>
+        <v>-0.006153872483415757</v>
       </c>
       <c r="I9" t="n">
-        <v>0.01619805465823408</v>
+        <v>0.004264147880595023</v>
       </c>
       <c r="J9" t="n">
-        <v>0.009484566079737383</v>
+        <v>-0.0007763738314580798</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.01040997675184863</v>
+        <v>-0.01424899172419031</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01507762155849925</v>
+        <v>0.0003644269429308039</v>
       </c>
     </row>
   </sheetData>

--- a/pubmatic_index.xlsx
+++ b/pubmatic_index.xlsx
@@ -1024,19 +1024,19 @@
         <v>10</v>
       </c>
       <c r="C17" t="n">
-        <v>0.08421809255851329</v>
+        <v>0.06891908027451597</v>
       </c>
       <c r="D17" t="n">
-        <v>0.08421809255851329</v>
+        <v>0.06891908027451597</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3621026565993105</v>
+        <v>0.3540567045525894</v>
       </c>
       <c r="F17" t="n">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="G17" t="n">
-        <v>640.2857142857143</v>
+        <v>448.2142857142857</v>
       </c>
       <c r="H17" s="1" t="n">
         <v>44835</v>
@@ -1047,10 +1047,10 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>0.007962208657796691</v>
+        <v>-0.007336803626200622</v>
       </c>
       <c r="K17" t="n">
-        <v>0.02858546205851328</v>
+        <v>0.01328644977451597</v>
       </c>
     </row>
     <row r="18">
@@ -1061,19 +1061,19 @@
         <v>11</v>
       </c>
       <c r="C18" t="n">
-        <v>0.07387998754708323</v>
+        <v>0.06769556024422504</v>
       </c>
       <c r="D18" t="n">
-        <v>0.07387998754708323</v>
+        <v>0.06769556024422504</v>
       </c>
       <c r="E18" t="n">
-        <v>0.3317812766022875</v>
+        <v>0.345689955949527</v>
       </c>
       <c r="F18" t="n">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c r="G18" t="n">
-        <v>625.4</v>
+        <v>482.6511627906977</v>
       </c>
       <c r="H18" s="1" t="n">
         <v>44866</v>
@@ -1084,10 +1084,10 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>-0.01033810501143005</v>
+        <v>-0.001223520030290928</v>
       </c>
       <c r="K18" t="n">
-        <v>0.008411932547083237</v>
+        <v>0.002227505244225048</v>
       </c>
     </row>
     <row r="19">
@@ -1098,19 +1098,19 @@
         <v>12</v>
       </c>
       <c r="C19" t="n">
-        <v>0.08036078477445421</v>
+        <v>0.07347293634336481</v>
       </c>
       <c r="D19" t="n">
-        <v>0.08036078477445421</v>
+        <v>0.07347293634336481</v>
       </c>
       <c r="E19" t="n">
-        <v>0.3263807883660689</v>
+        <v>0.3590361551897638</v>
       </c>
       <c r="F19" t="n">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="G19" t="n">
-        <v>685.4375</v>
+        <v>572.0571428571428</v>
       </c>
       <c r="H19" s="1" t="n">
         <v>44896</v>
@@ -1121,10 +1121,10 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>0.00648079722737098</v>
+        <v>0.005777376099139767</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.05435424113228179</v>
+        <v>-0.0612420895633712</v>
       </c>
     </row>
     <row r="20">
@@ -1135,19 +1135,19 @@
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>0.132110570782429</v>
+        <v>0.0912681378804321</v>
       </c>
       <c r="D20" t="n">
-        <v>0.132110570782429</v>
+        <v>0.0912681378804321</v>
       </c>
       <c r="E20" t="n">
-        <v>0.2888230114467041</v>
+        <v>0.3301929198791513</v>
       </c>
       <c r="F20" t="n">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="G20" t="n">
-        <v>777.8461538461538</v>
+        <v>668.5434782608696</v>
       </c>
       <c r="H20" s="1" t="n">
         <v>44927</v>
@@ -1158,10 +1158,10 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>0.05174978600797478</v>
+        <v>0.01779520153706729</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.02451593524166701</v>
+        <v>-0.0653583681436639</v>
       </c>
     </row>
     <row r="21">
@@ -1172,19 +1172,19 @@
         <v>2</v>
       </c>
       <c r="C21" t="n">
-        <v>0.07823129299999999</v>
+        <v>0.06717864227484054</v>
       </c>
       <c r="D21" t="n">
-        <v>0.07823129299999999</v>
+        <v>0.06717864227484054</v>
       </c>
       <c r="E21" t="n">
-        <v>0.360544218</v>
+        <v>0.3355353756300875</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="G21" t="n">
-        <v>294</v>
+        <v>418.64</v>
       </c>
       <c r="H21" s="1" t="n">
         <v>44958</v>
@@ -1195,10 +1195,10 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>-0.053879277782429</v>
+        <v>-0.02408949560559157</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.07839521302409601</v>
+        <v>-0.08944786374925547</v>
       </c>
     </row>
     <row r="22">
@@ -1209,19 +1209,19 @@
         <v>3</v>
       </c>
       <c r="C22" t="n">
-        <v>0.07761294533537387</v>
+        <v>0.06930833773452522</v>
       </c>
       <c r="D22" t="n">
-        <v>0.07761294533537387</v>
+        <v>0.06930833773452522</v>
       </c>
       <c r="E22" t="n">
-        <v>0.3297230863038573</v>
+        <v>0.3454290079983513</v>
       </c>
       <c r="F22" t="n">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="G22" t="n">
-        <v>650.3888888888889</v>
+        <v>514.6444444444444</v>
       </c>
       <c r="H22" s="1" t="n">
         <v>44986</v>
@@ -1232,10 +1232,10 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>-0.0006183476646261232</v>
+        <v>0.00212969545968468</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.02529533166462614</v>
+        <v>-0.03359993926547479</v>
       </c>
     </row>
     <row r="23">
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>-0.005198241866367054</v>
+        <v>0.0031063657344816</v>
       </c>
       <c r="K23" t="n">
         <v>0.01126155430607714</v>
@@ -1494,7 +1494,7 @@
         <v>-0.0005744220160059238</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.01457888744808501</v>
+        <v>0.0007201248359123003</v>
       </c>
     </row>
     <row r="30">
@@ -1531,7 +1531,7 @@
         <v>-0.0004169029317121348</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.004657685368367095</v>
+        <v>0.001526741934491094</v>
       </c>
     </row>
     <row r="31">
@@ -1568,7 +1568,7 @@
         <v>0.001235310373647963</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.009903172222090112</v>
+        <v>-0.00301532379100071</v>
       </c>
     </row>
     <row r="32">
@@ -1605,7 +1605,7 @@
         <v>0.0003157640491770752</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.06133719418088782</v>
+        <v>-0.02049476127889092</v>
       </c>
     </row>
     <row r="33">
@@ -1642,7 +1642,7 @@
         <v>-0.0008147377141609208</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.008272654112619737</v>
+        <v>0.00277999661253972</v>
       </c>
     </row>
     <row r="34">
@@ -1679,7 +1679,7 @@
         <v>0.003971722403194725</v>
       </c>
       <c r="K34" t="n">
-        <v>-0.003682584044798889</v>
+        <v>0.004622023556049765</v>
       </c>
     </row>
     <row r="35">
@@ -2883,37 +2883,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.07948628829335025</v>
+        <v>0.07002919228736861</v>
       </c>
       <c r="C9" t="n">
-        <v>0.07948628829335025</v>
+        <v>0.07002919228736861</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3400882405225557</v>
+        <v>0.3529276052306267</v>
       </c>
       <c r="E9" t="n">
-        <v>12.66666666666667</v>
+        <v>80</v>
       </c>
       <c r="F9" t="n">
         <v>7</v>
       </c>
       <c r="G9" t="n">
-        <v>0.01171578844919187</v>
+        <v>0.002258692443210225</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.06983639102495909</v>
+        <v>-0.07929348703094073</v>
       </c>
       <c r="I9" t="n">
-        <v>0.06742036616268397</v>
+        <v>0.0746880969388026</v>
       </c>
       <c r="J9" t="n">
-        <v>0.3644014175974802</v>
+        <v>0.3688458615154391</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.2969810514347962</v>
+        <v>-0.2941577645766364</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2703176136005325</v>
+        <v>0.2582411831116511</v>
       </c>
     </row>
     <row r="10">
@@ -2923,37 +2923,37 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.09598493637260096</v>
+        <v>0.07591837262993262</v>
       </c>
       <c r="C10" t="n">
-        <v>0.09598493637260096</v>
+        <v>0.07591837262993262</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3263634385835205</v>
+        <v>0.33705243450253</v>
       </c>
       <c r="E10" t="n">
-        <v>10.66666666666667</v>
+        <v>53.66666666666666</v>
       </c>
       <c r="F10" t="n">
         <v>8</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01649864807925071</v>
+        <v>0.005889180342564013</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.006923340627399049</v>
+        <v>-0.02698990437006739</v>
       </c>
       <c r="I10" t="n">
-        <v>0.07938587643991264</v>
+        <v>0.07712709796616259</v>
       </c>
       <c r="J10" t="n">
-        <v>0.3452797924278759</v>
+        <v>0.3622564205410629</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.2658939159879632</v>
+        <v>-0.2851293225749004</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.1130255209680303</v>
+        <v>-0.04885964987984415</v>
       </c>
     </row>
     <row r="11">
@@ -2978,7 +2978,7 @@
         <v>9</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.02419808936619697</v>
+        <v>-0.004131525623528629</v>
       </c>
       <c r="H11" t="n">
         <v>0.02506921003687556</v>
@@ -3061,7 +3061,7 @@
         <v>-0.0001112381744201585</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.009713248346180745</v>
+        <v>-0.0002561523401991006</v>
       </c>
       <c r="I13" t="n">
         <v>0.07597345355794274</v>
@@ -3073,7 +3073,7 @@
         <v>-0.2835626666010497</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.04518262956144392</v>
+        <v>-0.03601842022030477</v>
       </c>
     </row>
     <row r="14">
@@ -3101,7 +3101,7 @@
         <v>0.001781085645995967</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.02443081077943549</v>
+        <v>-0.004364247036767147</v>
       </c>
       <c r="I14" t="n">
         <v>0.07823492247708287</v>
@@ -3113,7 +3113,7 @@
         <v>-0.2767419515304259</v>
       </c>
       <c r="L14" t="n">
-        <v>0.04079835938387433</v>
+        <v>-0.02941602417012457</v>
       </c>
     </row>
     <row r="15">
@@ -3447,7 +3447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3519,82 +3519,82 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0718229356669564</v>
+        <v>0.06769556024422504</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3449397820325285</v>
+        <v>0.345689955949527</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2755905511811024</v>
+        <v>0.1511627906976744</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>45047</v>
+        <v>44866</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2023Q2</t>
+          <t>2022Q4</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>-0.0005917678020504191</v>
+        <v>-0.001223520030290928</v>
       </c>
       <c r="K2" t="n">
-        <v>0.007885802831947564</v>
+        <v>-0.008366748603062413</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.008477570633997983</v>
+        <v>0.007143228572771484</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07112290188324875</v>
+        <v>0.07347293634336481</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3553159032539221</v>
+        <v>0.3590361551897638</v>
       </c>
       <c r="E3" t="n">
-        <v>0.07142857142857142</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="H3" s="1" t="n">
-        <v>45078</v>
+        <v>44896</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2023Q2</t>
+          <t>2022Q4</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>-0.0007000337837076431</v>
+        <v>0.005777376099139767</v>
       </c>
       <c r="K3" t="n">
-        <v>0.01037612122139364</v>
+        <v>0.01334619924023689</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.01107615500510128</v>
+        <v>-0.007568823141097122</v>
       </c>
     </row>
     <row r="4">
@@ -3602,39 +3602,39 @@
         <v>2023</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.06897232605728577</v>
+        <v>0.0912681378804321</v>
       </c>
       <c r="D4" t="n">
-        <v>0.34452231380349</v>
+        <v>0.3301929198791513</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="H4" s="1" t="n">
-        <v>45108</v>
+        <v>44927</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2023Q3</t>
+          <t>2023Q1</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>-0.00215057582596298</v>
+        <v>0.01779520153706729</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.01079358945043218</v>
+        <v>-0.02884323531061256</v>
       </c>
       <c r="L4" t="n">
-        <v>0.008643013624469204</v>
+        <v>0.04663843684767985</v>
       </c>
     </row>
     <row r="5">
@@ -3642,39 +3642,39 @@
         <v>2023</v>
       </c>
       <c r="B5" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07046688118104905</v>
+        <v>0.06717864227484054</v>
       </c>
       <c r="D5" t="n">
-        <v>0.344346677153684</v>
+        <v>0.3355353756300875</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>136</v>
+        <v>25</v>
       </c>
       <c r="H5" s="1" t="n">
-        <v>45139</v>
+        <v>44958</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2023Q3</t>
+          <t>2023Q1</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>0.001494555123763272</v>
+        <v>-0.02408949560559157</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.0001756366498059658</v>
+        <v>0.005342455750936226</v>
       </c>
       <c r="L5" t="n">
-        <v>0.001670191773569238</v>
+        <v>-0.02943195135652779</v>
       </c>
     </row>
     <row r="6">
@@ -3682,39 +3682,39 @@
         <v>2023</v>
       </c>
       <c r="B6" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0702136271264342</v>
+        <v>0.06930833773452522</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3179690938824832</v>
+        <v>0.3454290079983513</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01041666666666667</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="H6" s="1" t="n">
-        <v>45170</v>
+        <v>44986</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2023Q3</t>
+          <t>2023Q1</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>-0.0002532540546148487</v>
+        <v>0.00212969545968468</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.02637758327120077</v>
+        <v>0.009893632368263794</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02612432921658592</v>
+        <v>-0.007763936908579114</v>
       </c>
     </row>
     <row r="7">
@@ -3722,39 +3722,39 @@
         <v>2023</v>
       </c>
       <c r="B7" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C7" t="n">
-        <v>0.06963920511042827</v>
+        <v>0.07241470346900682</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3429798151773454</v>
+        <v>0.3370539792005809</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="H7" s="1" t="n">
-        <v>45200</v>
+        <v>45017</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>2023Q4</t>
+          <t>2023Q2</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>-0.0005744220160059238</v>
+        <v>0.0031063657344816</v>
       </c>
       <c r="K7" t="n">
-        <v>0.02501072129486215</v>
+        <v>-0.008375028797770356</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.02558514331086807</v>
+        <v>0.01148139453225196</v>
       </c>
     </row>
     <row r="8">
@@ -3762,39 +3762,39 @@
         <v>2023</v>
       </c>
       <c r="B8" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06922230217871614</v>
+        <v>0.0718229356669564</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3327243605153344</v>
+        <v>0.3449397820325285</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>0.09448818897637795</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H8" s="1" t="n">
-        <v>45231</v>
+        <v>45047</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>2023Q4</t>
+          <t>2023Q2</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>-0.0004169029317121348</v>
+        <v>-0.0005917678020504191</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.01025545466201094</v>
+        <v>0.007885802831947564</v>
       </c>
       <c r="L8" t="n">
-        <v>0.009838551730298808</v>
+        <v>-0.008477570633997983</v>
       </c>
     </row>
     <row r="9">
@@ -3802,213 +3802,213 @@
         <v>2023</v>
       </c>
       <c r="B9" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0704576125523641</v>
+        <v>0.07112290188324875</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3452439803349048</v>
+        <v>0.3553159032539221</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H9" s="1" t="n">
-        <v>45261</v>
+        <v>45078</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2023Q4</t>
+          <t>2023Q2</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>0.001235310373647963</v>
+        <v>-0.0007000337837076431</v>
       </c>
       <c r="K9" t="n">
-        <v>0.01251961981957034</v>
+        <v>0.01037612122139364</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.01128430944592237</v>
+        <v>-0.01107615500510128</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C10" t="n">
-        <v>0.07077337660154118</v>
+        <v>0.06897232605728577</v>
       </c>
       <c r="D10" t="n">
-        <v>0.34619445112515</v>
+        <v>0.34452231380349</v>
       </c>
       <c r="E10" t="n">
-        <v>0.007462686567164179</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="H10" s="1" t="n">
-        <v>45292</v>
+        <v>45108</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>2024Q1</t>
+          <t>2023Q3</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>0.0003157640491770752</v>
+        <v>-0.00215057582596298</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0009504707902451837</v>
+        <v>-0.01079358945043218</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.0006347067410681084</v>
+        <v>0.008643013624469204</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C11" t="n">
-        <v>0.06995863888738026</v>
+        <v>0.07046688118104905</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3403834656935696</v>
+        <v>0.344346677153684</v>
       </c>
       <c r="E11" t="n">
-        <v>0.02205882352941177</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.007352941176470588</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>136</v>
       </c>
       <c r="H11" s="1" t="n">
-        <v>45323</v>
+        <v>45139</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>2024Q1</t>
+          <t>2023Q3</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>-0.0008147377141609208</v>
+        <v>0.001494555123763272</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.005810985431580373</v>
+        <v>-0.0001756366498059658</v>
       </c>
       <c r="L11" t="n">
-        <v>0.004996247717419453</v>
+        <v>0.001670191773569238</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C12" t="n">
-        <v>0.07393036129057498</v>
+        <v>0.0702136271264342</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3414918369572099</v>
+        <v>0.3179690938824832</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0078125</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>0.01041666666666667</v>
       </c>
       <c r="G12" t="n">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="H12" s="1" t="n">
-        <v>45352</v>
+        <v>45170</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>2024Q1</t>
+          <t>2023Q3</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>0.003971722403194725</v>
+        <v>-0.0002532540546148487</v>
       </c>
       <c r="K12" t="n">
-        <v>0.001108371263640329</v>
+        <v>-0.02637758327120077</v>
       </c>
       <c r="L12" t="n">
-        <v>0.002863351139554396</v>
+        <v>0.02612432921658592</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B13" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C13" t="n">
-        <v>0.07164535847108087</v>
+        <v>0.06963920511042827</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3368718973430386</v>
+        <v>0.3429798151773454</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.007751937984496124</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="H13" s="1" t="n">
-        <v>45383</v>
+        <v>45200</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>2024Q2</t>
+          <t>2023Q4</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>-0.002285002819494106</v>
+        <v>-0.0005744220160059238</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.004619939614171342</v>
+        <v>0.02501072129486215</v>
       </c>
       <c r="L13" t="n">
-        <v>0.002334936794677236</v>
+        <v>-0.02558514331086807</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C14" t="n">
-        <v>0.07125192473439274</v>
+        <v>0.06922230217871614</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3370156229701345</v>
+        <v>0.3327243605153344</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -4017,38 +4017,38 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H14" s="1" t="n">
-        <v>45413</v>
+        <v>45231</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>2024Q2</t>
+          <t>2023Q4</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>-0.0003934337366881396</v>
+        <v>-0.0004169029317121348</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0001437256270959697</v>
+        <v>-0.01025545466201094</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.0005371593637841093</v>
+        <v>0.009838551730298808</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B15" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0729754819908775</v>
+        <v>0.0704576125523641</v>
       </c>
       <c r="D15" t="n">
-        <v>0.334842344271953</v>
+        <v>0.3452439803349048</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -4057,24 +4057,24 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H15" s="1" t="n">
-        <v>45444</v>
+        <v>45261</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>2024Q2</t>
+          <t>2023Q4</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>0.001723557256484765</v>
+        <v>0.001235310373647963</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.002173278698181569</v>
+        <v>0.01251961981957034</v>
       </c>
       <c r="L15" t="n">
-        <v>0.003896835954666333</v>
+        <v>-0.01128430944592237</v>
       </c>
     </row>
     <row r="16">
@@ -4082,39 +4082,39 @@
         <v>2024</v>
       </c>
       <c r="B16" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>0.07087683488183347</v>
+        <v>0.07077337660154118</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3342398453006424</v>
+        <v>0.34619445112515</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>0.007462686567164179</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="H16" s="1" t="n">
-        <v>45474</v>
+        <v>45292</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>2024Q3</t>
+          <t>2024Q1</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>-0.002098647109044033</v>
+        <v>0.0003157640491770752</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.0006024989713105389</v>
+        <v>0.0009504707902451837</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.001496148137733494</v>
+        <v>-0.0006347067410681084</v>
       </c>
     </row>
     <row r="17">
@@ -4122,39 +4122,39 @@
         <v>2024</v>
       </c>
       <c r="B17" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C17" t="n">
-        <v>0.07412024872883842</v>
+        <v>0.06995863888738026</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3292436579055802</v>
+        <v>0.3403834656935696</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>0.02205882352941177</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>0.007352941176470588</v>
       </c>
       <c r="G17" t="n">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="H17" s="1" t="n">
-        <v>45505</v>
+        <v>45323</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>2024Q3</t>
+          <t>2024Q1</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>0.003243413847004953</v>
+        <v>-0.0008147377141609208</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.00499618739506219</v>
+        <v>-0.005810985431580373</v>
       </c>
       <c r="L17" t="n">
-        <v>0.008239601242067143</v>
+        <v>0.004996247717419453</v>
       </c>
     </row>
     <row r="18">
@@ -4162,39 +4162,39 @@
         <v>2024</v>
       </c>
       <c r="B18" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0742963276867986</v>
+        <v>0.07393036129057498</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3310341930080368</v>
+        <v>0.3414918369572099</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>0.0078125</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H18" s="1" t="n">
-        <v>45536</v>
+        <v>45352</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>2024Q3</t>
+          <t>2024Q1</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>0.0001760789579601796</v>
+        <v>0.003971722403194725</v>
       </c>
       <c r="K18" t="n">
-        <v>0.001790535102456525</v>
+        <v>0.001108371263640329</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.001614456144496346</v>
+        <v>0.002863351139554396</v>
       </c>
     </row>
     <row r="19">
@@ -4202,39 +4202,39 @@
         <v>2024</v>
       </c>
       <c r="B19" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C19" t="n">
-        <v>0.07190155212222789</v>
+        <v>0.07164535847108087</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3352001266101851</v>
+        <v>0.3368718973430386</v>
       </c>
       <c r="E19" t="n">
-        <v>0.007692307692307693</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>0.007751937984496124</v>
       </c>
       <c r="G19" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H19" s="1" t="n">
-        <v>45566</v>
+        <v>45383</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>2024Q4</t>
+          <t>2024Q2</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>-0.002394775564570711</v>
+        <v>-0.002285002819494106</v>
       </c>
       <c r="K19" t="n">
-        <v>0.004165933602148286</v>
+        <v>-0.004619939614171342</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.006560709166718998</v>
+        <v>0.002334936794677236</v>
       </c>
     </row>
     <row r="20">
@@ -4242,39 +4242,39 @@
         <v>2024</v>
       </c>
       <c r="B20" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C20" t="n">
-        <v>0.07681904192951333</v>
+        <v>0.07125192473439274</v>
       </c>
       <c r="D20" t="n">
-        <v>0.334276742617994</v>
+        <v>0.3370156229701345</v>
       </c>
       <c r="E20" t="n">
-        <v>0.007407407407407408</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.007407407407407408</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H20" s="1" t="n">
-        <v>45597</v>
+        <v>45413</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>2024Q4</t>
+          <t>2024Q2</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>0.004917489807285444</v>
+        <v>-0.0003934337366881396</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.0009233839921910514</v>
+        <v>0.0001437256270959697</v>
       </c>
       <c r="L20" t="n">
-        <v>0.005840873799476495</v>
+        <v>-0.0005371593637841093</v>
       </c>
     </row>
     <row r="21">
@@ -4282,53 +4282,53 @@
         <v>2024</v>
       </c>
       <c r="B21" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C21" t="n">
-        <v>0.080859802610607</v>
+        <v>0.0729754819908775</v>
       </c>
       <c r="D21" t="n">
-        <v>0.3314486742177136</v>
+        <v>0.334842344271953</v>
       </c>
       <c r="E21" t="n">
-        <v>0.008474576271186441</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="H21" s="1" t="n">
-        <v>45627</v>
+        <v>45444</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>2024Q4</t>
+          <t>2024Q2</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>0.004040760681093672</v>
+        <v>0.001723557256484765</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.002828068400280437</v>
+        <v>-0.002173278698181569</v>
       </c>
       <c r="L21" t="n">
-        <v>0.006868829081374109</v>
+        <v>0.003896835954666333</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C22" t="n">
-        <v>0.07942523858887618</v>
+        <v>0.07087683488183347</v>
       </c>
       <c r="D22" t="n">
-        <v>0.3327640017731392</v>
+        <v>0.3342398453006424</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -4337,38 +4337,38 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>98</v>
+        <v>131</v>
       </c>
       <c r="H22" s="1" t="n">
-        <v>45658</v>
+        <v>45474</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>2025Q1</t>
+          <t>2024Q3</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>-0.001434564021730825</v>
+        <v>-0.002098647109044033</v>
       </c>
       <c r="K22" t="n">
-        <v>0.001315327555425627</v>
+        <v>-0.0006024989713105389</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.002749891577156452</v>
+        <v>-0.001496148137733494</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B23" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C23" t="n">
-        <v>0.07662228895277265</v>
+        <v>0.07412024872883842</v>
       </c>
       <c r="D23" t="n">
-        <v>0.3325269197633825</v>
+        <v>0.3292436579055802</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -4377,38 +4377,38 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="H23" s="1" t="n">
-        <v>45689</v>
+        <v>45505</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>2025Q1</t>
+          <t>2024Q3</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>-0.00280294963610353</v>
+        <v>0.003243413847004953</v>
       </c>
       <c r="K23" t="n">
-        <v>-0.000237082009756695</v>
+        <v>-0.00499618739506219</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.002565867626346835</v>
+        <v>0.008239601242067143</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B24" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C24" t="n">
-        <v>0.07659707017908096</v>
+        <v>0.0742963276867986</v>
       </c>
       <c r="D24" t="n">
-        <v>0.3269996601547598</v>
+        <v>0.3310341930080368</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -4417,144 +4417,144 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="H24" s="1" t="n">
-        <v>45717</v>
+        <v>45536</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>2025Q1</t>
+          <t>2024Q3</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>-2.521877369168757e-05</v>
+        <v>0.0001760789579601796</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.005527259608622659</v>
+        <v>0.001790535102456525</v>
       </c>
       <c r="L24" t="n">
-        <v>0.005502040834930971</v>
+        <v>-0.001614456144496346</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B25" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0745396082249159</v>
+        <v>0.07190155212222789</v>
       </c>
       <c r="D25" t="n">
-        <v>0.3298378274695235</v>
+        <v>0.3352001266101851</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>0.007692307692307693</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H25" s="1" t="n">
-        <v>45748</v>
+        <v>45566</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>2025Q2</t>
+          <t>2024Q4</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>-0.002057461954165063</v>
+        <v>-0.002394775564570711</v>
       </c>
       <c r="K25" t="n">
-        <v>0.002838167314763662</v>
+        <v>0.004165933602148286</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.004895629268928725</v>
+        <v>-0.006560709166718998</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B26" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C26" t="n">
-        <v>0.07907820375261124</v>
+        <v>0.07681904192951333</v>
       </c>
       <c r="D26" t="n">
-        <v>0.3270904942904861</v>
+        <v>0.334276742617994</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>0.007407407407407408</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>0.007407407407407408</v>
       </c>
       <c r="G26" t="n">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="H26" s="1" t="n">
-        <v>45778</v>
+        <v>45597</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>2025Q2</t>
+          <t>2024Q4</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>0.004538595527695338</v>
+        <v>0.004917489807285444</v>
       </c>
       <c r="K26" t="n">
-        <v>-0.002747333179037359</v>
+        <v>-0.0009233839921910514</v>
       </c>
       <c r="L26" t="n">
-        <v>0.007285928706732697</v>
+        <v>0.005840873799476495</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B27" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C27" t="n">
-        <v>0.08002596811908028</v>
+        <v>0.080859802610607</v>
       </c>
       <c r="D27" t="n">
-        <v>0.3251964530025596</v>
+        <v>0.3314486742177136</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>0.008474576271186441</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="H27" s="1" t="n">
-        <v>45809</v>
+        <v>45627</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>2025Q2</t>
+          <t>2024Q4</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>0.0009477643664690394</v>
+        <v>0.004040760681093672</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.001894041287926529</v>
+        <v>-0.002828068400280437</v>
       </c>
       <c r="L27" t="n">
-        <v>0.002841805654395568</v>
+        <v>0.006868829081374109</v>
       </c>
     </row>
     <row r="28">
@@ -4562,13 +4562,13 @@
         <v>2025</v>
       </c>
       <c r="B28" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>0.08201858761050876</v>
+        <v>0.07942523858887618</v>
       </c>
       <c r="D28" t="n">
-        <v>0.3306139793525829</v>
+        <v>0.3327640017731392</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -4577,24 +4577,24 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>135</v>
+        <v>98</v>
       </c>
       <c r="H28" s="1" t="n">
-        <v>45839</v>
+        <v>45658</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>2025Q3</t>
+          <t>2025Q1</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>0.001992619491428482</v>
+        <v>-0.001434564021730825</v>
       </c>
       <c r="K28" t="n">
-        <v>0.005417526350023238</v>
+        <v>0.001315327555425627</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.003424906858594756</v>
+        <v>-0.002749891577156452</v>
       </c>
     </row>
     <row r="29">
@@ -4602,39 +4602,39 @@
         <v>2025</v>
       </c>
       <c r="B29" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C29" t="n">
-        <v>0.08083063810472618</v>
+        <v>0.07662228895277265</v>
       </c>
       <c r="D29" t="n">
-        <v>0.3227725033772423</v>
+        <v>0.3325269197633825</v>
       </c>
       <c r="E29" t="n">
-        <v>0.007692307692307693</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="H29" s="1" t="n">
-        <v>45870</v>
+        <v>45689</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>2025Q3</t>
+          <t>2025Q1</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>-0.001187949505782576</v>
+        <v>-0.00280294963610353</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.007841475975340517</v>
+        <v>-0.000237082009756695</v>
       </c>
       <c r="L29" t="n">
-        <v>0.006653526469557941</v>
+        <v>-0.002565867626346835</v>
       </c>
     </row>
     <row r="30">
@@ -4642,13 +4642,13 @@
         <v>2025</v>
       </c>
       <c r="B30" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C30" t="n">
-        <v>0.08094970699725219</v>
+        <v>0.07659707017908096</v>
       </c>
       <c r="D30" t="n">
-        <v>0.3238571743371991</v>
+        <v>0.3269996601547598</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -4657,24 +4657,24 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="H30" s="1" t="n">
-        <v>45901</v>
+        <v>45717</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>2025Q3</t>
+          <t>2025Q1</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>0.0001190688925260114</v>
+        <v>-2.521877369168757e-05</v>
       </c>
       <c r="K30" t="n">
-        <v>0.001084670959956735</v>
+        <v>-0.005527259608622659</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.0009656020674307236</v>
+        <v>0.005502040834930971</v>
       </c>
     </row>
     <row r="31">
@@ -4682,13 +4682,13 @@
         <v>2025</v>
       </c>
       <c r="B31" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C31" t="n">
-        <v>0.07870082605226708</v>
+        <v>0.0745396082249159</v>
       </c>
       <c r="D31" t="n">
-        <v>0.3232047082916967</v>
+        <v>0.3298378274695235</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -4697,24 +4697,24 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>82</v>
+        <v>131</v>
       </c>
       <c r="H31" s="1" t="n">
-        <v>45931</v>
+        <v>45748</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>2025Q4</t>
+          <t>2025Q2</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>-0.002248880944985113</v>
+        <v>-0.002057461954165063</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.0006524660455023978</v>
+        <v>0.002838167314763662</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.001596414899482715</v>
+        <v>-0.004895629268928725</v>
       </c>
     </row>
     <row r="32">
@@ -4722,13 +4722,13 @@
         <v>2025</v>
       </c>
       <c r="B32" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C32" t="n">
-        <v>0.07993945377312242</v>
+        <v>0.07907820375261124</v>
       </c>
       <c r="D32" t="n">
-        <v>0.3261510543089502</v>
+        <v>0.3270904942904861</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -4737,24 +4737,24 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="H32" s="1" t="n">
-        <v>45962</v>
+        <v>45778</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>2025Q4</t>
+          <t>2025Q2</t>
         </is>
       </c>
       <c r="J32" t="n">
-        <v>0.00123862772085534</v>
+        <v>0.004538595527695338</v>
       </c>
       <c r="K32" t="n">
-        <v>0.002946346017253521</v>
+        <v>-0.002747333179037359</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.001707718296398181</v>
+        <v>0.007285928706732697</v>
       </c>
     </row>
     <row r="33">
@@ -4762,118 +4762,358 @@
         <v>2025</v>
       </c>
       <c r="B33" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C33" t="n">
-        <v>0.07734437020942829</v>
+        <v>0.08002596811908028</v>
       </c>
       <c r="D33" t="n">
-        <v>0.3186494613683109</v>
+        <v>0.3251964530025596</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0101010101010101</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="H33" s="1" t="n">
-        <v>45992</v>
+        <v>45809</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>2025Q4</t>
+          <t>2025Q2</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>-0.002595083563694131</v>
+        <v>0.0009477643664690394</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.00750159294063929</v>
+        <v>-0.001894041287926529</v>
       </c>
       <c r="L33" t="n">
-        <v>0.004906509376945159</v>
+        <v>0.002841805654395568</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="B34" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0797417902868708</v>
+        <v>0.08201858761050876</v>
       </c>
       <c r="D34" t="n">
-        <v>0.3218397884303952</v>
+        <v>0.3306139793525829</v>
       </c>
       <c r="E34" t="n">
-        <v>0.007518796992481203</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0.007518796992481203</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="H34" s="1" t="n">
-        <v>46023</v>
+        <v>45839</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>2026Q1</t>
+          <t>2025Q3</t>
         </is>
       </c>
       <c r="J34" t="n">
-        <v>0.002397420077442508</v>
+        <v>0.001992619491428482</v>
       </c>
       <c r="K34" t="n">
-        <v>0.003190327062084275</v>
+        <v>0.005417526350023238</v>
       </c>
       <c r="L34" t="n">
-        <v>-0.0007929069846417669</v>
+        <v>-0.003424906858594756</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B35" t="n">
+        <v>8</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.08083063810472618</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.3227725033772423</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.007692307692307693</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>130</v>
+      </c>
+      <c r="H35" s="1" t="n">
+        <v>45870</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>2025Q3</t>
+        </is>
+      </c>
+      <c r="J35" t="n">
+        <v>-0.001187949505782576</v>
+      </c>
+      <c r="K35" t="n">
+        <v>-0.007841475975340517</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.006653526469557941</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B36" t="n">
+        <v>9</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.08094970699725219</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.3238571743371991</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>86</v>
+      </c>
+      <c r="H36" s="1" t="n">
+        <v>45901</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>2025Q3</t>
+        </is>
+      </c>
+      <c r="J36" t="n">
+        <v>0.0001190688925260114</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.001084670959956735</v>
+      </c>
+      <c r="L36" t="n">
+        <v>-0.0009656020674307236</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B37" t="n">
+        <v>10</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.07870082605226708</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.3232047082916967</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>82</v>
+      </c>
+      <c r="H37" s="1" t="n">
+        <v>45931</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>2025Q4</t>
+        </is>
+      </c>
+      <c r="J37" t="n">
+        <v>-0.002248880944985113</v>
+      </c>
+      <c r="K37" t="n">
+        <v>-0.0006524660455023978</v>
+      </c>
+      <c r="L37" t="n">
+        <v>-0.001596414899482715</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B38" t="n">
+        <v>11</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.07993945377312242</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.3261510543089502</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>80</v>
+      </c>
+      <c r="H38" s="1" t="n">
+        <v>45962</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>2025Q4</t>
+        </is>
+      </c>
+      <c r="J38" t="n">
+        <v>0.00123862772085534</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.002946346017253521</v>
+      </c>
+      <c r="L38" t="n">
+        <v>-0.001707718296398181</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B39" t="n">
+        <v>12</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.07734437020942829</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.3186494613683109</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.0101010101010101</v>
+      </c>
+      <c r="G39" t="n">
+        <v>99</v>
+      </c>
+      <c r="H39" s="1" t="n">
+        <v>45992</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>2025Q4</t>
+        </is>
+      </c>
+      <c r="J39" t="n">
+        <v>-0.002595083563694131</v>
+      </c>
+      <c r="K39" t="n">
+        <v>-0.00750159294063929</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.004906509376945159</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
         <v>2026</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B40" t="n">
+        <v>1</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.0797417902868708</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.3218397884303952</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.007518796992481203</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.007518796992481203</v>
+      </c>
+      <c r="G40" t="n">
+        <v>131</v>
+      </c>
+      <c r="H40" s="1" t="n">
+        <v>46023</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>2026Q1</t>
+        </is>
+      </c>
+      <c r="J40" t="n">
+        <v>0.002397420077442508</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.003190327062084275</v>
+      </c>
+      <c r="L40" t="n">
+        <v>-0.0007929069846417669</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B41" t="n">
         <v>2</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C41" t="n">
         <v>0.07380186053069956</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D41" t="n">
         <v>0.3111892825820786</v>
       </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
         <v>19</v>
       </c>
-      <c r="H35" s="1" t="n">
+      <c r="H41" s="1" t="n">
         <v>46054</v>
       </c>
-      <c r="I35" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>2026Q1</t>
         </is>
       </c>
-      <c r="J35" t="n">
+      <c r="J41" t="n">
         <v>-0.005939929756171233</v>
       </c>
-      <c r="K35" t="n">
+      <c r="K41" t="n">
         <v>-0.01065050584831656</v>
       </c>
-      <c r="L35" t="n">
+      <c r="L41" t="n">
         <v>0.004710576092145327</v>
       </c>
     </row>
@@ -4888,7 +5128,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4961,132 +5201,132 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024Q2</t>
+          <t>2023Q4</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0719575883987837</v>
+        <v>0.0697730399471695</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3362432881950421</v>
+        <v>0.3403160520091948</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002583979328165375</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>133.6666666666667</v>
+        <v>130</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0004034628056182321</v>
+        <v>-0.0001112381744201585</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.006446629730267772</v>
+        <v>0.004703357062642466</v>
       </c>
       <c r="I2" t="n">
-        <v>0.006850092535886004</v>
+        <v>-0.004814595237062624</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0004846696236811276</v>
+        <v>-0.0008112083466254166</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.01388455444818326</v>
+        <v>-0.01204700356045058</v>
       </c>
       <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2024Q3</t>
+          <t>2024Q1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.07309780376582349</v>
+        <v>0.07155412559316547</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3315058987380865</v>
+        <v>0.3426899179253098</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.01244467003219198</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>0.002450980392156863</v>
       </c>
       <c r="F3" t="n">
-        <v>129</v>
+        <v>132.6666666666667</v>
       </c>
       <c r="G3" t="n">
-        <v>0.001140215367039787</v>
+        <v>0.001781085645995967</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.004737389456955565</v>
+        <v>0.002373865916114992</v>
       </c>
       <c r="I3" t="n">
-        <v>0.005877604823995353</v>
+        <v>-0.0005927802701190255</v>
       </c>
       <c r="J3" t="n">
-        <v>0.003213525644233828</v>
+        <v>-0.004364247036767147</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.004106796208465879</v>
+        <v>0.00563748342277981</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.007048902219164682</v>
+        <v>-0.02123752567337212</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2024Q4</t>
+          <t>2024Q2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.07652679888744941</v>
+        <v>0.0719575883987837</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3336418478152975</v>
+        <v>0.3362432881950421</v>
       </c>
       <c r="D4" t="n">
-        <v>0.007858097123633848</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.002469135802469136</v>
+        <v>0.002583979328165375</v>
       </c>
       <c r="F4" t="n">
-        <v>127.6666666666667</v>
+        <v>133.6666666666667</v>
       </c>
       <c r="G4" t="n">
-        <v>0.003428995121625922</v>
+        <v>0.0004034628056182321</v>
       </c>
       <c r="H4" t="n">
-        <v>0.002135949077211041</v>
+        <v>-0.006446629730267772</v>
       </c>
       <c r="I4" t="n">
-        <v>0.001293046044414881</v>
+        <v>0.006850092535886004</v>
       </c>
       <c r="J4" t="n">
-        <v>0.006753758940279908</v>
+        <v>0.0001707413923797141</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.006674204193897304</v>
+        <v>-0.009526599967301819</v>
       </c>
       <c r="L4" t="n">
-        <v>0.006107641281477505</v>
+        <v>0.01969907181922849</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025Q1</t>
+          <t>2024Q3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.07754819924024327</v>
+        <v>0.07309780376582349</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3307635272304272</v>
+        <v>0.3315058987380865</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -5095,184 +5335,264 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>112.3333333333333</v>
+        <v>129</v>
       </c>
       <c r="G5" t="n">
-        <v>0.001021400352793855</v>
+        <v>0.001140215367039787</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.002878320584870364</v>
+        <v>-0.004737389456955565</v>
       </c>
       <c r="I5" t="n">
-        <v>0.003899720937664219</v>
+        <v>0.005877604823995353</v>
       </c>
       <c r="J5" t="n">
-        <v>0.005994073647077797</v>
+        <v>0.003213525644233828</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.01192639069488266</v>
+        <v>-0.004106796208465879</v>
       </c>
       <c r="L5" t="n">
-        <v>0.004492501207783245</v>
+        <v>-0.002377019506981826</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025Q2</t>
+          <t>2024Q4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.07788126003220247</v>
+        <v>0.07652679888744941</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3273749249208564</v>
+        <v>0.3336418478152975</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>0.007858097123633848</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>0.002469135802469136</v>
       </c>
       <c r="F6" t="n">
-        <v>132.6666666666667</v>
+        <v>127.6666666666667</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0003330607919592027</v>
+        <v>0.003428995121625922</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.003388602309570776</v>
+        <v>0.002135949077211041</v>
       </c>
       <c r="I6" t="n">
-        <v>0.003721663101529979</v>
+        <v>0.001293046044414881</v>
       </c>
       <c r="J6" t="n">
-        <v>0.005923671633418767</v>
+        <v>0.006753758940279908</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.008868363274185664</v>
+        <v>-0.006674204193897304</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.003128429434356025</v>
+        <v>0.006107641281477505</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025Q3</t>
+          <t>2025Q1</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.08126631090416238</v>
+        <v>0.07754819924024327</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3257478856890081</v>
+        <v>0.3307635272304272</v>
       </c>
       <c r="D7" t="n">
-        <v>0.002564102564102564</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>117</v>
+        <v>112.3333333333333</v>
       </c>
       <c r="G7" t="n">
-        <v>0.003385050871959908</v>
+        <v>0.001021400352793855</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.001627039231848315</v>
+        <v>-0.002878320584870364</v>
       </c>
       <c r="I7" t="n">
-        <v>0.005012090103808223</v>
+        <v>0.003899720937664219</v>
       </c>
       <c r="J7" t="n">
-        <v>0.008168507138338887</v>
+        <v>0.005994073647077797</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.005758013049078414</v>
+        <v>-0.01192639069488266</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.0008655147201871299</v>
+        <v>0.004492501207783245</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025Q4</t>
+          <t>2025Q2</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.07866155001160592</v>
+        <v>0.07788126003220247</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3226684079896526</v>
+        <v>0.3273749249208564</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.003367003367003367</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>87</v>
+        <v>132.6666666666667</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.002604760892556457</v>
+        <v>0.0003330607919592027</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.00307947769935546</v>
+        <v>-0.003388602309570776</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0004747168067990026</v>
+        <v>0.003721663101529979</v>
       </c>
       <c r="J8" t="n">
-        <v>0.002134751124156509</v>
+        <v>0.005923671633418767</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.01097343982564492</v>
+        <v>-0.008868363274185664</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.0008183292376158779</v>
+        <v>-0.003128429434356025</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>2025Q3</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.08126631090416238</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.3257478856890081</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.002564102564102564</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>117</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.003385050871959908</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-0.001627039231848315</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.005012090103808223</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.008168507138338887</v>
+      </c>
+      <c r="K9" t="n">
+        <v>-0.005758013049078414</v>
+      </c>
+      <c r="L9" t="n">
+        <v>-0.0008655147201871299</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025Q4</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.07866155001160592</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.3226684079896526</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.003367003367003367</v>
+      </c>
+      <c r="F10" t="n">
+        <v>87</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-0.002604760892556457</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-0.00307947769935546</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.0004747168067990026</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.002134751124156509</v>
+      </c>
+      <c r="K10" t="n">
+        <v>-0.01097343982564492</v>
+      </c>
+      <c r="L10" t="n">
+        <v>-0.0008183292376158779</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>2026Q1</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B11" t="n">
         <v>0.07677182540878519</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C11" t="n">
         <v>0.3165145355062369</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D11" t="n">
         <v>0.003759398496240601</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E11" t="n">
         <v>0.003759398496240601</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F11" t="n">
         <v>75</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G11" t="n">
         <v>-0.001889724602820733</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H11" t="n">
         <v>-0.006153872483415757</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I11" t="n">
         <v>0.004264147880595023</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J11" t="n">
         <v>-0.0007763738314580798</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K11" t="n">
         <v>-0.01424899172419031</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L11" t="n">
         <v>0.0003644269429308039</v>
       </c>
     </row>

--- a/pubmatic_index.xlsx
+++ b/pubmatic_index.xlsx
@@ -1024,19 +1024,19 @@
         <v>10</v>
       </c>
       <c r="C17" t="n">
-        <v>0.06891908027451597</v>
+        <v>0.07714762230374987</v>
       </c>
       <c r="D17" t="n">
-        <v>0.06891908027451597</v>
+        <v>0.07714762230374987</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3540567045525894</v>
+        <v>0.3704873138166923</v>
       </c>
       <c r="F17" t="n">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="G17" t="n">
-        <v>448.2142857142857</v>
+        <v>439.578947368421</v>
       </c>
       <c r="H17" s="1" t="n">
         <v>44835</v>
@@ -1047,10 +1047,10 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>-0.007336803626200622</v>
+        <v>0.0008917384030332764</v>
       </c>
       <c r="K17" t="n">
-        <v>0.01328644977451597</v>
+        <v>0.02151499180374987</v>
       </c>
     </row>
     <row r="18">
@@ -1061,19 +1061,19 @@
         <v>11</v>
       </c>
       <c r="C18" t="n">
-        <v>0.06769556024422504</v>
+        <v>0.07265703443460808</v>
       </c>
       <c r="D18" t="n">
-        <v>0.06769556024422504</v>
+        <v>0.07265703443460808</v>
       </c>
       <c r="E18" t="n">
-        <v>0.345689955949527</v>
+        <v>0.3550092605382657</v>
       </c>
       <c r="F18" t="n">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="G18" t="n">
-        <v>482.6511627906977</v>
+        <v>501.8421052631579</v>
       </c>
       <c r="H18" s="1" t="n">
         <v>44866</v>
@@ -1084,10 +1084,10 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>-0.001223520030290928</v>
+        <v>-0.004490587869141791</v>
       </c>
       <c r="K18" t="n">
-        <v>0.002227505244225048</v>
+        <v>0.007188979434608084</v>
       </c>
     </row>
     <row r="19">
@@ -1098,19 +1098,19 @@
         <v>12</v>
       </c>
       <c r="C19" t="n">
-        <v>0.07347293634336481</v>
+        <v>0.08024417245993143</v>
       </c>
       <c r="D19" t="n">
-        <v>0.07347293634336481</v>
+        <v>0.08024417245993143</v>
       </c>
       <c r="E19" t="n">
-        <v>0.3590361551897638</v>
+        <v>0.3527055712777869</v>
       </c>
       <c r="F19" t="n">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="G19" t="n">
-        <v>572.0571428571428</v>
+        <v>615.6857142857143</v>
       </c>
       <c r="H19" s="1" t="n">
         <v>44896</v>
@@ -1121,10 +1121,10 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>0.005777376099139767</v>
+        <v>0.007587138025323348</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.0612420895633712</v>
+        <v>-0.05447085344680458</v>
       </c>
     </row>
     <row r="20">
@@ -1135,19 +1135,19 @@
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0912681378804321</v>
+        <v>0.1036718632208449</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0912681378804321</v>
+        <v>0.1036718632208449</v>
       </c>
       <c r="E20" t="n">
-        <v>0.3301929198791513</v>
+        <v>0.3292622414165491</v>
       </c>
       <c r="F20" t="n">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="G20" t="n">
-        <v>668.5434782608696</v>
+        <v>669.9285714285714</v>
       </c>
       <c r="H20" s="1" t="n">
         <v>44927</v>
@@ -1158,10 +1158,10 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>0.01779520153706729</v>
+        <v>0.02342769076091349</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.0653583681436639</v>
+        <v>-0.05295464280325109</v>
       </c>
     </row>
     <row r="21">
@@ -1172,19 +1172,19 @@
         <v>2</v>
       </c>
       <c r="C21" t="n">
-        <v>0.06717864227484054</v>
+        <v>0.07564185560251215</v>
       </c>
       <c r="D21" t="n">
-        <v>0.06717864227484054</v>
+        <v>0.07564185560251215</v>
       </c>
       <c r="E21" t="n">
-        <v>0.3355353756300875</v>
+        <v>0.3682860288293009</v>
       </c>
       <c r="F21" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="G21" t="n">
-        <v>418.64</v>
+        <v>344.3333333333333</v>
       </c>
       <c r="H21" s="1" t="n">
         <v>44958</v>
@@ -1195,10 +1195,10 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>-0.02408949560559157</v>
+        <v>-0.02803000761833277</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.08944786374925547</v>
+        <v>-0.08098465042158386</v>
       </c>
     </row>
     <row r="22">
@@ -1209,19 +1209,19 @@
         <v>3</v>
       </c>
       <c r="C22" t="n">
-        <v>0.06930833773452522</v>
+        <v>0.07733731382928684</v>
       </c>
       <c r="D22" t="n">
-        <v>0.06930833773452522</v>
+        <v>0.07733731382928684</v>
       </c>
       <c r="E22" t="n">
-        <v>0.3454290079983513</v>
+        <v>0.3509587301808116</v>
       </c>
       <c r="F22" t="n">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="G22" t="n">
-        <v>514.6444444444444</v>
+        <v>541.4444444444445</v>
       </c>
       <c r="H22" s="1" t="n">
         <v>44986</v>
@@ -1232,10 +1232,10 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>0.00212969545968468</v>
+        <v>0.001695458226774693</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.03359993926547479</v>
+        <v>-0.02557096317071317</v>
       </c>
     </row>
     <row r="23">
@@ -1246,19 +1246,19 @@
         <v>4</v>
       </c>
       <c r="C23" t="n">
-        <v>0.07241470346900682</v>
+        <v>0.08033588361898598</v>
       </c>
       <c r="D23" t="n">
-        <v>0.07241470346900682</v>
+        <v>0.08033588361898598</v>
       </c>
       <c r="E23" t="n">
-        <v>0.3370539792005809</v>
+        <v>0.3543386882866427</v>
       </c>
       <c r="F23" t="n">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="G23" t="n">
-        <v>590.6326530612245</v>
+        <v>578.1739130434783</v>
       </c>
       <c r="H23" s="1" t="n">
         <v>45017</v>
@@ -1269,10 +1269,10 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>0.0031063657344816</v>
+        <v>0.002998569789699146</v>
       </c>
       <c r="K23" t="n">
-        <v>0.01126155430607714</v>
+        <v>0.0191827344560563</v>
       </c>
     </row>
     <row r="24">
@@ -1283,19 +1283,19 @@
         <v>5</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0718229356669564</v>
+        <v>0.07992593285084001</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0718229356669564</v>
+        <v>0.07992593285084001</v>
       </c>
       <c r="E24" t="n">
-        <v>0.3449397820325285</v>
+        <v>0.3609545384573529</v>
       </c>
       <c r="F24" t="n">
-        <v>127</v>
+        <v>51</v>
       </c>
       <c r="G24" t="n">
-        <v>534.0314960629921</v>
+        <v>528.8823529411765</v>
       </c>
       <c r="H24" s="1" t="n">
         <v>45047</v>
@@ -1306,10 +1306,10 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>-0.0005917678020504191</v>
+        <v>-0.0004099507681459696</v>
       </c>
       <c r="K24" t="n">
-        <v>0.01337111892130079</v>
+        <v>0.02147411610518441</v>
       </c>
     </row>
     <row r="25">
@@ -1320,19 +1320,19 @@
         <v>6</v>
       </c>
       <c r="C25" t="n">
-        <v>0.07112290188324875</v>
+        <v>0.07872311560463693</v>
       </c>
       <c r="D25" t="n">
-        <v>0.07112290188324875</v>
+        <v>0.07872311560463693</v>
       </c>
       <c r="E25" t="n">
-        <v>0.3553159032539221</v>
+        <v>0.3750546865192542</v>
       </c>
       <c r="F25" t="n">
-        <v>140</v>
+        <v>61</v>
       </c>
       <c r="G25" t="n">
-        <v>508.9</v>
+        <v>455.8852459016393</v>
       </c>
       <c r="H25" s="1" t="n">
         <v>45078</v>
@@ -1343,10 +1343,10 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>-0.0007000337837076431</v>
+        <v>-0.001202817246203081</v>
       </c>
       <c r="K25" t="n">
-        <v>0.05057495688324876</v>
+        <v>0.05817517060463694</v>
       </c>
     </row>
     <row r="26">
@@ -1357,19 +1357,19 @@
         <v>7</v>
       </c>
       <c r="C26" t="n">
-        <v>0.06897232605728577</v>
+        <v>0.07730979525628033</v>
       </c>
       <c r="D26" t="n">
-        <v>0.06897232605728577</v>
+        <v>0.07730979525628033</v>
       </c>
       <c r="E26" t="n">
-        <v>0.34452231380349</v>
+        <v>0.3673767130217772</v>
       </c>
       <c r="F26" t="n">
-        <v>143</v>
+        <v>61</v>
       </c>
       <c r="G26" t="n">
-        <v>496.013986013986</v>
+        <v>432.6229508196722</v>
       </c>
       <c r="H26" s="1" t="n">
         <v>45108</v>
@@ -1380,10 +1380,10 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>-0.00215057582596298</v>
+        <v>-0.001413320348356603</v>
       </c>
       <c r="K26" t="n">
-        <v>0.02187570849091407</v>
+        <v>0.03021317768990863</v>
       </c>
     </row>
     <row r="27">
@@ -1394,19 +1394,19 @@
         <v>8</v>
       </c>
       <c r="C27" t="n">
-        <v>0.07046688118104905</v>
+        <v>0.07591098169966093</v>
       </c>
       <c r="D27" t="n">
-        <v>0.07046688118104905</v>
+        <v>0.07591098169966093</v>
       </c>
       <c r="E27" t="n">
-        <v>0.344346677153684</v>
+        <v>0.3618764659088198</v>
       </c>
       <c r="F27" t="n">
-        <v>136</v>
+        <v>59</v>
       </c>
       <c r="G27" t="n">
-        <v>478.6764705882353</v>
+        <v>419.1694915254237</v>
       </c>
       <c r="H27" s="1" t="n">
         <v>45139</v>
@@ -1417,10 +1417,10 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>0.001494555123763272</v>
+        <v>-0.001398813556619402</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.009492116884337778</v>
+        <v>-0.004048016365725896</v>
       </c>
     </row>
     <row r="28">
@@ -1431,19 +1431,19 @@
         <v>9</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0702136271264342</v>
+        <v>0.07759663502489439</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0702136271264342</v>
+        <v>0.07759663502489439</v>
       </c>
       <c r="E28" t="n">
-        <v>0.3179690938824832</v>
+        <v>0.3161377640567014</v>
       </c>
       <c r="F28" t="n">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="G28" t="n">
-        <v>535.4583333333334</v>
+        <v>512.6428571428571</v>
       </c>
       <c r="H28" s="1" t="n">
         <v>45170</v>
@@ -1454,10 +1454,10 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>-0.0002532540546148487</v>
+        <v>0.00168565332523346</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.006042256774282398</v>
+        <v>0.001340751124177794</v>
       </c>
     </row>
     <row r="29">
@@ -1468,19 +1468,19 @@
         <v>10</v>
       </c>
       <c r="C29" t="n">
-        <v>0.06963920511042827</v>
+        <v>0.07578063591596414</v>
       </c>
       <c r="D29" t="n">
-        <v>0.06963920511042827</v>
+        <v>0.07578063591596414</v>
       </c>
       <c r="E29" t="n">
-        <v>0.3429798151773454</v>
+        <v>0.3519340751118608</v>
       </c>
       <c r="F29" t="n">
-        <v>120</v>
+        <v>53</v>
       </c>
       <c r="G29" t="n">
-        <v>472.6333333333333</v>
+        <v>421.6981132075472</v>
       </c>
       <c r="H29" s="1" t="n">
         <v>45200</v>
@@ -1491,10 +1491,10 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>-0.0005744220160059238</v>
+        <v>-0.001815999108930252</v>
       </c>
       <c r="K29" t="n">
-        <v>0.0007201248359123003</v>
+        <v>-0.001366986387785735</v>
       </c>
     </row>
     <row r="30">
@@ -1505,19 +1505,19 @@
         <v>11</v>
       </c>
       <c r="C30" t="n">
-        <v>0.06922230217871614</v>
+        <v>0.07994519688967744</v>
       </c>
       <c r="D30" t="n">
-        <v>0.06922230217871614</v>
+        <v>0.07994519688967744</v>
       </c>
       <c r="E30" t="n">
-        <v>0.3327243605153344</v>
+        <v>0.3503925715153675</v>
       </c>
       <c r="F30" t="n">
-        <v>131</v>
+        <v>54</v>
       </c>
       <c r="G30" t="n">
-        <v>502.5648854961832</v>
+        <v>455.8148148148148</v>
       </c>
       <c r="H30" s="1" t="n">
         <v>45231</v>
@@ -1528,10 +1528,10 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>-0.0004169029317121348</v>
+        <v>0.004164560973713302</v>
       </c>
       <c r="K30" t="n">
-        <v>0.001526741934491094</v>
+        <v>0.007288162455069358</v>
       </c>
     </row>
     <row r="31">
@@ -1542,19 +1542,19 @@
         <v>12</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0704576125523641</v>
+        <v>0.07985574730659925</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0704576125523641</v>
+        <v>0.07985574730659925</v>
       </c>
       <c r="E31" t="n">
-        <v>0.3452439803349048</v>
+        <v>0.3524250385845984</v>
       </c>
       <c r="F31" t="n">
-        <v>139</v>
+        <v>59</v>
       </c>
       <c r="G31" t="n">
-        <v>479.0935251798561</v>
+        <v>464.7796610169491</v>
       </c>
       <c r="H31" s="1" t="n">
         <v>45261</v>
@@ -1565,10 +1565,10 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>0.001235310373647963</v>
+        <v>-8.944958307818829e-05</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.00301532379100071</v>
+        <v>-0.0003884251533321781</v>
       </c>
     </row>
     <row r="32">
@@ -1579,19 +1579,19 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>0.07077337660154118</v>
+        <v>0.07903314941939465</v>
       </c>
       <c r="D32" t="n">
-        <v>0.07077337660154118</v>
+        <v>0.07903314941939465</v>
       </c>
       <c r="E32" t="n">
-        <v>0.34619445112515</v>
+        <v>0.3537709007728739</v>
       </c>
       <c r="F32" t="n">
-        <v>134</v>
+        <v>55</v>
       </c>
       <c r="G32" t="n">
-        <v>517.9701492537314</v>
+        <v>515.6909090909091</v>
       </c>
       <c r="H32" s="1" t="n">
         <v>45292</v>
@@ -1602,10 +1602,10 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>0.0003157640491770752</v>
+        <v>-0.0008225978872045958</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.02049476127889092</v>
+        <v>-0.02463871380145026</v>
       </c>
     </row>
     <row r="33">
@@ -1616,19 +1616,19 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>0.06995863888738026</v>
+        <v>0.07739815605307314</v>
       </c>
       <c r="D33" t="n">
-        <v>0.06995863888738026</v>
+        <v>0.07739815605307314</v>
       </c>
       <c r="E33" t="n">
-        <v>0.3403834656935696</v>
+        <v>0.3420445843578494</v>
       </c>
       <c r="F33" t="n">
-        <v>136</v>
+        <v>54</v>
       </c>
       <c r="G33" t="n">
-        <v>527.0661764705883</v>
+        <v>539.6481481481482</v>
       </c>
       <c r="H33" s="1" t="n">
         <v>45323</v>
@@ -1639,10 +1639,10 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>-0.0008147377141609208</v>
+        <v>-0.001634993366321516</v>
       </c>
       <c r="K33" t="n">
-        <v>0.00277999661253972</v>
+        <v>0.001756300450560994</v>
       </c>
     </row>
     <row r="34">
@@ -1653,19 +1653,19 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>0.07393036129057498</v>
+        <v>0.08172797566163724</v>
       </c>
       <c r="D34" t="n">
-        <v>0.07393036129057498</v>
+        <v>0.08172797566163724</v>
       </c>
       <c r="E34" t="n">
-        <v>0.3414918369572099</v>
+        <v>0.3458658030655528</v>
       </c>
       <c r="F34" t="n">
-        <v>128</v>
+        <v>54</v>
       </c>
       <c r="G34" t="n">
-        <v>516.09375</v>
+        <v>531.074074074074</v>
       </c>
       <c r="H34" s="1" t="n">
         <v>45352</v>
@@ -1676,10 +1676,10 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>0.003971722403194725</v>
+        <v>0.004329819608564101</v>
       </c>
       <c r="K34" t="n">
-        <v>0.004622023556049765</v>
+        <v>0.004390661832350401</v>
       </c>
     </row>
     <row r="35">
@@ -1690,19 +1690,19 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>0.07164535847108087</v>
+        <v>0.07930739165505565</v>
       </c>
       <c r="D35" t="n">
-        <v>0.07164535847108087</v>
+        <v>0.07930739165505565</v>
       </c>
       <c r="E35" t="n">
-        <v>0.3368718973430386</v>
+        <v>0.3387029578456585</v>
       </c>
       <c r="F35" t="n">
-        <v>129</v>
+        <v>53</v>
       </c>
       <c r="G35" t="n">
-        <v>472.7364341085271</v>
+        <v>450.1509433962264</v>
       </c>
       <c r="H35" s="1" t="n">
         <v>45383</v>
@@ -1713,10 +1713,10 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>-0.002285002819494106</v>
+        <v>-0.002420584006581586</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.0007693449979259415</v>
+        <v>-0.001028491963930331</v>
       </c>
     </row>
     <row r="36">
@@ -1727,19 +1727,19 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>0.07125192473439274</v>
+        <v>0.07774114937159438</v>
       </c>
       <c r="D36" t="n">
-        <v>0.07125192473439274</v>
+        <v>0.07774114937159438</v>
       </c>
       <c r="E36" t="n">
-        <v>0.3370156229701345</v>
+        <v>0.329522603801619</v>
       </c>
       <c r="F36" t="n">
-        <v>134</v>
+        <v>57</v>
       </c>
       <c r="G36" t="n">
-        <v>459.6268656716418</v>
+        <v>477.0526315789473</v>
       </c>
       <c r="H36" s="1" t="n">
         <v>45413</v>
@@ -1750,10 +1750,10 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>-0.0003934337366881396</v>
+        <v>-0.001566242283461278</v>
       </c>
       <c r="K36" t="n">
-        <v>-0.000571010932563662</v>
+        <v>-0.002184783479245639</v>
       </c>
     </row>
     <row r="37">
@@ -1764,19 +1764,19 @@
         <v>6</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0729754819908775</v>
+        <v>0.08089202309316977</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0729754819908775</v>
+        <v>0.08089202309316977</v>
       </c>
       <c r="E37" t="n">
-        <v>0.334842344271953</v>
+        <v>0.3236179438531883</v>
       </c>
       <c r="F37" t="n">
-        <v>138</v>
+        <v>57</v>
       </c>
       <c r="G37" t="n">
-        <v>449.0724637681159</v>
+        <v>470.2982456140351</v>
       </c>
       <c r="H37" s="1" t="n">
         <v>45444</v>
@@ -1787,10 +1787,10 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>0.001723557256484765</v>
+        <v>0.003150873721575395</v>
       </c>
       <c r="K37" t="n">
-        <v>0.001852580107628746</v>
+        <v>0.002168907488532837</v>
       </c>
     </row>
     <row r="38">
@@ -1801,19 +1801,19 @@
         <v>7</v>
       </c>
       <c r="C38" t="n">
-        <v>0.07087683488183347</v>
+        <v>0.08019647943031162</v>
       </c>
       <c r="D38" t="n">
-        <v>0.07087683488183347</v>
+        <v>0.08019647943031162</v>
       </c>
       <c r="E38" t="n">
-        <v>0.3342398453006424</v>
+        <v>0.3289255565021306</v>
       </c>
       <c r="F38" t="n">
-        <v>131</v>
+        <v>52</v>
       </c>
       <c r="G38" t="n">
-        <v>451.8778625954199</v>
+        <v>451.3653846153846</v>
       </c>
       <c r="H38" s="1" t="n">
         <v>45474</v>
@@ -1824,10 +1824,10 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>-0.002098647109044033</v>
+        <v>-0.0006955436628581502</v>
       </c>
       <c r="K38" t="n">
-        <v>0.001904508824547693</v>
+        <v>0.00288668417403129</v>
       </c>
     </row>
     <row r="39">
@@ -1838,19 +1838,19 @@
         <v>8</v>
       </c>
       <c r="C39" t="n">
-        <v>0.07412024872883842</v>
+        <v>0.07914641774857044</v>
       </c>
       <c r="D39" t="n">
-        <v>0.07412024872883842</v>
+        <v>0.07914641774857044</v>
       </c>
       <c r="E39" t="n">
-        <v>0.3292436579055802</v>
+        <v>0.327788031844398</v>
       </c>
       <c r="F39" t="n">
-        <v>132</v>
+        <v>57</v>
       </c>
       <c r="G39" t="n">
-        <v>444.4318181818182</v>
+        <v>452.0526315789473</v>
       </c>
       <c r="H39" s="1" t="n">
         <v>45505</v>
@@ -1861,10 +1861,10 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>0.003243413847004953</v>
+        <v>-0.001050061681741182</v>
       </c>
       <c r="K39" t="n">
-        <v>0.003653367547789374</v>
+        <v>0.00323543604890951</v>
       </c>
     </row>
     <row r="40">
@@ -1875,19 +1875,19 @@
         <v>9</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0742963276867986</v>
+        <v>0.07886109171885379</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0742963276867986</v>
+        <v>0.07886109171885379</v>
       </c>
       <c r="E40" t="n">
-        <v>0.3310341930080368</v>
+        <v>0.3248936912904133</v>
       </c>
       <c r="F40" t="n">
-        <v>124</v>
+        <v>55</v>
       </c>
       <c r="G40" t="n">
-        <v>454.2741935483871</v>
+        <v>452.2</v>
       </c>
       <c r="H40" s="1" t="n">
         <v>45536</v>
@@ -1898,10 +1898,10 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>0.0001760789579601796</v>
+        <v>-0.0002853260297166482</v>
       </c>
       <c r="K40" t="n">
-        <v>0.004082700560364402</v>
+        <v>0.001264456693959401</v>
       </c>
     </row>
     <row r="41">
@@ -1912,19 +1912,19 @@
         <v>10</v>
       </c>
       <c r="C41" t="n">
-        <v>0.07190155212222789</v>
+        <v>0.080283768134963</v>
       </c>
       <c r="D41" t="n">
-        <v>0.07190155212222789</v>
+        <v>0.080283768134963</v>
       </c>
       <c r="E41" t="n">
-        <v>0.3352001266101851</v>
+        <v>0.3377624840895827</v>
       </c>
       <c r="F41" t="n">
-        <v>130</v>
+        <v>56</v>
       </c>
       <c r="G41" t="n">
-        <v>444.8692307692308</v>
+        <v>460.5178571428572</v>
       </c>
       <c r="H41" s="1" t="n">
         <v>45566</v>
@@ -1935,10 +1935,10 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>-0.002394775564570711</v>
+        <v>0.001422676416109214</v>
       </c>
       <c r="K41" t="n">
-        <v>0.002262347011799615</v>
+        <v>0.004503132218998868</v>
       </c>
     </row>
     <row r="42">
@@ -1949,19 +1949,19 @@
         <v>11</v>
       </c>
       <c r="C42" t="n">
-        <v>0.07681904192951333</v>
+        <v>0.08272498982208577</v>
       </c>
       <c r="D42" t="n">
-        <v>0.07681904192951333</v>
+        <v>0.08272498982208577</v>
       </c>
       <c r="E42" t="n">
-        <v>0.334276742617994</v>
+        <v>0.3340780537858606</v>
       </c>
       <c r="F42" t="n">
-        <v>135</v>
+        <v>57</v>
       </c>
       <c r="G42" t="n">
-        <v>424.837037037037</v>
+        <v>428.0350877192982</v>
       </c>
       <c r="H42" s="1" t="n">
         <v>45597</v>
@@ -1972,10 +1972,10 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>0.004917489807285444</v>
+        <v>0.002441221687122769</v>
       </c>
       <c r="K42" t="n">
-        <v>0.007596739750797193</v>
+        <v>0.002779792932408334</v>
       </c>
     </row>
     <row r="43">
@@ -1986,19 +1986,19 @@
         <v>12</v>
       </c>
       <c r="C43" t="n">
-        <v>0.080859802610607</v>
+        <v>0.08776340837403536</v>
       </c>
       <c r="D43" t="n">
-        <v>0.080859802610607</v>
+        <v>0.08776340837403536</v>
       </c>
       <c r="E43" t="n">
-        <v>0.3314486742177136</v>
+        <v>0.3316405409672215</v>
       </c>
       <c r="F43" t="n">
-        <v>118</v>
+        <v>52</v>
       </c>
       <c r="G43" t="n">
-        <v>464.8983050847457</v>
+        <v>490.1730769230769</v>
       </c>
       <c r="H43" s="1" t="n">
         <v>45627</v>
@@ -2009,10 +2009,10 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>0.004040760681093672</v>
+        <v>0.005038418551949586</v>
       </c>
       <c r="K43" t="n">
-        <v>0.0104021900582429</v>
+        <v>0.007907661067436109</v>
       </c>
     </row>
     <row r="44">
@@ -2023,19 +2023,19 @@
         <v>1</v>
       </c>
       <c r="C44" t="n">
-        <v>0.07942523858887618</v>
+        <v>0.08332333842603504</v>
       </c>
       <c r="D44" t="n">
-        <v>0.07942523858887618</v>
+        <v>0.08332333842603504</v>
       </c>
       <c r="E44" t="n">
-        <v>0.3327640017731392</v>
+        <v>0.3349916759590378</v>
       </c>
       <c r="F44" t="n">
-        <v>98</v>
+        <v>43</v>
       </c>
       <c r="G44" t="n">
-        <v>424.3673469387755</v>
+        <v>440.4883720930233</v>
       </c>
       <c r="H44" s="1" t="n">
         <v>45658</v>
@@ -2046,10 +2046,10 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>-0.001434564021730825</v>
+        <v>-0.004440069948000322</v>
       </c>
       <c r="K44" t="n">
-        <v>0.008651861987335002</v>
+        <v>0.004290189006640382</v>
       </c>
     </row>
     <row r="45">
@@ -2060,19 +2060,19 @@
         <v>2</v>
       </c>
       <c r="C45" t="n">
-        <v>0.07662228895277265</v>
+        <v>0.08420133282480168</v>
       </c>
       <c r="D45" t="n">
-        <v>0.07662228895277265</v>
+        <v>0.08420133282480168</v>
       </c>
       <c r="E45" t="n">
-        <v>0.3325269197633825</v>
+        <v>0.3346106882293381</v>
       </c>
       <c r="F45" t="n">
-        <v>119</v>
+        <v>53</v>
       </c>
       <c r="G45" t="n">
-        <v>461.7647058823529</v>
+        <v>477.8867924528302</v>
       </c>
       <c r="H45" s="1" t="n">
         <v>45689</v>
@@ -2083,10 +2083,10 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>-0.00280294963610353</v>
+        <v>0.0008779943987666378</v>
       </c>
       <c r="K45" t="n">
-        <v>0.006663650065392393</v>
+        <v>0.006803176771728536</v>
       </c>
     </row>
     <row r="46">
@@ -2097,19 +2097,19 @@
         <v>3</v>
       </c>
       <c r="C46" t="n">
-        <v>0.07659707017908096</v>
+        <v>0.08325470958744935</v>
       </c>
       <c r="D46" t="n">
-        <v>0.07659707017908096</v>
+        <v>0.08325470958744935</v>
       </c>
       <c r="E46" t="n">
-        <v>0.3269996601547598</v>
+        <v>0.3319148267727332</v>
       </c>
       <c r="F46" t="n">
-        <v>120</v>
+        <v>52</v>
       </c>
       <c r="G46" t="n">
-        <v>463.4416666666667</v>
+        <v>505.0961538461539</v>
       </c>
       <c r="H46" s="1" t="n">
         <v>45717</v>
@@ -2120,10 +2120,10 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>-2.521877369168757e-05</v>
+        <v>-0.0009466232373523259</v>
       </c>
       <c r="K46" t="n">
-        <v>0.002666708888505981</v>
+        <v>0.00152673392581211</v>
       </c>
     </row>
     <row r="47">
@@ -2134,19 +2134,19 @@
         <v>4</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0745396082249159</v>
+        <v>0.08220372970095687</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0745396082249159</v>
+        <v>0.08220372970095687</v>
       </c>
       <c r="E47" t="n">
-        <v>0.3298378274695235</v>
+        <v>0.3402230976966662</v>
       </c>
       <c r="F47" t="n">
-        <v>131</v>
+        <v>56</v>
       </c>
       <c r="G47" t="n">
-        <v>452.6946564885496</v>
+        <v>484.2321428571428</v>
       </c>
       <c r="H47" s="1" t="n">
         <v>45748</v>
@@ -2157,10 +2157,10 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>-0.002057461954165063</v>
+        <v>-0.001050979886492484</v>
       </c>
       <c r="K47" t="n">
-        <v>0.002894249753835024</v>
+        <v>0.002896338045901212</v>
       </c>
     </row>
     <row r="48">
@@ -2171,19 +2171,19 @@
         <v>5</v>
       </c>
       <c r="C48" t="n">
-        <v>0.07907820375261124</v>
+        <v>0.09139318378266677</v>
       </c>
       <c r="D48" t="n">
-        <v>0.07907820375261124</v>
+        <v>0.09139318378266677</v>
       </c>
       <c r="E48" t="n">
-        <v>0.3270904942904861</v>
+        <v>0.3371553934952743</v>
       </c>
       <c r="F48" t="n">
-        <v>139</v>
+        <v>57</v>
       </c>
       <c r="G48" t="n">
-        <v>447.1654676258993</v>
+        <v>464.1929824561403</v>
       </c>
       <c r="H48" s="1" t="n">
         <v>45778</v>
@@ -2194,10 +2194,10 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>0.004538595527695338</v>
+        <v>0.009189454081709902</v>
       </c>
       <c r="K48" t="n">
-        <v>0.007826279018218502</v>
+        <v>0.01365203441107239</v>
       </c>
     </row>
     <row r="49">
@@ -2208,19 +2208,19 @@
         <v>6</v>
       </c>
       <c r="C49" t="n">
-        <v>0.08002596811908028</v>
+        <v>0.09123373511324709</v>
       </c>
       <c r="D49" t="n">
-        <v>0.08002596811908028</v>
+        <v>0.09123373511324709</v>
       </c>
       <c r="E49" t="n">
-        <v>0.3251964530025596</v>
+        <v>0.3347827200763113</v>
       </c>
       <c r="F49" t="n">
-        <v>128</v>
+        <v>55</v>
       </c>
       <c r="G49" t="n">
-        <v>482.515625</v>
+        <v>477.8181818181818</v>
       </c>
       <c r="H49" s="1" t="n">
         <v>45809</v>
@@ -2231,10 +2231,10 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>0.0009477643664690394</v>
+        <v>-0.0001594486694196789</v>
       </c>
       <c r="K49" t="n">
-        <v>0.007050486128202776</v>
+        <v>0.01034171202007732</v>
       </c>
     </row>
     <row r="50">
@@ -2245,19 +2245,19 @@
         <v>7</v>
       </c>
       <c r="C50" t="n">
-        <v>0.08201858761050876</v>
+        <v>0.09045466611176946</v>
       </c>
       <c r="D50" t="n">
-        <v>0.08201858761050876</v>
+        <v>0.09045466611176946</v>
       </c>
       <c r="E50" t="n">
-        <v>0.3306139793525829</v>
+        <v>0.334268106043301</v>
       </c>
       <c r="F50" t="n">
-        <v>135</v>
+        <v>60</v>
       </c>
       <c r="G50" t="n">
-        <v>469.437037037037</v>
+        <v>480.35</v>
       </c>
       <c r="H50" s="1" t="n">
         <v>45839</v>
@@ -2268,10 +2268,10 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>0.001992619491428482</v>
+        <v>-0.0007790690014776308</v>
       </c>
       <c r="K50" t="n">
-        <v>0.01114175272867529</v>
+        <v>0.01025818668145784</v>
       </c>
     </row>
     <row r="51">
@@ -2282,19 +2282,19 @@
         <v>8</v>
       </c>
       <c r="C51" t="n">
-        <v>0.08083063810472618</v>
+        <v>0.09233435348466849</v>
       </c>
       <c r="D51" t="n">
-        <v>0.08083063810472618</v>
+        <v>0.09233435348466849</v>
       </c>
       <c r="E51" t="n">
-        <v>0.3227725033772423</v>
+        <v>0.3305868084124318</v>
       </c>
       <c r="F51" t="n">
-        <v>130</v>
+        <v>52</v>
       </c>
       <c r="G51" t="n">
-        <v>497.3230769230769</v>
+        <v>526.0769230769231</v>
       </c>
       <c r="H51" s="1" t="n">
         <v>45870</v>
@@ -2305,10 +2305,10 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>-0.001187949505782576</v>
+        <v>0.001879687372899036</v>
       </c>
       <c r="K51" t="n">
-        <v>0.006710389375887763</v>
+        <v>0.01318793573609806</v>
       </c>
     </row>
     <row r="52">
@@ -2319,19 +2319,19 @@
         <v>9</v>
       </c>
       <c r="C52" t="n">
-        <v>0.08094970699725219</v>
+        <v>0.08871405419373826</v>
       </c>
       <c r="D52" t="n">
-        <v>0.08094970699725219</v>
+        <v>0.08871405419373826</v>
       </c>
       <c r="E52" t="n">
-        <v>0.3238571743371991</v>
+        <v>0.335935970944121</v>
       </c>
       <c r="F52" t="n">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="G52" t="n">
-        <v>475.4883720930233</v>
+        <v>538.4047619047619</v>
       </c>
       <c r="H52" s="1" t="n">
         <v>45901</v>
@@ -2342,10 +2342,10 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>0.0001190688925260114</v>
+        <v>-0.003620299290930232</v>
       </c>
       <c r="K52" t="n">
-        <v>0.006653379310453594</v>
+        <v>0.009852962474884472</v>
       </c>
     </row>
     <row r="53">
@@ -2356,19 +2356,19 @@
         <v>10</v>
       </c>
       <c r="C53" t="n">
-        <v>0.07870082605226708</v>
+        <v>0.0874827043339992</v>
       </c>
       <c r="D53" t="n">
-        <v>0.07870082605226708</v>
+        <v>0.0874827043339992</v>
       </c>
       <c r="E53" t="n">
-        <v>0.3232047082916967</v>
+        <v>0.3311474611394578</v>
       </c>
       <c r="F53" t="n">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="G53" t="n">
-        <v>498.5975609756098</v>
+        <v>576.5365853658536</v>
       </c>
       <c r="H53" s="1" t="n">
         <v>45931</v>
@@ -2379,10 +2379,10 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>-0.002248880944985113</v>
+        <v>-0.001231349859739064</v>
       </c>
       <c r="K53" t="n">
-        <v>0.006799273930039193</v>
+        <v>0.007198936199036193</v>
       </c>
     </row>
     <row r="54">
@@ -2393,19 +2393,19 @@
         <v>11</v>
       </c>
       <c r="C54" t="n">
-        <v>0.07993945377312242</v>
+        <v>0.09151024765052052</v>
       </c>
       <c r="D54" t="n">
-        <v>0.07993945377312242</v>
+        <v>0.09151024765052052</v>
       </c>
       <c r="E54" t="n">
-        <v>0.3261510543089502</v>
+        <v>0.3471800979893205</v>
       </c>
       <c r="F54" t="n">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="G54" t="n">
-        <v>453.3625</v>
+        <v>497.3076923076923</v>
       </c>
       <c r="H54" s="1" t="n">
         <v>45962</v>
@@ -2416,10 +2416,10 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>0.00123862772085534</v>
+        <v>0.004027543316521318</v>
       </c>
       <c r="K54" t="n">
-        <v>0.003120411843609089</v>
+        <v>0.008785257828434742</v>
       </c>
     </row>
     <row r="55">
@@ -2430,19 +2430,19 @@
         <v>12</v>
       </c>
       <c r="C55" t="n">
-        <v>0.07734437020942829</v>
+        <v>0.08548193030857826</v>
       </c>
       <c r="D55" t="n">
-        <v>0.07734437020942829</v>
+        <v>0.08548193030857826</v>
       </c>
       <c r="E55" t="n">
-        <v>0.3186494613683109</v>
+        <v>0.3229916485934432</v>
       </c>
       <c r="F55" t="n">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="G55" t="n">
-        <v>507.1414141414141</v>
+        <v>541.6046511627907</v>
       </c>
       <c r="H55" s="1" t="n">
         <v>45992</v>
@@ -2453,10 +2453,10 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>-0.002595083563694131</v>
+        <v>-0.006028317341942258</v>
       </c>
       <c r="K55" t="n">
-        <v>-0.003515432401178714</v>
+        <v>-0.002281478065457102</v>
       </c>
     </row>
     <row r="56">
@@ -2467,19 +2467,19 @@
         <v>1</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0797417902868708</v>
+        <v>0.08823336118727994</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0797417902868708</v>
+        <v>0.08823336118727994</v>
       </c>
       <c r="E56" t="n">
-        <v>0.3218397884303952</v>
+        <v>0.3254898382552577</v>
       </c>
       <c r="F56" t="n">
-        <v>131</v>
+        <v>59</v>
       </c>
       <c r="G56" t="n">
-        <v>478.1804511278195</v>
+        <v>467.4590163934426</v>
       </c>
       <c r="H56" s="1" t="n">
         <v>46023</v>
@@ -2490,10 +2490,10 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>0.002397420077442508</v>
+        <v>0.00275143087870168</v>
       </c>
       <c r="K56" t="n">
-        <v>0.0003165516979946187</v>
+        <v>0.0049100227612449</v>
       </c>
     </row>
     <row r="57">
@@ -2504,19 +2504,19 @@
         <v>2</v>
       </c>
       <c r="C57" t="n">
-        <v>0.07380186053069956</v>
+        <v>0.08438070855208041</v>
       </c>
       <c r="D57" t="n">
-        <v>0.07380186053069956</v>
+        <v>0.08438070855208041</v>
       </c>
       <c r="E57" t="n">
-        <v>0.3111892825820786</v>
+        <v>0.3234676125874823</v>
       </c>
       <c r="F57" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G57" t="n">
-        <v>551.578947368421</v>
+        <v>434.2</v>
       </c>
       <c r="H57" s="1" t="n">
         <v>46054</v>
@@ -2527,10 +2527,10 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>-0.005939929756171233</v>
+        <v>-0.00385265263519953</v>
       </c>
       <c r="K57" t="n">
-        <v>-0.002820428422073085</v>
+        <v>0.0001793757272787327</v>
       </c>
     </row>
   </sheetData>
@@ -2883,37 +2883,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.07002919228736861</v>
+        <v>0.07668294306609647</v>
       </c>
       <c r="C9" t="n">
-        <v>0.07002919228736861</v>
+        <v>0.07668294306609647</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3529276052306267</v>
+        <v>0.3594007152109149</v>
       </c>
       <c r="E9" t="n">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="F9" t="n">
         <v>7</v>
       </c>
       <c r="G9" t="n">
-        <v>0.002258692443210225</v>
+        <v>0.008912443221938085</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.07929348703094073</v>
+        <v>-0.07263973625221287</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0746880969388026</v>
+        <v>0.07559851930364989</v>
       </c>
       <c r="J9" t="n">
-        <v>0.3688458615154391</v>
+        <v>0.3707513919077956</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.2941577645766364</v>
+        <v>-0.2951528726041457</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2582411831116511</v>
+        <v>0.2624976945916699</v>
       </c>
     </row>
     <row r="10">
@@ -2923,37 +2923,37 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.07591837262993262</v>
+        <v>0.08555034421754797</v>
       </c>
       <c r="C10" t="n">
-        <v>0.07591837262993262</v>
+        <v>0.08555034421754797</v>
       </c>
       <c r="D10" t="n">
-        <v>0.33705243450253</v>
+        <v>0.3495023334755539</v>
       </c>
       <c r="E10" t="n">
-        <v>53.66666666666666</v>
+        <v>28.33333333333333</v>
       </c>
       <c r="F10" t="n">
         <v>8</v>
       </c>
       <c r="G10" t="n">
-        <v>0.005889180342564013</v>
+        <v>0.008867401151451501</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.02698990437006739</v>
+        <v>-0.01735793278245204</v>
       </c>
       <c r="I10" t="n">
-        <v>0.07712709796616259</v>
+        <v>0.07801629368630145</v>
       </c>
       <c r="J10" t="n">
-        <v>0.3622564205410629</v>
+        <v>0.364226863508325</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.2851293225749004</v>
+        <v>-0.2862105698220235</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.04885964987984415</v>
+        <v>-0.04525280272744359</v>
       </c>
     </row>
     <row r="11">
@@ -2963,37 +2963,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.07178684700640399</v>
+        <v>0.07966164402482097</v>
       </c>
       <c r="C11" t="n">
-        <v>0.07178684700640399</v>
+        <v>0.07966164402482097</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3457698881623439</v>
+        <v>0.3634493044210833</v>
       </c>
       <c r="E11" t="n">
-        <v>121.6666666666667</v>
+        <v>52.66666666666666</v>
       </c>
       <c r="F11" t="n">
         <v>9</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.004131525623528629</v>
+        <v>-0.005888700192726998</v>
       </c>
       <c r="H11" t="n">
-        <v>0.02506921003687556</v>
+        <v>0.03294400705529254</v>
       </c>
       <c r="I11" t="n">
-        <v>0.07766656881290657</v>
+        <v>0.07897680101652835</v>
       </c>
       <c r="J11" t="n">
-        <v>0.3682778685654443</v>
+        <v>0.3721085475374869</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.2906112997525377</v>
+        <v>-0.2931317465209585</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.1412662115142171</v>
+        <v>-0.1338184873411867</v>
       </c>
     </row>
     <row r="12">
@@ -3003,37 +3003,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.06988427812158966</v>
+        <v>0.07693913732694523</v>
       </c>
       <c r="C12" t="n">
-        <v>0.06988427812158966</v>
+        <v>0.07693913732694523</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3356126949465524</v>
+        <v>0.3484636476624328</v>
       </c>
       <c r="E12" t="n">
-        <v>125</v>
+        <v>54</v>
       </c>
       <c r="F12" t="n">
         <v>10</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.001902568884814326</v>
+        <v>-0.002722506697875743</v>
       </c>
       <c r="H12" t="n">
-        <v>0.002113778277431283</v>
+        <v>0.009168637482786846</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0761397651099326</v>
+        <v>0.07742560553846899</v>
       </c>
       <c r="J12" t="n">
-        <v>0.3574056366816648</v>
+        <v>0.3607920351991542</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.2812658715717322</v>
+        <v>-0.2833664296606852</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.1022720640026128</v>
+        <v>-0.09556762571758071</v>
       </c>
     </row>
     <row r="13">
@@ -3043,37 +3043,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0697730399471695</v>
+        <v>0.07852719337074694</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0697730399471695</v>
+        <v>0.07852719337074694</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3403160520091948</v>
+        <v>0.3515838950706089</v>
       </c>
       <c r="E13" t="n">
-        <v>130</v>
+        <v>55.33333333333334</v>
       </c>
       <c r="F13" t="n">
         <v>11</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.0001112381744201585</v>
+        <v>0.001588056043801717</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.0002561523401991006</v>
+        <v>0.001844250304650477</v>
       </c>
       <c r="I13" t="n">
-        <v>0.07597345355794274</v>
+        <v>0.07731548083849189</v>
       </c>
       <c r="J13" t="n">
-        <v>0.3595361201589924</v>
+        <v>0.3624468457124503</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.2835626666010497</v>
+        <v>-0.2851313648739584</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.03601842022030477</v>
+        <v>-0.03395361746530579</v>
       </c>
     </row>
     <row r="14">
@@ -3083,37 +3083,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.07155412559316547</v>
+        <v>0.07938642704470168</v>
       </c>
       <c r="C14" t="n">
-        <v>0.07155412559316547</v>
+        <v>0.07938642704470168</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3426899179253098</v>
+        <v>0.3472270960654253</v>
       </c>
       <c r="E14" t="n">
-        <v>132.6666666666667</v>
+        <v>54.33333333333334</v>
       </c>
       <c r="F14" t="n">
         <v>12</v>
       </c>
       <c r="G14" t="n">
-        <v>0.001781085645995967</v>
+        <v>0.0008592336739547402</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.004364247036767147</v>
+        <v>-0.006163917172846284</v>
       </c>
       <c r="I14" t="n">
-        <v>0.07823492247708287</v>
+        <v>0.07956530690766703</v>
       </c>
       <c r="J14" t="n">
-        <v>0.3549768740075087</v>
+        <v>0.3566636765411313</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.2767419515304259</v>
+        <v>-0.2770983696334643</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.02941602417012457</v>
+        <v>-0.03183739927643303</v>
       </c>
     </row>
     <row r="15">
@@ -3123,37 +3123,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0719575883987837</v>
+        <v>0.07931352137327326</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0719575883987837</v>
+        <v>0.07931352137327326</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3362432881950421</v>
+        <v>0.3306145018334886</v>
       </c>
       <c r="E15" t="n">
-        <v>133.6666666666667</v>
+        <v>55.66666666666666</v>
       </c>
       <c r="F15" t="n">
         <v>13</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0004034628056182321</v>
+        <v>-7.290567142842486e-05</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0001707413923797141</v>
+        <v>-0.0003481226515477109</v>
       </c>
       <c r="I15" t="n">
-        <v>0.07778056904908576</v>
+        <v>0.07901196800917523</v>
       </c>
       <c r="J15" t="n">
-        <v>0.3426512093598714</v>
+        <v>0.342906422981224</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.2648706403107856</v>
+        <v>-0.2638944549720488</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.0885741864258921</v>
+        <v>-0.09974112969991578</v>
       </c>
     </row>
     <row r="16">
@@ -3163,37 +3163,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.07309780376582349</v>
+        <v>0.07940132963257862</v>
       </c>
       <c r="C16" t="n">
-        <v>0.07309780376582349</v>
+        <v>0.07940132963257862</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3315058987380865</v>
+        <v>0.3272024265456473</v>
       </c>
       <c r="E16" t="n">
-        <v>129</v>
+        <v>54.66666666666666</v>
       </c>
       <c r="F16" t="n">
         <v>14</v>
       </c>
       <c r="G16" t="n">
-        <v>0.001140215367039787</v>
+        <v>8.780825930536362e-05</v>
       </c>
       <c r="H16" t="n">
-        <v>0.003213525644233828</v>
+        <v>0.002462192305633396</v>
       </c>
       <c r="I16" t="n">
-        <v>0.07826656105167203</v>
+        <v>0.07933424285781951</v>
       </c>
       <c r="J16" t="n">
-        <v>0.3374737219155959</v>
+        <v>0.3377758745717727</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.2592071608639239</v>
+        <v>-0.2584416317139532</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.07842654561871554</v>
+        <v>-0.08795960049529516</v>
       </c>
     </row>
     <row r="17">
@@ -3203,37 +3203,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.07652679888744941</v>
+        <v>0.08359072211036138</v>
       </c>
       <c r="C17" t="n">
-        <v>0.07652679888744941</v>
+        <v>0.08359072211036138</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3336418478152975</v>
+        <v>0.334493692947555</v>
       </c>
       <c r="E17" t="n">
-        <v>127.6666666666667</v>
+        <v>55</v>
       </c>
       <c r="F17" t="n">
         <v>15</v>
       </c>
       <c r="G17" t="n">
-        <v>0.003428995121625922</v>
+        <v>0.004189392477782758</v>
       </c>
       <c r="H17" t="n">
-        <v>0.006753758940279908</v>
+        <v>0.005063528739614437</v>
       </c>
       <c r="I17" t="n">
-        <v>0.08048796327022274</v>
+        <v>0.08149991059463718</v>
       </c>
       <c r="J17" t="n">
-        <v>0.3447974185939269</v>
+        <v>0.3460507706001645</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.2643094553237042</v>
+        <v>-0.2645508600055273</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.06789755332789704</v>
+        <v>-0.07217902834901613</v>
       </c>
     </row>
     <row r="18">
@@ -3243,37 +3243,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.07754819924024327</v>
+        <v>0.08359312694609534</v>
       </c>
       <c r="C18" t="n">
-        <v>0.07754819924024327</v>
+        <v>0.08359312694609534</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3307635272304272</v>
+        <v>0.333839063653703</v>
       </c>
       <c r="E18" t="n">
-        <v>112.3333333333333</v>
+        <v>49.33333333333334</v>
       </c>
       <c r="F18" t="n">
         <v>16</v>
       </c>
       <c r="G18" t="n">
-        <v>0.001021400352793855</v>
+        <v>2.40483573396566e-06</v>
       </c>
       <c r="H18" t="n">
-        <v>0.005994073647077797</v>
+        <v>0.004206699901393662</v>
       </c>
       <c r="I18" t="n">
-        <v>0.08110550422647941</v>
+        <v>0.08201232559287353</v>
       </c>
       <c r="J18" t="n">
-        <v>0.3437312896671358</v>
+        <v>0.3453880999850814</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.2626257854406564</v>
+        <v>-0.2633757743922079</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.05100840697156639</v>
+        <v>-0.04952246835449881</v>
       </c>
     </row>
     <row r="19">
@@ -3283,37 +3283,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.07788126003220247</v>
+        <v>0.08827688286562357</v>
       </c>
       <c r="C19" t="n">
-        <v>0.07788126003220247</v>
+        <v>0.08827688286562357</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3273749249208564</v>
+        <v>0.3373870704227506</v>
       </c>
       <c r="E19" t="n">
-        <v>132.6666666666667</v>
+        <v>56</v>
       </c>
       <c r="F19" t="n">
         <v>17</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0003330607919592027</v>
+        <v>0.004683755919528229</v>
       </c>
       <c r="H19" t="n">
-        <v>0.005923671633418767</v>
+        <v>0.008963361492350316</v>
       </c>
       <c r="I19" t="n">
-        <v>0.08336653195821253</v>
+        <v>0.0848188701531274</v>
       </c>
       <c r="J19" t="n">
-        <v>0.3440032316670173</v>
+        <v>0.3466635910905533</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.2606366997088048</v>
+        <v>-0.2618447209374259</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.01598493739061813</v>
+        <v>-0.007767249352927608</v>
       </c>
     </row>
     <row r="20">
@@ -3323,37 +3323,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.08126631090416238</v>
+        <v>0.09050102459672542</v>
       </c>
       <c r="C20" t="n">
-        <v>0.08126631090416238</v>
+        <v>0.09050102459672542</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3257478856890081</v>
+        <v>0.3335969617999512</v>
       </c>
       <c r="E20" t="n">
-        <v>117</v>
+        <v>51.33333333333334</v>
       </c>
       <c r="F20" t="n">
         <v>18</v>
       </c>
       <c r="G20" t="n">
-        <v>0.003385050871959908</v>
+        <v>0.002224141731101845</v>
       </c>
       <c r="H20" t="n">
-        <v>0.008168507138338887</v>
+        <v>0.0110996949641468</v>
       </c>
       <c r="I20" t="n">
-        <v>0.08383781642623232</v>
+        <v>0.08485154141237923</v>
       </c>
       <c r="J20" t="n">
-        <v>0.3410041476302442</v>
+        <v>0.3431533471742492</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.2571663312040119</v>
+        <v>-0.25830180576187</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.007873353703308439</v>
+        <v>-0.0005410349375828405</v>
       </c>
     </row>
     <row r="21">
@@ -3363,37 +3363,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.07866155001160592</v>
+        <v>0.08815829409769932</v>
       </c>
       <c r="C21" t="n">
-        <v>0.07866155001160592</v>
+        <v>0.08815829409769932</v>
       </c>
       <c r="D21" t="n">
-        <v>0.3226684079896526</v>
+        <v>0.3337730692407405</v>
       </c>
       <c r="E21" t="n">
-        <v>87</v>
+        <v>41</v>
       </c>
       <c r="F21" t="n">
         <v>19</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.002604760892556457</v>
+        <v>-0.002342730499026099</v>
       </c>
       <c r="H21" t="n">
-        <v>0.002134751124156509</v>
+        <v>0.00456757198733794</v>
       </c>
       <c r="I21" t="n">
-        <v>0.08395017232388889</v>
+        <v>0.08522794691484467</v>
       </c>
       <c r="J21" t="n">
-        <v>0.3364210076848763</v>
+        <v>0.3386214755916054</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.2524708353609874</v>
+        <v>-0.2533935286767607</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.0447907546410623</v>
+        <v>-0.04217461749522755</v>
       </c>
     </row>
     <row r="22">
@@ -3403,37 +3403,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.07677182540878519</v>
+        <v>0.08630703486968017</v>
       </c>
       <c r="C22" t="n">
-        <v>0.07677182540878519</v>
+        <v>0.08630703486968017</v>
       </c>
       <c r="D22" t="n">
-        <v>0.3165145355062369</v>
+        <v>0.32447872542137</v>
       </c>
       <c r="E22" t="n">
-        <v>75</v>
+        <v>34.5</v>
       </c>
       <c r="F22" t="n">
         <v>20</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.001889724602820733</v>
+        <v>-0.001851259228019153</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.0007763738314580798</v>
+        <v>0.002713907923584821</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0822990903387351</v>
+        <v>0.08324668330368494</v>
       </c>
       <c r="J22" t="n">
-        <v>0.3300620376686122</v>
+        <v>0.33124848364475</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.2477629473298771</v>
+        <v>-0.248001800341065</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.05659321717340571</v>
+        <v>-0.05837277208437786</v>
       </c>
     </row>
   </sheetData>
@@ -3525,19 +3525,19 @@
         <v>11</v>
       </c>
       <c r="C2" t="n">
-        <v>0.06769556024422504</v>
+        <v>0.07265703443460808</v>
       </c>
       <c r="D2" t="n">
-        <v>0.345689955949527</v>
+        <v>0.3550092605382657</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1511627906976744</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="H2" s="1" t="n">
         <v>44866</v>
@@ -3548,13 +3548,13 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>-0.001223520030290928</v>
+        <v>-0.004490587869141791</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.008366748603062413</v>
+        <v>-0.01547805327842655</v>
       </c>
       <c r="L2" t="n">
-        <v>0.007143228572771484</v>
+        <v>0.01098746540928476</v>
       </c>
     </row>
     <row r="3">
@@ -3565,19 +3565,19 @@
         <v>12</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07347293634336481</v>
+        <v>0.08024417245993143</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3590361551897638</v>
+        <v>0.3527055712777869</v>
       </c>
       <c r="E3" t="n">
-        <v>0.02857142857142857</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="H3" s="1" t="n">
         <v>44896</v>
@@ -3588,13 +3588,13 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>0.005777376099139767</v>
+        <v>0.007587138025323348</v>
       </c>
       <c r="K3" t="n">
-        <v>0.01334619924023689</v>
+        <v>-0.002303689260478803</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.007568823141097122</v>
+        <v>0.009890827285802151</v>
       </c>
     </row>
     <row r="4">
@@ -3605,19 +3605,19 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0912681378804321</v>
+        <v>0.1036718632208449</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3301929198791513</v>
+        <v>0.3292622414165491</v>
       </c>
       <c r="E4" t="n">
-        <v>0.02173913043478261</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="H4" s="1" t="n">
         <v>44927</v>
@@ -3628,13 +3628,13 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>0.01779520153706729</v>
+        <v>0.02342769076091349</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.02884323531061256</v>
+        <v>-0.02344332986123782</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04663843684767985</v>
+        <v>0.0468710206221513</v>
       </c>
     </row>
     <row r="5">
@@ -3645,19 +3645,19 @@
         <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>0.06717864227484054</v>
+        <v>0.07564185560251215</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3355353756300875</v>
+        <v>0.3682860288293009</v>
       </c>
       <c r="E5" t="n">
-        <v>0.04</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="H5" s="1" t="n">
         <v>44958</v>
@@ -3668,13 +3668,13 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>-0.02408949560559157</v>
+        <v>-0.02803000761833277</v>
       </c>
       <c r="K5" t="n">
-        <v>0.005342455750936226</v>
+        <v>0.03902378741275181</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.02943195135652779</v>
+        <v>-0.06705379503108458</v>
       </c>
     </row>
     <row r="6">
@@ -3685,19 +3685,19 @@
         <v>3</v>
       </c>
       <c r="C6" t="n">
-        <v>0.06930833773452522</v>
+        <v>0.07733731382928684</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3454290079983513</v>
+        <v>0.3509587301808116</v>
       </c>
       <c r="E6" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.04444444444444445</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="H6" s="1" t="n">
         <v>44986</v>
@@ -3708,13 +3708,13 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>0.00212969545968468</v>
+        <v>0.001695458226774693</v>
       </c>
       <c r="K6" t="n">
-        <v>0.009893632368263794</v>
+        <v>-0.01732729864848931</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.007763936908579114</v>
+        <v>0.019022756875264</v>
       </c>
     </row>
     <row r="7">
@@ -3725,19 +3725,19 @@
         <v>4</v>
       </c>
       <c r="C7" t="n">
-        <v>0.07241470346900682</v>
+        <v>0.08033588361898598</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3370539792005809</v>
+        <v>0.3543386882866427</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1020408163265306</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="H7" s="1" t="n">
         <v>45017</v>
@@ -3748,13 +3748,13 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>0.0031063657344816</v>
+        <v>0.002998569789699146</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.008375028797770356</v>
+        <v>0.003379958105831138</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01148139453225196</v>
+        <v>-0.000381388316131992</v>
       </c>
     </row>
     <row r="8">
@@ -3765,19 +3765,19 @@
         <v>5</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0718229356669564</v>
+        <v>0.07992593285084001</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3449397820325285</v>
+        <v>0.3609545384573529</v>
       </c>
       <c r="E8" t="n">
-        <v>0.09448818897637795</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>127</v>
+        <v>51</v>
       </c>
       <c r="H8" s="1" t="n">
         <v>45047</v>
@@ -3788,13 +3788,13 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>-0.0005917678020504191</v>
+        <v>-0.0004099507681459696</v>
       </c>
       <c r="K8" t="n">
-        <v>0.007885802831947564</v>
+        <v>0.006615850170710202</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.008477570633997983</v>
+        <v>-0.007025800938856172</v>
       </c>
     </row>
     <row r="9">
@@ -3805,19 +3805,19 @@
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>0.07112290188324875</v>
+        <v>0.07872311560463693</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3553159032539221</v>
+        <v>0.3750546865192542</v>
       </c>
       <c r="E9" t="n">
-        <v>0.02857142857142857</v>
+        <v>0.01639344262295082</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>140</v>
+        <v>61</v>
       </c>
       <c r="H9" s="1" t="n">
         <v>45078</v>
@@ -3828,13 +3828,13 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>-0.0007000337837076431</v>
+        <v>-0.001202817246203081</v>
       </c>
       <c r="K9" t="n">
-        <v>0.01037612122139364</v>
+        <v>0.0141001480619013</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.01107615500510128</v>
+        <v>-0.01530296530810438</v>
       </c>
     </row>
     <row r="10">
@@ -3845,10 +3845,10 @@
         <v>7</v>
       </c>
       <c r="C10" t="n">
-        <v>0.06897232605728577</v>
+        <v>0.07730979525628033</v>
       </c>
       <c r="D10" t="n">
-        <v>0.34452231380349</v>
+        <v>0.3673767130217772</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -3857,7 +3857,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>143</v>
+        <v>61</v>
       </c>
       <c r="H10" s="1" t="n">
         <v>45108</v>
@@ -3868,13 +3868,13 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>-0.00215057582596298</v>
+        <v>-0.001413320348356603</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.01079358945043218</v>
+        <v>-0.007677973497477064</v>
       </c>
       <c r="L10" t="n">
-        <v>0.008643013624469204</v>
+        <v>0.006264653149120461</v>
       </c>
     </row>
     <row r="11">
@@ -3885,10 +3885,10 @@
         <v>8</v>
       </c>
       <c r="C11" t="n">
-        <v>0.07046688118104905</v>
+        <v>0.07591098169966093</v>
       </c>
       <c r="D11" t="n">
-        <v>0.344346677153684</v>
+        <v>0.3618764659088198</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>136</v>
+        <v>59</v>
       </c>
       <c r="H11" s="1" t="n">
         <v>45139</v>
@@ -3908,13 +3908,13 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>0.001494555123763272</v>
+        <v>-0.001398813556619402</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.0001756366498059658</v>
+        <v>-0.005500247112957379</v>
       </c>
       <c r="L11" t="n">
-        <v>0.001670191773569238</v>
+        <v>0.004101433556337977</v>
       </c>
     </row>
     <row r="12">
@@ -3925,19 +3925,19 @@
         <v>9</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0702136271264342</v>
+        <v>0.07759663502489439</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3179690938824832</v>
+        <v>0.3161377640567014</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.01041666666666667</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="H12" s="1" t="n">
         <v>45170</v>
@@ -3948,13 +3948,13 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>-0.0002532540546148487</v>
+        <v>0.00168565332523346</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.02637758327120077</v>
+        <v>-0.04573870185211837</v>
       </c>
       <c r="L12" t="n">
-        <v>0.02612432921658592</v>
+        <v>0.04742435517735183</v>
       </c>
     </row>
     <row r="13">
@@ -3965,10 +3965,10 @@
         <v>10</v>
       </c>
       <c r="C13" t="n">
-        <v>0.06963920511042827</v>
+        <v>0.07578063591596414</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3429798151773454</v>
+        <v>0.3519340751118608</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -3977,7 +3977,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>120</v>
+        <v>53</v>
       </c>
       <c r="H13" s="1" t="n">
         <v>45200</v>
@@ -3988,13 +3988,13 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>-0.0005744220160059238</v>
+        <v>-0.001815999108930252</v>
       </c>
       <c r="K13" t="n">
-        <v>0.02501072129486215</v>
+        <v>0.0357963110551594</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.02558514331086807</v>
+        <v>-0.03761231016408965</v>
       </c>
     </row>
     <row r="14">
@@ -4005,10 +4005,10 @@
         <v>11</v>
       </c>
       <c r="C14" t="n">
-        <v>0.06922230217871614</v>
+        <v>0.07994519688967744</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3327243605153344</v>
+        <v>0.3503925715153675</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -4017,7 +4017,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>131</v>
+        <v>54</v>
       </c>
       <c r="H14" s="1" t="n">
         <v>45231</v>
@@ -4028,13 +4028,13 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>-0.0004169029317121348</v>
+        <v>0.004164560973713302</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.01025545466201094</v>
+        <v>-0.001541503596493299</v>
       </c>
       <c r="L14" t="n">
-        <v>0.009838551730298808</v>
+        <v>0.005706064570206601</v>
       </c>
     </row>
     <row r="15">
@@ -4045,10 +4045,10 @@
         <v>12</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0704576125523641</v>
+        <v>0.07985574730659925</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3452439803349048</v>
+        <v>0.3524250385845984</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -4057,7 +4057,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>139</v>
+        <v>59</v>
       </c>
       <c r="H15" s="1" t="n">
         <v>45261</v>
@@ -4068,13 +4068,13 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>0.001235310373647963</v>
+        <v>-8.944958307818829e-05</v>
       </c>
       <c r="K15" t="n">
-        <v>0.01251961981957034</v>
+        <v>0.002032467069230881</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.01128430944592237</v>
+        <v>-0.002121916652309069</v>
       </c>
     </row>
     <row r="16">
@@ -4085,19 +4085,19 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>0.07077337660154118</v>
+        <v>0.07903314941939465</v>
       </c>
       <c r="D16" t="n">
-        <v>0.34619445112515</v>
+        <v>0.3537709007728739</v>
       </c>
       <c r="E16" t="n">
-        <v>0.007462686567164179</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>134</v>
+        <v>55</v>
       </c>
       <c r="H16" s="1" t="n">
         <v>45292</v>
@@ -4108,13 +4108,13 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>0.0003157640491770752</v>
+        <v>-0.0008225978872045958</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0009504707902451837</v>
+        <v>0.001345862188275482</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.0006347067410681084</v>
+        <v>-0.002168460075480078</v>
       </c>
     </row>
     <row r="17">
@@ -4125,19 +4125,19 @@
         <v>2</v>
       </c>
       <c r="C17" t="n">
-        <v>0.06995863888738026</v>
+        <v>0.07739815605307314</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3403834656935696</v>
+        <v>0.3420445843578494</v>
       </c>
       <c r="E17" t="n">
-        <v>0.02205882352941177</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="F17" t="n">
-        <v>0.007352941176470588</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="G17" t="n">
-        <v>136</v>
+        <v>54</v>
       </c>
       <c r="H17" s="1" t="n">
         <v>45323</v>
@@ -4148,13 +4148,13 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>-0.0008147377141609208</v>
+        <v>-0.001634993366321516</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.005810985431580373</v>
+        <v>-0.01172631641502447</v>
       </c>
       <c r="L17" t="n">
-        <v>0.004996247717419453</v>
+        <v>0.01009132304870296</v>
       </c>
     </row>
     <row r="18">
@@ -4165,19 +4165,19 @@
         <v>3</v>
       </c>
       <c r="C18" t="n">
-        <v>0.07393036129057498</v>
+        <v>0.08172797566163724</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3414918369572099</v>
+        <v>0.3458658030655528</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0078125</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>128</v>
+        <v>54</v>
       </c>
       <c r="H18" s="1" t="n">
         <v>45352</v>
@@ -4188,13 +4188,13 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>0.003971722403194725</v>
+        <v>0.004329819608564101</v>
       </c>
       <c r="K18" t="n">
-        <v>0.001108371263640329</v>
+        <v>0.003821218707703411</v>
       </c>
       <c r="L18" t="n">
-        <v>0.002863351139554396</v>
+        <v>0.0005086009008606895</v>
       </c>
     </row>
     <row r="19">
@@ -4205,19 +4205,19 @@
         <v>4</v>
       </c>
       <c r="C19" t="n">
-        <v>0.07164535847108087</v>
+        <v>0.07930739165505565</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3368718973430386</v>
+        <v>0.3387029578456585</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.007751937984496124</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="G19" t="n">
-        <v>129</v>
+        <v>53</v>
       </c>
       <c r="H19" s="1" t="n">
         <v>45383</v>
@@ -4228,13 +4228,13 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>-0.002285002819494106</v>
+        <v>-0.002420584006581586</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.004619939614171342</v>
+        <v>-0.007162845219894298</v>
       </c>
       <c r="L19" t="n">
-        <v>0.002334936794677236</v>
+        <v>0.004742261213312712</v>
       </c>
     </row>
     <row r="20">
@@ -4245,10 +4245,10 @@
         <v>5</v>
       </c>
       <c r="C20" t="n">
-        <v>0.07125192473439274</v>
+        <v>0.07774114937159438</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3370156229701345</v>
+        <v>0.329522603801619</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -4257,7 +4257,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>134</v>
+        <v>57</v>
       </c>
       <c r="H20" s="1" t="n">
         <v>45413</v>
@@ -4268,13 +4268,13 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>-0.0003934337366881396</v>
+        <v>-0.001566242283461278</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0001437256270959697</v>
+        <v>-0.009180354044039496</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.0005371593637841093</v>
+        <v>0.007614111760578218</v>
       </c>
     </row>
     <row r="21">
@@ -4285,10 +4285,10 @@
         <v>6</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0729754819908775</v>
+        <v>0.08089202309316977</v>
       </c>
       <c r="D21" t="n">
-        <v>0.334842344271953</v>
+        <v>0.3236179438531883</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -4297,7 +4297,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>138</v>
+        <v>57</v>
       </c>
       <c r="H21" s="1" t="n">
         <v>45444</v>
@@ -4308,13 +4308,13 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>0.001723557256484765</v>
+        <v>0.003150873721575395</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.002173278698181569</v>
+        <v>-0.005904659948430757</v>
       </c>
       <c r="L21" t="n">
-        <v>0.003896835954666333</v>
+        <v>0.009055533670006152</v>
       </c>
     </row>
     <row r="22">
@@ -4325,10 +4325,10 @@
         <v>7</v>
       </c>
       <c r="C22" t="n">
-        <v>0.07087683488183347</v>
+        <v>0.08019647943031162</v>
       </c>
       <c r="D22" t="n">
-        <v>0.3342398453006424</v>
+        <v>0.3289255565021306</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -4337,7 +4337,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>131</v>
+        <v>52</v>
       </c>
       <c r="H22" s="1" t="n">
         <v>45474</v>
@@ -4348,13 +4348,13 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>-0.002098647109044033</v>
+        <v>-0.0006955436628581502</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.0006024989713105389</v>
+        <v>0.005307612648942361</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.001496148137733494</v>
+        <v>-0.006003156311800512</v>
       </c>
     </row>
     <row r="23">
@@ -4365,10 +4365,10 @@
         <v>8</v>
       </c>
       <c r="C23" t="n">
-        <v>0.07412024872883842</v>
+        <v>0.07914641774857044</v>
       </c>
       <c r="D23" t="n">
-        <v>0.3292436579055802</v>
+        <v>0.327788031844398</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -4377,7 +4377,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>132</v>
+        <v>57</v>
       </c>
       <c r="H23" s="1" t="n">
         <v>45505</v>
@@ -4388,13 +4388,13 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>0.003243413847004953</v>
+        <v>-0.001050061681741182</v>
       </c>
       <c r="K23" t="n">
-        <v>-0.00499618739506219</v>
+        <v>-0.001137524657732591</v>
       </c>
       <c r="L23" t="n">
-        <v>0.008239601242067143</v>
+        <v>8.746297599140918e-05</v>
       </c>
     </row>
     <row r="24">
@@ -4405,10 +4405,10 @@
         <v>9</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0742963276867986</v>
+        <v>0.07886109171885379</v>
       </c>
       <c r="D24" t="n">
-        <v>0.3310341930080368</v>
+        <v>0.3248936912904133</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -4417,7 +4417,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>124</v>
+        <v>55</v>
       </c>
       <c r="H24" s="1" t="n">
         <v>45536</v>
@@ -4428,13 +4428,13 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>0.0001760789579601796</v>
+        <v>-0.0002853260297166482</v>
       </c>
       <c r="K24" t="n">
-        <v>0.001790535102456525</v>
+        <v>-0.002894340553984742</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.001614456144496346</v>
+        <v>0.002609014524268094</v>
       </c>
     </row>
     <row r="25">
@@ -4445,19 +4445,19 @@
         <v>10</v>
       </c>
       <c r="C25" t="n">
-        <v>0.07190155212222789</v>
+        <v>0.080283768134963</v>
       </c>
       <c r="D25" t="n">
-        <v>0.3352001266101851</v>
+        <v>0.3377624840895827</v>
       </c>
       <c r="E25" t="n">
-        <v>0.007692307692307693</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>130</v>
+        <v>56</v>
       </c>
       <c r="H25" s="1" t="n">
         <v>45566</v>
@@ -4468,13 +4468,13 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>-0.002394775564570711</v>
+        <v>0.001422676416109214</v>
       </c>
       <c r="K25" t="n">
-        <v>0.004165933602148286</v>
+        <v>0.01286879279916942</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.006560709166718998</v>
+        <v>-0.0114461163830602</v>
       </c>
     </row>
     <row r="26">
@@ -4485,19 +4485,19 @@
         <v>11</v>
       </c>
       <c r="C26" t="n">
-        <v>0.07681904192951333</v>
+        <v>0.08272498982208577</v>
       </c>
       <c r="D26" t="n">
-        <v>0.334276742617994</v>
+        <v>0.3340780537858606</v>
       </c>
       <c r="E26" t="n">
-        <v>0.007407407407407408</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="F26" t="n">
-        <v>0.007407407407407408</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="G26" t="n">
-        <v>135</v>
+        <v>57</v>
       </c>
       <c r="H26" s="1" t="n">
         <v>45597</v>
@@ -4508,13 +4508,13 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>0.004917489807285444</v>
+        <v>0.002441221687122769</v>
       </c>
       <c r="K26" t="n">
-        <v>-0.0009233839921910514</v>
+        <v>-0.003684430303722064</v>
       </c>
       <c r="L26" t="n">
-        <v>0.005840873799476495</v>
+        <v>0.006125651990844833</v>
       </c>
     </row>
     <row r="27">
@@ -4525,19 +4525,19 @@
         <v>12</v>
       </c>
       <c r="C27" t="n">
-        <v>0.080859802610607</v>
+        <v>0.08776340837403536</v>
       </c>
       <c r="D27" t="n">
-        <v>0.3314486742177136</v>
+        <v>0.3316405409672215</v>
       </c>
       <c r="E27" t="n">
-        <v>0.008474576271186441</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>118</v>
+        <v>52</v>
       </c>
       <c r="H27" s="1" t="n">
         <v>45627</v>
@@ -4548,13 +4548,13 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>0.004040760681093672</v>
+        <v>0.005038418551949586</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.002828068400280437</v>
+        <v>-0.002437512818639131</v>
       </c>
       <c r="L27" t="n">
-        <v>0.006868829081374109</v>
+        <v>0.007475931370588718</v>
       </c>
     </row>
     <row r="28">
@@ -4565,10 +4565,10 @@
         <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>0.07942523858887618</v>
+        <v>0.08332333842603504</v>
       </c>
       <c r="D28" t="n">
-        <v>0.3327640017731392</v>
+        <v>0.3349916759590378</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -4577,7 +4577,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>98</v>
+        <v>43</v>
       </c>
       <c r="H28" s="1" t="n">
         <v>45658</v>
@@ -4588,13 +4588,13 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>-0.001434564021730825</v>
+        <v>-0.004440069948000322</v>
       </c>
       <c r="K28" t="n">
-        <v>0.001315327555425627</v>
+        <v>0.003351134991816274</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.002749891577156452</v>
+        <v>-0.007791204939816596</v>
       </c>
     </row>
     <row r="29">
@@ -4605,10 +4605,10 @@
         <v>2</v>
       </c>
       <c r="C29" t="n">
-        <v>0.07662228895277265</v>
+        <v>0.08420133282480168</v>
       </c>
       <c r="D29" t="n">
-        <v>0.3325269197633825</v>
+        <v>0.3346106882293381</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -4617,7 +4617,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>119</v>
+        <v>53</v>
       </c>
       <c r="H29" s="1" t="n">
         <v>45689</v>
@@ -4628,13 +4628,13 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>-0.00280294963610353</v>
+        <v>0.0008779943987666378</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.000237082009756695</v>
+        <v>-0.0003809877296996333</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.002565867626346835</v>
+        <v>0.001258982128466271</v>
       </c>
     </row>
     <row r="30">
@@ -4645,10 +4645,10 @@
         <v>3</v>
       </c>
       <c r="C30" t="n">
-        <v>0.07659707017908096</v>
+        <v>0.08325470958744935</v>
       </c>
       <c r="D30" t="n">
-        <v>0.3269996601547598</v>
+        <v>0.3319148267727332</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -4657,7 +4657,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>120</v>
+        <v>52</v>
       </c>
       <c r="H30" s="1" t="n">
         <v>45717</v>
@@ -4668,13 +4668,13 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>-2.521877369168757e-05</v>
+        <v>-0.0009466232373523259</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.005527259608622659</v>
+        <v>-0.002695861456604942</v>
       </c>
       <c r="L30" t="n">
-        <v>0.005502040834930971</v>
+        <v>0.001749238219252616</v>
       </c>
     </row>
     <row r="31">
@@ -4685,10 +4685,10 @@
         <v>4</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0745396082249159</v>
+        <v>0.08220372970095687</v>
       </c>
       <c r="D31" t="n">
-        <v>0.3298378274695235</v>
+        <v>0.3402230976966662</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -4697,7 +4697,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>131</v>
+        <v>56</v>
       </c>
       <c r="H31" s="1" t="n">
         <v>45748</v>
@@ -4708,13 +4708,13 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>-0.002057461954165063</v>
+        <v>-0.001050979886492484</v>
       </c>
       <c r="K31" t="n">
-        <v>0.002838167314763662</v>
+        <v>0.008308270923932992</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.004895629268928725</v>
+        <v>-0.009359250810425476</v>
       </c>
     </row>
     <row r="32">
@@ -4725,10 +4725,10 @@
         <v>5</v>
       </c>
       <c r="C32" t="n">
-        <v>0.07907820375261124</v>
+        <v>0.09139318378266678</v>
       </c>
       <c r="D32" t="n">
-        <v>0.3270904942904861</v>
+        <v>0.3371553934952743</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -4737,7 +4737,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>139</v>
+        <v>57</v>
       </c>
       <c r="H32" s="1" t="n">
         <v>45778</v>
@@ -4748,13 +4748,13 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>0.004538595527695338</v>
+        <v>0.009189454081709916</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.002747333179037359</v>
+        <v>-0.003067704201391852</v>
       </c>
       <c r="L32" t="n">
-        <v>0.007285928706732697</v>
+        <v>0.01225715828310177</v>
       </c>
     </row>
     <row r="33">
@@ -4765,10 +4765,10 @@
         <v>6</v>
       </c>
       <c r="C33" t="n">
-        <v>0.08002596811908028</v>
+        <v>0.09123373511324709</v>
       </c>
       <c r="D33" t="n">
-        <v>0.3251964530025596</v>
+        <v>0.3347827200763113</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -4777,7 +4777,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>128</v>
+        <v>55</v>
       </c>
       <c r="H33" s="1" t="n">
         <v>45809</v>
@@ -4788,13 +4788,13 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>0.0009477643664690394</v>
+        <v>-0.0001594486694196928</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.001894041287926529</v>
+        <v>-0.002372673418963078</v>
       </c>
       <c r="L33" t="n">
-        <v>0.002841805654395568</v>
+        <v>0.002213224749543385</v>
       </c>
     </row>
     <row r="34">
@@ -4805,10 +4805,10 @@
         <v>7</v>
       </c>
       <c r="C34" t="n">
-        <v>0.08201858761050876</v>
+        <v>0.09045466611176947</v>
       </c>
       <c r="D34" t="n">
-        <v>0.3306139793525829</v>
+        <v>0.334268106043301</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -4817,7 +4817,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>135</v>
+        <v>60</v>
       </c>
       <c r="H34" s="1" t="n">
         <v>45839</v>
@@ -4828,13 +4828,13 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>0.001992619491428482</v>
+        <v>-0.0007790690014776169</v>
       </c>
       <c r="K34" t="n">
-        <v>0.005417526350023238</v>
+        <v>-0.0005146140330102855</v>
       </c>
       <c r="L34" t="n">
-        <v>-0.003424906858594756</v>
+        <v>-0.0002644549684673314</v>
       </c>
     </row>
     <row r="35">
@@ -4845,19 +4845,19 @@
         <v>8</v>
       </c>
       <c r="C35" t="n">
-        <v>0.08083063810472618</v>
+        <v>0.09233435348466849</v>
       </c>
       <c r="D35" t="n">
-        <v>0.3227725033772423</v>
+        <v>0.3305868084124318</v>
       </c>
       <c r="E35" t="n">
-        <v>0.007692307692307693</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>130</v>
+        <v>52</v>
       </c>
       <c r="H35" s="1" t="n">
         <v>45870</v>
@@ -4868,13 +4868,13 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>-0.001187949505782576</v>
+        <v>0.001879687372899022</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.007841475975340517</v>
+        <v>-0.003681297630869163</v>
       </c>
       <c r="L35" t="n">
-        <v>0.006653526469557941</v>
+        <v>0.005560985003768185</v>
       </c>
     </row>
     <row r="36">
@@ -4885,10 +4885,10 @@
         <v>9</v>
       </c>
       <c r="C36" t="n">
-        <v>0.08094970699725219</v>
+        <v>0.08871405419373826</v>
       </c>
       <c r="D36" t="n">
-        <v>0.3238571743371991</v>
+        <v>0.335935970944121</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -4897,7 +4897,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="H36" s="1" t="n">
         <v>45901</v>
@@ -4908,13 +4908,13 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>0.0001190688925260114</v>
+        <v>-0.003620299290930232</v>
       </c>
       <c r="K36" t="n">
-        <v>0.001084670959956735</v>
+        <v>0.005349162531689156</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.0009656020674307236</v>
+        <v>-0.008969461822619387</v>
       </c>
     </row>
     <row r="37">
@@ -4925,10 +4925,10 @@
         <v>10</v>
       </c>
       <c r="C37" t="n">
-        <v>0.07870082605226708</v>
+        <v>0.0874827043339992</v>
       </c>
       <c r="D37" t="n">
-        <v>0.3232047082916967</v>
+        <v>0.3311474611394578</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -4937,7 +4937,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="H37" s="1" t="n">
         <v>45931</v>
@@ -4948,13 +4948,13 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>-0.002248880944985113</v>
+        <v>-0.001231349859739064</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.0006524660455023978</v>
+        <v>-0.004788509804663221</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.001596414899482715</v>
+        <v>0.003557159944924157</v>
       </c>
     </row>
     <row r="38">
@@ -4965,10 +4965,10 @@
         <v>11</v>
       </c>
       <c r="C38" t="n">
-        <v>0.07993945377312242</v>
+        <v>0.09151024765052052</v>
       </c>
       <c r="D38" t="n">
-        <v>0.3261510543089502</v>
+        <v>0.3471800979893205</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -4977,7 +4977,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="H38" s="1" t="n">
         <v>45962</v>
@@ -4988,13 +4988,13 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>0.00123862772085534</v>
+        <v>0.004027543316521318</v>
       </c>
       <c r="K38" t="n">
-        <v>0.002946346017253521</v>
+        <v>0.01603263684986272</v>
       </c>
       <c r="L38" t="n">
-        <v>-0.001707718296398181</v>
+        <v>-0.01200509353334141</v>
       </c>
     </row>
     <row r="39">
@@ -5005,19 +5005,19 @@
         <v>12</v>
       </c>
       <c r="C39" t="n">
-        <v>0.07734437020942829</v>
+        <v>0.08548193030857827</v>
       </c>
       <c r="D39" t="n">
-        <v>0.3186494613683109</v>
+        <v>0.3229916485934432</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="G39" t="n">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="H39" s="1" t="n">
         <v>45992</v>
@@ -5028,13 +5028,13 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>-0.002595083563694131</v>
+        <v>-0.006028317341942244</v>
       </c>
       <c r="K39" t="n">
-        <v>-0.00750159294063929</v>
+        <v>-0.02418844939587728</v>
       </c>
       <c r="L39" t="n">
-        <v>0.004906509376945159</v>
+        <v>0.01816013205393503</v>
       </c>
     </row>
     <row r="40">
@@ -5045,19 +5045,19 @@
         <v>1</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0797417902868708</v>
+        <v>0.08823336118727994</v>
       </c>
       <c r="D40" t="n">
-        <v>0.3218397884303952</v>
+        <v>0.3254898382552577</v>
       </c>
       <c r="E40" t="n">
-        <v>0.007518796992481203</v>
+        <v>0.01639344262295082</v>
       </c>
       <c r="F40" t="n">
-        <v>0.007518796992481203</v>
+        <v>0.01639344262295082</v>
       </c>
       <c r="G40" t="n">
-        <v>131</v>
+        <v>59</v>
       </c>
       <c r="H40" s="1" t="n">
         <v>46023</v>
@@ -5068,13 +5068,13 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>0.002397420077442508</v>
+        <v>0.002751430878701666</v>
       </c>
       <c r="K40" t="n">
-        <v>0.003190327062084275</v>
+        <v>0.002498189661814476</v>
       </c>
       <c r="L40" t="n">
-        <v>-0.0007929069846417669</v>
+        <v>0.00025324121688719</v>
       </c>
     </row>
     <row r="41">
@@ -5085,10 +5085,10 @@
         <v>2</v>
       </c>
       <c r="C41" t="n">
-        <v>0.07380186053069956</v>
+        <v>0.08438070855208041</v>
       </c>
       <c r="D41" t="n">
-        <v>0.3111892825820786</v>
+        <v>0.3234676125874823</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -5097,7 +5097,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="H41" s="1" t="n">
         <v>46054</v>
@@ -5108,13 +5108,13 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>-0.005939929756171233</v>
+        <v>-0.00385265263519953</v>
       </c>
       <c r="K41" t="n">
-        <v>-0.01065050584831656</v>
+        <v>-0.002022225667775379</v>
       </c>
       <c r="L41" t="n">
-        <v>0.004710576092145327</v>
+        <v>-0.001830426967424151</v>
       </c>
     </row>
   </sheetData>
@@ -5205,10 +5205,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0697730399471695</v>
+        <v>0.07852719337074694</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3403160520091948</v>
+        <v>0.3515838950706089</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -5217,22 +5217,22 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>130</v>
+        <v>55.33333333333334</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.0001112381744201585</v>
+        <v>0.001588056043801717</v>
       </c>
       <c r="H2" t="n">
-        <v>0.004703357062642466</v>
+        <v>0.00312024740817618</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.004814595237062624</v>
+        <v>-0.001532191364374463</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.0008112083466254166</v>
+        <v>0.002076589923477187</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.01204700356045058</v>
+        <v>-0.002273520837417387</v>
       </c>
       <c r="L2" t="inlineStr"/>
     </row>
@@ -5243,37 +5243,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.07155412559316547</v>
+        <v>0.07938642704470168</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3426899179253098</v>
+        <v>0.3472270960654253</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01244467003219198</v>
+        <v>0.01840628507295174</v>
       </c>
       <c r="E3" t="n">
-        <v>0.002450980392156863</v>
+        <v>0.006172839506172839</v>
       </c>
       <c r="F3" t="n">
-        <v>132.6666666666667</v>
+        <v>54.33333333333334</v>
       </c>
       <c r="G3" t="n">
-        <v>0.001781085645995967</v>
+        <v>0.0008592336739547402</v>
       </c>
       <c r="H3" t="n">
-        <v>0.002373865916114992</v>
+        <v>-0.004356799005183598</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.0005927802701190255</v>
+        <v>0.005216032679138338</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.004364247036767147</v>
+        <v>-0.006163917172846284</v>
       </c>
       <c r="K3" t="n">
-        <v>0.00563748342277981</v>
+        <v>-0.002275237410128528</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.02123752567337212</v>
+        <v>-0.00823879052361233</v>
       </c>
     </row>
     <row r="4">
@@ -5283,37 +5283,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0719575883987837</v>
+        <v>0.07931352137327326</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3362432881950421</v>
+        <v>0.3306145018334886</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.002583979328165375</v>
+        <v>0.006289308176100628</v>
       </c>
       <c r="F4" t="n">
-        <v>133.6666666666667</v>
+        <v>55.66666666666666</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0004034628056182321</v>
+        <v>-7.290567142842486e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.006446629730267772</v>
+        <v>-0.01661259423193678</v>
       </c>
       <c r="I4" t="n">
-        <v>0.006850092535886004</v>
+        <v>0.01653968856050836</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0001707413923797141</v>
+        <v>-0.0003481226515477109</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.009526599967301819</v>
+        <v>-0.03283480258759475</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01969907181922849</v>
+        <v>0.03637535969876479</v>
       </c>
     </row>
     <row r="5">
@@ -5323,10 +5323,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.07309780376582349</v>
+        <v>0.07940132963257862</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3315058987380865</v>
+        <v>0.3272024265456473</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -5335,25 +5335,25 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>129</v>
+        <v>54.66666666666666</v>
       </c>
       <c r="G5" t="n">
-        <v>0.001140215367039787</v>
+        <v>8.780825930536362e-05</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.004737389456955565</v>
+        <v>-0.003412075287841265</v>
       </c>
       <c r="I5" t="n">
-        <v>0.005877604823995353</v>
+        <v>0.003499883547146629</v>
       </c>
       <c r="J5" t="n">
-        <v>0.003213525644233828</v>
+        <v>0.002462192305633396</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.004106796208465879</v>
+        <v>-0.02126122111678547</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.002377019506981826</v>
+        <v>-0.008763266513628173</v>
       </c>
     </row>
     <row r="6">
@@ -5363,37 +5363,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.07652679888744941</v>
+        <v>0.08359072211036138</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3336418478152975</v>
+        <v>0.334493692947555</v>
       </c>
       <c r="D6" t="n">
-        <v>0.007858097123633848</v>
+        <v>0.01821059057901163</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002469135802469136</v>
+        <v>0.005847953216374269</v>
       </c>
       <c r="F6" t="n">
-        <v>127.6666666666667</v>
+        <v>55</v>
       </c>
       <c r="G6" t="n">
-        <v>0.003428995121625922</v>
+        <v>0.004189392477782758</v>
       </c>
       <c r="H6" t="n">
-        <v>0.002135949077211041</v>
+        <v>0.007291266401907692</v>
       </c>
       <c r="I6" t="n">
-        <v>0.001293046044414881</v>
+        <v>-0.003101873924124934</v>
       </c>
       <c r="J6" t="n">
-        <v>0.006753758940279908</v>
+        <v>0.005063528739614437</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.006674204193897304</v>
+        <v>-0.01709020212305395</v>
       </c>
       <c r="L6" t="n">
-        <v>0.006107641281477505</v>
+        <v>-0.001569682559750471</v>
       </c>
     </row>
     <row r="7">
@@ -5403,10 +5403,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.07754819924024327</v>
+        <v>0.08359312694609534</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3307635272304272</v>
+        <v>0.333839063653703</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -5415,25 +5415,25 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>112.3333333333333</v>
+        <v>49.33333333333334</v>
       </c>
       <c r="G7" t="n">
-        <v>0.001021400352793855</v>
+        <v>2.40483573396566e-06</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.002878320584870364</v>
+        <v>-0.0006546292938519604</v>
       </c>
       <c r="I7" t="n">
-        <v>0.003899720937664219</v>
+        <v>0.0006570341295859261</v>
       </c>
       <c r="J7" t="n">
-        <v>0.005994073647077797</v>
+        <v>0.004206699901393662</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.01192639069488266</v>
+        <v>-0.01338803241172232</v>
       </c>
       <c r="L7" t="n">
-        <v>0.004492501207783245</v>
+        <v>-0.004558998549552412</v>
       </c>
     </row>
     <row r="8">
@@ -5443,10 +5443,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.07788126003220247</v>
+        <v>0.08827688286562357</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3273749249208564</v>
+        <v>0.3373870704227506</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -5455,25 +5455,25 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>132.6666666666667</v>
+        <v>56</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0003330607919592027</v>
+        <v>0.004683755919528229</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.003388602309570776</v>
+        <v>0.003548006769047596</v>
       </c>
       <c r="I8" t="n">
-        <v>0.003721663101529979</v>
+        <v>0.001135749150480633</v>
       </c>
       <c r="J8" t="n">
-        <v>0.005923671633418767</v>
+        <v>0.008963361492350316</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.008868363274185664</v>
+        <v>0.006772568589262062</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.003128429434356025</v>
+        <v>-0.01540393941002773</v>
       </c>
     </row>
     <row r="9">
@@ -5483,37 +5483,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.08126631090416238</v>
+        <v>0.09050102459672542</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3257478856890081</v>
+        <v>0.3335969617999512</v>
       </c>
       <c r="D9" t="n">
-        <v>0.002564102564102564</v>
+        <v>0.006410256410256411</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>117</v>
+        <v>51.33333333333334</v>
       </c>
       <c r="G9" t="n">
-        <v>0.003385050871959908</v>
+        <v>0.002224141731101845</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.001627039231848315</v>
+        <v>-0.003790108622799382</v>
       </c>
       <c r="I9" t="n">
-        <v>0.005012090103808223</v>
+        <v>0.006014250353901227</v>
       </c>
       <c r="J9" t="n">
-        <v>0.008168507138338887</v>
+        <v>0.0110996949641468</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.005758013049078414</v>
+        <v>0.006394535254303946</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0008655147201871299</v>
+        <v>0.002514366806754598</v>
       </c>
     </row>
     <row r="10">
@@ -5523,37 +5523,37 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.07866155001160592</v>
+        <v>0.08815829409769933</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3226684079896526</v>
+        <v>0.3337730692407405</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.003367003367003367</v>
+        <v>0.007751937984496124</v>
       </c>
       <c r="F10" t="n">
-        <v>87</v>
+        <v>41</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.002604760892556457</v>
+        <v>-0.002342730499026086</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.00307947769935546</v>
+        <v>0.0001761074407892749</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0004747168067990026</v>
+        <v>-0.00251883793981536</v>
       </c>
       <c r="J10" t="n">
-        <v>0.002134751124156509</v>
+        <v>0.004567571987337954</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.01097343982564492</v>
+        <v>-0.0007206237068144716</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.0008183292376158779</v>
+        <v>0.0005830359843095739</v>
       </c>
     </row>
     <row r="11">
@@ -5563,37 +5563,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.07677182540878519</v>
+        <v>0.08630703486968017</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3165145355062369</v>
+        <v>0.32447872542137</v>
       </c>
       <c r="D11" t="n">
-        <v>0.003759398496240601</v>
+        <v>0.00819672131147541</v>
       </c>
       <c r="E11" t="n">
-        <v>0.003759398496240601</v>
+        <v>0.00819672131147541</v>
       </c>
       <c r="F11" t="n">
-        <v>75</v>
+        <v>34.5</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.001889724602820733</v>
+        <v>-0.001851259228019167</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.006153872483415757</v>
+        <v>-0.009294343819370499</v>
       </c>
       <c r="I11" t="n">
-        <v>0.004264147880595023</v>
+        <v>0.007443084591351332</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.0007763738314580798</v>
+        <v>0.002713907923584821</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.01424899172419031</v>
+        <v>-0.00936033823233301</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0003644269429308039</v>
+        <v>0.006786050461765405</v>
       </c>
     </row>
   </sheetData>

--- a/pubmatic_index.xlsx
+++ b/pubmatic_index.xlsx
@@ -422,7 +422,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K57"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -662,106 +662,106 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B7" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0.134715025906736</v>
+        <v>0.102908277</v>
       </c>
       <c r="D7" t="n">
-        <v>0.134715025906736</v>
+        <v>0.102908277</v>
       </c>
       <c r="E7" t="n">
-        <v>0.378238341968912</v>
+        <v>0.402684564</v>
       </c>
       <c r="F7" t="n">
         <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>193</v>
+        <v>447</v>
       </c>
       <c r="H7" s="1" t="n">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>2021Q4</t>
+          <t>2022Q1</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>0.06924697090673601</v>
+        <v>0.03744022200000001</v>
       </c>
       <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B8" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
-        <v>0.156626506024096</v>
+        <v>0.0543878684</v>
       </c>
       <c r="D8" t="n">
-        <v>0.156626506024096</v>
+        <v>0.0543878684</v>
       </c>
       <c r="E8" t="n">
-        <v>0.385542168674699</v>
+        <v>0.3959651942</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G8" t="n">
-        <v>83</v>
+        <v>158</v>
       </c>
       <c r="H8" s="1" t="n">
-        <v>44501</v>
+        <v>44652</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>2021Q4</t>
+          <t>2022Q2</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>0.02191148011735999</v>
+        <v>-0.0485204086</v>
       </c>
       <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B9" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>0.156626506024096</v>
+        <v>0.04109589</v>
       </c>
       <c r="D9" t="n">
-        <v>0.156626506024096</v>
+        <v>0.04109589</v>
       </c>
       <c r="E9" t="n">
-        <v>0.385542168674699</v>
+        <v>0.383561644</v>
       </c>
       <c r="F9" t="n">
         <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="H9" s="1" t="n">
-        <v>44531</v>
+        <v>44713</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2021Q4</t>
+          <t>2022Q2</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>-0.0132919784</v>
       </c>
       <c r="K9" t="inlineStr"/>
     </row>
@@ -770,33 +770,33 @@
         <v>2022</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C10" t="n">
-        <v>0.102908277</v>
+        <v>0.04109589</v>
       </c>
       <c r="D10" t="n">
-        <v>0.102908277</v>
+        <v>0.04109589</v>
       </c>
       <c r="E10" t="n">
-        <v>0.402684564</v>
+        <v>0.383561644</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>447</v>
+        <v>73</v>
       </c>
       <c r="H10" s="1" t="n">
-        <v>44562</v>
+        <v>44743</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>2022Q1</t>
+          <t>2022Q3</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>-0.053718229024096</v>
+        <v>0</v>
       </c>
       <c r="K10" t="inlineStr"/>
     </row>
@@ -805,33 +805,33 @@
         <v>2022</v>
       </c>
       <c r="B11" t="n">
+        <v>8</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.07632645625000001</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.07632645625000001</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.37071611275</v>
+      </c>
+      <c r="F11" t="n">
         <v>4</v>
       </c>
-      <c r="C11" t="n">
-        <v>0.06115314916292968</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.06115314916292968</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.402184584495928</v>
-      </c>
-      <c r="F11" t="n">
-        <v>17</v>
-      </c>
       <c r="G11" t="n">
-        <v>339.1176470588235</v>
+        <v>383.25</v>
       </c>
       <c r="H11" s="1" t="n">
-        <v>44652</v>
+        <v>44774</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>2022Q2</t>
+          <t>2022Q3</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>-0.04175512783707033</v>
+        <v>0.03523056625</v>
       </c>
       <c r="K11" t="inlineStr"/>
     </row>
@@ -840,33 +840,33 @@
         <v>2022</v>
       </c>
       <c r="B12" t="n">
+        <v>9</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.0703067938</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.0703067938</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.3568283504</v>
+      </c>
+      <c r="F12" t="n">
         <v>5</v>
       </c>
-      <c r="C12" t="n">
-        <v>0.0584518167456556</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.0584518167456556</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.276461295418641</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1</v>
-      </c>
       <c r="G12" t="n">
-        <v>633</v>
+        <v>410.8</v>
       </c>
       <c r="H12" s="1" t="n">
-        <v>44682</v>
+        <v>44805</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>2022Q2</t>
+          <t>2022Q3</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>-0.002701332417274077</v>
+        <v>-0.006019662450000005</v>
       </c>
       <c r="K12" t="inlineStr"/>
     </row>
@@ -875,33 +875,33 @@
         <v>2022</v>
       </c>
       <c r="B13" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C13" t="n">
-        <v>0.020547945</v>
+        <v>0.06802639877404745</v>
       </c>
       <c r="D13" t="n">
-        <v>0.020547945</v>
+        <v>0.06802639877404745</v>
       </c>
       <c r="E13" t="n">
-        <v>0.379280822</v>
+        <v>0.3542759217876245</v>
       </c>
       <c r="F13" t="n">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="G13" t="n">
-        <v>60.5</v>
+        <v>432.2911392405063</v>
       </c>
       <c r="H13" s="1" t="n">
-        <v>44713</v>
+        <v>44835</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>2022Q2</t>
+          <t>2022Q4</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>-0.0379038717456556</v>
+        <v>-0.00228039502595255</v>
       </c>
       <c r="K13" t="inlineStr"/>
     </row>
@@ -910,36 +910,36 @@
         <v>2022</v>
       </c>
       <c r="B14" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0470966175663717</v>
+        <v>0.06666463133509602</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0470966175663717</v>
+        <v>0.06666463133509602</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3997454237699115</v>
+        <v>0.3494259210895271</v>
       </c>
       <c r="F14" t="n">
-        <v>2</v>
+        <v>74</v>
       </c>
       <c r="G14" t="n">
-        <v>93</v>
+        <v>452.5810810810811</v>
       </c>
       <c r="H14" s="1" t="n">
-        <v>44743</v>
+        <v>44866</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>2022Q3</t>
+          <t>2022Q4</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>0.0265486725663717</v>
+        <v>-0.001361767438951431</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.06101149043362829</v>
+        <v>-0.04144347666490397</v>
       </c>
     </row>
     <row r="15">
@@ -947,184 +947,184 @@
         <v>2022</v>
       </c>
       <c r="B15" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C15" t="n">
-        <v>0.07995899806538682</v>
+        <v>0.0716437900463907</v>
       </c>
       <c r="D15" t="n">
-        <v>0.07995899806538682</v>
+        <v>0.0716437900463907</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3593938370163646</v>
+        <v>0.3682168548144977</v>
       </c>
       <c r="F15" t="n">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="G15" t="n">
-        <v>700.7058823529412</v>
+        <v>535.0175438596491</v>
       </c>
       <c r="H15" s="1" t="n">
-        <v>44774</v>
+        <v>44896</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>2022Q3</t>
+          <t>2022Q4</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>0.03286238049901512</v>
+        <v>0.004979158711294673</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.05993737493461317</v>
+        <v>-0.06825258295360929</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B16" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0762558839007166</v>
+        <v>0.07562864470356388</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0762558839007166</v>
+        <v>0.07562864470356388</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3348796395892105</v>
+        <v>0.3470403452398279</v>
       </c>
       <c r="F16" t="n">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="G16" t="n">
-        <v>761.4444444444445</v>
+        <v>616.3611111111111</v>
       </c>
       <c r="H16" s="1" t="n">
-        <v>44805</v>
+        <v>44927</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>2022Q3</t>
+          <t>2023Q1</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>-0.003703114164670229</v>
+        <v>0.003984854657173187</v>
       </c>
       <c r="K16" t="n">
-        <v>0.002726471900716593</v>
+        <v>0.00209923270356388</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B17" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C17" t="n">
-        <v>0.07714762230374987</v>
+        <v>0.06717864227484054</v>
       </c>
       <c r="D17" t="n">
-        <v>0.07714762230374987</v>
+        <v>0.06717864227484054</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3704873138166923</v>
+        <v>0.3355353756300875</v>
       </c>
       <c r="F17" t="n">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="G17" t="n">
-        <v>439.578947368421</v>
+        <v>418.64</v>
       </c>
       <c r="H17" s="1" t="n">
-        <v>44835</v>
+        <v>44958</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>2022Q4</t>
+          <t>2023Q1</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>0.0008917384030332764</v>
+        <v>-0.008450002428723347</v>
       </c>
       <c r="K17" t="n">
-        <v>0.02151499180374987</v>
+        <v>0.01154601177484053</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B18" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C18" t="n">
-        <v>0.07265703443460808</v>
+        <v>0.06788900230355974</v>
       </c>
       <c r="D18" t="n">
-        <v>0.07265703443460808</v>
+        <v>0.06788900230355974</v>
       </c>
       <c r="E18" t="n">
-        <v>0.3550092605382657</v>
+        <v>0.3499862122945024</v>
       </c>
       <c r="F18" t="n">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="G18" t="n">
-        <v>501.8421052631579</v>
+        <v>481.5526315789473</v>
       </c>
       <c r="H18" s="1" t="n">
-        <v>44866</v>
+        <v>44986</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>2022Q4</t>
+          <t>2023Q1</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>-0.004490587869141791</v>
+        <v>0.0007103600287192008</v>
       </c>
       <c r="K18" t="n">
-        <v>0.007188979434608084</v>
+        <v>0.00242094730355974</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B19" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C19" t="n">
-        <v>0.08024417245993143</v>
+        <v>0.07049094664221751</v>
       </c>
       <c r="D19" t="n">
-        <v>0.08024417245993143</v>
+        <v>0.07049094664221751</v>
       </c>
       <c r="E19" t="n">
-        <v>0.3527055712777869</v>
+        <v>0.3369916492116568</v>
       </c>
       <c r="F19" t="n">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="G19" t="n">
-        <v>615.6857142857143</v>
+        <v>569.679012345679</v>
       </c>
       <c r="H19" s="1" t="n">
-        <v>44896</v>
+        <v>45017</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>2022Q4</t>
+          <t>2023Q2</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>0.007587138025323348</v>
+        <v>0.002601944338657777</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.05447085344680458</v>
+        <v>-0.03241733035778249</v>
       </c>
     </row>
     <row r="20">
@@ -1132,36 +1132,36 @@
         <v>2023</v>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1036718632208449</v>
+        <v>0.06981545380295404</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1036718632208449</v>
+        <v>0.06981545380295404</v>
       </c>
       <c r="E20" t="n">
-        <v>0.3292622414165491</v>
+        <v>0.3454452689272047</v>
       </c>
       <c r="F20" t="n">
-        <v>28</v>
+        <v>109</v>
       </c>
       <c r="G20" t="n">
-        <v>669.9285714285714</v>
+        <v>513.0825688073395</v>
       </c>
       <c r="H20" s="1" t="n">
-        <v>44927</v>
+        <v>45047</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>2023Q1</t>
+          <t>2023Q2</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>0.02342769076091349</v>
+        <v>-0.0006754928392634779</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.05295464280325109</v>
+        <v>0.01542758540295403</v>
       </c>
     </row>
     <row r="21">
@@ -1169,36 +1169,36 @@
         <v>2023</v>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C21" t="n">
-        <v>0.07564185560251215</v>
+        <v>0.06885573826815108</v>
       </c>
       <c r="D21" t="n">
-        <v>0.07564185560251215</v>
+        <v>0.06885573826815108</v>
       </c>
       <c r="E21" t="n">
-        <v>0.3682860288293009</v>
+        <v>0.3513736635692506</v>
       </c>
       <c r="F21" t="n">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="G21" t="n">
-        <v>344.3333333333333</v>
+        <v>501.05</v>
       </c>
       <c r="H21" s="1" t="n">
-        <v>44958</v>
+        <v>45078</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>2023Q1</t>
+          <t>2023Q2</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>-0.02803000761833277</v>
+        <v>-0.0009597155348029518</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.08098465042158386</v>
+        <v>0.02775984826815108</v>
       </c>
     </row>
     <row r="22">
@@ -1206,36 +1206,36 @@
         <v>2023</v>
       </c>
       <c r="B22" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C22" t="n">
-        <v>0.07733731382928684</v>
+        <v>0.06661860807729127</v>
       </c>
       <c r="D22" t="n">
-        <v>0.07733731382928684</v>
+        <v>0.06661860807729127</v>
       </c>
       <c r="E22" t="n">
-        <v>0.3509587301808116</v>
+        <v>0.3402256740635567</v>
       </c>
       <c r="F22" t="n">
-        <v>45</v>
+        <v>123</v>
       </c>
       <c r="G22" t="n">
-        <v>541.4444444444445</v>
+        <v>497.7560975609756</v>
       </c>
       <c r="H22" s="1" t="n">
-        <v>44986</v>
+        <v>45108</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>2023Q1</t>
+          <t>2023Q3</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>0.001695458226774693</v>
+        <v>-0.002237130190859818</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.02557096317071317</v>
+        <v>0.02552271807729126</v>
       </c>
     </row>
     <row r="23">
@@ -1243,36 +1243,36 @@
         <v>2023</v>
       </c>
       <c r="B23" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C23" t="n">
-        <v>0.08033588361898598</v>
+        <v>0.06915030985774309</v>
       </c>
       <c r="D23" t="n">
-        <v>0.08033588361898598</v>
+        <v>0.06915030985774309</v>
       </c>
       <c r="E23" t="n">
-        <v>0.3543386882866427</v>
+        <v>0.3445988584390825</v>
       </c>
       <c r="F23" t="n">
-        <v>46</v>
+        <v>117</v>
       </c>
       <c r="G23" t="n">
-        <v>578.1739130434783</v>
+        <v>484.2564102564103</v>
       </c>
       <c r="H23" s="1" t="n">
-        <v>45017</v>
+        <v>45139</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>2023Q2</t>
+          <t>2023Q3</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>0.002998569789699146</v>
+        <v>0.002531701780451825</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0191827344560563</v>
+        <v>-0.007176146392256916</v>
       </c>
     </row>
     <row r="24">
@@ -1280,36 +1280,36 @@
         <v>2023</v>
       </c>
       <c r="B24" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C24" t="n">
-        <v>0.07992593285084001</v>
+        <v>0.06842689572744329</v>
       </c>
       <c r="D24" t="n">
-        <v>0.07992593285084001</v>
+        <v>0.06842689572744329</v>
       </c>
       <c r="E24" t="n">
-        <v>0.3609545384573529</v>
+        <v>0.3207895200330809</v>
       </c>
       <c r="F24" t="n">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="G24" t="n">
-        <v>528.8823529411765</v>
+        <v>542.175</v>
       </c>
       <c r="H24" s="1" t="n">
-        <v>45047</v>
+        <v>45170</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>2023Q2</t>
+          <t>2023Q3</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>-0.0004099507681459696</v>
+        <v>-0.0007234141302998043</v>
       </c>
       <c r="K24" t="n">
-        <v>0.02147411610518441</v>
+        <v>-0.001879898072556715</v>
       </c>
     </row>
     <row r="25">
@@ -1317,36 +1317,36 @@
         <v>2023</v>
       </c>
       <c r="B25" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C25" t="n">
-        <v>0.07872311560463693</v>
+        <v>0.06875106926131959</v>
       </c>
       <c r="D25" t="n">
-        <v>0.07872311560463693</v>
+        <v>0.06875106926131959</v>
       </c>
       <c r="E25" t="n">
-        <v>0.3750546865192542</v>
+        <v>0.3476173515969872</v>
       </c>
       <c r="F25" t="n">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="G25" t="n">
-        <v>455.8852459016393</v>
+        <v>476.9142857142857</v>
       </c>
       <c r="H25" s="1" t="n">
-        <v>45078</v>
+        <v>45200</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>2023Q2</t>
+          <t>2023Q4</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>-0.001202817246203081</v>
+        <v>0.0003241735338763013</v>
       </c>
       <c r="K25" t="n">
-        <v>0.05817517060463694</v>
+        <v>0.000724670487272136</v>
       </c>
     </row>
     <row r="26">
@@ -1354,36 +1354,36 @@
         <v>2023</v>
       </c>
       <c r="B26" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C26" t="n">
-        <v>0.07730979525628033</v>
+        <v>0.0662885417788953</v>
       </c>
       <c r="D26" t="n">
-        <v>0.07730979525628033</v>
+        <v>0.0662885417788953</v>
       </c>
       <c r="E26" t="n">
-        <v>0.3673767130217772</v>
+        <v>0.3344970079436997</v>
       </c>
       <c r="F26" t="n">
-        <v>61</v>
+        <v>114</v>
       </c>
       <c r="G26" t="n">
-        <v>432.6229508196722</v>
+        <v>508.7368421052632</v>
       </c>
       <c r="H26" s="1" t="n">
-        <v>45108</v>
+        <v>45231</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>2023Q3</t>
+          <t>2023Q4</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>-0.001413320348356603</v>
+        <v>-0.002462527482424287</v>
       </c>
       <c r="K26" t="n">
-        <v>0.03021317768990863</v>
+        <v>-0.0003760895562007205</v>
       </c>
     </row>
     <row r="27">
@@ -1391,184 +1391,184 @@
         <v>2023</v>
       </c>
       <c r="B27" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C27" t="n">
-        <v>0.07591098169966093</v>
+        <v>0.06767962200517924</v>
       </c>
       <c r="D27" t="n">
-        <v>0.07591098169966093</v>
+        <v>0.06767962200517924</v>
       </c>
       <c r="E27" t="n">
-        <v>0.3618764659088198</v>
+        <v>0.3483047453145723</v>
       </c>
       <c r="F27" t="n">
-        <v>59</v>
+        <v>120</v>
       </c>
       <c r="G27" t="n">
-        <v>419.1694915254237</v>
+        <v>480.9</v>
       </c>
       <c r="H27" s="1" t="n">
-        <v>45139</v>
+        <v>45261</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>2023Q3</t>
+          <t>2023Q4</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>-0.001398813556619402</v>
+        <v>0.001391080226283939</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.004048016365725896</v>
+        <v>-0.003964168041211455</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B28" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>0.07759663502489439</v>
+        <v>0.0692020287685801</v>
       </c>
       <c r="D28" t="n">
-        <v>0.07759663502489439</v>
+        <v>0.0692020287685801</v>
       </c>
       <c r="E28" t="n">
-        <v>0.3161377640567014</v>
+        <v>0.3499412730989324</v>
       </c>
       <c r="F28" t="n">
-        <v>42</v>
+        <v>118</v>
       </c>
       <c r="G28" t="n">
-        <v>512.6428571428571</v>
+        <v>499.3135593220339</v>
       </c>
       <c r="H28" s="1" t="n">
-        <v>45170</v>
+        <v>45292</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>2023Q3</t>
+          <t>2024Q1</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>0.00168565332523346</v>
+        <v>0.00152240676340086</v>
       </c>
       <c r="K28" t="n">
-        <v>0.001340751124177794</v>
+        <v>-0.006426615934983781</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B29" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C29" t="n">
-        <v>0.07578063591596414</v>
+        <v>0.06865130677577988</v>
       </c>
       <c r="D29" t="n">
-        <v>0.07578063591596414</v>
+        <v>0.06865130677577988</v>
       </c>
       <c r="E29" t="n">
-        <v>0.3519340751118608</v>
+        <v>0.3428649607596226</v>
       </c>
       <c r="F29" t="n">
-        <v>53</v>
+        <v>122</v>
       </c>
       <c r="G29" t="n">
-        <v>421.6981132075472</v>
+        <v>515.0409836065573</v>
       </c>
       <c r="H29" s="1" t="n">
-        <v>45200</v>
+        <v>45323</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>2023Q4</t>
+          <t>2024Q1</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>-0.001815999108930252</v>
+        <v>-0.000550721992800221</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.001366986387785735</v>
+        <v>0.001472664500939344</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B30" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C30" t="n">
-        <v>0.07994519688967744</v>
+        <v>0.07265896809177406</v>
       </c>
       <c r="D30" t="n">
-        <v>0.07994519688967744</v>
+        <v>0.07265896809177406</v>
       </c>
       <c r="E30" t="n">
-        <v>0.3503925715153675</v>
+        <v>0.3442733592856235</v>
       </c>
       <c r="F30" t="n">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="G30" t="n">
-        <v>455.8148148148148</v>
+        <v>500.4298245614035</v>
       </c>
       <c r="H30" s="1" t="n">
-        <v>45231</v>
+        <v>45352</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>2023Q4</t>
+          <t>2024Q1</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>0.004164560973713302</v>
+        <v>0.004007661315994185</v>
       </c>
       <c r="K30" t="n">
-        <v>0.007288162455069358</v>
+        <v>0.004769965788214328</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B31" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C31" t="n">
-        <v>0.07985574730659925</v>
+        <v>0.07019613084076981</v>
       </c>
       <c r="D31" t="n">
-        <v>0.07985574730659925</v>
+        <v>0.07019613084076981</v>
       </c>
       <c r="E31" t="n">
-        <v>0.3524250385845984</v>
+        <v>0.3397803883523908</v>
       </c>
       <c r="F31" t="n">
-        <v>59</v>
+        <v>115</v>
       </c>
       <c r="G31" t="n">
-        <v>464.7796610169491</v>
+        <v>440.0173913043478</v>
       </c>
       <c r="H31" s="1" t="n">
-        <v>45261</v>
+        <v>45383</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>2023Q4</t>
+          <t>2024Q2</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>-8.944958307818829e-05</v>
+        <v>-0.002462837251004255</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.0003884251533321781</v>
+        <v>-0.0002948158014477037</v>
       </c>
     </row>
     <row r="32">
@@ -1576,36 +1576,36 @@
         <v>2024</v>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C32" t="n">
-        <v>0.07903314941939465</v>
+        <v>0.06911633982639069</v>
       </c>
       <c r="D32" t="n">
-        <v>0.07903314941939465</v>
+        <v>0.06911633982639069</v>
       </c>
       <c r="E32" t="n">
-        <v>0.3537709007728739</v>
+        <v>0.3401339628463841</v>
       </c>
       <c r="F32" t="n">
-        <v>55</v>
+        <v>117</v>
       </c>
       <c r="G32" t="n">
-        <v>515.6909090909091</v>
+        <v>430.5470085470085</v>
       </c>
       <c r="H32" s="1" t="n">
-        <v>45292</v>
+        <v>45413</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>2024Q1</t>
+          <t>2024Q2</t>
         </is>
       </c>
       <c r="J32" t="n">
-        <v>-0.0008225978872045958</v>
+        <v>-0.00107979101437912</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.02463871380145026</v>
+        <v>-0.0006991139765633453</v>
       </c>
     </row>
     <row r="33">
@@ -1613,36 +1613,36 @@
         <v>2024</v>
       </c>
       <c r="B33" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C33" t="n">
-        <v>0.07739815605307314</v>
+        <v>0.07034770288536606</v>
       </c>
       <c r="D33" t="n">
-        <v>0.07739815605307314</v>
+        <v>0.07034770288536606</v>
       </c>
       <c r="E33" t="n">
-        <v>0.3420445843578494</v>
+        <v>0.3359556917641038</v>
       </c>
       <c r="F33" t="n">
-        <v>54</v>
+        <v>118</v>
       </c>
       <c r="G33" t="n">
-        <v>539.6481481481482</v>
+        <v>424.635593220339</v>
       </c>
       <c r="H33" s="1" t="n">
-        <v>45323</v>
+        <v>45444</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>2024Q1</t>
+          <t>2024Q2</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>-0.001634993366321516</v>
+        <v>0.001231363058975365</v>
       </c>
       <c r="K33" t="n">
-        <v>0.001756300450560994</v>
+        <v>0.001491964617214972</v>
       </c>
     </row>
     <row r="34">
@@ -1650,36 +1650,36 @@
         <v>2024</v>
       </c>
       <c r="B34" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C34" t="n">
-        <v>0.08172797566163724</v>
+        <v>0.06836854505943094</v>
       </c>
       <c r="D34" t="n">
-        <v>0.08172797566163724</v>
+        <v>0.06836854505943094</v>
       </c>
       <c r="E34" t="n">
-        <v>0.3458658030655528</v>
+        <v>0.3350546216482919</v>
       </c>
       <c r="F34" t="n">
-        <v>54</v>
+        <v>115</v>
       </c>
       <c r="G34" t="n">
-        <v>531.074074074074</v>
+        <v>433.8173913043478</v>
       </c>
       <c r="H34" s="1" t="n">
-        <v>45352</v>
+        <v>45474</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>2024Q1</t>
+          <t>2024Q3</t>
         </is>
       </c>
       <c r="J34" t="n">
-        <v>0.004329819608564101</v>
+        <v>-0.001979157825935121</v>
       </c>
       <c r="K34" t="n">
-        <v>0.004390661832350401</v>
+        <v>0.001749936982139669</v>
       </c>
     </row>
     <row r="35">
@@ -1687,36 +1687,36 @@
         <v>2024</v>
       </c>
       <c r="B35" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C35" t="n">
-        <v>0.07930739165505565</v>
+        <v>0.07238167875114146</v>
       </c>
       <c r="D35" t="n">
-        <v>0.07930739165505565</v>
+        <v>0.07238167875114146</v>
       </c>
       <c r="E35" t="n">
-        <v>0.3387029578456585</v>
+        <v>0.3306082554152181</v>
       </c>
       <c r="F35" t="n">
-        <v>53</v>
+        <v>113</v>
       </c>
       <c r="G35" t="n">
-        <v>450.1509433962264</v>
+        <v>418.6371681415929</v>
       </c>
       <c r="H35" s="1" t="n">
-        <v>45383</v>
+        <v>45505</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>2024Q2</t>
+          <t>2024Q3</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>-0.002420584006581586</v>
+        <v>0.004013133691710524</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.001028491963930331</v>
+        <v>0.003231368893398368</v>
       </c>
     </row>
     <row r="36">
@@ -1724,36 +1724,36 @@
         <v>2024</v>
       </c>
       <c r="B36" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C36" t="n">
-        <v>0.07774114937159438</v>
+        <v>0.07236621023737261</v>
       </c>
       <c r="D36" t="n">
-        <v>0.07774114937159438</v>
+        <v>0.07236621023737261</v>
       </c>
       <c r="E36" t="n">
-        <v>0.329522603801619</v>
+        <v>0.3317963080100801</v>
       </c>
       <c r="F36" t="n">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="G36" t="n">
-        <v>477.0526315789473</v>
+        <v>427.0093457943925</v>
       </c>
       <c r="H36" s="1" t="n">
-        <v>45413</v>
+        <v>45536</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>2024Q2</t>
+          <t>2024Q3</t>
         </is>
       </c>
       <c r="J36" t="n">
-        <v>-0.001566242283461278</v>
+        <v>-1.54685137688515e-05</v>
       </c>
       <c r="K36" t="n">
-        <v>-0.002184783479245639</v>
+        <v>0.00393931450992932</v>
       </c>
     </row>
     <row r="37">
@@ -1761,36 +1761,36 @@
         <v>2024</v>
       </c>
       <c r="B37" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C37" t="n">
-        <v>0.08089202309316977</v>
+        <v>0.06977165125490409</v>
       </c>
       <c r="D37" t="n">
-        <v>0.08089202309316977</v>
+        <v>0.06977165125490409</v>
       </c>
       <c r="E37" t="n">
-        <v>0.3236179438531883</v>
+        <v>0.336363195876361</v>
       </c>
       <c r="F37" t="n">
-        <v>57</v>
+        <v>113</v>
       </c>
       <c r="G37" t="n">
-        <v>470.2982456140351</v>
+        <v>418.6637168141593</v>
       </c>
       <c r="H37" s="1" t="n">
-        <v>45444</v>
+        <v>45566</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>2024Q2</t>
+          <t>2024Q4</t>
         </is>
       </c>
       <c r="J37" t="n">
-        <v>0.003150873721575395</v>
+        <v>-0.00259455898246852</v>
       </c>
       <c r="K37" t="n">
-        <v>0.002168907488532837</v>
+        <v>0.001020581993584499</v>
       </c>
     </row>
     <row r="38">
@@ -1798,36 +1798,36 @@
         <v>2024</v>
       </c>
       <c r="B38" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C38" t="n">
-        <v>0.08019647943031162</v>
+        <v>0.07549432552271544</v>
       </c>
       <c r="D38" t="n">
-        <v>0.08019647943031162</v>
+        <v>0.07549432552271544</v>
       </c>
       <c r="E38" t="n">
-        <v>0.3289255565021306</v>
+        <v>0.336022804132421</v>
       </c>
       <c r="F38" t="n">
-        <v>52</v>
+        <v>117</v>
       </c>
       <c r="G38" t="n">
-        <v>451.3653846153846</v>
+        <v>401.6153846153846</v>
       </c>
       <c r="H38" s="1" t="n">
-        <v>45474</v>
+        <v>45597</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>2024Q3</t>
+          <t>2024Q4</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>-0.0006955436628581502</v>
+        <v>0.005722674267811353</v>
       </c>
       <c r="K38" t="n">
-        <v>0.00288668417403129</v>
+        <v>0.00920578374382014</v>
       </c>
     </row>
     <row r="39">
@@ -1835,184 +1835,184 @@
         <v>2024</v>
       </c>
       <c r="B39" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C39" t="n">
-        <v>0.07914641774857044</v>
+        <v>0.08000898619252977</v>
       </c>
       <c r="D39" t="n">
-        <v>0.07914641774857044</v>
+        <v>0.08000898619252977</v>
       </c>
       <c r="E39" t="n">
-        <v>0.327788031844398</v>
+        <v>0.3337567307089706</v>
       </c>
       <c r="F39" t="n">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="G39" t="n">
-        <v>452.0526315789473</v>
+        <v>429.4752475247525</v>
       </c>
       <c r="H39" s="1" t="n">
-        <v>45505</v>
+        <v>45627</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>2024Q3</t>
+          <t>2024Q4</t>
         </is>
       </c>
       <c r="J39" t="n">
-        <v>-0.001050061681741182</v>
+        <v>0.004514660669814333</v>
       </c>
       <c r="K39" t="n">
-        <v>0.00323543604890951</v>
+        <v>0.01232936418735053</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="B40" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C40" t="n">
-        <v>0.07886109171885379</v>
+        <v>0.07851122584707838</v>
       </c>
       <c r="D40" t="n">
-        <v>0.07886109171885379</v>
+        <v>0.07851122584707838</v>
       </c>
       <c r="E40" t="n">
-        <v>0.3248936912904133</v>
+        <v>0.3365026061467711</v>
       </c>
       <c r="F40" t="n">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="G40" t="n">
-        <v>452.2</v>
+        <v>416.7407407407408</v>
       </c>
       <c r="H40" s="1" t="n">
-        <v>45536</v>
+        <v>45658</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>2024Q3</t>
+          <t>2025Q1</t>
         </is>
       </c>
       <c r="J40" t="n">
-        <v>-0.0002853260297166482</v>
+        <v>-0.00149776034545139</v>
       </c>
       <c r="K40" t="n">
-        <v>0.001264456693959401</v>
+        <v>0.009309197078498282</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="B41" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C41" t="n">
-        <v>0.080283768134963</v>
+        <v>0.07525307947806105</v>
       </c>
       <c r="D41" t="n">
-        <v>0.080283768134963</v>
+        <v>0.07525307947806105</v>
       </c>
       <c r="E41" t="n">
-        <v>0.3377624840895827</v>
+        <v>0.3355641018733399</v>
       </c>
       <c r="F41" t="n">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="G41" t="n">
-        <v>460.5178571428572</v>
+        <v>420.32</v>
       </c>
       <c r="H41" s="1" t="n">
-        <v>45566</v>
+        <v>45689</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>2024Q4</t>
+          <t>2025Q1</t>
         </is>
       </c>
       <c r="J41" t="n">
-        <v>0.001422676416109214</v>
+        <v>-0.003258146369017334</v>
       </c>
       <c r="K41" t="n">
-        <v>0.004503132218998868</v>
+        <v>0.00660177270228117</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="B42" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C42" t="n">
-        <v>0.08272498982208577</v>
+        <v>0.07554591777752322</v>
       </c>
       <c r="D42" t="n">
-        <v>0.08272498982208577</v>
+        <v>0.07554591777752322</v>
       </c>
       <c r="E42" t="n">
-        <v>0.3340780537858606</v>
+        <v>0.3288132316786587</v>
       </c>
       <c r="F42" t="n">
-        <v>57</v>
+        <v>103</v>
       </c>
       <c r="G42" t="n">
-        <v>428.0350877192982</v>
+        <v>421.9223300970874</v>
       </c>
       <c r="H42" s="1" t="n">
-        <v>45597</v>
+        <v>45717</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>2024Q4</t>
+          <t>2025Q1</t>
         </is>
       </c>
       <c r="J42" t="n">
-        <v>0.002441221687122769</v>
+        <v>0.000292838299462167</v>
       </c>
       <c r="K42" t="n">
-        <v>0.002779792932408334</v>
+        <v>0.002886949685749152</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="B43" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C43" t="n">
-        <v>0.08776340837403536</v>
+        <v>0.07408905147441297</v>
       </c>
       <c r="D43" t="n">
-        <v>0.08776340837403536</v>
+        <v>0.07408905147441297</v>
       </c>
       <c r="E43" t="n">
-        <v>0.3316405409672215</v>
+        <v>0.3309772747393656</v>
       </c>
       <c r="F43" t="n">
-        <v>52</v>
+        <v>114</v>
       </c>
       <c r="G43" t="n">
-        <v>490.1730769230769</v>
+        <v>414.2456140350877</v>
       </c>
       <c r="H43" s="1" t="n">
-        <v>45627</v>
+        <v>45748</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>2024Q4</t>
+          <t>2025Q2</t>
         </is>
       </c>
       <c r="J43" t="n">
-        <v>0.005038418551949586</v>
+        <v>-0.001456866303110246</v>
       </c>
       <c r="K43" t="n">
-        <v>0.007907661067436109</v>
+        <v>0.00389292063364316</v>
       </c>
     </row>
     <row r="44">
@@ -2020,36 +2020,36 @@
         <v>2025</v>
       </c>
       <c r="B44" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C44" t="n">
-        <v>0.08332333842603504</v>
+        <v>0.07878993229028315</v>
       </c>
       <c r="D44" t="n">
-        <v>0.08332333842603504</v>
+        <v>0.07878993229028315</v>
       </c>
       <c r="E44" t="n">
-        <v>0.3349916759590378</v>
+        <v>0.3264111933362299</v>
       </c>
       <c r="F44" t="n">
-        <v>43</v>
+        <v>121</v>
       </c>
       <c r="G44" t="n">
-        <v>440.4883720930233</v>
+        <v>420.4545454545454</v>
       </c>
       <c r="H44" s="1" t="n">
-        <v>45658</v>
+        <v>45778</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>2025Q1</t>
+          <t>2025Q2</t>
         </is>
       </c>
       <c r="J44" t="n">
-        <v>-0.004440069948000322</v>
+        <v>0.004700880815870181</v>
       </c>
       <c r="K44" t="n">
-        <v>0.004290189006640382</v>
+        <v>0.009673592463892461</v>
       </c>
     </row>
     <row r="45">
@@ -2057,36 +2057,36 @@
         <v>2025</v>
       </c>
       <c r="B45" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C45" t="n">
-        <v>0.08420133282480168</v>
+        <v>0.08009321248687952</v>
       </c>
       <c r="D45" t="n">
-        <v>0.08420133282480168</v>
+        <v>0.08009321248687952</v>
       </c>
       <c r="E45" t="n">
-        <v>0.3346106882293381</v>
+        <v>0.3255111516939082</v>
       </c>
       <c r="F45" t="n">
-        <v>53</v>
+        <v>111</v>
       </c>
       <c r="G45" t="n">
-        <v>477.8867924528302</v>
+        <v>456.3783783783784</v>
       </c>
       <c r="H45" s="1" t="n">
-        <v>45689</v>
+        <v>45809</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>2025Q1</t>
+          <t>2025Q2</t>
         </is>
       </c>
       <c r="J45" t="n">
-        <v>0.0008779943987666378</v>
+        <v>0.001303280196596368</v>
       </c>
       <c r="K45" t="n">
-        <v>0.006803176771728536</v>
+        <v>0.009745509601513463</v>
       </c>
     </row>
     <row r="46">
@@ -2094,36 +2094,36 @@
         <v>2025</v>
       </c>
       <c r="B46" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C46" t="n">
-        <v>0.08325470958744935</v>
+        <v>0.08175562854432269</v>
       </c>
       <c r="D46" t="n">
-        <v>0.08325470958744935</v>
+        <v>0.08175562854432269</v>
       </c>
       <c r="E46" t="n">
-        <v>0.3319148267727332</v>
+        <v>0.3320350657822856</v>
       </c>
       <c r="F46" t="n">
-        <v>52</v>
+        <v>117</v>
       </c>
       <c r="G46" t="n">
-        <v>505.0961538461539</v>
+        <v>435.7350427350427</v>
       </c>
       <c r="H46" s="1" t="n">
-        <v>45717</v>
+        <v>45839</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>2025Q1</t>
+          <t>2025Q3</t>
         </is>
       </c>
       <c r="J46" t="n">
-        <v>-0.0009466232373523259</v>
+        <v>0.001662416057443175</v>
       </c>
       <c r="K46" t="n">
-        <v>0.00152673392581211</v>
+        <v>0.01338708348489176</v>
       </c>
     </row>
     <row r="47">
@@ -2131,36 +2131,36 @@
         <v>2025</v>
       </c>
       <c r="B47" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C47" t="n">
-        <v>0.08220372970095687</v>
+        <v>0.08033508692007767</v>
       </c>
       <c r="D47" t="n">
-        <v>0.08220372970095687</v>
+        <v>0.08033508692007767</v>
       </c>
       <c r="E47" t="n">
-        <v>0.3402230976966662</v>
+        <v>0.3231233378866629</v>
       </c>
       <c r="F47" t="n">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="G47" t="n">
-        <v>484.2321428571428</v>
+        <v>464.7232142857143</v>
       </c>
       <c r="H47" s="1" t="n">
-        <v>45748</v>
+        <v>45870</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>2025Q2</t>
+          <t>2025Q3</t>
         </is>
       </c>
       <c r="J47" t="n">
-        <v>-0.001050979886492484</v>
+        <v>-0.001420541624245028</v>
       </c>
       <c r="K47" t="n">
-        <v>0.002896338045901212</v>
+        <v>0.007953408168936207</v>
       </c>
     </row>
     <row r="48">
@@ -2168,36 +2168,36 @@
         <v>2025</v>
       </c>
       <c r="B48" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C48" t="n">
-        <v>0.09139318378266677</v>
+        <v>0.07990898262768628</v>
       </c>
       <c r="D48" t="n">
-        <v>0.09139318378266677</v>
+        <v>0.07990898262768628</v>
       </c>
       <c r="E48" t="n">
-        <v>0.3371553934952743</v>
+        <v>0.3255008475891831</v>
       </c>
       <c r="F48" t="n">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="G48" t="n">
-        <v>464.1929824561403</v>
+        <v>430.5070422535211</v>
       </c>
       <c r="H48" s="1" t="n">
-        <v>45778</v>
+        <v>45901</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>2025Q2</t>
+          <t>2025Q3</t>
         </is>
       </c>
       <c r="J48" t="n">
-        <v>0.009189454081709902</v>
+        <v>-0.0004261042923913855</v>
       </c>
       <c r="K48" t="n">
-        <v>0.01365203441107239</v>
+        <v>0.007542772390313673</v>
       </c>
     </row>
     <row r="49">
@@ -2205,36 +2205,36 @@
         <v>2025</v>
       </c>
       <c r="B49" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C49" t="n">
-        <v>0.09123373511324709</v>
+        <v>0.07562898582958874</v>
       </c>
       <c r="D49" t="n">
-        <v>0.09123373511324709</v>
+        <v>0.07562898582958874</v>
       </c>
       <c r="E49" t="n">
-        <v>0.3347827200763113</v>
+        <v>0.3230001070332048</v>
       </c>
       <c r="F49" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="G49" t="n">
-        <v>477.8181818181818</v>
+        <v>445.0615384615385</v>
       </c>
       <c r="H49" s="1" t="n">
-        <v>45809</v>
+        <v>45931</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>2025Q2</t>
+          <t>2025Q4</t>
         </is>
       </c>
       <c r="J49" t="n">
-        <v>-0.0001594486694196789</v>
+        <v>-0.004279996798097541</v>
       </c>
       <c r="K49" t="n">
-        <v>0.01034171202007732</v>
+        <v>0.005857334574684653</v>
       </c>
     </row>
     <row r="50">
@@ -2242,36 +2242,36 @@
         <v>2025</v>
       </c>
       <c r="B50" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C50" t="n">
-        <v>0.09045466611176946</v>
+        <v>0.0768582124221997</v>
       </c>
       <c r="D50" t="n">
-        <v>0.09045466611176946</v>
+        <v>0.0768582124221997</v>
       </c>
       <c r="E50" t="n">
-        <v>0.334268106043301</v>
+        <v>0.3241429202865784</v>
       </c>
       <c r="F50" t="n">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="G50" t="n">
-        <v>480.35</v>
+        <v>388.3939393939394</v>
       </c>
       <c r="H50" s="1" t="n">
-        <v>45839</v>
+        <v>45962</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>2025Q3</t>
+          <t>2025Q4</t>
         </is>
       </c>
       <c r="J50" t="n">
-        <v>-0.0007790690014776308</v>
+        <v>0.00122922659261096</v>
       </c>
       <c r="K50" t="n">
-        <v>0.01025818668145784</v>
+        <v>0.00136388689948426</v>
       </c>
     </row>
     <row r="51">
@@ -2279,258 +2279,110 @@
         <v>2025</v>
       </c>
       <c r="B51" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C51" t="n">
-        <v>0.09233435348466849</v>
+        <v>0.07636252064679194</v>
       </c>
       <c r="D51" t="n">
-        <v>0.09233435348466849</v>
+        <v>0.07636252064679194</v>
       </c>
       <c r="E51" t="n">
-        <v>0.3305868084124318</v>
+        <v>0.3209307787192921</v>
       </c>
       <c r="F51" t="n">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="G51" t="n">
-        <v>526.0769230769231</v>
+        <v>460.5348837209302</v>
       </c>
       <c r="H51" s="1" t="n">
-        <v>45870</v>
+        <v>45992</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>2025Q3</t>
+          <t>2025Q4</t>
         </is>
       </c>
       <c r="J51" t="n">
-        <v>0.001879687372899036</v>
+        <v>-0.0004956917754077583</v>
       </c>
       <c r="K51" t="n">
-        <v>0.01318793573609806</v>
+        <v>-0.003646465545737831</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="B52" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>0.08871405419373826</v>
+        <v>0.07846012122429639</v>
       </c>
       <c r="D52" t="n">
-        <v>0.08871405419373826</v>
+        <v>0.07846012122429639</v>
       </c>
       <c r="E52" t="n">
-        <v>0.335935970944121</v>
+        <v>0.3223841845382598</v>
       </c>
       <c r="F52" t="n">
-        <v>42</v>
+        <v>112</v>
       </c>
       <c r="G52" t="n">
-        <v>538.4047619047619</v>
+        <v>447.9736842105263</v>
       </c>
       <c r="H52" s="1" t="n">
-        <v>45901</v>
+        <v>46023</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>2025Q3</t>
+          <t>2026Q1</t>
         </is>
       </c>
       <c r="J52" t="n">
-        <v>-0.003620299290930232</v>
+        <v>0.002097600577504452</v>
       </c>
       <c r="K52" t="n">
-        <v>0.009852962474884472</v>
+        <v>-5.110462278198891e-05</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="B53" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0874827043339992</v>
+        <v>0.07380186053069956</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0874827043339992</v>
+        <v>0.07380186053069956</v>
       </c>
       <c r="E53" t="n">
-        <v>0.3311474611394578</v>
+        <v>0.3111892825820786</v>
       </c>
       <c r="F53" t="n">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="G53" t="n">
-        <v>576.5365853658536</v>
+        <v>551.578947368421</v>
       </c>
       <c r="H53" s="1" t="n">
-        <v>45931</v>
+        <v>46054</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>2025Q4</t>
+          <t>2026Q1</t>
         </is>
       </c>
       <c r="J53" t="n">
-        <v>-0.001231349859739064</v>
+        <v>-0.00465826069359683</v>
       </c>
       <c r="K53" t="n">
-        <v>0.007198936199036193</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>2025</v>
-      </c>
-      <c r="B54" t="n">
-        <v>11</v>
-      </c>
-      <c r="C54" t="n">
-        <v>0.09151024765052052</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0.09151024765052052</v>
-      </c>
-      <c r="E54" t="n">
-        <v>0.3471800979893205</v>
-      </c>
-      <c r="F54" t="n">
-        <v>39</v>
-      </c>
-      <c r="G54" t="n">
-        <v>497.3076923076923</v>
-      </c>
-      <c r="H54" s="1" t="n">
-        <v>45962</v>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>2025Q4</t>
-        </is>
-      </c>
-      <c r="J54" t="n">
-        <v>0.004027543316521318</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0.008785257828434742</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>2025</v>
-      </c>
-      <c r="B55" t="n">
-        <v>12</v>
-      </c>
-      <c r="C55" t="n">
-        <v>0.08548193030857826</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0.08548193030857826</v>
-      </c>
-      <c r="E55" t="n">
-        <v>0.3229916485934432</v>
-      </c>
-      <c r="F55" t="n">
-        <v>43</v>
-      </c>
-      <c r="G55" t="n">
-        <v>541.6046511627907</v>
-      </c>
-      <c r="H55" s="1" t="n">
-        <v>45992</v>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>2025Q4</t>
-        </is>
-      </c>
-      <c r="J55" t="n">
-        <v>-0.006028317341942258</v>
-      </c>
-      <c r="K55" t="n">
-        <v>-0.002281478065457102</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>2026</v>
-      </c>
-      <c r="B56" t="n">
-        <v>1</v>
-      </c>
-      <c r="C56" t="n">
-        <v>0.08823336118727994</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0.08823336118727994</v>
-      </c>
-      <c r="E56" t="n">
-        <v>0.3254898382552577</v>
-      </c>
-      <c r="F56" t="n">
-        <v>59</v>
-      </c>
-      <c r="G56" t="n">
-        <v>467.4590163934426</v>
-      </c>
-      <c r="H56" s="1" t="n">
-        <v>46023</v>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>2026Q1</t>
-        </is>
-      </c>
-      <c r="J56" t="n">
-        <v>0.00275143087870168</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0.0049100227612449</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>2026</v>
-      </c>
-      <c r="B57" t="n">
-        <v>2</v>
-      </c>
-      <c r="C57" t="n">
-        <v>0.08438070855208041</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0.08438070855208041</v>
-      </c>
-      <c r="E57" t="n">
-        <v>0.3234676125874823</v>
-      </c>
-      <c r="F57" t="n">
-        <v>10</v>
-      </c>
-      <c r="G57" t="n">
-        <v>434.2</v>
-      </c>
-      <c r="H57" s="1" t="n">
-        <v>46054</v>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>2026Q1</t>
-        </is>
-      </c>
-      <c r="J57" t="n">
-        <v>-0.00385265263519953</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0.0001793757272787327</v>
+        <v>-0.001451218947361485</v>
       </c>
     </row>
   </sheetData>
@@ -2544,7 +2396,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2674,13 +2526,13 @@
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>0.05979281878947368</v>
+        <v>0.05704114339296366</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3735064921578948</v>
+        <v>0.3558812823004592</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.3137136733684211</v>
+        <v>-0.2988401389074955</v>
       </c>
       <c r="L3" t="inlineStr"/>
     </row>
@@ -2710,30 +2562,30 @@
       </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>0.05262012604347826</v>
+        <v>0.05111816859879303</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3881498074347826</v>
+        <v>0.3875183639680647</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.3355296813913043</v>
+        <v>-0.3364001953692717</v>
       </c>
       <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2021Q4</t>
+          <t>2022Q1</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1493226793183093</v>
+        <v>0.102908277</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1493226793183093</v>
+        <v>0.102908277</v>
       </c>
       <c r="D5" t="n">
-        <v>0.38310755977277</v>
+        <v>0.402684564</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -2742,698 +2594,658 @@
         <v>3</v>
       </c>
       <c r="G5" t="n">
-        <v>0.08385462431830934</v>
+        <v>0.03744022200000001</v>
       </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>0.1493226793183093</v>
+        <v>0.102908277</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3831075597727699</v>
+        <v>0.402684564</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.2337848804544606</v>
+        <v>-0.299776287</v>
       </c>
       <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2022Q1</t>
+          <t>2022Q2</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.102908277</v>
+        <v>0.0477418792</v>
       </c>
       <c r="C6" t="n">
-        <v>0.102908277</v>
+        <v>0.0477418792</v>
       </c>
       <c r="D6" t="n">
-        <v>0.402684564</v>
+        <v>0.3897634191</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6" t="n">
         <v>4</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.04641440231830933</v>
+        <v>-0.0551663978</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.005199830999999988</v>
+        <v>-0.06036622879999999</v>
       </c>
       <c r="I6" t="n">
-        <v>0.102908277</v>
+        <v>0.04639970480210889</v>
       </c>
       <c r="J6" t="n">
-        <v>0.402684564</v>
+        <v>0.3888433962409018</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.299776287</v>
+        <v>-0.3424436914387929</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02701135323073656</v>
+        <v>0.1731867202354249</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2022Q2</t>
+          <t>2022Q3</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.04671763696952843</v>
+        <v>0.06257638001666667</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04671763696952843</v>
+        <v>0.06257638001666667</v>
       </c>
       <c r="D7" t="n">
-        <v>0.352642233971523</v>
+        <v>0.3703687023833333</v>
       </c>
       <c r="E7" t="n">
-        <v>6.666666666666667</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="F7" t="n">
         <v>5</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.05619064003047158</v>
+        <v>0.01483450081666667</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.04296850153047157</v>
+        <v>-0.02710975848333333</v>
       </c>
       <c r="I7" t="n">
-        <v>0.04913205644120356</v>
+        <v>0.05213945032610409</v>
       </c>
       <c r="J7" t="n">
-        <v>0.3875504390053467</v>
+        <v>0.3773580867036184</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.3384183825641432</v>
+        <v>-0.3252186363775144</v>
       </c>
       <c r="L7" t="n">
-        <v>0.07874922674061846</v>
+        <v>0.08826959312244265</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2022Q3</t>
+          <t>2022Q4</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.06777049984415838</v>
+        <v>0.06877827338517806</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06777049984415838</v>
+        <v>0.06877827338517806</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3646729667918289</v>
+        <v>0.3573062325638831</v>
       </c>
       <c r="E8" t="n">
-        <v>12.33333333333333</v>
+        <v>70</v>
       </c>
       <c r="F8" t="n">
         <v>6</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02105286287462995</v>
+        <v>0.006201893368511388</v>
       </c>
       <c r="H8" t="n">
-        <v>0.002302444844158383</v>
+        <v>0.00331021838517806</v>
       </c>
       <c r="I8" t="n">
-        <v>0.05796758252245629</v>
+        <v>0.07456890343205831</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3712761700058593</v>
+        <v>0.369937611989041</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.313308587483403</v>
+        <v>-0.2953687085569827</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.06622690969025335</v>
+        <v>-0.1219722443004176</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2022Q4</t>
+          <t>2023Q1</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.07668294306609647</v>
+        <v>0.07023209642732138</v>
       </c>
       <c r="C9" t="n">
-        <v>0.07668294306609647</v>
+        <v>0.07023209642732138</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3594007152109149</v>
+        <v>0.3441873110548059</v>
       </c>
       <c r="E9" t="n">
-        <v>37</v>
+        <v>45.66666666666666</v>
       </c>
       <c r="F9" t="n">
         <v>7</v>
       </c>
       <c r="G9" t="n">
-        <v>0.008912443221938085</v>
+        <v>0.001453823042143323</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.07263973625221287</v>
+        <v>-0.03267618057267863</v>
       </c>
       <c r="I9" t="n">
-        <v>0.07559851930364989</v>
+        <v>0.07838743747622531</v>
       </c>
       <c r="J9" t="n">
-        <v>0.3707513919077956</v>
+        <v>0.3639284472021985</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.2951528726041457</v>
+        <v>-0.2855410097259732</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2624976945916699</v>
+        <v>-0.04748633528183921</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2023Q1</t>
+          <t>2023Q2</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.08555034421754797</v>
+        <v>0.06972071290444087</v>
       </c>
       <c r="C10" t="n">
-        <v>0.08555034421754797</v>
+        <v>0.06972071290444087</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3495023334755539</v>
+        <v>0.3446035272360373</v>
       </c>
       <c r="E10" t="n">
-        <v>28.33333333333333</v>
+        <v>103.3333333333333</v>
       </c>
       <c r="F10" t="n">
         <v>8</v>
       </c>
       <c r="G10" t="n">
-        <v>0.008867401151451501</v>
+        <v>-0.0005113835228805069</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.01735793278245204</v>
+        <v>0.02197883370444087</v>
       </c>
       <c r="I10" t="n">
-        <v>0.07801629368630145</v>
+        <v>0.07957850659290683</v>
       </c>
       <c r="J10" t="n">
-        <v>0.364226863508325</v>
+        <v>0.3703992569229075</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.2862105698220235</v>
+        <v>-0.2908207503300007</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.04525280272744359</v>
+        <v>-0.1507486994194464</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2023Q2</t>
+          <t>2023Q3</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.07966164402482097</v>
+        <v>0.06806527122082588</v>
       </c>
       <c r="C11" t="n">
-        <v>0.07966164402482097</v>
+        <v>0.06806527122082588</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3634493044210833</v>
+        <v>0.3352046841785734</v>
       </c>
       <c r="E11" t="n">
-        <v>52.66666666666666</v>
+        <v>106.6666666666667</v>
       </c>
       <c r="F11" t="n">
         <v>9</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.005888700192726998</v>
+        <v>-0.001655441683614992</v>
       </c>
       <c r="H11" t="n">
-        <v>0.03294400705529254</v>
+        <v>0.005488891204159213</v>
       </c>
       <c r="I11" t="n">
-        <v>0.07897680101652835</v>
+        <v>0.07757506325723942</v>
       </c>
       <c r="J11" t="n">
-        <v>0.3721085475374869</v>
+        <v>0.3599759990335085</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.2931317465209585</v>
+        <v>-0.282400935776269</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.1338184873411867</v>
+        <v>-0.1316582010126335</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2023Q3</t>
+          <t>2023Q4</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.07693913732694523</v>
+        <v>0.06757307768179804</v>
       </c>
       <c r="C12" t="n">
-        <v>0.07693913732694523</v>
+        <v>0.06757307768179804</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3484636476624328</v>
+        <v>0.3434730349517531</v>
       </c>
       <c r="E12" t="n">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="F12" t="n">
         <v>10</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.002722506697875743</v>
+        <v>-0.0004921935390278381</v>
       </c>
       <c r="H12" t="n">
-        <v>0.009168637482786846</v>
+        <v>-0.001205195703380013</v>
       </c>
       <c r="I12" t="n">
-        <v>0.07742560553846899</v>
+        <v>0.07626219378725912</v>
       </c>
       <c r="J12" t="n">
-        <v>0.3607920351991542</v>
+        <v>0.3634170471661184</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.2833664296606852</v>
+        <v>-0.2871548533788593</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.09556762571758071</v>
+        <v>-0.02780881975701488</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2023Q4</t>
+          <t>2024Q1</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.07852719337074694</v>
+        <v>0.07017076787871135</v>
       </c>
       <c r="C13" t="n">
-        <v>0.07852719337074694</v>
+        <v>0.07017076787871135</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3515838950706089</v>
+        <v>0.3456931977147262</v>
       </c>
       <c r="E13" t="n">
-        <v>55.33333333333334</v>
+        <v>118</v>
       </c>
       <c r="F13" t="n">
         <v>11</v>
       </c>
       <c r="G13" t="n">
-        <v>0.001588056043801717</v>
+        <v>0.002597690196913305</v>
       </c>
       <c r="H13" t="n">
-        <v>0.001844250304650477</v>
+        <v>-6.132854861003179e-05</v>
       </c>
       <c r="I13" t="n">
-        <v>0.07731548083849189</v>
+        <v>0.07756450574887219</v>
       </c>
       <c r="J13" t="n">
-        <v>0.3624468457124503</v>
+        <v>0.3605270496924279</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.2851313648739584</v>
+        <v>-0.2829625439435557</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.03395361746530579</v>
+        <v>-0.009030106690775974</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2024Q1</t>
+          <t>2024Q2</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.07938642704470168</v>
+        <v>0.06988672451750885</v>
       </c>
       <c r="C14" t="n">
-        <v>0.07938642704470168</v>
+        <v>0.06988672451750885</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3472270960654253</v>
+        <v>0.3386233476542929</v>
       </c>
       <c r="E14" t="n">
-        <v>54.33333333333334</v>
+        <v>116.6666666666667</v>
       </c>
       <c r="F14" t="n">
         <v>12</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0008592336739547402</v>
+        <v>-0.0002840433612024962</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.006163917172846284</v>
+        <v>0.000166011613067979</v>
       </c>
       <c r="I14" t="n">
-        <v>0.07956530690766703</v>
+        <v>0.07650396207711023</v>
       </c>
       <c r="J14" t="n">
-        <v>0.3566636765411313</v>
+        <v>0.3490339542141579</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.2770983696334643</v>
+        <v>-0.2725299921370476</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.03183739927643303</v>
+        <v>-0.06289358022836444</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2024Q2</t>
+          <t>2024Q3</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.07931352137327326</v>
+        <v>0.071038811349315</v>
       </c>
       <c r="C15" t="n">
-        <v>0.07931352137327326</v>
+        <v>0.071038811349315</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3306145018334886</v>
+        <v>0.33248639502453</v>
       </c>
       <c r="E15" t="n">
-        <v>55.66666666666666</v>
+        <v>111.6666666666667</v>
       </c>
       <c r="F15" t="n">
         <v>13</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.290567142842486e-05</v>
+        <v>0.001152086831806148</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.0003481226515477109</v>
+        <v>0.002973540128489119</v>
       </c>
       <c r="I15" t="n">
-        <v>0.07901196800917523</v>
+        <v>0.07587408062511565</v>
       </c>
       <c r="J15" t="n">
-        <v>0.342906422981224</v>
+        <v>0.343827116858486</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.2638944549720488</v>
+        <v>-0.2679530362333704</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.09974112969991578</v>
+        <v>-0.05116094783179104</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2024Q3</t>
+          <t>2024Q4</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.07940132963257862</v>
+        <v>0.07509165432338311</v>
       </c>
       <c r="C16" t="n">
-        <v>0.07940132963257862</v>
+        <v>0.07509165432338311</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3272024265456473</v>
+        <v>0.3353809102392509</v>
       </c>
       <c r="E16" t="n">
-        <v>54.66666666666666</v>
+        <v>110.3333333333333</v>
       </c>
       <c r="F16" t="n">
         <v>14</v>
       </c>
       <c r="G16" t="n">
-        <v>8.780825930536362e-05</v>
+        <v>0.004052842974068105</v>
       </c>
       <c r="H16" t="n">
-        <v>0.002462192305633396</v>
+        <v>0.007518576641585062</v>
       </c>
       <c r="I16" t="n">
-        <v>0.07933424285781951</v>
+        <v>0.07856301634196641</v>
       </c>
       <c r="J16" t="n">
-        <v>0.3377758745717727</v>
+        <v>0.3458978321782535</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.2584416317139532</v>
+        <v>-0.267334815836287</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.08795960049529516</v>
+        <v>-0.06902212276531694</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2024Q4</t>
+          <t>2025Q1</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.08359072211036138</v>
+        <v>0.07643674103422088</v>
       </c>
       <c r="C17" t="n">
-        <v>0.08359072211036138</v>
+        <v>0.07643674103422088</v>
       </c>
       <c r="D17" t="n">
-        <v>0.334493692947555</v>
+        <v>0.3336266465662566</v>
       </c>
       <c r="E17" t="n">
-        <v>55</v>
+        <v>94.66666666666667</v>
       </c>
       <c r="F17" t="n">
         <v>15</v>
       </c>
       <c r="G17" t="n">
-        <v>0.004189392477782758</v>
+        <v>0.001345086710837773</v>
       </c>
       <c r="H17" t="n">
-        <v>0.005063528739614437</v>
+        <v>0.00626597315550953</v>
       </c>
       <c r="I17" t="n">
-        <v>0.08149991059463718</v>
+        <v>0.07926348720140522</v>
       </c>
       <c r="J17" t="n">
-        <v>0.3460507706001645</v>
+        <v>0.3414053954863104</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.2645508600055273</v>
+        <v>-0.2621419082849052</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.07217902834901613</v>
+        <v>-0.07358088942967556</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025Q1</t>
+          <t>2025Q2</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.08359312694609534</v>
+        <v>0.07765739875052521</v>
       </c>
       <c r="C18" t="n">
-        <v>0.08359312694609534</v>
+        <v>0.07765739875052521</v>
       </c>
       <c r="D18" t="n">
-        <v>0.333839063653703</v>
+        <v>0.3276332065898346</v>
       </c>
       <c r="E18" t="n">
-        <v>49.33333333333334</v>
+        <v>115.3333333333333</v>
       </c>
       <c r="F18" t="n">
         <v>16</v>
       </c>
       <c r="G18" t="n">
-        <v>2.40483573396566e-06</v>
+        <v>0.001220657716304335</v>
       </c>
       <c r="H18" t="n">
-        <v>0.004206699901393662</v>
+        <v>0.007770674233016361</v>
       </c>
       <c r="I18" t="n">
-        <v>0.08201232559287353</v>
+        <v>0.08132440800948877</v>
       </c>
       <c r="J18" t="n">
-        <v>0.3453880999850814</v>
+        <v>0.3400601736860327</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.2633757743922079</v>
+        <v>-0.2587357656765439</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.04952246835449881</v>
+        <v>-0.05061544365204029</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025Q2</t>
+          <t>2025Q3</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.08827688286562357</v>
+        <v>0.08066656603069555</v>
       </c>
       <c r="C19" t="n">
-        <v>0.08827688286562357</v>
+        <v>0.08066656603069555</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3373870704227506</v>
+        <v>0.3268864170860439</v>
       </c>
       <c r="E19" t="n">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="F19" t="n">
         <v>17</v>
       </c>
       <c r="G19" t="n">
-        <v>0.004683755919528229</v>
+        <v>0.003009167280170338</v>
       </c>
       <c r="H19" t="n">
-        <v>0.008963361492350316</v>
+        <v>0.009627754681380551</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0848188701531274</v>
+        <v>0.08223145772514558</v>
       </c>
       <c r="J19" t="n">
-        <v>0.3466635910905533</v>
+        <v>0.3365925883083096</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.2618447209374259</v>
+        <v>-0.254361130583164</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.007767249352927608</v>
+        <v>-0.05072495479531958</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025Q3</t>
+          <t>2025Q4</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.09050102459672542</v>
+        <v>0.07628323963286013</v>
       </c>
       <c r="C20" t="n">
-        <v>0.09050102459672542</v>
+        <v>0.07628323963286013</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3335969617999512</v>
+        <v>0.3226912686796917</v>
       </c>
       <c r="E20" t="n">
-        <v>51.33333333333334</v>
+        <v>72.33333333333333</v>
       </c>
       <c r="F20" t="n">
         <v>18</v>
       </c>
       <c r="G20" t="n">
-        <v>0.002224141731101845</v>
+        <v>-0.004383326397835424</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0110996949641468</v>
+        <v>0.001191585309477022</v>
       </c>
       <c r="I20" t="n">
-        <v>0.08485154141237923</v>
+        <v>0.07916596409077691</v>
       </c>
       <c r="J20" t="n">
-        <v>0.3431533471742492</v>
+        <v>0.3306924009905033</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.25830180576187</v>
+        <v>-0.2515264368997264</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.0005410349375828405</v>
+        <v>-0.05913325911968592</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025Q4</t>
+          <t>2026Q1</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.08815829409769932</v>
+        <v>0.07613099087749797</v>
       </c>
       <c r="C21" t="n">
-        <v>0.08815829409769932</v>
+        <v>0.07613099087749797</v>
       </c>
       <c r="D21" t="n">
-        <v>0.3337730692407405</v>
+        <v>0.3167867335601692</v>
       </c>
       <c r="E21" t="n">
-        <v>41</v>
+        <v>65.5</v>
       </c>
       <c r="F21" t="n">
         <v>19</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.002342730499026099</v>
+        <v>-0.0001522487553621554</v>
       </c>
       <c r="H21" t="n">
-        <v>0.00456757198733794</v>
+        <v>-0.000305750156722906</v>
       </c>
       <c r="I21" t="n">
-        <v>0.08522794691484467</v>
+        <v>0.07964367563289203</v>
       </c>
       <c r="J21" t="n">
-        <v>0.3386214755916054</v>
+        <v>0.3288143450685608</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.2533935286767607</v>
+        <v>-0.2491706694356687</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.04217461749522755</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>2026Q1</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0.08630703486968017</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.08630703486968017</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.32447872542137</v>
-      </c>
-      <c r="E22" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="F22" t="n">
-        <v>20</v>
-      </c>
-      <c r="G22" t="n">
-        <v>-0.001851259228019153</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0.002713907923584821</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0.08324668330368494</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.33124848364475</v>
-      </c>
-      <c r="K22" t="n">
-        <v>-0.248001800341065</v>
-      </c>
-      <c r="L22" t="n">
-        <v>-0.05837277208437786</v>
+        <v>-0.04948174419764617</v>
       </c>
     </row>
   </sheetData>
@@ -3525,19 +3337,19 @@
         <v>11</v>
       </c>
       <c r="C2" t="n">
-        <v>0.07265703443460808</v>
+        <v>0.06666463133509602</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3550092605382657</v>
+        <v>0.3494259210895271</v>
       </c>
       <c r="E2" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.1756756756756757</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="H2" s="1" t="n">
         <v>44866</v>
@@ -3548,13 +3360,13 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>-0.004490587869141791</v>
+        <v>-0.001361767438951431</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.01547805327842655</v>
+        <v>-0.004850000698097379</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01098746540928476</v>
+        <v>0.003488233259145948</v>
       </c>
     </row>
     <row r="3">
@@ -3565,19 +3377,19 @@
         <v>12</v>
       </c>
       <c r="C3" t="n">
-        <v>0.08024417245993143</v>
+        <v>0.0716437900463907</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3527055712777869</v>
+        <v>0.3682168548144977</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>0.03508771929824561</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="H3" s="1" t="n">
         <v>44896</v>
@@ -3588,13 +3400,13 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>0.007587138025323348</v>
+        <v>0.004979158711294673</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.002303689260478803</v>
+        <v>0.01879093372497059</v>
       </c>
       <c r="L3" t="n">
-        <v>0.009890827285802151</v>
+        <v>-0.01381177501367592</v>
       </c>
     </row>
     <row r="4">
@@ -3605,19 +3417,19 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1036718632208449</v>
+        <v>0.07562864470356388</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3292622414165491</v>
+        <v>0.3470403452398279</v>
       </c>
       <c r="E4" t="n">
-        <v>0.03571428571428571</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="H4" s="1" t="n">
         <v>44927</v>
@@ -3628,13 +3440,13 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>0.02342769076091349</v>
+        <v>0.003984854657173187</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.02344332986123782</v>
+        <v>-0.02117650957466977</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0468710206221513</v>
+        <v>0.02516136423184295</v>
       </c>
     </row>
     <row r="5">
@@ -3645,19 +3457,19 @@
         <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07564185560251215</v>
+        <v>0.06717864227484054</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3682860288293009</v>
+        <v>0.3355353756300875</v>
       </c>
       <c r="E5" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.04</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="H5" s="1" t="n">
         <v>44958</v>
@@ -3668,13 +3480,13 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>-0.02803000761833277</v>
+        <v>-0.008450002428723347</v>
       </c>
       <c r="K5" t="n">
-        <v>0.03902378741275181</v>
+        <v>-0.0115049696097404</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.06705379503108458</v>
+        <v>0.003054967181017054</v>
       </c>
     </row>
     <row r="6">
@@ -3685,19 +3497,19 @@
         <v>3</v>
       </c>
       <c r="C6" t="n">
-        <v>0.07733731382928684</v>
+        <v>0.06788900230355974</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3509587301808116</v>
+        <v>0.3499862122945024</v>
       </c>
       <c r="E6" t="n">
-        <v>0.04444444444444445</v>
+        <v>0.06578947368421052</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="H6" s="1" t="n">
         <v>44986</v>
@@ -3708,13 +3520,13 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>0.001695458226774693</v>
+        <v>0.0007103600287192008</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.01732729864848931</v>
+        <v>0.01445083666441493</v>
       </c>
       <c r="L6" t="n">
-        <v>0.019022756875264</v>
+        <v>-0.01374047663569573</v>
       </c>
     </row>
     <row r="7">
@@ -3725,19 +3537,19 @@
         <v>4</v>
       </c>
       <c r="C7" t="n">
-        <v>0.08033588361898598</v>
+        <v>0.07049094664221751</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3543386882866427</v>
+        <v>0.3369916492116568</v>
       </c>
       <c r="E7" t="n">
-        <v>0.02173913043478261</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="H7" s="1" t="n">
         <v>45017</v>
@@ -3748,13 +3560,13 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>0.002998569789699146</v>
+        <v>0.002601944338657777</v>
       </c>
       <c r="K7" t="n">
-        <v>0.003379958105831138</v>
+        <v>-0.01299456308284569</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.000381388316131992</v>
+        <v>0.01559650742150347</v>
       </c>
     </row>
     <row r="8">
@@ -3765,19 +3577,19 @@
         <v>5</v>
       </c>
       <c r="C8" t="n">
-        <v>0.07992593285084001</v>
+        <v>0.06981545380295404</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3609545384573529</v>
+        <v>0.3454452689272047</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>0.1100917431192661</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>51</v>
+        <v>109</v>
       </c>
       <c r="H8" s="1" t="n">
         <v>45047</v>
@@ -3788,13 +3600,13 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>-0.0004099507681459696</v>
+        <v>-0.0006754928392634779</v>
       </c>
       <c r="K8" t="n">
-        <v>0.006615850170710202</v>
+        <v>0.008453619715547978</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.007025800938856172</v>
+        <v>-0.009129112554811455</v>
       </c>
     </row>
     <row r="9">
@@ -3805,19 +3617,19 @@
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>0.07872311560463693</v>
+        <v>0.06885573826815108</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3750546865192542</v>
+        <v>0.3513736635692506</v>
       </c>
       <c r="E9" t="n">
-        <v>0.01639344262295082</v>
+        <v>0.025</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>61</v>
+        <v>120</v>
       </c>
       <c r="H9" s="1" t="n">
         <v>45078</v>
@@ -3828,13 +3640,13 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>-0.001202817246203081</v>
+        <v>-0.0009597155348029518</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0141001480619013</v>
+        <v>0.005928394642045864</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.01530296530810438</v>
+        <v>-0.006888110176848816</v>
       </c>
     </row>
     <row r="10">
@@ -3845,10 +3657,10 @@
         <v>7</v>
       </c>
       <c r="C10" t="n">
-        <v>0.07730979525628033</v>
+        <v>0.06661860807729127</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3673767130217772</v>
+        <v>0.3402256740635567</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -3857,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>61</v>
+        <v>123</v>
       </c>
       <c r="H10" s="1" t="n">
         <v>45108</v>
@@ -3868,13 +3680,13 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>-0.001413320348356603</v>
+        <v>-0.002237130190859818</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.007677973497477064</v>
+        <v>-0.0111479895056939</v>
       </c>
       <c r="L10" t="n">
-        <v>0.006264653149120461</v>
+        <v>0.008910859314834083</v>
       </c>
     </row>
     <row r="11">
@@ -3885,10 +3697,10 @@
         <v>8</v>
       </c>
       <c r="C11" t="n">
-        <v>0.07591098169966093</v>
+        <v>0.06915030985774309</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3618764659088198</v>
+        <v>0.3445988584390825</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -3897,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>59</v>
+        <v>117</v>
       </c>
       <c r="H11" s="1" t="n">
         <v>45139</v>
@@ -3908,13 +3720,13 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>-0.001398813556619402</v>
+        <v>0.002531701780451825</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.005500247112957379</v>
+        <v>0.004373184375525807</v>
       </c>
       <c r="L11" t="n">
-        <v>0.004101433556337977</v>
+        <v>-0.001841482595073982</v>
       </c>
     </row>
     <row r="12">
@@ -3925,19 +3737,19 @@
         <v>9</v>
       </c>
       <c r="C12" t="n">
-        <v>0.07759663502489439</v>
+        <v>0.06842689572744329</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3161377640567014</v>
+        <v>0.3207895200330809</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>0.0125</v>
       </c>
       <c r="G12" t="n">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="H12" s="1" t="n">
         <v>45170</v>
@@ -3948,13 +3760,13 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>0.00168565332523346</v>
+        <v>-0.0007234141302998043</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.04573870185211837</v>
+        <v>-0.02380933840600163</v>
       </c>
       <c r="L12" t="n">
-        <v>0.04742435517735183</v>
+        <v>0.02308592427570183</v>
       </c>
     </row>
     <row r="13">
@@ -3965,10 +3777,10 @@
         <v>10</v>
       </c>
       <c r="C13" t="n">
-        <v>0.07578063591596414</v>
+        <v>0.06875106926131959</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3519340751118608</v>
+        <v>0.3476173515969872</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -3977,7 +3789,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="H13" s="1" t="n">
         <v>45200</v>
@@ -3988,13 +3800,13 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>-0.001815999108930252</v>
+        <v>0.0003241735338763013</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0357963110551594</v>
+        <v>0.02682783156390633</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.03761231016408965</v>
+        <v>-0.02650365803003003</v>
       </c>
     </row>
     <row r="14">
@@ -4005,10 +3817,10 @@
         <v>11</v>
       </c>
       <c r="C14" t="n">
-        <v>0.07994519688967744</v>
+        <v>0.0662885417788953</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3503925715153675</v>
+        <v>0.3344970079436997</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -4017,7 +3829,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="H14" s="1" t="n">
         <v>45231</v>
@@ -4028,13 +3840,13 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>0.004164560973713302</v>
+        <v>-0.002462527482424287</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.001541503596493299</v>
+        <v>-0.01312034365328746</v>
       </c>
       <c r="L14" t="n">
-        <v>0.005706064570206601</v>
+        <v>0.01065781617086317</v>
       </c>
     </row>
     <row r="15">
@@ -4045,10 +3857,10 @@
         <v>12</v>
       </c>
       <c r="C15" t="n">
-        <v>0.07985574730659925</v>
+        <v>0.06767962200517924</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3524250385845984</v>
+        <v>0.3483047453145723</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -4057,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>59</v>
+        <v>120</v>
       </c>
       <c r="H15" s="1" t="n">
         <v>45261</v>
@@ -4068,13 +3880,13 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>-8.944958307818829e-05</v>
+        <v>0.001391080226283939</v>
       </c>
       <c r="K15" t="n">
-        <v>0.002032467069230881</v>
+        <v>0.01380773737087254</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.002121916652309069</v>
+        <v>-0.0124166571445886</v>
       </c>
     </row>
     <row r="16">
@@ -4085,19 +3897,19 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>0.07903314941939465</v>
+        <v>0.0692020287685801</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3537709007728739</v>
+        <v>0.3499412730989324</v>
       </c>
       <c r="E16" t="n">
-        <v>0.01818181818181818</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>55</v>
+        <v>118</v>
       </c>
       <c r="H16" s="1" t="n">
         <v>45292</v>
@@ -4108,13 +3920,13 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>-0.0008225978872045958</v>
+        <v>0.00152240676340086</v>
       </c>
       <c r="K16" t="n">
-        <v>0.001345862188275482</v>
+        <v>0.001636527784360131</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.002168460075480078</v>
+        <v>-0.0001141210209592708</v>
       </c>
     </row>
     <row r="17">
@@ -4125,19 +3937,19 @@
         <v>2</v>
       </c>
       <c r="C17" t="n">
-        <v>0.07739815605307314</v>
+        <v>0.06865130677577988</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3420445843578494</v>
+        <v>0.3428649607596226</v>
       </c>
       <c r="E17" t="n">
-        <v>0.01851851851851852</v>
+        <v>0.02459016393442623</v>
       </c>
       <c r="F17" t="n">
-        <v>0.01851851851851852</v>
+        <v>0.00819672131147541</v>
       </c>
       <c r="G17" t="n">
-        <v>54</v>
+        <v>122</v>
       </c>
       <c r="H17" s="1" t="n">
         <v>45323</v>
@@ -4148,13 +3960,13 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>-0.001634993366321516</v>
+        <v>-0.000550721992800221</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.01172631641502447</v>
+        <v>-0.007076312339309776</v>
       </c>
       <c r="L17" t="n">
-        <v>0.01009132304870296</v>
+        <v>0.006525590346509555</v>
       </c>
     </row>
     <row r="18">
@@ -4165,19 +3977,19 @@
         <v>3</v>
       </c>
       <c r="C18" t="n">
-        <v>0.08172797566163724</v>
+        <v>0.07265896809177406</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3458658030655528</v>
+        <v>0.3442733592856235</v>
       </c>
       <c r="E18" t="n">
-        <v>0.01851851851851852</v>
+        <v>0.008771929824561403</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="H18" s="1" t="n">
         <v>45352</v>
@@ -4188,13 +4000,13 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>0.004329819608564101</v>
+        <v>0.004007661315994185</v>
       </c>
       <c r="K18" t="n">
-        <v>0.003821218707703411</v>
+        <v>0.001408398526000831</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0005086009008606895</v>
+        <v>0.002599262789993353</v>
       </c>
     </row>
     <row r="19">
@@ -4205,19 +4017,19 @@
         <v>4</v>
       </c>
       <c r="C19" t="n">
-        <v>0.07930739165505565</v>
+        <v>0.07019613084076981</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3387029578456585</v>
+        <v>0.3397803883523908</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.01886792452830189</v>
+        <v>0.008695652173913044</v>
       </c>
       <c r="G19" t="n">
-        <v>53</v>
+        <v>115</v>
       </c>
       <c r="H19" s="1" t="n">
         <v>45383</v>
@@ -4228,13 +4040,13 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>-0.002420584006581586</v>
+        <v>-0.002462837251004255</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.007162845219894298</v>
+        <v>-0.004492970933232643</v>
       </c>
       <c r="L19" t="n">
-        <v>0.004742261213312712</v>
+        <v>0.002030133682228388</v>
       </c>
     </row>
     <row r="20">
@@ -4245,10 +4057,10 @@
         <v>5</v>
       </c>
       <c r="C20" t="n">
-        <v>0.07774114937159438</v>
+        <v>0.06911633982639069</v>
       </c>
       <c r="D20" t="n">
-        <v>0.329522603801619</v>
+        <v>0.3401339628463841</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -4257,7 +4069,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="H20" s="1" t="n">
         <v>45413</v>
@@ -4268,13 +4080,13 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>-0.001566242283461278</v>
+        <v>-0.00107979101437912</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.009180354044039496</v>
+        <v>0.0003535744939932584</v>
       </c>
       <c r="L20" t="n">
-        <v>0.007614111760578218</v>
+        <v>-0.001433365508372378</v>
       </c>
     </row>
     <row r="21">
@@ -4285,10 +4097,10 @@
         <v>6</v>
       </c>
       <c r="C21" t="n">
-        <v>0.08089202309316977</v>
+        <v>0.07034770288536606</v>
       </c>
       <c r="D21" t="n">
-        <v>0.3236179438531883</v>
+        <v>0.3359556917641038</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -4297,7 +4109,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>57</v>
+        <v>118</v>
       </c>
       <c r="H21" s="1" t="n">
         <v>45444</v>
@@ -4308,13 +4120,13 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>0.003150873721575395</v>
+        <v>0.001231363058975365</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.005904659948430757</v>
+        <v>-0.004178271082280249</v>
       </c>
       <c r="L21" t="n">
-        <v>0.009055533670006152</v>
+        <v>0.005409634141255615</v>
       </c>
     </row>
     <row r="22">
@@ -4325,10 +4137,10 @@
         <v>7</v>
       </c>
       <c r="C22" t="n">
-        <v>0.08019647943031162</v>
+        <v>0.06836854505943094</v>
       </c>
       <c r="D22" t="n">
-        <v>0.3289255565021306</v>
+        <v>0.3350546216482919</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -4337,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>52</v>
+        <v>115</v>
       </c>
       <c r="H22" s="1" t="n">
         <v>45474</v>
@@ -4348,13 +4160,13 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>-0.0006955436628581502</v>
+        <v>-0.001979157825935121</v>
       </c>
       <c r="K22" t="n">
-        <v>0.005307612648942361</v>
+        <v>-0.0009010701158119749</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.006003156311800512</v>
+        <v>-0.001078087710123146</v>
       </c>
     </row>
     <row r="23">
@@ -4365,10 +4177,10 @@
         <v>8</v>
       </c>
       <c r="C23" t="n">
-        <v>0.07914641774857044</v>
+        <v>0.07238167875114146</v>
       </c>
       <c r="D23" t="n">
-        <v>0.327788031844398</v>
+        <v>0.3306082554152181</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -4377,7 +4189,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>57</v>
+        <v>113</v>
       </c>
       <c r="H23" s="1" t="n">
         <v>45505</v>
@@ -4388,13 +4200,13 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>-0.001050061681741182</v>
+        <v>0.004013133691710524</v>
       </c>
       <c r="K23" t="n">
-        <v>-0.001137524657732591</v>
+        <v>-0.004446366233073762</v>
       </c>
       <c r="L23" t="n">
-        <v>8.746297599140918e-05</v>
+        <v>0.008459499924784286</v>
       </c>
     </row>
     <row r="24">
@@ -4405,10 +4217,10 @@
         <v>9</v>
       </c>
       <c r="C24" t="n">
-        <v>0.07886109171885379</v>
+        <v>0.07236621023737261</v>
       </c>
       <c r="D24" t="n">
-        <v>0.3248936912904133</v>
+        <v>0.3317963080100801</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -4417,7 +4229,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>55</v>
+        <v>107</v>
       </c>
       <c r="H24" s="1" t="n">
         <v>45536</v>
@@ -4428,13 +4240,13 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>-0.0002853260297166482</v>
+        <v>-1.54685137688515e-05</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.002894340553984742</v>
+        <v>0.001188052594862044</v>
       </c>
       <c r="L24" t="n">
-        <v>0.002609014524268094</v>
+        <v>-0.001203521108630895</v>
       </c>
     </row>
     <row r="25">
@@ -4445,19 +4257,19 @@
         <v>10</v>
       </c>
       <c r="C25" t="n">
-        <v>0.080283768134963</v>
+        <v>0.06977165125490409</v>
       </c>
       <c r="D25" t="n">
-        <v>0.3377624840895827</v>
+        <v>0.336363195876361</v>
       </c>
       <c r="E25" t="n">
-        <v>0.01785714285714286</v>
+        <v>0.008849557522123894</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="H25" s="1" t="n">
         <v>45566</v>
@@ -4468,13 +4280,13 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>0.001422676416109214</v>
+        <v>-0.00259455898246852</v>
       </c>
       <c r="K25" t="n">
-        <v>0.01286879279916942</v>
+        <v>0.0045668878662809</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.0114461163830602</v>
+        <v>-0.00716144684874942</v>
       </c>
     </row>
     <row r="26">
@@ -4485,19 +4297,19 @@
         <v>11</v>
       </c>
       <c r="C26" t="n">
-        <v>0.08272498982208577</v>
+        <v>0.07549432552271544</v>
       </c>
       <c r="D26" t="n">
-        <v>0.3340780537858606</v>
+        <v>0.336022804132421</v>
       </c>
       <c r="E26" t="n">
-        <v>0.01754385964912281</v>
+        <v>0.008547008547008548</v>
       </c>
       <c r="F26" t="n">
-        <v>0.01754385964912281</v>
+        <v>0.008547008547008548</v>
       </c>
       <c r="G26" t="n">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="H26" s="1" t="n">
         <v>45597</v>
@@ -4508,13 +4320,13 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>0.002441221687122769</v>
+        <v>0.005722674267811353</v>
       </c>
       <c r="K26" t="n">
-        <v>-0.003684430303722064</v>
+        <v>-0.0003403917439400717</v>
       </c>
       <c r="L26" t="n">
-        <v>0.006125651990844833</v>
+        <v>0.006063066011751425</v>
       </c>
     </row>
     <row r="27">
@@ -4525,19 +4337,19 @@
         <v>12</v>
       </c>
       <c r="C27" t="n">
-        <v>0.08776340837403536</v>
+        <v>0.08000898619252977</v>
       </c>
       <c r="D27" t="n">
-        <v>0.3316405409672215</v>
+        <v>0.3337567307089706</v>
       </c>
       <c r="E27" t="n">
-        <v>0.01923076923076923</v>
+        <v>0.009900990099009901</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>52</v>
+        <v>101</v>
       </c>
       <c r="H27" s="1" t="n">
         <v>45627</v>
@@ -4548,13 +4360,13 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>0.005038418551949586</v>
+        <v>0.004514660669814333</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.002437512818639131</v>
+        <v>-0.002266073423450421</v>
       </c>
       <c r="L27" t="n">
-        <v>0.007475931370588718</v>
+        <v>0.006780734093264754</v>
       </c>
     </row>
     <row r="28">
@@ -4565,10 +4377,10 @@
         <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>0.08332333842603504</v>
+        <v>0.07851122584707838</v>
       </c>
       <c r="D28" t="n">
-        <v>0.3349916759590378</v>
+        <v>0.3365026061467711</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -4577,7 +4389,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="H28" s="1" t="n">
         <v>45658</v>
@@ -4588,13 +4400,13 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>-0.004440069948000322</v>
+        <v>-0.00149776034545139</v>
       </c>
       <c r="K28" t="n">
-        <v>0.003351134991816274</v>
+        <v>0.002745875437800527</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.007791204939816596</v>
+        <v>-0.004243635783251917</v>
       </c>
     </row>
     <row r="29">
@@ -4605,10 +4417,10 @@
         <v>2</v>
       </c>
       <c r="C29" t="n">
-        <v>0.08420133282480168</v>
+        <v>0.07525307947806105</v>
       </c>
       <c r="D29" t="n">
-        <v>0.3346106882293381</v>
+        <v>0.3355641018733398</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -4617,7 +4429,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="H29" s="1" t="n">
         <v>45689</v>
@@ -4628,13 +4440,13 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>0.0008779943987666378</v>
+        <v>-0.003258146369017334</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.0003809877296996333</v>
+        <v>-0.0009385042734312843</v>
       </c>
       <c r="L29" t="n">
-        <v>0.001258982128466271</v>
+        <v>-0.00231964209558605</v>
       </c>
     </row>
     <row r="30">
@@ -4645,10 +4457,10 @@
         <v>3</v>
       </c>
       <c r="C30" t="n">
-        <v>0.08325470958744935</v>
+        <v>0.07554591777752322</v>
       </c>
       <c r="D30" t="n">
-        <v>0.3319148267727332</v>
+        <v>0.3288132316786587</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -4657,7 +4469,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>52</v>
+        <v>103</v>
       </c>
       <c r="H30" s="1" t="n">
         <v>45717</v>
@@ -4668,13 +4480,13 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>-0.0009466232373523259</v>
+        <v>0.000292838299462167</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.002695861456604942</v>
+        <v>-0.006750870194681069</v>
       </c>
       <c r="L30" t="n">
-        <v>0.001749238219252616</v>
+        <v>0.007043708494143236</v>
       </c>
     </row>
     <row r="31">
@@ -4685,10 +4497,10 @@
         <v>4</v>
       </c>
       <c r="C31" t="n">
-        <v>0.08220372970095687</v>
+        <v>0.07408905147441294</v>
       </c>
       <c r="D31" t="n">
-        <v>0.3402230976966662</v>
+        <v>0.3309772747393656</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -4697,7 +4509,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c r="H31" s="1" t="n">
         <v>45748</v>
@@ -4708,13 +4520,13 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>-0.001050979886492484</v>
+        <v>-0.001456866303110274</v>
       </c>
       <c r="K31" t="n">
-        <v>0.008308270923932992</v>
+        <v>0.002164043060706888</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.009359250810425476</v>
+        <v>-0.003620909363817162</v>
       </c>
     </row>
     <row r="32">
@@ -4725,10 +4537,10 @@
         <v>5</v>
       </c>
       <c r="C32" t="n">
-        <v>0.09139318378266678</v>
+        <v>0.07878993229028315</v>
       </c>
       <c r="D32" t="n">
-        <v>0.3371553934952743</v>
+        <v>0.3264111933362299</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -4737,7 +4549,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>57</v>
+        <v>121</v>
       </c>
       <c r="H32" s="1" t="n">
         <v>45778</v>
@@ -4748,13 +4560,13 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>0.009189454081709916</v>
+        <v>0.004700880815870209</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.003067704201391852</v>
+        <v>-0.004566081403135691</v>
       </c>
       <c r="L32" t="n">
-        <v>0.01225715828310177</v>
+        <v>0.0092669622190059</v>
       </c>
     </row>
     <row r="33">
@@ -4765,10 +4577,10 @@
         <v>6</v>
       </c>
       <c r="C33" t="n">
-        <v>0.09123373511324709</v>
+        <v>0.08009321248687952</v>
       </c>
       <c r="D33" t="n">
-        <v>0.3347827200763113</v>
+        <v>0.3255111516939082</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -4777,7 +4589,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>55</v>
+        <v>111</v>
       </c>
       <c r="H33" s="1" t="n">
         <v>45809</v>
@@ -4788,13 +4600,13 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>-0.0001594486694196928</v>
+        <v>0.001303280196596368</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.002372673418963078</v>
+        <v>-0.0009000416423217139</v>
       </c>
       <c r="L33" t="n">
-        <v>0.002213224749543385</v>
+        <v>0.002203321838918082</v>
       </c>
     </row>
     <row r="34">
@@ -4805,10 +4617,10 @@
         <v>7</v>
       </c>
       <c r="C34" t="n">
-        <v>0.09045466611176947</v>
+        <v>0.08175562854432269</v>
       </c>
       <c r="D34" t="n">
-        <v>0.334268106043301</v>
+        <v>0.3320350657822856</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -4817,7 +4629,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>60</v>
+        <v>117</v>
       </c>
       <c r="H34" s="1" t="n">
         <v>45839</v>
@@ -4828,13 +4640,13 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>-0.0007790690014776169</v>
+        <v>0.001662416057443175</v>
       </c>
       <c r="K34" t="n">
-        <v>-0.0005146140330102855</v>
+        <v>0.006523914088377381</v>
       </c>
       <c r="L34" t="n">
-        <v>-0.0002644549684673314</v>
+        <v>-0.004861498030934205</v>
       </c>
     </row>
     <row r="35">
@@ -4845,19 +4657,19 @@
         <v>8</v>
       </c>
       <c r="C35" t="n">
-        <v>0.09233435348466849</v>
+        <v>0.08033508692007767</v>
       </c>
       <c r="D35" t="n">
-        <v>0.3305868084124318</v>
+        <v>0.3231233378866629</v>
       </c>
       <c r="E35" t="n">
-        <v>0.01923076923076923</v>
+        <v>0.008928571428571428</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>52</v>
+        <v>112</v>
       </c>
       <c r="H35" s="1" t="n">
         <v>45870</v>
@@ -4868,13 +4680,13 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>0.001879687372899022</v>
+        <v>-0.001420541624245028</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.003681297630869163</v>
+        <v>-0.008911727895622668</v>
       </c>
       <c r="L35" t="n">
-        <v>0.005560985003768185</v>
+        <v>0.007491186271377639</v>
       </c>
     </row>
     <row r="36">
@@ -4885,10 +4697,10 @@
         <v>9</v>
       </c>
       <c r="C36" t="n">
-        <v>0.08871405419373826</v>
+        <v>0.07990898262768628</v>
       </c>
       <c r="D36" t="n">
-        <v>0.335935970944121</v>
+        <v>0.3255008475891831</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -4897,7 +4709,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="H36" s="1" t="n">
         <v>45901</v>
@@ -4908,13 +4720,13 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>-0.003620299290930232</v>
+        <v>-0.0004261042923913855</v>
       </c>
       <c r="K36" t="n">
-        <v>0.005349162531689156</v>
+        <v>0.002377509702520153</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.008969461822619387</v>
+        <v>-0.002803613994911539</v>
       </c>
     </row>
     <row r="37">
@@ -4925,10 +4737,10 @@
         <v>10</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0874827043339992</v>
+        <v>0.07562898582958874</v>
       </c>
       <c r="D37" t="n">
-        <v>0.3311474611394578</v>
+        <v>0.3230001070332048</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -4937,7 +4749,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="H37" s="1" t="n">
         <v>45931</v>
@@ -4948,13 +4760,13 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>-0.001231349859739064</v>
+        <v>-0.004279996798097541</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.004788509804663221</v>
+        <v>-0.002500740555978265</v>
       </c>
       <c r="L37" t="n">
-        <v>0.003557159944924157</v>
+        <v>-0.001779256242119276</v>
       </c>
     </row>
     <row r="38">
@@ -4965,10 +4777,10 @@
         <v>11</v>
       </c>
       <c r="C38" t="n">
-        <v>0.09151024765052052</v>
+        <v>0.0768582124221997</v>
       </c>
       <c r="D38" t="n">
-        <v>0.3471800979893205</v>
+        <v>0.3241429202865784</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -4977,7 +4789,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="H38" s="1" t="n">
         <v>45962</v>
@@ -4988,13 +4800,13 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>0.004027543316521318</v>
+        <v>0.00122922659261096</v>
       </c>
       <c r="K38" t="n">
-        <v>0.01603263684986272</v>
+        <v>0.001142813253373565</v>
       </c>
       <c r="L38" t="n">
-        <v>-0.01200509353334141</v>
+        <v>8.641333923739558e-05</v>
       </c>
     </row>
     <row r="39">
@@ -5005,19 +4817,19 @@
         <v>12</v>
       </c>
       <c r="C39" t="n">
-        <v>0.08548193030857827</v>
+        <v>0.07636252064679194</v>
       </c>
       <c r="D39" t="n">
-        <v>0.3229916485934432</v>
+        <v>0.3209307787192921</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.02325581395348837</v>
+        <v>0.01162790697674419</v>
       </c>
       <c r="G39" t="n">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="H39" s="1" t="n">
         <v>45992</v>
@@ -5028,13 +4840,13 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>-0.006028317341942244</v>
+        <v>-0.0004956917754077583</v>
       </c>
       <c r="K39" t="n">
-        <v>-0.02418844939587728</v>
+        <v>-0.003212141567286275</v>
       </c>
       <c r="L39" t="n">
-        <v>0.01816013205393503</v>
+        <v>0.002716449791878517</v>
       </c>
     </row>
     <row r="40">
@@ -5045,19 +4857,19 @@
         <v>1</v>
       </c>
       <c r="C40" t="n">
-        <v>0.08823336118727994</v>
+        <v>0.07846012122429639</v>
       </c>
       <c r="D40" t="n">
-        <v>0.3254898382552577</v>
+        <v>0.3223841845382598</v>
       </c>
       <c r="E40" t="n">
-        <v>0.01639344262295082</v>
+        <v>0.008771929824561403</v>
       </c>
       <c r="F40" t="n">
-        <v>0.01639344262295082</v>
+        <v>0.008771929824561403</v>
       </c>
       <c r="G40" t="n">
-        <v>59</v>
+        <v>112</v>
       </c>
       <c r="H40" s="1" t="n">
         <v>46023</v>
@@ -5068,13 +4880,13 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>0.002751430878701666</v>
+        <v>0.002097600577504452</v>
       </c>
       <c r="K40" t="n">
-        <v>0.002498189661814476</v>
+        <v>0.001453405818967746</v>
       </c>
       <c r="L40" t="n">
-        <v>0.00025324121688719</v>
+        <v>0.0006441947585367064</v>
       </c>
     </row>
     <row r="41">
@@ -5085,10 +4897,10 @@
         <v>2</v>
       </c>
       <c r="C41" t="n">
-        <v>0.08438070855208041</v>
+        <v>0.07380186053069956</v>
       </c>
       <c r="D41" t="n">
-        <v>0.3234676125874823</v>
+        <v>0.3111892825820786</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -5097,7 +4909,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="H41" s="1" t="n">
         <v>46054</v>
@@ -5108,13 +4920,13 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>-0.00385265263519953</v>
+        <v>-0.00465826069359683</v>
       </c>
       <c r="K41" t="n">
-        <v>-0.002022225667775379</v>
+        <v>-0.01119490195618122</v>
       </c>
       <c r="L41" t="n">
-        <v>-0.001830426967424151</v>
+        <v>0.006536641262584394</v>
       </c>
     </row>
   </sheetData>
@@ -5205,10 +5017,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.07852719337074694</v>
+        <v>0.06757307768179804</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3515838950706089</v>
+        <v>0.3434730349517531</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -5217,22 +5029,22 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>55.33333333333334</v>
+        <v>113</v>
       </c>
       <c r="G2" t="n">
-        <v>0.001588056043801717</v>
+        <v>-0.0004921935390278381</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00312024740817618</v>
+        <v>0.008268350773179778</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.001532191364374463</v>
+        <v>-0.008760544312207616</v>
       </c>
       <c r="J2" t="n">
-        <v>0.002076589923477187</v>
+        <v>-0.001581133008945315</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.002273520837417387</v>
+        <v>-0.01534835300025922</v>
       </c>
       <c r="L2" t="inlineStr"/>
     </row>
@@ -5243,37 +5055,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.07938642704470168</v>
+        <v>0.07017076787871135</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3472270960654253</v>
+        <v>0.3456931977147262</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01840628507295174</v>
+        <v>0.01112069791966254</v>
       </c>
       <c r="E3" t="n">
-        <v>0.006172839506172839</v>
+        <v>0.00273224043715847</v>
       </c>
       <c r="F3" t="n">
-        <v>54.33333333333334</v>
+        <v>118</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0008592336739547402</v>
+        <v>0.002597690196913305</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.004356799005183598</v>
+        <v>0.002220162762973044</v>
       </c>
       <c r="I3" t="n">
-        <v>0.005216032679138338</v>
+        <v>0.0003775274339402612</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.006163917172846284</v>
+        <v>-6.132854861003179e-05</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.002275237410128528</v>
+        <v>0.001505886659920241</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.00823879052361233</v>
+        <v>-0.01533443519984418</v>
       </c>
     </row>
     <row r="4">
@@ -5283,37 +5095,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.07931352137327326</v>
+        <v>0.06988672451750885</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3306145018334886</v>
+        <v>0.3386233476542929</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.006289308176100628</v>
+        <v>0.002898550724637681</v>
       </c>
       <c r="F4" t="n">
-        <v>55.66666666666666</v>
+        <v>116.6666666666667</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.290567142842486e-05</v>
+        <v>-0.0002840433612024962</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.01661259423193678</v>
+        <v>-0.007069850060433314</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01653968856050836</v>
+        <v>0.006785806699230817</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.0003481226515477109</v>
+        <v>0.000166011613067979</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.03283480258759475</v>
+        <v>-0.00598017958174446</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03637535969876479</v>
+        <v>0.007713406403342712</v>
       </c>
     </row>
     <row r="5">
@@ -5323,10 +5135,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.07940132963257862</v>
+        <v>0.071038811349315</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3272024265456473</v>
+        <v>0.33248639502453</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -5335,25 +5147,25 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>54.66666666666666</v>
+        <v>111.6666666666667</v>
       </c>
       <c r="G5" t="n">
-        <v>8.780825930536362e-05</v>
+        <v>0.001152086831806148</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.003412075287841265</v>
+        <v>-0.006136952629762826</v>
       </c>
       <c r="I5" t="n">
-        <v>0.003499883547146629</v>
+        <v>0.007289039461568975</v>
       </c>
       <c r="J5" t="n">
-        <v>0.002462192305633396</v>
+        <v>0.002973540128489119</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.02126122111678547</v>
+        <v>-0.002718289154043319</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.008763266513628173</v>
+        <v>-0.0004543619122800019</v>
       </c>
     </row>
     <row r="6">
@@ -5363,37 +5175,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.08359072211036138</v>
+        <v>0.07509165432338311</v>
       </c>
       <c r="C6" t="n">
-        <v>0.334493692947555</v>
+        <v>0.3353809102392509</v>
       </c>
       <c r="D6" t="n">
-        <v>0.01821059057901163</v>
+        <v>0.00909918538938078</v>
       </c>
       <c r="E6" t="n">
-        <v>0.005847953216374269</v>
+        <v>0.002849002849002849</v>
       </c>
       <c r="F6" t="n">
-        <v>55</v>
+        <v>110.3333333333333</v>
       </c>
       <c r="G6" t="n">
-        <v>0.004189392477782758</v>
+        <v>0.004052842974068105</v>
       </c>
       <c r="H6" t="n">
-        <v>0.007291266401907692</v>
+        <v>0.002894515214720839</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.003101873924124934</v>
+        <v>0.001158327759347266</v>
       </c>
       <c r="J6" t="n">
-        <v>0.005063528739614437</v>
+        <v>0.007518576641585062</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.01709020212305395</v>
+        <v>-0.008092124712502258</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.001569682559750471</v>
+        <v>0.009918872071554882</v>
       </c>
     </row>
     <row r="7">
@@ -5403,10 +5215,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.08359312694609534</v>
+        <v>0.07643674103422088</v>
       </c>
       <c r="C7" t="n">
-        <v>0.333839063653703</v>
+        <v>0.3336266465662565</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -5415,25 +5227,25 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>49.33333333333334</v>
+        <v>94.66666666666667</v>
       </c>
       <c r="G7" t="n">
-        <v>2.40483573396566e-06</v>
+        <v>0.001345086710837773</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.0006546292938519604</v>
+        <v>-0.001754263672994361</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0006570341295859261</v>
+        <v>0.003099350383832133</v>
       </c>
       <c r="J7" t="n">
-        <v>0.004206699901393662</v>
+        <v>0.00626597315550953</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.01338803241172232</v>
+        <v>-0.01206655114846966</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.004558998549552412</v>
+        <v>0.002721822949891872</v>
       </c>
     </row>
     <row r="8">
@@ -5443,10 +5255,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.08827688286562357</v>
+        <v>0.0776573987505252</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3373870704227506</v>
+        <v>0.3276332065898346</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -5455,25 +5267,25 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>56</v>
+        <v>115.3333333333333</v>
       </c>
       <c r="G8" t="n">
-        <v>0.004683755919528229</v>
+        <v>0.001220657716304321</v>
       </c>
       <c r="H8" t="n">
-        <v>0.003548006769047596</v>
+        <v>-0.005993439976421933</v>
       </c>
       <c r="I8" t="n">
-        <v>0.001135749150480633</v>
+        <v>0.007214097692726254</v>
       </c>
       <c r="J8" t="n">
-        <v>0.008963361492350316</v>
+        <v>0.007770674233016348</v>
       </c>
       <c r="K8" t="n">
-        <v>0.006772568589262062</v>
+        <v>-0.01099014106445828</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.01540393941002773</v>
+        <v>0.0004282909934954365</v>
       </c>
     </row>
     <row r="9">
@@ -5483,37 +5295,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.09050102459672542</v>
+        <v>0.08066656603069555</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3335969617999512</v>
+        <v>0.3268864170860439</v>
       </c>
       <c r="D9" t="n">
-        <v>0.006410256410256411</v>
+        <v>0.002976190476190476</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>51.33333333333334</v>
+        <v>100</v>
       </c>
       <c r="G9" t="n">
-        <v>0.002224141731101845</v>
+        <v>0.003009167280170352</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.003790108622799382</v>
+        <v>-0.0007467895037907013</v>
       </c>
       <c r="I9" t="n">
-        <v>0.006014250353901227</v>
+        <v>0.003755956783961054</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0110996949641468</v>
+        <v>0.009627754681380551</v>
       </c>
       <c r="K9" t="n">
-        <v>0.006394535254303946</v>
+        <v>-0.005599977938486156</v>
       </c>
       <c r="L9" t="n">
-        <v>0.002514366806754598</v>
+        <v>-0.003533082677607921</v>
       </c>
     </row>
     <row r="10">
@@ -5523,37 +5335,37 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.08815829409769933</v>
+        <v>0.07628323963286013</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3337730692407405</v>
+        <v>0.3226912686796917</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.007751937984496124</v>
+        <v>0.003875968992248062</v>
       </c>
       <c r="F10" t="n">
-        <v>41</v>
+        <v>72.33333333333333</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.002342730499026086</v>
+        <v>-0.004383326397835424</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0001761074407892749</v>
+        <v>-0.004195148406352156</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.00251883793981536</v>
+        <v>-0.0001881779914832682</v>
       </c>
       <c r="J10" t="n">
-        <v>0.004567571987337954</v>
+        <v>0.001191585309477022</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.0007206237068144716</v>
+        <v>-0.01268964155955915</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0005830359843095739</v>
+        <v>-0.001346505750830534</v>
       </c>
     </row>
     <row r="11">
@@ -5563,37 +5375,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.08630703486968017</v>
+        <v>0.07613099087749797</v>
       </c>
       <c r="C11" t="n">
-        <v>0.32447872542137</v>
+        <v>0.3167867335601692</v>
       </c>
       <c r="D11" t="n">
-        <v>0.00819672131147541</v>
+        <v>0.004385964912280702</v>
       </c>
       <c r="E11" t="n">
-        <v>0.00819672131147541</v>
+        <v>0.004385964912280702</v>
       </c>
       <c r="F11" t="n">
-        <v>34.5</v>
+        <v>65.5</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.001851259228019167</v>
+        <v>-0.0001522487553621554</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.009294343819370499</v>
+        <v>-0.005904535119522492</v>
       </c>
       <c r="I11" t="n">
-        <v>0.007443084591351332</v>
+        <v>0.005752286364160336</v>
       </c>
       <c r="J11" t="n">
-        <v>0.002713907923584821</v>
+        <v>-0.000305750156722906</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.00936033823233301</v>
+        <v>-0.01683991300608728</v>
       </c>
       <c r="L11" t="n">
-        <v>0.006786050461765405</v>
+        <v>0.002652935980328203</v>
       </c>
     </row>
   </sheetData>
